--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60472D77-2282-4AD9-A5DC-1179AE66BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE41FD4-9F03-42BF-AA04-F929A10A74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18670" yWindow="670" windowWidth="18400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
@@ -174,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,15 +184,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,6 +201,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,8 +503,8 @@
   </sheetPr>
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -506,1415 +513,1415 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="8">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9">
         <v>0.2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <f>C4*D4</f>
         <v>3.6</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f>E4</f>
         <v>3.6</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <f>D4*36</f>
         <v>7.2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <f>G4-F4</f>
         <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="8">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
         <v>0.4</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <f t="shared" ref="E5:E7" si="0">C5*D5</f>
         <v>7.2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f>E5+F4</f>
         <v>10.8</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G7" si="1">D5*36</f>
         <v>14.4</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <f>G5-F5</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f t="shared" ref="F6:F7" si="2">E6+F5</f>
         <v>28.8</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H7" si="3">G6-F6</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="8">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
         <v>64.8</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <f t="shared" si="3"/>
         <v>7.2000000000000028</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="8">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <f t="shared" ref="E8:E9" si="4">C8*D8</f>
         <v>90</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f t="shared" ref="F8:F9" si="5">E8+F7</f>
         <v>154.80000000000001</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <f t="shared" ref="G8:G9" si="6">D8*36</f>
         <v>180</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <f t="shared" ref="H8:H9" si="7">G8-F8</f>
         <v>25.199999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="8">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f t="shared" si="5"/>
         <v>334.8</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <f t="shared" si="7"/>
         <v>25.199999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="11">
-        <v>18</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="8">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9">
         <v>0.4</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <f>C14*D14</f>
         <v>7.2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f>E14</f>
         <v>7.2</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <f>D14*36</f>
         <v>14.4</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <f>G14-F14</f>
         <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="11">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="8">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9">
         <v>0.8</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <f t="shared" ref="E15:E17" si="8">C15*D15</f>
         <v>14.4</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>E15+F14</f>
         <v>21.6</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <f t="shared" ref="G15:G17" si="9">D15*36</f>
         <v>28.8</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <f>G15-F15</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="11">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="8">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f t="shared" ref="F16:F17" si="10">E16+F15</f>
         <v>57.6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <f t="shared" ref="H16:H17" si="11">G16-F16</f>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="11">
-        <v>18</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9">
         <v>4</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f t="shared" si="10"/>
         <v>129.6</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <f t="shared" si="9"/>
         <v>144</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <f t="shared" si="11"/>
         <v>14.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="11">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C18" s="8">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9">
         <v>10</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <f t="shared" ref="E18:E19" si="12">C18*D18</f>
         <v>180</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f t="shared" ref="F18:F19" si="13">E18+F17</f>
         <v>309.60000000000002</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <f t="shared" ref="G18:G19" si="14">D18*36</f>
         <v>360</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <f t="shared" ref="H18:H19" si="15">G18-F18</f>
         <v>50.399999999999977</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="11">
-        <v>18</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
         <v>20</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <f t="shared" si="12"/>
         <v>360</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <f t="shared" si="13"/>
         <v>669.6</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <f t="shared" si="14"/>
         <v>720</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="10">
         <f t="shared" si="15"/>
         <v>50.399999999999977</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="11">
-        <v>18</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C24" s="8">
+        <v>18</v>
+      </c>
+      <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <f>C24*D24</f>
         <v>18</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <f>E24</f>
         <v>18</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <f>D24*36</f>
         <v>36</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="8">
         <f>G24-F24</f>
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8">
         <v>2</v>
       </c>
-      <c r="C25" s="11">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C25" s="8">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9">
         <v>2</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <f t="shared" ref="E25:E27" si="16">C25*D25</f>
         <v>36</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <f>E25+F24</f>
         <v>54</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="8">
         <f t="shared" ref="G25:G27" si="17">D25*36</f>
         <v>72</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="10">
         <f>G25-F25</f>
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8">
         <v>3</v>
       </c>
-      <c r="C26" s="11">
-        <v>18</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C26" s="8">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <f t="shared" si="16"/>
         <v>90</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f t="shared" ref="F26:F27" si="18">E26+F25</f>
         <v>144</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="8">
         <f t="shared" si="17"/>
         <v>180</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="8">
         <f t="shared" ref="H26:H27" si="19">G26-F26</f>
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8">
         <v>4</v>
       </c>
-      <c r="C27" s="11">
-        <v>18</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C27" s="8">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9">
         <v>10</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <f t="shared" si="16"/>
         <v>180</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="10">
         <f t="shared" si="18"/>
         <v>324</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="8">
         <f t="shared" si="17"/>
         <v>360</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="10">
         <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8">
         <v>5</v>
       </c>
-      <c r="C28" s="11">
-        <v>18</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C28" s="8">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9">
         <v>20</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <f t="shared" ref="E28:E29" si="20">C28*D28</f>
         <v>360</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <f t="shared" ref="F28:F29" si="21">E28+F27</f>
         <v>684</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="8">
         <f t="shared" ref="G28:G29" si="22">D28*36</f>
         <v>720</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="10">
         <f t="shared" ref="H28:H29" si="23">G28-F28</f>
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8">
         <v>6</v>
       </c>
-      <c r="C29" s="11">
-        <v>18</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="8">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9">
         <v>50</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <f t="shared" si="20"/>
         <v>900</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="10">
         <f t="shared" si="21"/>
         <v>1584</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="8">
         <f t="shared" si="22"/>
         <v>1800</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="10">
         <f t="shared" si="23"/>
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="11">
-        <v>18</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C34" s="8">
+        <v>18</v>
+      </c>
+      <c r="D34" s="9">
         <v>2</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="8">
         <f>C34*D34</f>
         <v>36</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <f>E34</f>
         <v>36</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="8">
         <f>D34*36</f>
         <v>72</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="8">
         <f>G34-F34</f>
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" s="11">
-        <v>18</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C35" s="8">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9">
         <v>4</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="8">
         <f t="shared" ref="E35:E37" si="24">C35*D35</f>
         <v>72</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <f>E35+F34</f>
         <v>108</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="8">
         <f t="shared" ref="G35:G37" si="25">D35*36</f>
         <v>144</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="10">
         <f>G35-F35</f>
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8">
         <v>3</v>
       </c>
-      <c r="C36" s="11">
-        <v>18</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C36" s="8">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9">
         <v>10</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="8">
         <f t="shared" si="24"/>
         <v>180</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <f t="shared" ref="F36:F37" si="26">E36+F35</f>
         <v>288</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="8">
         <f t="shared" si="25"/>
         <v>360</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="8">
         <f t="shared" ref="H36:H37" si="27">G36-F36</f>
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8">
         <v>4</v>
       </c>
-      <c r="C37" s="11">
-        <v>18</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="C37" s="8">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9">
         <v>20</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <f t="shared" si="24"/>
         <v>360</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="10">
         <f t="shared" si="26"/>
         <v>648</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="8">
         <f t="shared" si="25"/>
         <v>720</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="10">
         <f t="shared" si="27"/>
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8">
         <v>5</v>
       </c>
-      <c r="C38" s="11">
-        <v>18</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="C38" s="8">
+        <v>18</v>
+      </c>
+      <c r="D38" s="9">
         <v>50</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="8">
         <f t="shared" ref="E38:E39" si="28">C38*D38</f>
         <v>900</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="10">
         <f t="shared" ref="F38:F39" si="29">E38+F37</f>
         <v>1548</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="8">
         <f t="shared" ref="G38:G39" si="30">D38*36</f>
         <v>1800</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="8">
         <f t="shared" ref="H38:H39" si="31">G38-F38</f>
         <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8">
         <v>6</v>
       </c>
-      <c r="C39" s="11">
-        <v>18</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="C39" s="8">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9">
         <v>100</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="8">
         <f t="shared" si="28"/>
         <v>1800</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="10">
         <f t="shared" si="29"/>
         <v>3348</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="8">
         <f t="shared" si="30"/>
         <v>3600</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="10">
         <f t="shared" si="31"/>
         <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="11">
-        <v>18</v>
-      </c>
-      <c r="D44" s="12">
+      <c r="C44" s="8">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9">
         <v>5</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="8">
         <f>C44*D44</f>
         <v>90</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="10">
         <f>E44</f>
         <v>90</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="8">
         <f>D44*36</f>
         <v>180</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="8">
         <f>G44-F44</f>
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8">
         <v>2</v>
       </c>
-      <c r="C45" s="11">
-        <v>18</v>
-      </c>
-      <c r="D45" s="12">
+      <c r="C45" s="8">
+        <v>18</v>
+      </c>
+      <c r="D45" s="9">
         <v>8</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="8">
         <f t="shared" ref="E45:E47" si="32">C45*D45</f>
         <v>144</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="10">
         <f>E45+F44</f>
         <v>234</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="8">
         <f t="shared" ref="G45:G47" si="33">D45*36</f>
         <v>288</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="10">
         <f>G45-F45</f>
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8">
         <v>3</v>
       </c>
-      <c r="C46" s="11">
-        <v>18</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="C46" s="8">
+        <v>18</v>
+      </c>
+      <c r="D46" s="9">
         <v>20</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="8">
         <f t="shared" si="32"/>
         <v>360</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="10">
         <f t="shared" ref="F46:F47" si="34">E46+F45</f>
         <v>594</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="8">
         <f t="shared" si="33"/>
         <v>720</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="8">
         <f t="shared" ref="H46:H47" si="35">G46-F46</f>
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8">
         <v>4</v>
       </c>
-      <c r="C47" s="11">
-        <v>18</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="C47" s="8">
+        <v>18</v>
+      </c>
+      <c r="D47" s="9">
         <v>40</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="8">
         <f t="shared" si="32"/>
         <v>720</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="10">
         <f t="shared" si="34"/>
         <v>1314</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="8">
         <f t="shared" si="33"/>
         <v>1440</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="10">
         <f t="shared" si="35"/>
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8">
         <v>5</v>
       </c>
-      <c r="C48" s="11">
-        <v>18</v>
-      </c>
-      <c r="D48" s="12">
+      <c r="C48" s="8">
+        <v>18</v>
+      </c>
+      <c r="D48" s="9">
         <v>100</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="8">
         <f t="shared" ref="E48:E49" si="36">C48*D48</f>
         <v>1800</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="10">
         <f t="shared" ref="F48:F49" si="37">E48+F47</f>
         <v>3114</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="8">
         <f t="shared" ref="G48:G49" si="38">D48*36</f>
         <v>3600</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="8">
         <f t="shared" ref="H48:H49" si="39">G48-F48</f>
         <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8">
         <v>6</v>
       </c>
-      <c r="C49" s="11">
-        <v>18</v>
-      </c>
-      <c r="D49" s="12">
+      <c r="C49" s="8">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
         <v>200</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="8">
         <f t="shared" si="36"/>
         <v>3600</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="10">
         <f t="shared" si="37"/>
         <v>6714</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="8">
         <f t="shared" si="38"/>
         <v>7200</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="10">
         <f t="shared" si="39"/>
         <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8">
         <v>1</v>
       </c>
-      <c r="C54" s="11">
-        <v>18</v>
-      </c>
-      <c r="D54" s="12">
+      <c r="C54" s="8">
+        <v>18</v>
+      </c>
+      <c r="D54" s="9">
         <v>10</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="8">
         <f>C54*D54</f>
         <v>180</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="10">
         <f>E54</f>
         <v>180</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="8">
         <f>D54*36</f>
         <v>360</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="8">
         <f>G54-F54</f>
         <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8">
         <v>2</v>
       </c>
-      <c r="C55" s="11">
-        <v>18</v>
-      </c>
-      <c r="D55" s="12">
+      <c r="C55" s="8">
+        <v>18</v>
+      </c>
+      <c r="D55" s="9">
         <v>20</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="8">
         <f t="shared" ref="E55:E57" si="40">C55*D55</f>
         <v>360</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="10">
         <f>E55+F54</f>
         <v>540</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="8">
         <f t="shared" ref="G55:G57" si="41">D55*36</f>
         <v>720</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="10">
         <f>G55-F55</f>
         <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8">
         <v>3</v>
       </c>
-      <c r="C56" s="11">
-        <v>18</v>
-      </c>
-      <c r="D56" s="12">
+      <c r="C56" s="8">
+        <v>18</v>
+      </c>
+      <c r="D56" s="9">
         <v>50</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="8">
         <f t="shared" si="40"/>
         <v>900</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="10">
         <f t="shared" ref="F56:F57" si="42">E56+F55</f>
         <v>1440</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="8">
         <f t="shared" si="41"/>
         <v>1800</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="8">
         <f t="shared" ref="H56:H57" si="43">G56-F56</f>
         <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="11">
-        <v>18</v>
-      </c>
-      <c r="D57" s="12">
+      <c r="C57" s="8">
+        <v>18</v>
+      </c>
+      <c r="D57" s="9">
         <v>100</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="8">
         <f t="shared" si="40"/>
         <v>1800</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="10">
         <f t="shared" si="42"/>
         <v>3240</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="8">
         <f t="shared" si="41"/>
         <v>3600</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="10">
         <f t="shared" si="43"/>
         <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8">
         <v>5</v>
       </c>
-      <c r="C58" s="11">
-        <v>18</v>
-      </c>
-      <c r="D58" s="12">
+      <c r="C58" s="8">
+        <v>18</v>
+      </c>
+      <c r="D58" s="9">
         <v>220</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="8">
         <f t="shared" ref="E58:E59" si="44">C58*D58</f>
         <v>3960</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="10">
         <f t="shared" ref="F58:F59" si="45">E58+F57</f>
         <v>7200</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="8">
         <f t="shared" ref="G58:G59" si="46">D58*36</f>
         <v>7920</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="10">
         <f t="shared" ref="H58:H59" si="47">G58-F58</f>
         <v>720</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8">
         <v>6</v>
       </c>
-      <c r="C59" s="11">
-        <v>18</v>
-      </c>
-      <c r="D59" s="12">
+      <c r="C59" s="8">
+        <v>18</v>
+      </c>
+      <c r="D59" s="9">
         <v>440</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="8">
         <f t="shared" si="44"/>
         <v>7920</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="10">
         <f t="shared" si="45"/>
         <v>15120</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="8">
         <f t="shared" si="46"/>
         <v>15840</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="10">
         <f t="shared" si="47"/>
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8">
         <v>1</v>
       </c>
-      <c r="C64" s="11">
-        <v>18</v>
-      </c>
-      <c r="D64" s="12">
+      <c r="C64" s="8">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9">
         <v>15</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="8">
         <f>C64*D64</f>
         <v>270</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="10">
         <f>E64</f>
         <v>270</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="8">
         <f>D64*36</f>
         <v>540</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="8">
         <f>G64-F64</f>
         <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8">
         <v>2</v>
       </c>
-      <c r="C65" s="11">
-        <v>18</v>
-      </c>
-      <c r="D65" s="12">
+      <c r="C65" s="8">
+        <v>18</v>
+      </c>
+      <c r="D65" s="9">
         <v>30</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="8">
         <f t="shared" ref="E65:E69" si="48">C65*D65</f>
         <v>540</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="10">
         <f>E65+F64</f>
         <v>810</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="8">
         <f t="shared" ref="G65:G69" si="49">D65*36</f>
         <v>1080</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="10">
         <f>G65-F65</f>
         <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8">
         <v>3</v>
       </c>
-      <c r="C66" s="11">
-        <v>18</v>
-      </c>
-      <c r="D66" s="12">
+      <c r="C66" s="8">
+        <v>18</v>
+      </c>
+      <c r="D66" s="9">
         <v>65</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="8">
         <f t="shared" si="48"/>
         <v>1170</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="10">
         <f t="shared" ref="F66:F69" si="50">E66+F65</f>
         <v>1980</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="8">
         <f t="shared" si="49"/>
         <v>2340</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="8">
         <f t="shared" ref="H66:H69" si="51">G66-F66</f>
         <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8">
         <v>4</v>
       </c>
-      <c r="C67" s="11">
-        <v>18</v>
-      </c>
-      <c r="D67" s="12">
+      <c r="C67" s="8">
+        <v>18</v>
+      </c>
+      <c r="D67" s="9">
         <v>130</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="8">
         <f t="shared" si="48"/>
         <v>2340</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="10">
         <f t="shared" si="50"/>
         <v>4320</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="8">
         <f t="shared" si="49"/>
         <v>4680</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="10">
         <f t="shared" si="51"/>
         <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8">
         <v>5</v>
       </c>
-      <c r="C68" s="11">
-        <v>18</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="C68" s="8">
+        <v>18</v>
+      </c>
+      <c r="D68" s="9">
         <v>275</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="8">
         <f t="shared" si="48"/>
         <v>4950</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="10">
         <f t="shared" si="50"/>
         <v>9270</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="8">
         <f t="shared" si="49"/>
         <v>9900</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="10">
         <f t="shared" si="51"/>
         <v>630</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="11">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8">
         <v>6</v>
       </c>
-      <c r="C69" s="11">
-        <v>18</v>
-      </c>
-      <c r="D69" s="12">
+      <c r="C69" s="8">
+        <v>18</v>
+      </c>
+      <c r="D69" s="9">
         <v>550</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="8">
         <f t="shared" si="48"/>
         <v>9900</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="10">
         <f t="shared" si="50"/>
         <v>19170</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="8">
         <f t="shared" si="49"/>
         <v>19800</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="10">
         <f t="shared" si="51"/>
         <v>630</v>
       </c>
@@ -1952,84 +1959,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>4</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2375,36 +2382,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2424,4 +2431,145 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5">
+        <v>31</v>
+      </c>
+      <c r="M4" s="5">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE41FD4-9F03-42BF-AA04-F929A10A74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16357DD0-DD73-4300-8BD0-80B9869DBFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18670" yWindow="670" windowWidth="18400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>Rep</t>
   </si>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +201,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H69"/>
+  <dimension ref="A2:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="B9:H9"/>
+      <selection activeCell="P20" sqref="N14:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -512,18 +515,27 @@
     <col min="2" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -545,8 +557,29 @@
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -573,8 +606,33 @@
         <f>G4-F4</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>18</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="8">
+        <f>K4*L4</f>
+        <v>3.6</v>
+      </c>
+      <c r="N4" s="10">
+        <f>M4</f>
+        <v>3.6</v>
+      </c>
+      <c r="O4" s="8">
+        <f>L4*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="P4" s="8">
+        <f>O4-N4</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -601,8 +659,33 @@
         <f>G5-F5</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>18</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ref="M5:M9" si="2">K5*L5</f>
+        <v>7.2</v>
+      </c>
+      <c r="N5" s="10">
+        <f>M5+N4</f>
+        <v>10.8</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" ref="O5:O9" si="3">L5*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="P5" s="10">
+        <f>O5-N5</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -618,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="2">E6+F5</f>
+        <f t="shared" ref="F6:F7" si="4">E6+F5</f>
         <v>28.8</v>
       </c>
       <c r="G6" s="8">
@@ -626,11 +709,36 @@
         <v>36</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H7" si="3">G6-F6</f>
+        <f t="shared" ref="H6:H7" si="5">G6-F6</f>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>18</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" ref="N6:N9" si="6">M6+N5</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6:P9" si="7">O6-N6</f>
+        <v>3.5999999999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -646,7 +754,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.8</v>
       </c>
       <c r="G7" s="8">
@@ -654,11 +762,36 @@
         <v>72</v>
       </c>
       <c r="H7" s="10">
+        <f t="shared" si="5"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>18</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>28.8</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="O7" s="8">
         <f t="shared" si="3"/>
-        <v>7.2000000000000028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>57.6</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -670,23 +803,48 @@
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E9" si="4">C8*D8</f>
+        <f t="shared" ref="E8:E9" si="8">C8*D8</f>
         <v>90</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="5">E8+F7</f>
+        <f t="shared" ref="F8:F9" si="9">E8+F7</f>
         <v>154.80000000000001</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G9" si="6">D8*36</f>
+        <f t="shared" ref="G8:G9" si="10">D8*36</f>
         <v>180</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H9" si="7">G8-F8</f>
+        <f t="shared" ref="H8:H9" si="11">G8-F8</f>
         <v>25.199999999999989</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>18</v>
+      </c>
+      <c r="L8" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>57.6</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="6"/>
+        <v>111.6</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="3"/>
+        <v>115.2</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -698,34 +856,113 @@
         <v>10</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>334.8</v>
       </c>
       <c r="G9" s="8">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="11"/>
+        <v>25.199999999999989</v>
+      </c>
+      <c r="J9" s="8">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>115.2</v>
+      </c>
+      <c r="N9" s="10">
         <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="H9" s="10">
+        <v>226.8</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="3"/>
+        <v>230.4</v>
+      </c>
+      <c r="P9" s="10">
         <f t="shared" si="7"/>
-        <v>25.199999999999989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="8">
+        <v>7</v>
+      </c>
+      <c r="K10" s="8">
+        <v>18</v>
+      </c>
+      <c r="L10" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10:M11" si="12">K10*L10</f>
+        <v>230.4</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" ref="N10:N11" si="13">M10+N9</f>
+        <v>457.20000000000005</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" ref="O10:O11" si="14">L10*36</f>
+        <v>460.8</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" ref="P10:P11" si="15">O10-N10</f>
+        <v>3.5999999999999659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="8">
+        <v>8</v>
+      </c>
+      <c r="K11" s="8">
+        <v>18</v>
+      </c>
+      <c r="L11" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="12"/>
+        <v>460.8</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="13"/>
+        <v>918</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="14"/>
+        <v>921.6</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="15"/>
+        <v>3.6000000000000227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -748,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -775,8 +1012,33 @@
         <f>G14-F14</f>
         <v>7.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>18</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="8">
+        <f>K14*L14</f>
+        <v>1.8</v>
+      </c>
+      <c r="N14" s="10">
+        <f>M14</f>
+        <v>1.8</v>
+      </c>
+      <c r="O14" s="8">
+        <f>L14*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="P14" s="8">
+        <f>O14-N14</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -788,7 +1050,7 @@
         <v>0.8</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E17" si="8">C15*D15</f>
+        <f t="shared" ref="E15:E17" si="16">C15*D15</f>
         <v>14.4</v>
       </c>
       <c r="F15" s="10">
@@ -796,15 +1058,40 @@
         <v>21.6</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G17" si="9">D15*36</f>
+        <f t="shared" ref="G15:G17" si="17">D15*36</f>
         <v>28.8</v>
       </c>
       <c r="H15" s="10">
         <f>G15-F15</f>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>18</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" ref="M15:M19" si="18">K15*L15</f>
+        <v>3.6</v>
+      </c>
+      <c r="N15" s="10">
+        <f>M15+N14</f>
+        <v>5.4</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" ref="O15:O19" si="19">L15*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="P15" s="10">
+        <f>O15-N15</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -816,23 +1103,48 @@
         <v>2</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="10">E16+F15</f>
+        <f t="shared" ref="F16:F17" si="20">E16+F15</f>
         <v>57.6</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:H17" si="11">G16-F16</f>
+        <f t="shared" ref="H16:H17" si="21">G16-F16</f>
         <v>14.399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="8">
+        <v>3</v>
+      </c>
+      <c r="K16" s="8">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="18"/>
+        <v>12.6</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16:N19" si="22">M16+N15</f>
+        <v>18</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="19"/>
+        <v>25.2</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" ref="P16:P19" si="23">O16-N16</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -844,23 +1156,48 @@
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>129.6</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>14.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8">
+        <v>18</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -872,23 +1209,48 @@
         <v>10</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E19" si="12">C18*D18</f>
+        <f t="shared" ref="E18:E19" si="24">C18*D18</f>
         <v>180</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="13">E18+F17</f>
+        <f t="shared" ref="F18:F19" si="25">E18+F17</f>
         <v>309.60000000000002</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G19" si="14">D18*36</f>
+        <f t="shared" ref="G18:G19" si="26">D18*36</f>
         <v>360</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:H19" si="15">G18-F18</f>
+        <f t="shared" ref="H18:H19" si="27">G18-F18</f>
         <v>50.399999999999977</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="8">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="22"/>
+        <v>99</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="19"/>
+        <v>108</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -900,34 +1262,102 @@
         <v>20</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>360</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>669.6</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>720</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>50.399999999999977</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
+      <c r="J19" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" s="8">
+        <v>18</v>
+      </c>
+      <c r="L19" s="9">
+        <v>6</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="18"/>
+        <v>108</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="22"/>
+        <v>207</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="19"/>
+        <v>216</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="8">
+        <v>7</v>
+      </c>
+      <c r="K20" s="8">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9">
+        <v>12</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" ref="M20" si="28">K20*L20</f>
+        <v>216</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" ref="N20" si="29">M20+N19</f>
+        <v>423</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" ref="O20" si="30">L20*36</f>
+        <v>432</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" ref="P20" si="31">O20-N20</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -949,8 +1379,15 @@
       <c r="H23" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -978,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -990,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="16">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="32">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -998,7 +1435,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="17">D25*36</f>
+        <f t="shared" ref="G25:G27" si="33">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
@@ -1006,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -1018,23 +1455,48 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>90</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="18">E26+F25</f>
+        <f t="shared" ref="F26:F27" si="34">E26+F25</f>
         <v>144</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="19">G26-F26</f>
+        <f t="shared" ref="H26:H27" si="35">G26-F26</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>18</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="M26" s="8">
+        <f>K26*L26</f>
+        <v>7.2</v>
+      </c>
+      <c r="N26" s="10">
+        <f>M26</f>
+        <v>7.2</v>
+      </c>
+      <c r="O26" s="8">
+        <f>L26*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="P26" s="8">
+        <f>O26-N26</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -1046,23 +1508,48 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>324</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>360</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="8">
+        <v>2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" ref="M27:M31" si="36">K27*L27</f>
+        <v>14.4</v>
+      </c>
+      <c r="N27" s="10">
+        <f>M27+N26</f>
+        <v>21.6</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" ref="O27:O31" si="37">L27*36</f>
+        <v>28.8</v>
+      </c>
+      <c r="P27" s="10">
+        <f>O27-N27</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -1074,23 +1561,48 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="20">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="38">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="21">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="39">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="22">D28*36</f>
+        <f t="shared" ref="G28:G29" si="40">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="23">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="41">G28-F28</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="8">
+        <v>3</v>
+      </c>
+      <c r="K28" s="8">
+        <v>18</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="36"/>
+        <v>27</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" ref="N28:N31" si="42">M28+N27</f>
+        <v>48.6</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="37"/>
+        <v>54</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" ref="P28:P31" si="43">O28-N28</f>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -1102,32 +1614,111 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="39"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="11" t="s">
+      <c r="J29" s="8">
+        <v>4</v>
+      </c>
+      <c r="K29" s="8">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9">
+        <v>3</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="36"/>
+        <v>54</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="42"/>
+        <v>102.6</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="37"/>
+        <v>108</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="43"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
+      <c r="K30" s="8">
+        <v>18</v>
+      </c>
+      <c r="L30" s="9">
+        <v>6</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="36"/>
+        <v>108</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="42"/>
+        <v>210.6</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="37"/>
+        <v>216</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="43"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="8">
+        <v>6</v>
+      </c>
+      <c r="K31" s="8">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9">
+        <v>12</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="36"/>
+        <v>216</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="42"/>
+        <v>426.6</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="37"/>
+        <v>432</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" si="43"/>
+        <v>5.3999999999999773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
@@ -1192,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="24">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="44">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -1200,7 +1791,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="25">D35*36</f>
+        <f t="shared" ref="G35:G37" si="45">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -1220,19 +1811,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="26">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="46">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="27">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="47">G36-F36</f>
         <v>72</v>
       </c>
     </row>
@@ -1248,19 +1839,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="44"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>72</v>
       </c>
     </row>
@@ -1276,19 +1867,19 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="28">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="48">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="29">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="49">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="30">D38*36</f>
+        <f t="shared" ref="G38:G39" si="50">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="31">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="51">G38-F38</f>
         <v>252</v>
       </c>
     </row>
@@ -1304,32 +1895,32 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
@@ -1394,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="32">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="52">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -1402,7 +1993,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="33">D45*36</f>
+        <f t="shared" ref="G45:G47" si="53">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -1422,19 +2013,19 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="34">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="54">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="35">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="55">G46-F46</f>
         <v>126</v>
       </c>
     </row>
@@ -1450,19 +2041,19 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>126</v>
       </c>
     </row>
@@ -1478,19 +2069,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="36">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="56">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="37">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="57">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="38">D48*36</f>
+        <f t="shared" ref="G48:G49" si="58">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="39">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="59">G48-F48</f>
         <v>486</v>
       </c>
     </row>
@@ -1506,32 +2097,32 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -1596,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="40">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="60">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -1604,7 +2195,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="41">D55*36</f>
+        <f t="shared" ref="G55:G57" si="61">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -1624,19 +2215,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="42">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="62">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="43">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="63">G56-F56</f>
         <v>360</v>
       </c>
     </row>
@@ -1652,19 +2243,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>360</v>
       </c>
     </row>
@@ -1680,19 +2271,19 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="44">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="64">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="45">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="65">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="46">D58*36</f>
+        <f t="shared" ref="G58:G59" si="66">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="47">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="67">G58-F58</f>
         <v>720</v>
       </c>
     </row>
@@ -1708,32 +2299,32 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -1798,7 +2389,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="48">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="68">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -1806,7 +2397,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="49">D65*36</f>
+        <f t="shared" ref="G65:G69" si="69">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -1826,19 +2417,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="50">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="70">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="51">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="71">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -1854,19 +2445,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>360</v>
       </c>
     </row>
@@ -1882,19 +2473,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>630</v>
       </c>
     </row>
@@ -1910,24 +2501,25 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J2:P2"/>
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B62:H62"/>
     <mergeCell ref="B42:H42"/>
@@ -1959,68 +2551,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4">
         <v>1</v>
       </c>
@@ -2382,36 +2974,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2447,7 +3039,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2488,7 +3080,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2527,7 +3119,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE41FD4-9F03-42BF-AA04-F929A10A74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CFC48B-D4BE-4E77-AA27-699DC66EBE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18670" yWindow="670" windowWidth="18400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="0" windowWidth="15435" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,13 +224,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,16 +528,16 @@
   </sheetPr>
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="B9:H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
@@ -523,7 +548,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -546,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -574,7 +599,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -602,7 +627,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -630,7 +655,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -658,7 +683,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -686,7 +711,7 @@
         <v>25.199999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -714,7 +739,7 @@
         <v>25.199999999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -725,7 +750,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -748,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -776,7 +801,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -804,7 +829,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -832,7 +857,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -860,7 +885,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -888,7 +913,7 @@
         <v>50.399999999999977</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -916,7 +941,7 @@
         <v>50.399999999999977</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
@@ -927,7 +952,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -950,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -978,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -1006,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -1034,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -1062,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -1090,7 +1115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -1118,7 +1143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1154,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -1180,7 +1205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -1208,7 +1233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -1236,7 +1261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -1264,7 +1289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -1292,7 +1317,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -1320,7 +1345,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1356,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -1382,7 +1407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -1410,7 +1435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -1438,7 +1463,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -1466,7 +1491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -1494,7 +1519,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -1522,7 +1547,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
@@ -1533,7 +1558,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -1584,7 +1609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -1612,7 +1637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -1640,7 +1665,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -1668,7 +1693,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -1696,7 +1721,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -1724,7 +1749,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1760,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -1786,7 +1811,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -1814,7 +1839,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -1842,7 +1867,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -1870,7 +1895,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -1898,7 +1923,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -1937,7 +1962,7 @@
     <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1949,98 +1974,100 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="4">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="19">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="19">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="19">
         <v>5</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2057,7 +2084,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2074,7 +2101,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2091,7 +2118,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2108,7 +2135,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2125,7 +2152,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2142,7 +2169,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2159,7 +2186,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2176,7 +2203,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2193,7 +2220,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2210,7 +2237,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2227,7 +2254,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2244,7 +2271,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2261,7 +2288,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2278,7 +2305,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2295,7 +2322,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2312,7 +2339,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2329,7 +2356,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2346,7 +2373,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2363,7 +2390,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2380,8 +2407,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
@@ -2398,7 +2425,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2429,7 +2456,7 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2440,14 +2467,14 @@
   </sheetPr>
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2487,8 +2514,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2526,8 +2553,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CFC48B-D4BE-4E77-AA27-699DC66EBE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCAF7D-93D7-4E7C-87E3-DCE031CA83D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="0" windowWidth="15435" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="15" r:id="rId3"/>
+    <sheet name="Tablero" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>Rep</t>
   </si>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,26 +221,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H69"/>
+  <dimension ref="A2:Q69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -537,18 +540,27 @@
     <col min="2" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -570,8 +582,29 @@
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -598,8 +631,33 @@
         <f>G4-F4</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="8">
+        <f>L4*M4</f>
+        <v>1.8</v>
+      </c>
+      <c r="O4" s="10">
+        <f>N4</f>
+        <v>1.8</v>
+      </c>
+      <c r="P4" s="8">
+        <f>M4*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>P4-O4</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -626,8 +684,33 @@
         <f>G5-F5</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>18</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N9" si="2">L5*M5</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="O5" s="10">
+        <f>N5+O4</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:P9" si="3">M5*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>P5-O5</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -643,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="2">E6+F5</f>
+        <f t="shared" ref="F6:F7" si="4">E6+F5</f>
         <v>28.8</v>
       </c>
       <c r="G6" s="8">
@@ -651,11 +734,36 @@
         <v>36</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H7" si="3">G6-F6</f>
+        <f t="shared" ref="H6:H7" si="5">G6-F6</f>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>18</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="2"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" ref="O6:O9" si="6">N6+O5</f>
+        <v>18</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="3"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" ref="Q6:Q9" si="7">P6-O6</f>
+        <v>3.5999999999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -671,7 +779,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64.8</v>
       </c>
       <c r="G7" s="8">
@@ -679,11 +787,36 @@
         <v>72</v>
       </c>
       <c r="H7" s="10">
+        <f t="shared" si="5"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="2"/>
+        <v>25.2</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="6"/>
+        <v>43.2</v>
+      </c>
+      <c r="P7" s="8">
         <f t="shared" si="3"/>
-        <v>7.2000000000000028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50.4</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -695,23 +828,48 @@
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E9" si="4">C8*D8</f>
+        <f t="shared" ref="E8:E9" si="8">C8*D8</f>
         <v>90</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="5">E8+F7</f>
+        <f t="shared" ref="F8:F9" si="9">E8+F7</f>
         <v>154.80000000000001</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G9" si="6">D8*36</f>
+        <f t="shared" ref="G8:G9" si="10">D8*36</f>
         <v>180</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H9" si="7">G8-F8</f>
+        <f t="shared" ref="H8:H9" si="11">G8-F8</f>
         <v>25.199999999999989</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>18</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>50.4</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="6"/>
+        <v>93.6</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="3"/>
+        <v>100.8</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="7"/>
+        <v>7.2000000000000028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -723,34 +881,91 @@
         <v>10</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>334.8</v>
       </c>
       <c r="G9" s="8">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="11"/>
+        <v>25.199999999999989</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8">
+        <v>18</v>
+      </c>
+      <c r="M9" s="9">
+        <v>6</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="O9" s="10">
         <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="H9" s="10">
+        <v>201.6</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="Q9" s="10">
         <f t="shared" si="7"/>
-        <v>25.199999999999989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+        <v>14.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="K12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -772,8 +987,33 @@
       <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>18</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="8">
+        <f>L13*M13</f>
+        <v>1.8</v>
+      </c>
+      <c r="O13" s="10">
+        <f>N13</f>
+        <v>1.8</v>
+      </c>
+      <c r="P13" s="8">
+        <f>M13*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>P13-O13</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -800,8 +1040,33 @@
         <f>G14-F14</f>
         <v>7.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>18</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" ref="N14:N18" si="12">L14*M14</f>
+        <v>3.6</v>
+      </c>
+      <c r="O14" s="10">
+        <f>N14+O13</f>
+        <v>5.4</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" ref="P14:P18" si="13">M14*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="Q14" s="10">
+        <f>P14-O14</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -813,7 +1078,7 @@
         <v>0.8</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E17" si="8">C15*D15</f>
+        <f t="shared" ref="E15:E17" si="14">C15*D15</f>
         <v>14.4</v>
       </c>
       <c r="F15" s="10">
@@ -821,15 +1086,40 @@
         <v>21.6</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G17" si="9">D15*36</f>
+        <f t="shared" ref="G15:G17" si="15">D15*36</f>
         <v>28.8</v>
       </c>
       <c r="H15" s="10">
         <f>G15-F15</f>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>18</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" ref="O15:O18" si="16">N15+O14</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="13"/>
+        <v>14.4</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" ref="Q15:Q18" si="17">P15-O15</f>
+        <v>1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -841,23 +1131,48 @@
         <v>2</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="10">E16+F15</f>
+        <f t="shared" ref="F16:F17" si="18">E16+F15</f>
         <v>57.6</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:H17" si="11">G16-F16</f>
+        <f t="shared" ref="H16:H17" si="19">G16-F16</f>
         <v>14.399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="8">
+        <v>4</v>
+      </c>
+      <c r="L16" s="8">
+        <v>18</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="12"/>
+        <v>14.4</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="13"/>
+        <v>28.8</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="17"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -869,23 +1184,48 @@
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>129.6</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>144</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>14.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="8">
+        <v>5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>18</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="12"/>
+        <v>28.8</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="16"/>
+        <v>55.8</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="13"/>
+        <v>57.6</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="17"/>
+        <v>1.8000000000000043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -897,23 +1237,48 @@
         <v>10</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E19" si="12">C18*D18</f>
+        <f t="shared" ref="E18:E19" si="20">C18*D18</f>
         <v>180</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="13">E18+F17</f>
+        <f t="shared" ref="F18:F19" si="21">E18+F17</f>
         <v>309.60000000000002</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G19" si="14">D18*36</f>
+        <f t="shared" ref="G18:G19" si="22">D18*36</f>
         <v>360</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:H19" si="15">G18-F18</f>
+        <f t="shared" ref="H18:H19" si="23">G18-F18</f>
         <v>50.399999999999977</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="8">
+        <v>6</v>
+      </c>
+      <c r="L18" s="8">
+        <v>18</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="12"/>
+        <v>57.6</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="16"/>
+        <v>113.4</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="13"/>
+        <v>115.2</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="17"/>
+        <v>1.7999999999999972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -925,34 +1290,34 @@
         <v>20</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>360</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>669.6</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>720</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>50.399999999999977</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -1003,7 +1368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -1015,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="16">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="24">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -1023,7 +1388,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="17">D25*36</f>
+        <f t="shared" ref="G25:G27" si="25">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
@@ -1031,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -1043,23 +1408,23 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="18">E26+F25</f>
+        <f t="shared" ref="F26:F27" si="26">E26+F25</f>
         <v>144</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>180</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="19">G26-F26</f>
+        <f t="shared" ref="H26:H27" si="27">G26-F26</f>
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -1071,23 +1436,23 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>324</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>360</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -1099,23 +1464,23 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="20">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="28">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="21">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="29">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="22">D28*36</f>
+        <f t="shared" ref="G28:G29" si="30">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="23">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="31">G28-F28</f>
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -1127,32 +1492,32 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
@@ -1217,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="24">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="32">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -1225,7 +1590,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="25">D35*36</f>
+        <f t="shared" ref="G35:G37" si="33">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -1245,19 +1610,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="26">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="34">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="27">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="35">G36-F36</f>
         <v>72</v>
       </c>
     </row>
@@ -1273,19 +1638,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>72</v>
       </c>
     </row>
@@ -1301,19 +1666,19 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="28">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="36">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="29">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="37">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="30">D38*36</f>
+        <f t="shared" ref="G38:G39" si="38">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="31">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="39">G38-F38</f>
         <v>252</v>
       </c>
     </row>
@@ -1329,32 +1694,32 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
@@ -1419,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="32">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="40">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -1427,7 +1792,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="33">D45*36</f>
+        <f t="shared" ref="G45:G47" si="41">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -1447,19 +1812,19 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="34">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="42">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="35">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="43">G46-F46</f>
         <v>126</v>
       </c>
     </row>
@@ -1475,19 +1840,19 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>126</v>
       </c>
     </row>
@@ -1503,19 +1868,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="36">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="44">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="37">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="45">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="38">D48*36</f>
+        <f t="shared" ref="G48:G49" si="46">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="39">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="47">G48-F48</f>
         <v>486</v>
       </c>
     </row>
@@ -1531,32 +1896,32 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -1621,7 +1986,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="40">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="48">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -1629,7 +1994,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="41">D55*36</f>
+        <f t="shared" ref="G55:G57" si="49">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -1649,19 +2014,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="42">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="50">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="43">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="51">G56-F56</f>
         <v>360</v>
       </c>
     </row>
@@ -1677,19 +2042,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>360</v>
       </c>
     </row>
@@ -1705,19 +2070,19 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="44">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="52">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="45">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="53">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="46">D58*36</f>
+        <f t="shared" ref="G58:G59" si="54">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="47">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="55">G58-F58</f>
         <v>720</v>
       </c>
     </row>
@@ -1733,32 +2098,32 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -1823,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="48">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="56">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -1831,7 +2196,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="49">D65*36</f>
+        <f t="shared" ref="G65:G69" si="57">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -1851,19 +2216,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="50">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="58">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="51">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="59">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -1879,19 +2244,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>360</v>
       </c>
     </row>
@@ -1907,19 +2272,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>630</v>
       </c>
     </row>
@@ -1935,24 +2300,26 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B62:H62"/>
     <mergeCell ref="B42:H42"/>
@@ -1974,7 +2341,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1984,86 +2351,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14">
         <v>1</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="14">
         <v>2</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="14">
         <v>3</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <v>4</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="14">
         <v>5</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="14">
         <v>6</v>
       </c>
     </row>
@@ -2409,36 +2776,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2467,14 +2834,14 @@
   </sheetPr>
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="20">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2515,7 +2882,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2554,7 +2921,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCAF7D-93D7-4E7C-87E3-DCE031CA83D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75D855-2957-4B54-AFE8-4D2DDC26B1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2250" windowWidth="21600" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>Rep</t>
   </si>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,36 +534,36 @@
   </sheetPr>
   <dimension ref="A2:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -604,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -657,7 +660,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -710,7 +713,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -763,7 +766,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -816,7 +819,7 @@
         <v>7.1999999999999957</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -869,7 +872,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -922,27 +925,27 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="15" t="s">
+    <row r="11" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -965,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1066,7 +1069,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -1119,7 +1122,7 @@
         <v>1.7999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -1172,7 +1175,7 @@
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -1225,7 +1228,7 @@
         <v>1.8000000000000043</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -1278,7 +1281,7 @@
         <v>1.7999999999999972</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -1306,18 +1309,50 @@
         <v>50.399999999999977</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+    <row r="21" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="K22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1374,33 @@
       <c r="H23" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>18</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N23" s="8">
+        <f>L23*M23</f>
+        <v>1.8</v>
+      </c>
+      <c r="O23" s="10">
+        <f>N23</f>
+        <v>1.8</v>
+      </c>
+      <c r="P23" s="8">
+        <f>M23*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>P23-O23</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -1367,8 +1427,33 @@
         <f>G24-F24</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="8">
+        <v>2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>18</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" ref="N24:N28" si="24">L24*M24</f>
+        <v>3.6</v>
+      </c>
+      <c r="O24" s="10">
+        <f>N24+O23</f>
+        <v>5.4</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" ref="P24:P28" si="25">M24*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="Q24" s="10">
+        <f>P24-O24</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -1380,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="24">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="26">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -1388,15 +1473,40 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="25">D25*36</f>
+        <f t="shared" ref="G25:G27" si="27">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
         <f>G25-F25</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="8">
+        <v>3</v>
+      </c>
+      <c r="L25" s="8">
+        <v>18</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" ref="O25:O28" si="28">N25+O24</f>
+        <v>14.4</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" ref="Q25:Q28" si="29">P25-O25</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -1408,23 +1518,48 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
+        <f t="shared" si="26"/>
+        <v>90</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26:F27" si="30">E26+F25</f>
+        <v>144</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="27"/>
+        <v>180</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" ref="H26:H27" si="31">G26-F26</f>
+        <v>36</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4</v>
+      </c>
+      <c r="L26" s="8">
+        <v>18</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8">
         <f t="shared" si="24"/>
-        <v>90</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="26">E26+F25</f>
-        <v>144</v>
-      </c>
-      <c r="G26" s="8">
+        <v>18</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="28"/>
+        <v>32.4</v>
+      </c>
+      <c r="P26" s="8">
         <f t="shared" si="25"/>
-        <v>180</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="27">G26-F26</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="10">
+        <f t="shared" si="29"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -1436,23 +1571,48 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="30"/>
+        <v>324</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="27"/>
+        <v>360</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="31"/>
+        <v>36</v>
+      </c>
+      <c r="K27" s="8">
+        <v>5</v>
+      </c>
+      <c r="L27" s="8">
+        <v>18</v>
+      </c>
+      <c r="M27" s="9">
+        <v>2</v>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" si="24"/>
-        <v>180</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="26"/>
-        <v>324</v>
-      </c>
-      <c r="G27" s="8">
+        <v>36</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="28"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="P27" s="8">
         <f t="shared" si="25"/>
-        <v>360</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="27"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="29"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -1464,23 +1624,48 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="28">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="32">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="29">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="33">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="30">D28*36</f>
+        <f t="shared" ref="G28:G29" si="34">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="31">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="35">G28-F28</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="8">
+        <v>6</v>
+      </c>
+      <c r="L28" s="8">
+        <v>18</v>
+      </c>
+      <c r="M28" s="9">
+        <v>5</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="28"/>
+        <v>158.4</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="29"/>
+        <v>21.599999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -1492,34 +1677,34 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+    <row r="32" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -1570,7 +1755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -1582,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="32">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="36">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -1590,7 +1775,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="33">D35*36</f>
+        <f t="shared" ref="G35:G37" si="37">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -1598,7 +1783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -1610,23 +1795,23 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="34">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="38">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="35">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="39">G36-F36</f>
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -1638,23 +1823,23 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -1666,23 +1851,23 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="36">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="40">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="37">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="41">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="38">D38*36</f>
+        <f t="shared" ref="G38:G39" si="42">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="39">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="43">G38-F38</f>
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -1694,34 +1879,34 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+    <row r="42" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -1772,7 +1957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -1784,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="40">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="44">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -1792,7 +1977,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="41">D45*36</f>
+        <f t="shared" ref="G45:G47" si="45">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -1800,7 +1985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -1812,23 +1997,23 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="42">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="46">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="43">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="47">G46-F46</f>
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -1840,23 +2025,23 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -1868,23 +2053,23 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="44">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="48">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="45">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="49">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="46">D48*36</f>
+        <f t="shared" ref="G48:G49" si="50">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="47">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="51">G48-F48</f>
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -1896,34 +2081,34 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -1974,7 +2159,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -1986,7 +2171,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="48">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="52">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -1994,7 +2179,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="49">D55*36</f>
+        <f t="shared" ref="G55:G57" si="53">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -2002,7 +2187,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -2014,23 +2199,23 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="50">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="54">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="51">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="55">G56-F56</f>
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -2042,23 +2227,23 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -2070,23 +2255,23 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="52">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="56">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="53">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="57">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="54">D58*36</f>
+        <f t="shared" ref="G58:G59" si="58">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="55">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="59">G58-F58</f>
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -2098,34 +2283,34 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+    <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -2176,7 +2361,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -2188,7 +2373,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="56">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="60">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -2196,7 +2381,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="57">D65*36</f>
+        <f t="shared" ref="G65:G69" si="61">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -2204,7 +2389,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -2216,23 +2401,23 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="58">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="62">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="59">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="63">G66-F66</f>
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -2244,23 +2429,23 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -2272,23 +2457,23 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -2300,24 +2485,24 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="B52:H52"/>
@@ -2327,9 +2512,10 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2344,77 +2530,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -2434,7 +2620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2451,7 +2637,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2468,7 +2654,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2485,7 +2671,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2502,7 +2688,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2519,7 +2705,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2536,7 +2722,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2553,7 +2739,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2570,7 +2756,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2587,7 +2773,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2604,7 +2790,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2621,7 +2807,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2638,7 +2824,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2655,7 +2841,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2672,7 +2858,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2689,7 +2875,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2706,7 +2892,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2723,7 +2909,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2740,7 +2926,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2757,7 +2943,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2774,38 +2960,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2838,10 +3024,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -2881,8 +3067,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2920,8 +3106,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75D855-2957-4B54-AFE8-4D2DDC26B1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F74307-5517-451A-97A3-DDCBE8C1C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2250" windowWidth="21600" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="4050" windowWidth="21600" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Rep</t>
   </si>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,8 +537,8 @@
   </sheetPr>
   <dimension ref="A2:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -544,24 +547,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -926,26 +929,26 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1310,26 +1313,26 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -1694,17 +1697,26 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="K32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1726,8 +1738,29 @@
       <c r="H33" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -1754,8 +1787,33 @@
         <f>G34-F34</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8">
+        <v>18</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N34" s="8">
+        <f>L34*M34</f>
+        <v>1.8</v>
+      </c>
+      <c r="O34" s="10">
+        <f>N34</f>
+        <v>1.8</v>
+      </c>
+      <c r="P34" s="8">
+        <f>M34*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q34" s="8">
+        <f>P34-O34</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -1782,8 +1840,33 @@
         <f>G35-F35</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>18</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" ref="N35:N39" si="38">L35*M35</f>
+        <v>3.6</v>
+      </c>
+      <c r="O35" s="10">
+        <f>N35+O34</f>
+        <v>5.4</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" ref="P35:P39" si="39">M35*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="Q35" s="10">
+        <f>P35-O35</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -1799,7 +1882,7 @@
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="38">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="40">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
@@ -1807,11 +1890,36 @@
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="39">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="41">G36-F36</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="8">
+        <v>3</v>
+      </c>
+      <c r="L36" s="8">
+        <v>18</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="38"/>
+        <v>7.2</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" ref="O36:O39" si="42">N36+O35</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="39"/>
+        <v>14.4</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" ref="Q36:Q39" si="43">P36-O36</f>
+        <v>1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -1827,7 +1935,7 @@
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
@@ -1835,11 +1943,36 @@
         <v>720</v>
       </c>
       <c r="H37" s="10">
+        <f t="shared" si="41"/>
+        <v>72</v>
+      </c>
+      <c r="K37" s="8">
+        <v>4</v>
+      </c>
+      <c r="L37" s="8">
+        <v>18</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N37" s="8">
+        <f t="shared" si="38"/>
+        <v>14.4</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="42"/>
+        <v>27</v>
+      </c>
+      <c r="P37" s="8">
         <f t="shared" si="39"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28.8</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" si="43"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -1851,23 +1984,48 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="40">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="44">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="41">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="45">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="42">D38*36</f>
+        <f t="shared" ref="G38:G39" si="46">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="43">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="47">G38-F38</f>
         <v>252</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K38" s="8">
+        <v>5</v>
+      </c>
+      <c r="L38" s="8">
+        <v>18</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="N38" s="8">
+        <f t="shared" si="38"/>
+        <v>28.8</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="42"/>
+        <v>55.8</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="39"/>
+        <v>57.6</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="43"/>
+        <v>1.8000000000000043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -1879,34 +2037,138 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
+        <f t="shared" si="46"/>
+        <v>3600</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="47"/>
+        <v>252</v>
+      </c>
+      <c r="K39" s="8">
+        <v>6</v>
+      </c>
+      <c r="L39" s="8">
+        <v>18</v>
+      </c>
+      <c r="M39" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="N39" s="8">
+        <f t="shared" si="38"/>
+        <v>57.6</v>
+      </c>
+      <c r="O39" s="10">
         <f t="shared" si="42"/>
-        <v>3600</v>
-      </c>
-      <c r="H39" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" si="39"/>
+        <v>115.2</v>
+      </c>
+      <c r="Q39" s="10">
         <f t="shared" si="43"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="16" t="s">
+        <v>1.7999999999999972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K40" s="8">
+        <v>7</v>
+      </c>
+      <c r="L40" s="8">
+        <v>18</v>
+      </c>
+      <c r="M40" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" ref="N40:N42" si="48">L40*M40</f>
+        <v>115.2</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" ref="O40:O42" si="49">N40+O39</f>
+        <v>228.60000000000002</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" ref="P40:P42" si="50">M40*36</f>
+        <v>230.4</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" ref="Q40:Q42" si="51">P40-O40</f>
+        <v>1.7999999999999829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K41" s="8">
+        <v>8</v>
+      </c>
+      <c r="L41" s="8">
+        <v>18</v>
+      </c>
+      <c r="M41" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="48"/>
+        <v>230.4</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="49"/>
+        <v>459</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" si="50"/>
+        <v>460.8</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="51"/>
+        <v>1.8000000000000114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="K42" s="8">
+        <v>9</v>
+      </c>
+      <c r="L42" s="8">
+        <v>18</v>
+      </c>
+      <c r="M42" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="48"/>
+        <v>460.8</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="49"/>
+        <v>919.8</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" si="50"/>
+        <v>921.6</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" si="51"/>
+        <v>1.8000000000000682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -1957,7 +2219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -1969,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="44">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="52">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -1977,7 +2239,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="45">D45*36</f>
+        <f t="shared" ref="G45:G47" si="53">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -1985,7 +2247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -1997,23 +2259,23 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="46">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="54">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="47">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="55">G46-F46</f>
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -2025,23 +2287,23 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -2053,19 +2315,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="48">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="56">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="49">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="57">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="50">D48*36</f>
+        <f t="shared" ref="G48:G49" si="58">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="51">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="59">G48-F48</f>
         <v>486</v>
       </c>
     </row>
@@ -2081,32 +2343,32 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -2171,7 +2433,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="52">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="60">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -2179,7 +2441,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="53">D55*36</f>
+        <f t="shared" ref="G55:G57" si="61">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -2199,19 +2461,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="54">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="62">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="55">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="63">G56-F56</f>
         <v>360</v>
       </c>
     </row>
@@ -2227,19 +2489,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>360</v>
       </c>
     </row>
@@ -2255,19 +2517,19 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="56">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="64">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="57">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="65">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="58">D58*36</f>
+        <f t="shared" ref="G58:G59" si="66">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="59">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="67">G58-F58</f>
         <v>720</v>
       </c>
     </row>
@@ -2283,32 +2545,32 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -2373,7 +2635,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="60">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="68">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -2381,7 +2643,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="61">D65*36</f>
+        <f t="shared" ref="G65:G69" si="69">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -2401,19 +2663,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="62">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="70">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="63">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="71">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -2429,19 +2691,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>360</v>
       </c>
     </row>
@@ -2457,19 +2719,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>630</v>
       </c>
     </row>
@@ -2485,24 +2747,24 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="B52:H52"/>
@@ -2513,6 +2775,7 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
@@ -2537,70 +2800,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -2962,36 +3225,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3027,7 +3290,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3068,7 +3331,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -3107,7 +3370,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F74307-5517-451A-97A3-DDCBE8C1C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10F0DE-E4D9-41D1-80BF-8DC6676C2E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4050" windowWidth="21600" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
   <si>
     <t>Rep</t>
   </si>
@@ -104,6 +104,45 @@
   <si>
     <t>Observaciones</t>
   </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>GPG</t>
+  </si>
+  <si>
+    <t>GPPG</t>
+  </si>
+  <si>
+    <t>GPPPG</t>
+  </si>
+  <si>
+    <t>GPPPPG</t>
+  </si>
+  <si>
+    <t>GPPPPPG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>PPPG</t>
+  </si>
+  <si>
+    <t>PPPPG</t>
+  </si>
+  <si>
+    <t>PPPPPG</t>
+  </si>
+  <si>
+    <t>1st win</t>
+  </si>
+  <si>
+    <t>2nd win</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,11 +225,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +282,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,10 +593,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q69"/>
+  <dimension ref="A2:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -546,27 +604,27 @@
     <col min="2" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -610,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -663,7 +721,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -716,7 +774,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -769,7 +827,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -822,7 +880,7 @@
         <v>7.1999999999999957</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -875,7 +933,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -928,27 +986,27 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="17" t="s">
+    <row r="11" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1077,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1072,7 +1130,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -1125,7 +1183,7 @@
         <v>1.7999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -1177,8 +1235,20 @@
         <f t="shared" si="17"/>
         <v>1.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S16">
+        <v>0.1</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -1230,8 +1300,32 @@
         <f t="shared" si="17"/>
         <v>1.8000000000000043</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -1283,8 +1377,39 @@
         <f t="shared" si="17"/>
         <v>1.7999999999999972</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8">
+        <v>18</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="8">
+        <f>U18*V18</f>
+        <v>9</v>
+      </c>
+      <c r="X18" s="10">
+        <f>W18</f>
+        <v>9</v>
+      </c>
+      <c r="Y18" s="8">
+        <f>V18*36</f>
+        <v>18</v>
+      </c>
+      <c r="Z18" s="8">
+        <f>Y18-X18</f>
+        <v>9</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -1311,28 +1436,123 @@
         <f t="shared" si="23"/>
         <v>50.399999999999977</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="17" t="s">
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19" s="8">
+        <v>2</v>
+      </c>
+      <c r="U19" s="8">
+        <v>18</v>
+      </c>
+      <c r="V19" s="9">
+        <v>1</v>
+      </c>
+      <c r="W19" s="8">
+        <f t="shared" ref="W19:W23" si="24">U19*V19</f>
+        <v>18</v>
+      </c>
+      <c r="X19" s="10">
+        <f>W19+X18</f>
+        <v>27</v>
+      </c>
+      <c r="Y19" s="8">
+        <f t="shared" ref="Y19:Y23" si="25">V19*36</f>
+        <v>36</v>
+      </c>
+      <c r="Z19" s="10">
+        <f>Y19-X19</f>
+        <v>9</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <v>25</v>
+      </c>
+      <c r="T20" s="8">
+        <v>3</v>
+      </c>
+      <c r="U20" s="8">
+        <v>18</v>
+      </c>
+      <c r="V20" s="9">
+        <v>2</v>
+      </c>
+      <c r="W20" s="8">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="X20" s="10">
+        <f t="shared" ref="X20:X23" si="26">W20+X19</f>
+        <v>63</v>
+      </c>
+      <c r="Y20" s="8">
+        <f t="shared" si="25"/>
+        <v>72</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" ref="Z20:Z23" si="27">Y20-X20</f>
+        <v>9</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21" s="8">
+        <v>4</v>
+      </c>
+      <c r="U21" s="8">
+        <v>18</v>
+      </c>
+      <c r="V21" s="9">
+        <v>4</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="X21" s="10">
+        <f t="shared" si="26"/>
+        <v>135</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="25"/>
+        <v>144</v>
+      </c>
+      <c r="Z21" s="10">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -1354,8 +1574,36 @@
       <c r="Q22" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="8">
+        <v>5</v>
+      </c>
+      <c r="U22" s="8">
+        <v>18</v>
+      </c>
+      <c r="V22" s="9">
+        <v>10</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="X22" s="10">
+        <f t="shared" si="26"/>
+        <v>315</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" si="25"/>
+        <v>360</v>
+      </c>
+      <c r="Z22" s="8">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1650,36 @@
         <f>P23-O23</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="8">
+        <v>6</v>
+      </c>
+      <c r="U23" s="8">
+        <v>18</v>
+      </c>
+      <c r="V23" s="9">
+        <v>20</v>
+      </c>
+      <c r="W23" s="8">
+        <f t="shared" si="24"/>
+        <v>360</v>
+      </c>
+      <c r="X23" s="10">
+        <f t="shared" si="26"/>
+        <v>675</v>
+      </c>
+      <c r="Y23" s="8">
+        <f t="shared" si="25"/>
+        <v>720</v>
+      </c>
+      <c r="Z23" s="10">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -1440,7 +1716,7 @@
         <v>0.2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" ref="N24:N28" si="24">L24*M24</f>
+        <f t="shared" ref="N24:N28" si="28">L24*M24</f>
         <v>3.6</v>
       </c>
       <c r="O24" s="10">
@@ -1448,15 +1724,22 @@
         <v>5.4</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" ref="P24:P28" si="25">M24*36</f>
+        <f t="shared" ref="P24:P28" si="29">M24*36</f>
         <v>7.2</v>
       </c>
       <c r="Q24" s="10">
         <f>P24-O24</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -1468,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="26">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="30">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -1476,7 +1759,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="27">D25*36</f>
+        <f t="shared" ref="G25:G27" si="31">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
@@ -1490,26 +1773,33 @@
         <v>18</v>
       </c>
       <c r="M25" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="24"/>
-        <v>9</v>
+        <f t="shared" si="28"/>
+        <v>7.2</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25:O28" si="28">N25+O24</f>
+        <f t="shared" ref="O25:O28" si="32">N25+O24</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="29"/>
         <v>14.4</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:Q28" si="29">P25-O25</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q25:Q28" si="33">P25-O25</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -1521,19 +1811,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="30">E26+F25</f>
+        <f t="shared" ref="F26:F27" si="34">E26+F25</f>
         <v>144</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>180</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="31">G26-F26</f>
+        <f t="shared" ref="H26:H27" si="35">G26-F26</f>
         <v>36</v>
       </c>
       <c r="K26" s="8">
@@ -1546,23 +1836,32 @@
         <v>1</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="28"/>
-        <v>32.4</v>
+        <f t="shared" si="32"/>
+        <v>30.6</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>36</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="29"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="33"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="V26" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -1574,19 +1873,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>180</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>324</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>360</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>36</v>
       </c>
       <c r="K27" s="8">
@@ -1599,23 +1898,23 @@
         <v>2</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>36</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="28"/>
-        <v>68.400000000000006</v>
+        <f t="shared" si="32"/>
+        <v>66.599999999999994</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>72</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="29"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="33"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -1627,19 +1926,19 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="32">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="36">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="33">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="37">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="34">D28*36</f>
+        <f t="shared" ref="G28:G29" si="38">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="35">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="39">G28-F28</f>
         <v>36</v>
       </c>
       <c r="K28" s="8">
@@ -1649,26 +1948,48 @@
         <v>18</v>
       </c>
       <c r="M28" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="24"/>
-        <v>90</v>
+        <f t="shared" si="28"/>
+        <v>72</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="28"/>
-        <v>158.4</v>
+        <f t="shared" si="32"/>
+        <v>138.6</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="25"/>
-        <v>180</v>
+        <f t="shared" si="29"/>
+        <v>144</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="29"/>
-        <v>21.599999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="33"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>Z18</f>
+        <v>9</v>
+      </c>
+      <c r="W28" s="19">
+        <f>Z23</f>
+        <v>45</v>
+      </c>
+      <c r="X28" s="19">
+        <f>V28+W28</f>
+        <v>54</v>
+      </c>
+      <c r="Y28">
+        <f>W28*U28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -1680,43 +2001,135 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
+      <c r="T29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <f>Z18</f>
+        <v>9</v>
+      </c>
+      <c r="W29">
+        <f>Z22</f>
+        <v>45</v>
+      </c>
+      <c r="X29" s="19">
+        <f t="shared" ref="X29:X38" si="40">V29+W29</f>
+        <v>54</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ref="Y29:Y38" si="41">W29*U29</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+      <c r="V30">
+        <f>Z18</f>
+        <v>9</v>
+      </c>
+      <c r="W30" s="19">
+        <f>Z21</f>
+        <v>9</v>
+      </c>
+      <c r="X30" s="19">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="41"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T31" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31">
+        <f>Z18</f>
+        <v>9</v>
+      </c>
+      <c r="W31">
+        <f>Z20</f>
+        <v>9</v>
+      </c>
+      <c r="X31" s="19">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="41"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="K32" s="17" t="s">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="K32" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="T32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32">
+        <v>21</v>
+      </c>
+      <c r="V32">
+        <f>Z18</f>
+        <v>9</v>
+      </c>
+      <c r="W32" s="19">
+        <f>Z19</f>
+        <v>9</v>
+      </c>
+      <c r="X32" s="19">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="41"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -1759,8 +2172,30 @@
       <c r="Q33" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33">
+        <v>30</v>
+      </c>
+      <c r="V33">
+        <f>Z18</f>
+        <v>9</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W38" si="42">Z18</f>
+        <v>9</v>
+      </c>
+      <c r="X33" s="19">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="41"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -1812,8 +2247,29 @@
         <f>P34-O34</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <v>28</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34" s="19">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="X34" s="19">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="41"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -1825,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="36">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="43">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -1833,7 +2289,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="37">D35*36</f>
+        <f t="shared" ref="G35:G37" si="44">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -1850,7 +2306,7 @@
         <v>0.2</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N39" si="38">L35*M35</f>
+        <f t="shared" ref="N35:N39" si="45">L35*M35</f>
         <v>3.6</v>
       </c>
       <c r="O35" s="10">
@@ -1858,15 +2314,36 @@
         <v>5.4</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" ref="P35:P39" si="39">M35*36</f>
+        <f t="shared" ref="P35:P39" si="46">M35*36</f>
         <v>7.2</v>
       </c>
       <c r="Q35" s="10">
         <f>P35-O35</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35">
+        <v>14</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="X35" s="19">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="41"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -1878,19 +2355,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="40">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="47">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="41">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="48">G36-F36</f>
         <v>72</v>
       </c>
       <c r="K36" s="8">
@@ -1903,23 +2380,44 @@
         <v>0.4</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>7.2</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" ref="O36:O39" si="42">N36+O35</f>
+        <f t="shared" ref="O36:O39" si="49">N36+O35</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>14.4</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" ref="Q36:Q39" si="43">P36-O36</f>
+        <f t="shared" ref="Q36:Q39" si="50">P36-O36</f>
         <v>1.7999999999999989</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36">
+        <v>12</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36" s="19">
+        <f t="shared" si="42"/>
+        <v>9</v>
+      </c>
+      <c r="X36" s="19">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="41"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -1931,19 +2429,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>72</v>
       </c>
       <c r="K37" s="8">
@@ -1956,23 +2454,44 @@
         <v>0.8</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>14.4</v>
       </c>
       <c r="O37" s="10">
+        <f t="shared" si="49"/>
+        <v>27</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" si="46"/>
+        <v>28.8</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" si="50"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="T37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="42"/>
-        <v>27</v>
-      </c>
-      <c r="P37" s="8">
-        <f t="shared" si="39"/>
-        <v>28.8</v>
-      </c>
-      <c r="Q37" s="10">
-        <f t="shared" si="43"/>
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="X37" s="19">
+        <f t="shared" si="40"/>
+        <v>45</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -1984,19 +2503,19 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="44">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="51">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="45">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="52">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="46">D38*36</f>
+        <f t="shared" ref="G38:G39" si="53">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="47">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="54">G38-F38</f>
         <v>252</v>
       </c>
       <c r="K38" s="8">
@@ -2009,23 +2528,44 @@
         <v>1.6</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>28.8</v>
       </c>
       <c r="O38" s="10">
+        <f t="shared" si="49"/>
+        <v>55.8</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="46"/>
+        <v>57.6</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" si="50"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="T38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="20">
+        <v>3</v>
+      </c>
+      <c r="V38" s="20">
+        <v>0</v>
+      </c>
+      <c r="W38" s="21">
         <f t="shared" si="42"/>
-        <v>55.8</v>
-      </c>
-      <c r="P38" s="8">
-        <f t="shared" si="39"/>
-        <v>57.6</v>
-      </c>
-      <c r="Q38" s="8">
-        <f t="shared" si="43"/>
-        <v>1.8000000000000043</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="X38" s="21">
+        <f t="shared" si="40"/>
+        <v>45</v>
+      </c>
+      <c r="Y38" s="20">
+        <f t="shared" si="41"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -2037,19 +2577,19 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>252</v>
       </c>
       <c r="K39" s="8">
@@ -2062,23 +2602,35 @@
         <v>3.2</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>57.6</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>113.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>115.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>1.7999999999999972</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U39">
+        <f>SUM(U28:U38)</f>
+        <v>125</v>
+      </c>
+      <c r="Y39" s="22">
+        <f>SUM(Y28:Y38)</f>
+        <v>1341</v>
+      </c>
+      <c r="Z39">
+        <f>Y39/U39</f>
+        <v>10.728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -2089,23 +2641,27 @@
         <v>6.4</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40:N42" si="48">L40*M40</f>
+        <f t="shared" ref="N40:N42" si="55">L40*M40</f>
         <v>115.2</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" ref="O40:O42" si="49">N40+O39</f>
+        <f t="shared" ref="O40:O42" si="56">N40+O39</f>
         <v>228.60000000000002</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:P42" si="50">M40*36</f>
+        <f t="shared" ref="P40:P42" si="57">M40*36</f>
         <v>230.4</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40:Q42" si="51">P40-O40</f>
+        <f t="shared" ref="Q40:Q42" si="58">P40-O40</f>
         <v>1.7999999999999829</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y40" s="19">
+        <f>-X23</f>
+        <v>-675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -2116,32 +2672,36 @@
         <v>12.8</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>230.4</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>459</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>460.8</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1.8000000000000114</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="17" t="s">
+      <c r="Y41">
+        <f>SUM(Y39:Y40)</f>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -2152,23 +2712,23 @@
         <v>25.6</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>460.8</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>919.8</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>921.6</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -2219,7 +2779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -2231,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="52">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="59">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -2239,7 +2799,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="53">D45*36</f>
+        <f t="shared" ref="G45:G47" si="60">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -2247,7 +2807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -2259,23 +2819,23 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="54">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="61">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="55">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="62">G46-F46</f>
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -2287,23 +2847,23 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -2315,19 +2875,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="56">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="63">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="57">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="64">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="58">D48*36</f>
+        <f t="shared" ref="G48:G49" si="65">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="59">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="66">G48-F48</f>
         <v>486</v>
       </c>
     </row>
@@ -2343,32 +2903,32 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -2433,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="60">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="67">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -2441,7 +3001,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="61">D55*36</f>
+        <f t="shared" ref="G55:G57" si="68">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -2461,19 +3021,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="62">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="69">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="63">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="70">G56-F56</f>
         <v>360</v>
       </c>
     </row>
@@ -2489,19 +3049,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>360</v>
       </c>
     </row>
@@ -2517,19 +3077,19 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="64">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="71">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="65">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="72">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="66">D58*36</f>
+        <f t="shared" ref="G58:G59" si="73">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="67">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="74">G58-F58</f>
         <v>720</v>
       </c>
     </row>
@@ -2545,32 +3105,32 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -2635,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="68">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="75">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -2643,7 +3203,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="69">D65*36</f>
+        <f t="shared" ref="G65:G69" si="76">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -2663,19 +3223,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="70">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="77">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="71">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="78">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -2691,19 +3251,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>360</v>
       </c>
     </row>
@@ -2719,19 +3279,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>630</v>
       </c>
     </row>
@@ -2747,24 +3307,25 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="T16:Z16"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="B52:H52"/>
@@ -2800,70 +3361,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -3225,36 +3786,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3290,7 +3851,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+      <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3331,7 +3892,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -3370,7 +3931,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10F0DE-E4D9-41D1-80BF-8DC6676C2E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279CEA07-E3B1-42D5-99AA-3CAE440E5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A2:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" ref="Y19:Y23" si="25">V19*36</f>
+        <f t="shared" ref="Y19:Y24" si="25">V19*36</f>
         <v>36</v>
       </c>
       <c r="Z19" s="10">
@@ -1479,23 +1479,23 @@
         <v>18</v>
       </c>
       <c r="V20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="X20" s="10">
         <f t="shared" ref="X20:X23" si="26">W20+X19</f>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="25"/>
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ref="Z20:Z23" si="27">Y20-X20</f>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AB20" s="9">
         <v>1</v>
@@ -1521,23 +1521,23 @@
         <v>18</v>
       </c>
       <c r="V21" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="24"/>
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="X21" s="10">
         <f t="shared" si="26"/>
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="25"/>
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="Z21" s="10">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AB21" s="9">
         <v>2</v>
@@ -1581,23 +1581,23 @@
         <v>18</v>
       </c>
       <c r="V22" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="24"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="X22" s="10">
         <f t="shared" si="26"/>
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="25"/>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" si="27"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB22" s="9">
         <v>5</v>
@@ -1657,23 +1657,23 @@
         <v>18</v>
       </c>
       <c r="V23" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="24"/>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="X23" s="10">
         <f t="shared" si="26"/>
-        <v>675</v>
+        <v>999</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="25"/>
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="Z23" s="10">
         <f t="shared" si="27"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AB23" s="9">
         <v>10</v>
@@ -1731,13 +1731,31 @@
         <f>P24-O24</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="T24" s="8">
+        <v>7</v>
+      </c>
+      <c r="U24" s="8">
+        <v>18</v>
+      </c>
+      <c r="V24" s="9">
+        <v>70</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" ref="W24:W25" si="30">U24*V24</f>
+        <v>1260</v>
+      </c>
+      <c r="X24" s="10">
+        <f t="shared" ref="X24:X25" si="31">W24+X23</f>
+        <v>2259</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" ref="Y24:Y25" si="32">V24*36</f>
+        <v>2520</v>
+      </c>
+      <c r="Z24" s="8">
+        <f t="shared" ref="Z24:Z25" si="33">Y24-X24</f>
+        <v>261</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
@@ -1751,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="30">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="34">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -1759,7 +1777,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="31">D25*36</f>
+        <f t="shared" ref="G25:G27" si="35">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
@@ -1780,7 +1798,7 @@
         <v>7.2</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25:O28" si="32">N25+O24</f>
+        <f t="shared" ref="O25:O28" si="36">N25+O24</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P25" s="8">
@@ -1788,16 +1806,34 @@
         <v>14.4</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:Q28" si="33">P25-O25</f>
+        <f t="shared" ref="Q25:Q28" si="37">P25-O25</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+      <c r="T25" s="8">
+        <v>8</v>
+      </c>
+      <c r="U25" s="8">
+        <v>18</v>
+      </c>
+      <c r="V25" s="9">
+        <v>140</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="30"/>
+        <v>2520</v>
+      </c>
+      <c r="X25" s="10">
+        <f t="shared" si="31"/>
+        <v>4779</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="32"/>
+        <v>5040</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" si="33"/>
+        <v>261</v>
+      </c>
     </row>
     <row r="26" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
@@ -1811,19 +1847,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="34">E26+F25</f>
+        <f t="shared" ref="F26:F27" si="38">E26+F25</f>
         <v>144</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>180</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="35">G26-F26</f>
+        <f t="shared" ref="H26:H27" si="39">G26-F26</f>
         <v>36</v>
       </c>
       <c r="K26" s="8">
@@ -1840,7 +1876,7 @@
         <v>18</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30.6</v>
       </c>
       <c r="P26" s="8">
@@ -1848,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="V26" t="s">
@@ -1873,19 +1909,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>324</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>360</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
       <c r="K27" s="8">
@@ -1902,7 +1938,7 @@
         <v>36</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>66.599999999999994</v>
       </c>
       <c r="P27" s="8">
@@ -1910,7 +1946,7 @@
         <v>72</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.4000000000000057</v>
       </c>
     </row>
@@ -1926,19 +1962,19 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="36">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="40">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="37">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="41">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="38">D28*36</f>
+        <f t="shared" ref="G28:G29" si="42">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="39">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="43">G28-F28</f>
         <v>36</v>
       </c>
       <c r="K28" s="8">
@@ -1955,7 +1991,7 @@
         <v>72</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>138.6</v>
       </c>
       <c r="P28" s="8">
@@ -1963,7 +1999,7 @@
         <v>144</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="T28" s="18" t="s">
@@ -1978,11 +2014,11 @@
       </c>
       <c r="W28" s="19">
         <f>Z23</f>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X28" s="19">
         <f>V28+W28</f>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="Y28">
         <f>W28*U28</f>
@@ -2001,19 +2037,19 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>216</v>
       </c>
       <c r="T29" s="18" t="s">
@@ -2028,15 +2064,15 @@
       </c>
       <c r="W29">
         <f>Z22</f>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" ref="X29:X38" si="40">V29+W29</f>
-        <v>54</v>
+        <f t="shared" ref="X29:X38" si="44">V29+W29</f>
+        <v>90</v>
       </c>
       <c r="Y29">
-        <f t="shared" ref="Y29:Y38" si="41">W29*U29</f>
-        <v>45</v>
+        <f t="shared" ref="Y29:Y38" si="45">W29*U29</f>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2052,15 +2088,15 @@
       </c>
       <c r="W30" s="19">
         <f>Z21</f>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="X30" s="19">
-        <f t="shared" si="40"/>
-        <v>18</v>
+        <f t="shared" si="44"/>
+        <v>36</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="41"/>
-        <v>63</v>
+        <f t="shared" si="45"/>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2068,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="U31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V31">
         <f>Z18</f>
@@ -2076,15 +2112,15 @@
       </c>
       <c r="W31">
         <f>Z20</f>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="X31" s="19">
-        <f t="shared" si="40"/>
-        <v>18</v>
+        <f t="shared" si="44"/>
+        <v>36</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="41"/>
-        <v>63</v>
+        <f t="shared" si="45"/>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2110,7 +2146,7 @@
         <v>23</v>
       </c>
       <c r="U32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V32">
         <f>Z18</f>
@@ -2121,12 +2157,12 @@
         <v>9</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="41"/>
-        <v>189</v>
+        <f t="shared" si="45"/>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2176,23 +2212,23 @@
         <v>22</v>
       </c>
       <c r="U33">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="V33">
         <f>Z18</f>
         <v>9</v>
       </c>
       <c r="W33">
-        <f t="shared" ref="W33:W38" si="42">Z18</f>
+        <f t="shared" ref="W33:W38" si="46">Z18</f>
         <v>9</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="41"/>
-        <v>270</v>
+        <f t="shared" si="45"/>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2251,22 +2287,22 @@
         <v>28</v>
       </c>
       <c r="U34">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="X34" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="41"/>
-        <v>252</v>
+        <f t="shared" si="45"/>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2281,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="43">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="47">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -2289,7 +2325,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="44">D35*36</f>
+        <f t="shared" ref="G35:G37" si="48">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -2306,7 +2342,7 @@
         <v>0.2</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N39" si="45">L35*M35</f>
+        <f t="shared" ref="N35:N39" si="49">L35*M35</f>
         <v>3.6</v>
       </c>
       <c r="O35" s="10">
@@ -2314,7 +2350,7 @@
         <v>5.4</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" ref="P35:P39" si="46">M35*36</f>
+        <f t="shared" ref="P35:P39" si="50">M35*36</f>
         <v>7.2</v>
       </c>
       <c r="Q35" s="10">
@@ -2325,22 +2361,22 @@
         <v>29</v>
       </c>
       <c r="U35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="42"/>
-        <v>9</v>
+        <f t="shared" si="46"/>
+        <v>27</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="40"/>
-        <v>9</v>
+        <f t="shared" si="44"/>
+        <v>27</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="41"/>
-        <v>126</v>
+        <f t="shared" si="45"/>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2355,19 +2391,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="47">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="51">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="48">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="52">G36-F36</f>
         <v>72</v>
       </c>
       <c r="K36" s="8">
@@ -2380,41 +2416,41 @@
         <v>0.4</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>7.2</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" ref="O36:O39" si="49">N36+O35</f>
+        <f t="shared" ref="O36:O39" si="53">N36+O35</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>14.4</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" ref="Q36:Q39" si="50">P36-O36</f>
+        <f t="shared" ref="Q36:Q39" si="54">P36-O36</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="T36" s="18" t="s">
         <v>30</v>
       </c>
       <c r="U36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36" s="19">
-        <f t="shared" si="42"/>
-        <v>9</v>
+        <f t="shared" si="46"/>
+        <v>27</v>
       </c>
       <c r="X36" s="19">
-        <f t="shared" si="40"/>
-        <v>9</v>
+        <f t="shared" si="44"/>
+        <v>27</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="41"/>
-        <v>108</v>
+        <f t="shared" si="45"/>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2429,19 +2465,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>72</v>
       </c>
       <c r="K37" s="8">
@@ -2454,19 +2490,19 @@
         <v>0.8</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>14.4</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>27</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>28.8</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="T37" s="18" t="s">
@@ -2479,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="42"/>
-        <v>45</v>
+        <f t="shared" si="46"/>
+        <v>81</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" si="40"/>
-        <v>45</v>
+        <f t="shared" si="44"/>
+        <v>81</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="41"/>
-        <v>90</v>
+        <f t="shared" si="45"/>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2503,19 +2539,19 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="51">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="55">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="52">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="56">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="53">D38*36</f>
+        <f t="shared" ref="G38:G39" si="57">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="54">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="58">G38-F38</f>
         <v>252</v>
       </c>
       <c r="K38" s="8">
@@ -2528,41 +2564,41 @@
         <v>1.6</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>28.8</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>55.8</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>57.6</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="T38" s="18" t="s">
         <v>32</v>
       </c>
       <c r="U38" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" s="20">
         <v>0</v>
       </c>
       <c r="W38" s="21">
-        <f t="shared" si="42"/>
-        <v>45</v>
+        <f t="shared" si="46"/>
+        <v>81</v>
       </c>
       <c r="X38" s="21">
-        <f t="shared" si="40"/>
-        <v>45</v>
+        <f t="shared" si="44"/>
+        <v>81</v>
       </c>
       <c r="Y38" s="20">
-        <f t="shared" si="41"/>
-        <v>135</v>
+        <f t="shared" si="45"/>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2577,19 +2613,19 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>252</v>
       </c>
       <c r="K39" s="8">
@@ -2602,32 +2638,32 @@
         <v>3.2</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>57.6</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>113.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>115.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="U39">
         <f>SUM(U28:U38)</f>
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="Y39" s="22">
         <f>SUM(Y28:Y38)</f>
-        <v>1341</v>
+        <v>2682</v>
       </c>
       <c r="Z39">
         <f>Y39/U39</f>
-        <v>10.728</v>
+        <v>18.36986301369863</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2641,24 +2677,24 @@
         <v>6.4</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40:N42" si="55">L40*M40</f>
+        <f t="shared" ref="N40:N42" si="59">L40*M40</f>
         <v>115.2</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" ref="O40:O42" si="56">N40+O39</f>
+        <f t="shared" ref="O40:O42" si="60">N40+O39</f>
         <v>228.60000000000002</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:P42" si="57">M40*36</f>
+        <f t="shared" ref="P40:P42" si="61">M40*36</f>
         <v>230.4</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40:Q42" si="58">P40-O40</f>
+        <f t="shared" ref="Q40:Q42" si="62">P40-O40</f>
         <v>1.7999999999999829</v>
       </c>
       <c r="Y40" s="19">
         <f>-X23</f>
-        <v>-675</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2672,24 +2708,24 @@
         <v>12.8</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>230.4</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>459</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>460.8</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="Y41">
         <f>SUM(Y39:Y40)</f>
-        <v>666</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2712,19 +2748,19 @@
         <v>25.6</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>460.8</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>919.8</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>921.6</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1.8000000000000682</v>
       </c>
     </row>
@@ -2791,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="59">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="63">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -2799,7 +2835,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="60">D45*36</f>
+        <f t="shared" ref="G45:G47" si="64">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -2819,19 +2855,19 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="61">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="65">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="62">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="66">G46-F46</f>
         <v>126</v>
       </c>
     </row>
@@ -2847,19 +2883,19 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>126</v>
       </c>
     </row>
@@ -2875,19 +2911,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="63">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="67">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="64">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="68">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="65">D48*36</f>
+        <f t="shared" ref="G48:G49" si="69">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="66">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="70">G48-F48</f>
         <v>486</v>
       </c>
     </row>
@@ -2903,19 +2939,19 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>486</v>
       </c>
     </row>
@@ -2993,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="67">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="71">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -3001,7 +3037,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="68">D55*36</f>
+        <f t="shared" ref="G55:G57" si="72">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -3021,19 +3057,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="69">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="73">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="70">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="74">G56-F56</f>
         <v>360</v>
       </c>
     </row>
@@ -3049,19 +3085,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>360</v>
       </c>
     </row>
@@ -3077,19 +3113,19 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="71">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="75">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="72">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="76">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="73">D58*36</f>
+        <f t="shared" ref="G58:G59" si="77">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="74">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="78">G58-F58</f>
         <v>720</v>
       </c>
     </row>
@@ -3105,19 +3141,19 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>720</v>
       </c>
     </row>
@@ -3195,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="75">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="79">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -3203,7 +3239,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="76">D65*36</f>
+        <f t="shared" ref="G65:G69" si="80">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -3223,19 +3259,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="77">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="81">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="78">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="82">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -3251,19 +3287,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>360</v>
       </c>
     </row>
@@ -3279,19 +3315,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>630</v>
       </c>
     </row>
@@ -3307,19 +3343,19 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>630</v>
       </c>
     </row>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279CEA07-E3B1-42D5-99AA-3CAE440E5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497006F6-CFBD-4EA7-B98B-8ACBECE8E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
   <si>
     <t>Rep</t>
   </si>
@@ -188,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,6 +301,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -308,6 +317,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,38 +611,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AB69"/>
+  <dimension ref="A2:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AB10:AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="16" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
+    <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -667,8 +687,26 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AB3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+    </row>
+    <row r="4" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -720,8 +758,50 @@
         <f>P4-O4</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -773,8 +853,58 @@
         <f>P5-O5</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>18</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="8">
+        <f>U5*V5</f>
+        <v>1.8</v>
+      </c>
+      <c r="X5" s="10">
+        <f>W5</f>
+        <v>1.8</v>
+      </c>
+      <c r="Y5" s="8">
+        <f>V5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>Y5-X5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>AC5*AD5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AF5" s="10">
+        <f>AE5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>AD5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AG5-AF5</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -826,8 +956,58 @@
         <f t="shared" ref="Q6:Q9" si="7">P6-O6</f>
         <v>3.5999999999999979</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T6" s="8">
+        <v>2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>18</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" ref="W6:W12" si="8">U6*V6</f>
+        <v>3.6</v>
+      </c>
+      <c r="X6" s="10">
+        <f>W6+X5</f>
+        <v>5.4</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" ref="Y6:Y12" si="9">V6*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="Z6" s="10">
+        <f>Y6-X6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AE6" s="8">
+        <f t="shared" ref="AE6:AE12" si="10">AC6*AD6</f>
+        <v>3.6</v>
+      </c>
+      <c r="AF6" s="10">
+        <f>AE6+AF5</f>
+        <v>5.4</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" ref="AG6:AG12" si="11">AD6*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="AH6" s="10">
+        <f>AG6-AF6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -879,8 +1059,58 @@
         <f t="shared" si="7"/>
         <v>7.1999999999999957</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T7" s="8">
+        <v>3</v>
+      </c>
+      <c r="U7" s="8">
+        <v>18</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="X7" s="10">
+        <f t="shared" ref="X7:X12" si="12">W7+X6</f>
+        <v>14.4</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" ref="Z7:Z12" si="13">Y7-X7</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="AE7" s="8">
+        <f t="shared" si="10"/>
+        <v>7.2</v>
+      </c>
+      <c r="AF7" s="10">
+        <f t="shared" ref="AF7:AF12" si="14">AE7+AF6</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
+      <c r="AH7" s="8">
+        <f t="shared" ref="AH7:AH12" si="15">AG7-AF7</f>
+        <v>1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -892,19 +1122,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E9" si="8">C8*D8</f>
+        <f t="shared" ref="E8:E9" si="16">C8*D8</f>
         <v>90</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="9">E8+F7</f>
+        <f t="shared" ref="F8:F9" si="17">E8+F7</f>
         <v>154.80000000000001</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G9" si="10">D8*36</f>
+        <f t="shared" ref="G8:G9" si="18">D8*36</f>
         <v>180</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H9" si="11">G8-F8</f>
+        <f t="shared" ref="H8:H9" si="19">G8-F8</f>
         <v>25.199999999999989</v>
       </c>
       <c r="K8" s="8">
@@ -932,8 +1162,58 @@
         <f t="shared" si="7"/>
         <v>7.2000000000000028</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="8">
+        <v>4</v>
+      </c>
+      <c r="U8" s="8">
+        <v>18</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="X8" s="10">
+        <f t="shared" si="12"/>
+        <v>32.4</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="13"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AE8" s="8">
+        <f t="shared" si="10"/>
+        <v>14.4</v>
+      </c>
+      <c r="AF8" s="10">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="11"/>
+        <v>28.8</v>
+      </c>
+      <c r="AH8" s="10">
+        <f t="shared" si="15"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -945,19 +1225,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>180</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>334.8</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>360</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>25.199999999999989</v>
       </c>
       <c r="K9" s="8">
@@ -985,28 +1265,180 @@
         <f t="shared" si="7"/>
         <v>14.400000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="23" t="s">
+      <c r="T9" s="8">
+        <v>5</v>
+      </c>
+      <c r="U9" s="8">
+        <v>18</v>
+      </c>
+      <c r="V9" s="9">
+        <v>2</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="X9" s="10">
+        <f t="shared" si="12"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" si="13"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AE9" s="8">
+        <f t="shared" si="10"/>
+        <v>28.8</v>
+      </c>
+      <c r="AF9" s="10">
+        <f t="shared" si="14"/>
+        <v>55.8</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="11"/>
+        <v>57.6</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="15"/>
+        <v>1.8000000000000043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T10" s="8">
+        <v>6</v>
+      </c>
+      <c r="U10" s="8">
+        <v>18</v>
+      </c>
+      <c r="V10" s="9">
+        <v>5</v>
+      </c>
+      <c r="W10" s="8">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="X10" s="10">
+        <f t="shared" si="12"/>
+        <v>158.4</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="13"/>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="AE10" s="8">
+        <f t="shared" si="10"/>
+        <v>57.6</v>
+      </c>
+      <c r="AF10" s="10">
+        <f t="shared" si="14"/>
+        <v>113.4</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="11"/>
+        <v>115.2</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" si="15"/>
+        <v>1.7999999999999972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="T11" s="8">
+        <v>7</v>
+      </c>
+      <c r="U11" s="8">
+        <v>18</v>
+      </c>
+      <c r="V11" s="9">
+        <v>10</v>
+      </c>
+      <c r="W11" s="8">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="X11" s="10">
+        <f t="shared" si="12"/>
+        <v>338.4</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="Z11" s="8">
+        <f t="shared" si="13"/>
+        <v>21.600000000000023</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="AE11" s="8">
+        <f t="shared" si="10"/>
+        <v>115.2</v>
+      </c>
+      <c r="AF11" s="10">
+        <f t="shared" si="14"/>
+        <v>228.60000000000002</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="11"/>
+        <v>230.4</v>
+      </c>
+      <c r="AH11" s="8">
+        <f t="shared" si="15"/>
+        <v>1.7999999999999829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1460,58 @@
       <c r="Q12" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T12" s="8">
+        <v>8</v>
+      </c>
+      <c r="U12" s="8">
+        <v>18</v>
+      </c>
+      <c r="V12" s="9">
+        <v>20</v>
+      </c>
+      <c r="W12" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="X12" s="10">
+        <f t="shared" si="12"/>
+        <v>698.4</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="13"/>
+        <v>21.600000000000023</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="AE12" s="8">
+        <f t="shared" si="10"/>
+        <v>230.4</v>
+      </c>
+      <c r="AF12" s="10">
+        <f t="shared" si="14"/>
+        <v>459</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="11"/>
+        <v>460.8</v>
+      </c>
+      <c r="AH12" s="10">
+        <f t="shared" si="15"/>
+        <v>1.8000000000000114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1559,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1114,7 +1596,7 @@
         <v>0.2</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" ref="N14:N18" si="12">L14*M14</f>
+        <f t="shared" ref="N14:N18" si="20">L14*M14</f>
         <v>3.6</v>
       </c>
       <c r="O14" s="10">
@@ -1122,7 +1604,7 @@
         <v>5.4</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P18" si="13">M14*36</f>
+        <f t="shared" ref="P14:P18" si="21">M14*36</f>
         <v>7.2</v>
       </c>
       <c r="Q14" s="10">
@@ -1130,7 +1612,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -1142,7 +1624,7 @@
         <v>0.8</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E17" si="14">C15*D15</f>
+        <f t="shared" ref="E15:E17" si="22">C15*D15</f>
         <v>14.4</v>
       </c>
       <c r="F15" s="10">
@@ -1150,7 +1632,7 @@
         <v>21.6</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G17" si="15">D15*36</f>
+        <f t="shared" ref="G15:G17" si="23">D15*36</f>
         <v>28.8</v>
       </c>
       <c r="H15" s="10">
@@ -1167,23 +1649,23 @@
         <v>0.4</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7.2</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O18" si="16">N15+O14</f>
+        <f t="shared" ref="O15:O18" si="24">N15+O14</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>14.4</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" ref="Q15:Q18" si="17">P15-O15</f>
+        <f t="shared" ref="Q15:Q18" si="25">P15-O15</f>
         <v>1.7999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -1195,19 +1677,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="18">E16+F15</f>
+        <f t="shared" ref="F16:F17" si="26">E16+F15</f>
         <v>57.6</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>72</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:H17" si="19">G16-F16</f>
+        <f t="shared" ref="H16:H17" si="27">G16-F16</f>
         <v>14.399999999999999</v>
       </c>
       <c r="K16" s="8">
@@ -1220,35 +1702,35 @@
         <v>0.8</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>14.4</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>27</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>28.8</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-    </row>
-    <row r="17" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+    </row>
+    <row r="17" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -1260,19 +1742,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>129.6</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>144</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>14.400000000000006</v>
       </c>
       <c r="K17" s="8">
@@ -1285,19 +1767,19 @@
         <v>1.6</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>28.8</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>55.8</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>57.6</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="S17">
@@ -1324,8 +1806,17 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+    </row>
+    <row r="18" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -1337,19 +1828,19 @@
         <v>10</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E19" si="20">C18*D18</f>
+        <f t="shared" ref="E18:E19" si="28">C18*D18</f>
         <v>180</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="21">E18+F17</f>
+        <f t="shared" ref="F18:F19" si="29">E18+F17</f>
         <v>309.60000000000002</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G19" si="22">D18*36</f>
+        <f t="shared" ref="G18:G19" si="30">D18*36</f>
         <v>360</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:H19" si="23">G18-F18</f>
+        <f t="shared" ref="H18:H19" si="31">G18-F18</f>
         <v>50.399999999999977</v>
       </c>
       <c r="K18" s="8">
@@ -1362,19 +1853,19 @@
         <v>3.2</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>57.6</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>113.4</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>115.2</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="S18">
@@ -1387,29 +1878,50 @@
         <v>18</v>
       </c>
       <c r="V18" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W18" s="8">
         <f>U18*V18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X18" s="10">
         <f>W18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Y18" s="8">
         <f>V18*36</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="8">
         <f>Y18-X18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -1421,19 +1933,19 @@
         <v>20</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>360</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>669.6</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>720</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>50.399999999999977</v>
       </c>
       <c r="S19">
@@ -1446,29 +1958,54 @@
         <v>18</v>
       </c>
       <c r="V19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" ref="W19:W23" si="24">U19*V19</f>
-        <v>18</v>
+        <f t="shared" ref="W19:W23" si="32">U19*V19</f>
+        <v>36</v>
       </c>
       <c r="X19" s="10">
         <f>W19+X18</f>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" ref="Y19:Y24" si="25">V19*36</f>
-        <v>36</v>
+        <f t="shared" ref="Y19:Y23" si="33">V19*36</f>
+        <v>72</v>
       </c>
       <c r="Z19" s="10">
         <f>Y19-X19</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AG19" s="8">
+        <f>AE19*AF19</f>
+        <v>1.8</v>
+      </c>
+      <c r="AH19" s="10">
+        <f>AG19</f>
+        <v>1.8</v>
+      </c>
+      <c r="AI19" s="8">
+        <f>AF19*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f>AI19-AH19</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S20">
         <v>25</v>
       </c>
@@ -1479,38 +2016,63 @@
         <v>18</v>
       </c>
       <c r="V20" s="9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" si="24"/>
-        <v>54</v>
+        <f t="shared" si="32"/>
+        <v>63</v>
       </c>
       <c r="X20" s="10">
-        <f t="shared" ref="X20:X23" si="26">W20+X19</f>
-        <v>81</v>
+        <f t="shared" ref="X20:X23" si="34">W20+X19</f>
+        <v>117</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="25"/>
-        <v>108</v>
+        <f t="shared" si="33"/>
+        <v>126</v>
       </c>
       <c r="Z20" s="8">
-        <f t="shared" ref="Z20:Z23" si="27">Y20-X20</f>
-        <v>27</v>
+        <f t="shared" ref="Z20:Z23" si="35">Y20-X20</f>
+        <v>9</v>
       </c>
       <c r="AB20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="23" t="s">
+      <c r="AD20" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" ref="AG20:AG26" si="36">AE20*AF20</f>
+        <v>3.6</v>
+      </c>
+      <c r="AH20" s="10">
+        <f>AG20+AH19</f>
+        <v>5.4</v>
+      </c>
+      <c r="AI20" s="8">
+        <f t="shared" ref="AI20:AI26" si="37">AF20*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="AJ20" s="10">
+        <f>AI20-AH20</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -1521,38 +2083,63 @@
         <v>18</v>
       </c>
       <c r="V21" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="24"/>
-        <v>108</v>
+        <f t="shared" si="32"/>
+        <v>126</v>
       </c>
       <c r="X21" s="10">
-        <f t="shared" si="26"/>
-        <v>189</v>
+        <f t="shared" si="34"/>
+        <v>243</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="25"/>
-        <v>216</v>
+        <f t="shared" si="33"/>
+        <v>252</v>
       </c>
       <c r="Z21" s="10">
-        <f t="shared" si="27"/>
-        <v>27</v>
+        <f t="shared" si="35"/>
+        <v>9</v>
       </c>
       <c r="AB21" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="23" t="s">
+      <c r="AD21" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="AH21" s="10">
+        <f t="shared" ref="AH21:AH26" si="38">AG21+AH20</f>
+        <v>14.4</v>
+      </c>
+      <c r="AI21" s="8">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f t="shared" ref="AJ21:AJ26" si="39">AI21-AH21</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -1581,29 +2168,54 @@
         <v>18</v>
       </c>
       <c r="V22" s="9">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="24"/>
-        <v>270</v>
+        <f t="shared" si="32"/>
+        <v>248.4</v>
       </c>
       <c r="X22" s="10">
-        <f t="shared" si="26"/>
-        <v>459</v>
+        <f t="shared" si="34"/>
+        <v>491.4</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="25"/>
-        <v>540</v>
+        <f t="shared" si="33"/>
+        <v>496.8</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="27"/>
-        <v>81</v>
+        <f t="shared" si="35"/>
+        <v>5.4000000000000341</v>
       </c>
       <c r="AB22" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD22" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+      <c r="AH22" s="10">
+        <f t="shared" si="38"/>
+        <v>32.4</v>
+      </c>
+      <c r="AI22" s="8">
+        <f t="shared" si="37"/>
+        <v>36</v>
+      </c>
+      <c r="AJ22" s="10">
+        <f t="shared" si="39"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1657,29 +2269,54 @@
         <v>18</v>
       </c>
       <c r="V23" s="9">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="24"/>
-        <v>540</v>
+        <f t="shared" si="32"/>
+        <v>496.8</v>
       </c>
       <c r="X23" s="10">
-        <f t="shared" si="26"/>
-        <v>999</v>
+        <f t="shared" si="34"/>
+        <v>988.2</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="25"/>
-        <v>1080</v>
+        <f t="shared" si="33"/>
+        <v>993.6</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="27"/>
-        <v>81</v>
+        <f t="shared" si="35"/>
+        <v>5.3999999999999773</v>
       </c>
       <c r="AB23" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD23" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="36"/>
+        <v>39.6</v>
+      </c>
+      <c r="AH23" s="10">
+        <f t="shared" si="38"/>
+        <v>72</v>
+      </c>
+      <c r="AI23" s="8">
+        <f t="shared" si="37"/>
+        <v>79.2</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f t="shared" si="39"/>
+        <v>7.2000000000000028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -1716,7 +2353,7 @@
         <v>0.2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" ref="N24:N28" si="28">L24*M24</f>
+        <f t="shared" ref="N24:N28" si="40">L24*M24</f>
         <v>3.6</v>
       </c>
       <c r="O24" s="10">
@@ -1724,7 +2361,7 @@
         <v>5.4</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" ref="P24:P28" si="29">M24*36</f>
+        <f t="shared" ref="P24:P28" si="41">M24*36</f>
         <v>7.2</v>
       </c>
       <c r="Q24" s="10">
@@ -1738,26 +2375,51 @@
         <v>18</v>
       </c>
       <c r="V24" s="9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" ref="W24:W25" si="30">U24*V24</f>
-        <v>1260</v>
+        <f t="shared" ref="W24:W25" si="42">U24*V24</f>
+        <v>180</v>
       </c>
       <c r="X24" s="10">
-        <f t="shared" ref="X24:X25" si="31">W24+X23</f>
-        <v>2259</v>
+        <f t="shared" ref="X24:X25" si="43">W24+X23</f>
+        <v>1168.2</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" ref="Y24:Y25" si="32">V24*36</f>
-        <v>2520</v>
+        <f t="shared" ref="Y24:Y25" si="44">V24*36</f>
+        <v>360</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" ref="Z24:Z25" si="33">Y24-X24</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Z24:Z25" si="45">Y24-X24</f>
+        <v>-808.2</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="36"/>
+        <v>79.2</v>
+      </c>
+      <c r="AH24" s="10">
+        <f t="shared" si="38"/>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="AI24" s="8">
+        <f t="shared" si="37"/>
+        <v>158.4</v>
+      </c>
+      <c r="AJ24" s="10">
+        <f t="shared" si="39"/>
+        <v>7.2000000000000171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -1769,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="34">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="46">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -1777,7 +2439,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="35">D25*36</f>
+        <f t="shared" ref="G25:G27" si="47">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
@@ -1794,19 +2456,19 @@
         <v>0.4</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>7.2</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25:O28" si="36">N25+O24</f>
+        <f t="shared" ref="O25:O28" si="48">N25+O24</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>14.4</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:Q28" si="37">P25-O25</f>
+        <f t="shared" ref="Q25:Q28" si="49">P25-O25</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="T25" s="8">
@@ -1816,26 +2478,51 @@
         <v>18</v>
       </c>
       <c r="V25" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="30"/>
-        <v>2520</v>
+        <f t="shared" si="42"/>
+        <v>360</v>
       </c>
       <c r="X25" s="10">
-        <f t="shared" si="31"/>
-        <v>4779</v>
+        <f t="shared" si="43"/>
+        <v>1528.2</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="32"/>
-        <v>5040</v>
+        <f t="shared" si="44"/>
+        <v>720</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="33"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>-808.2</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="36"/>
+        <v>162</v>
+      </c>
+      <c r="AH25" s="10">
+        <f t="shared" si="38"/>
+        <v>313.2</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="37"/>
+        <v>324</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="39"/>
+        <v>10.800000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -1847,19 +2534,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>90</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="38">E26+F25</f>
+        <f t="shared" ref="F26:F27" si="50">E26+F25</f>
         <v>144</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>180</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="39">G26-F26</f>
+        <f t="shared" ref="H26:H27" si="51">G26-F26</f>
         <v>36</v>
       </c>
       <c r="K26" s="8">
@@ -1872,19 +2559,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>18</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>30.6</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>36</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="V26" t="s">
@@ -1896,8 +2583,33 @@
       <c r="AB26" s="10">
         <v>140.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD26" s="8">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>18</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="36"/>
+        <v>324</v>
+      </c>
+      <c r="AH26" s="10">
+        <f t="shared" si="38"/>
+        <v>637.20000000000005</v>
+      </c>
+      <c r="AI26" s="8">
+        <f t="shared" si="37"/>
+        <v>648</v>
+      </c>
+      <c r="AJ26" s="10">
+        <f t="shared" si="39"/>
+        <v>10.799999999999955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -1909,19 +2621,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>180</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>324</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>360</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>36</v>
       </c>
       <c r="K27" s="8">
@@ -1934,23 +2646,23 @@
         <v>2</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>66.599999999999994</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>72</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>5.4000000000000057</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -1962,19 +2674,19 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="40">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="52">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="41">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="53">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="42">D28*36</f>
+        <f t="shared" ref="G28:G29" si="54">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="43">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="55">G28-F28</f>
         <v>36</v>
       </c>
       <c r="K28" s="8">
@@ -1987,19 +2699,19 @@
         <v>4</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>72</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>138.6</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>144</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="T28" s="18" t="s">
@@ -2010,22 +2722,22 @@
       </c>
       <c r="V28">
         <f>Z18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W28" s="19">
         <f>Z23</f>
-        <v>81</v>
+        <v>5.3999999999999773</v>
       </c>
       <c r="X28" s="19">
         <f>V28+W28</f>
-        <v>90</v>
+        <v>23.399999999999977</v>
       </c>
       <c r="Y28">
         <f>W28*U28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -2037,19 +2749,19 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>216</v>
       </c>
       <c r="T29" s="18" t="s">
@@ -2060,22 +2772,31 @@
       </c>
       <c r="V29">
         <f>Z18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W29">
         <f>Z22</f>
-        <v>81</v>
+        <v>5.4000000000000341</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" ref="X29:X38" si="44">V29+W29</f>
-        <v>90</v>
+        <f t="shared" ref="X29:X38" si="56">V29+W29</f>
+        <v>23.400000000000034</v>
       </c>
       <c r="Y29">
-        <f t="shared" ref="Y29:Y38" si="45">W29*U29</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Y29:Y38" si="57">W29*U29</f>
+        <v>5.4000000000000341</v>
+      </c>
+      <c r="AD29" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="24"/>
+    </row>
+    <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -2084,22 +2805,43 @@
       </c>
       <c r="V30">
         <f>Z18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W30" s="19">
         <f>Z21</f>
+        <v>9</v>
+      </c>
+      <c r="X30" s="19">
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
-      <c r="X30" s="19">
-        <f t="shared" si="44"/>
-        <v>36</v>
-      </c>
       <c r="Y30">
-        <f t="shared" si="45"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="57"/>
+        <v>63</v>
+      </c>
+      <c r="AD30" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -2108,40 +2850,65 @@
       </c>
       <c r="V31">
         <f>Z18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W31">
         <f>Z20</f>
+        <v>9</v>
+      </c>
+      <c r="X31" s="19">
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
-      <c r="X31" s="19">
-        <f t="shared" si="44"/>
+      <c r="Y31">
+        <f t="shared" si="57"/>
+        <v>72</v>
+      </c>
+      <c r="AD31" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="30">
+        <v>18</v>
+      </c>
+      <c r="AF31" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="30">
+        <f>AE31*AF31</f>
+        <v>18</v>
+      </c>
+      <c r="AH31" s="32">
+        <f>AG31</f>
+        <v>18</v>
+      </c>
+      <c r="AI31" s="30">
+        <f>AF31*36</f>
         <v>36</v>
       </c>
-      <c r="Y31">
-        <f t="shared" si="45"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="23" t="s">
+      <c r="AJ31" s="30">
+        <f>AI31-AH31</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="K32" s="23" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="K32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -2150,22 +2917,47 @@
       </c>
       <c r="V32">
         <f>Z18</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="W32" s="19">
         <f>Z19</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" si="44"/>
-        <v>18</v>
+        <f t="shared" si="56"/>
+        <v>36</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="45"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="57"/>
+        <v>432</v>
+      </c>
+      <c r="AD32" s="30">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="30">
+        <v>18</v>
+      </c>
+      <c r="AF32" s="31">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="30">
+        <f t="shared" ref="AG32:AG38" si="58">AE32*AF32</f>
+        <v>36</v>
+      </c>
+      <c r="AH32" s="32">
+        <f>AG32+AH31</f>
+        <v>54</v>
+      </c>
+      <c r="AI32" s="30">
+        <f t="shared" ref="AI32:AI38" si="59">AF32*36</f>
+        <v>72</v>
+      </c>
+      <c r="AJ32" s="32">
+        <f>AI32-AH32</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -2216,22 +3008,47 @@
       </c>
       <c r="V33">
         <f>Z18</f>
+        <v>18</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W38" si="60">Z18</f>
+        <v>18</v>
+      </c>
+      <c r="X33" s="19">
+        <f t="shared" si="56"/>
+        <v>36</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="57"/>
+        <v>684</v>
+      </c>
+      <c r="AD33" s="30">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="30">
+        <v>18</v>
+      </c>
+      <c r="AF33" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="AG33" s="30">
+        <f t="shared" si="58"/>
+        <v>63</v>
+      </c>
+      <c r="AH33" s="32">
+        <f t="shared" ref="AH33:AH38" si="61">AG33+AH32</f>
+        <v>117</v>
+      </c>
+      <c r="AI33" s="30">
+        <f t="shared" si="59"/>
+        <v>126</v>
+      </c>
+      <c r="AJ33" s="30">
+        <f t="shared" ref="AJ33:AJ38" si="62">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="W33">
-        <f t="shared" ref="W33:W38" si="46">Z18</f>
-        <v>9</v>
-      </c>
-      <c r="X33" s="19">
-        <f t="shared" si="44"/>
-        <v>18</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="45"/>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -2293,19 +3110,44 @@
         <v>0</v>
       </c>
       <c r="W34" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
+        <v>18</v>
+      </c>
+      <c r="X34" s="19">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="57"/>
+        <v>576</v>
+      </c>
+      <c r="AD34" s="30">
+        <v>4</v>
+      </c>
+      <c r="AE34" s="30">
+        <v>18</v>
+      </c>
+      <c r="AF34" s="31">
+        <v>7</v>
+      </c>
+      <c r="AG34" s="30">
+        <f t="shared" si="58"/>
+        <v>126</v>
+      </c>
+      <c r="AH34" s="32">
+        <f t="shared" si="61"/>
+        <v>243</v>
+      </c>
+      <c r="AI34" s="30">
+        <f t="shared" si="59"/>
+        <v>252</v>
+      </c>
+      <c r="AJ34" s="32">
+        <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="X34" s="19">
-        <f t="shared" si="44"/>
-        <v>9</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="45"/>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -2317,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="47">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="63">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -2325,7 +3167,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="48">D35*36</f>
+        <f t="shared" ref="G35:G37" si="64">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -2342,7 +3184,7 @@
         <v>0.2</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N39" si="49">L35*M35</f>
+        <f t="shared" ref="N35:N39" si="65">L35*M35</f>
         <v>3.6</v>
       </c>
       <c r="O35" s="10">
@@ -2350,7 +3192,7 @@
         <v>5.4</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" ref="P35:P39" si="50">M35*36</f>
+        <f t="shared" ref="P35:P39" si="66">M35*36</f>
         <v>7.2</v>
       </c>
       <c r="Q35" s="10">
@@ -2367,19 +3209,44 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="46"/>
-        <v>27</v>
+        <f t="shared" si="60"/>
+        <v>9</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="44"/>
-        <v>27</v>
+        <f t="shared" si="56"/>
+        <v>9</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="45"/>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="57"/>
+        <v>144</v>
+      </c>
+      <c r="AD35" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="30">
+        <v>18</v>
+      </c>
+      <c r="AF35" s="31">
+        <v>13.8</v>
+      </c>
+      <c r="AG35" s="30">
+        <f t="shared" si="58"/>
+        <v>248.4</v>
+      </c>
+      <c r="AH35" s="32">
+        <f t="shared" si="61"/>
+        <v>491.4</v>
+      </c>
+      <c r="AI35" s="30">
+        <f t="shared" si="59"/>
+        <v>496.8</v>
+      </c>
+      <c r="AJ35" s="30">
+        <f t="shared" si="62"/>
+        <v>5.4000000000000341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -2391,19 +3258,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="51">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="67">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="52">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="68">G36-F36</f>
         <v>72</v>
       </c>
       <c r="K36" s="8">
@@ -2416,19 +3283,19 @@
         <v>0.4</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>7.2</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" ref="O36:O39" si="53">N36+O35</f>
+        <f t="shared" ref="O36:O39" si="69">N36+O35</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>14.4</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" ref="Q36:Q39" si="54">P36-O36</f>
+        <f t="shared" ref="Q36:Q39" si="70">P36-O36</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="T36" s="18" t="s">
@@ -2441,19 +3308,44 @@
         <v>0</v>
       </c>
       <c r="W36" s="19">
-        <f t="shared" si="46"/>
-        <v>27</v>
+        <f t="shared" si="60"/>
+        <v>9</v>
       </c>
       <c r="X36" s="19">
-        <f t="shared" si="44"/>
-        <v>27</v>
+        <f t="shared" si="56"/>
+        <v>9</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="45"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="57"/>
+        <v>117</v>
+      </c>
+      <c r="AD36" s="30">
+        <v>6</v>
+      </c>
+      <c r="AE36" s="30">
+        <v>18</v>
+      </c>
+      <c r="AF36" s="31">
+        <v>27.6</v>
+      </c>
+      <c r="AG36" s="30">
+        <f t="shared" si="58"/>
+        <v>496.8</v>
+      </c>
+      <c r="AH36" s="32">
+        <f t="shared" si="61"/>
+        <v>988.2</v>
+      </c>
+      <c r="AI36" s="30">
+        <f t="shared" si="59"/>
+        <v>993.6</v>
+      </c>
+      <c r="AJ36" s="32">
+        <f t="shared" si="62"/>
+        <v>5.3999999999999773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -2465,19 +3357,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>72</v>
       </c>
       <c r="K37" s="8">
@@ -2490,19 +3382,19 @@
         <v>0.8</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>14.4</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>27</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>28.8</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="T37" s="18" t="s">
@@ -2515,19 +3407,44 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="46"/>
-        <v>81</v>
+        <f t="shared" si="60"/>
+        <v>5.4000000000000341</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" si="44"/>
-        <v>81</v>
+        <f t="shared" si="56"/>
+        <v>5.4000000000000341</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
+        <v>10.800000000000068</v>
+      </c>
+      <c r="AD37" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="58"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH37" s="10">
+        <f t="shared" si="61"/>
+        <v>1150.2</v>
+      </c>
+      <c r="AI37" s="8">
+        <f t="shared" si="59"/>
+        <v>324</v>
+      </c>
+      <c r="AJ37" s="8">
+        <f t="shared" si="62"/>
+        <v>-826.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -2539,19 +3456,19 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="55">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="71">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="56">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="72">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="57">D38*36</f>
+        <f t="shared" ref="G38:G39" si="73">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="58">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="74">G38-F38</f>
         <v>252</v>
       </c>
       <c r="K38" s="8">
@@ -2564,44 +3481,69 @@
         <v>1.6</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>28.8</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>55.8</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>57.6</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="T38" s="18" t="s">
         <v>32</v>
       </c>
       <c r="U38" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V38" s="20">
         <v>0</v>
       </c>
       <c r="W38" s="21">
-        <f t="shared" si="46"/>
-        <v>81</v>
+        <f t="shared" si="60"/>
+        <v>5.3999999999999773</v>
       </c>
       <c r="X38" s="21">
-        <f t="shared" si="44"/>
-        <v>81</v>
+        <f t="shared" si="56"/>
+        <v>5.3999999999999773</v>
       </c>
       <c r="Y38" s="20">
-        <f t="shared" si="45"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="57"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>18</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>18</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" si="58"/>
+        <v>324</v>
+      </c>
+      <c r="AH38" s="10">
+        <f t="shared" si="61"/>
+        <v>1474.2</v>
+      </c>
+      <c r="AI38" s="8">
+        <f t="shared" si="59"/>
+        <v>648</v>
+      </c>
+      <c r="AJ38" s="10">
+        <f t="shared" si="62"/>
+        <v>-826.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -2613,19 +3555,19 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>252</v>
       </c>
       <c r="K39" s="8">
@@ -2638,35 +3580,35 @@
         <v>3.2</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>57.6</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>113.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>115.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="U39">
         <f>SUM(U28:U38)</f>
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Y39" s="22">
         <f>SUM(Y28:Y38)</f>
-        <v>2682</v>
+        <v>2109.6000000000004</v>
       </c>
       <c r="Z39">
         <f>Y39/U39</f>
-        <v>18.36986301369863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14.856338028169016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -2677,27 +3619,27 @@
         <v>6.4</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40:N42" si="59">L40*M40</f>
+        <f t="shared" ref="N40:N42" si="75">L40*M40</f>
         <v>115.2</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" ref="O40:O42" si="60">N40+O39</f>
+        <f t="shared" ref="O40:O42" si="76">N40+O39</f>
         <v>228.60000000000002</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:P42" si="61">M40*36</f>
+        <f t="shared" ref="P40:P42" si="77">M40*36</f>
         <v>230.4</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40:Q42" si="62">P40-O40</f>
+        <f t="shared" ref="Q40:Q42" si="78">P40-O40</f>
         <v>1.7999999999999829</v>
       </c>
       <c r="Y40" s="19">
         <f>-X23</f>
-        <v>-999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-988.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -2708,36 +3650,36 @@
         <v>12.8</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>230.4</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>459</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="77"/>
         <v>460.8</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="78"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="Y41">
         <f>SUM(Y39:Y40)</f>
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="23" t="s">
+        <v>1121.4000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -2748,23 +3690,23 @@
         <v>25.6</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>460.8</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>919.8</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="77"/>
         <v>921.6</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="78"/>
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +3729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -2815,7 +3757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -2827,7 +3769,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="63">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="79">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -2835,7 +3777,7 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="64">D45*36</f>
+        <f t="shared" ref="G45:G47" si="80">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
@@ -2843,7 +3785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -2855,23 +3797,23 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="79"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="65">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="81">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="80"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="66">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="82">G46-F46</f>
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -2883,23 +3825,32 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="79"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="81"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="80"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="82"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T47" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+    </row>
+    <row r="48" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -2911,23 +3862,44 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="67">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="83">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="68">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="84">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="69">D48*36</f>
+        <f t="shared" ref="G48:G49" si="85">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="70">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="86">G48-F48</f>
         <v>486</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U48" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W48" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -2939,34 +3911,138 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="84"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>486</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="23" t="s">
+      <c r="T49" s="8">
+        <v>1</v>
+      </c>
+      <c r="U49" s="8">
+        <v>18</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="W49" s="8">
+        <f>U49*V49</f>
+        <v>3.6</v>
+      </c>
+      <c r="X49" s="10">
+        <f>W49</f>
+        <v>3.6</v>
+      </c>
+      <c r="Y49" s="8">
+        <f>V49*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="Z49" s="8">
+        <f>Y49-X49</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T50" s="8">
+        <v>2</v>
+      </c>
+      <c r="U50" s="8">
+        <v>18</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="W50" s="8">
+        <f t="shared" ref="W50:W56" si="87">U50*V50</f>
+        <v>7.2</v>
+      </c>
+      <c r="X50" s="10">
+        <f>W50+X49</f>
+        <v>10.8</v>
+      </c>
+      <c r="Y50" s="8">
+        <f t="shared" ref="Y50:Y56" si="88">V50*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="Z50" s="10">
+        <f>Y50-X50</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T51" s="8">
+        <v>3</v>
+      </c>
+      <c r="U51" s="8">
+        <v>18</v>
+      </c>
+      <c r="V51" s="9">
+        <v>1</v>
+      </c>
+      <c r="W51" s="8">
+        <f t="shared" si="87"/>
+        <v>18</v>
+      </c>
+      <c r="X51" s="10">
+        <f t="shared" ref="X51:X56" si="89">W51+X50</f>
+        <v>28.8</v>
+      </c>
+      <c r="Y51" s="8">
+        <f t="shared" si="88"/>
+        <v>36</v>
+      </c>
+      <c r="Z51" s="8">
+        <f t="shared" ref="Z51:Z56" si="90">Y51-X51</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="T52" s="8">
+        <v>4</v>
+      </c>
+      <c r="U52" s="8">
+        <v>18</v>
+      </c>
+      <c r="V52" s="9">
+        <v>2</v>
+      </c>
+      <c r="W52" s="8">
+        <f t="shared" si="87"/>
+        <v>36</v>
+      </c>
+      <c r="X52" s="10">
+        <f t="shared" si="89"/>
+        <v>64.8</v>
+      </c>
+      <c r="Y52" s="8">
+        <f t="shared" si="88"/>
+        <v>72</v>
+      </c>
+      <c r="Z52" s="10">
+        <f t="shared" si="90"/>
+        <v>7.2000000000000028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -2988,8 +4064,33 @@
       <c r="H53" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T53" s="8">
+        <v>5</v>
+      </c>
+      <c r="U53" s="8">
+        <v>18</v>
+      </c>
+      <c r="V53" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W53" s="8">
+        <f t="shared" si="87"/>
+        <v>79.2</v>
+      </c>
+      <c r="X53" s="10">
+        <f t="shared" si="89"/>
+        <v>144</v>
+      </c>
+      <c r="Y53" s="8">
+        <f t="shared" si="88"/>
+        <v>158.4</v>
+      </c>
+      <c r="Z53" s="8">
+        <f t="shared" si="90"/>
+        <v>14.400000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -3016,8 +4117,33 @@
         <f>G54-F54</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T54" s="8">
+        <v>6</v>
+      </c>
+      <c r="U54" s="8">
+        <v>18</v>
+      </c>
+      <c r="V54" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W54" s="8">
+        <f t="shared" si="87"/>
+        <v>158.4</v>
+      </c>
+      <c r="X54" s="10">
+        <f t="shared" si="89"/>
+        <v>302.39999999999998</v>
+      </c>
+      <c r="Y54" s="8">
+        <f t="shared" si="88"/>
+        <v>316.8</v>
+      </c>
+      <c r="Z54" s="10">
+        <f t="shared" si="90"/>
+        <v>14.400000000000034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -3029,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="71">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="91">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -3037,15 +4163,40 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="72">D55*36</f>
+        <f t="shared" ref="G55:G57" si="92">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
         <f>G55-F55</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T55" s="8">
+        <v>7</v>
+      </c>
+      <c r="U55" s="8">
+        <v>18</v>
+      </c>
+      <c r="V55" s="9">
+        <v>18</v>
+      </c>
+      <c r="W55" s="8">
+        <f t="shared" si="87"/>
+        <v>324</v>
+      </c>
+      <c r="X55" s="10">
+        <f t="shared" si="89"/>
+        <v>626.4</v>
+      </c>
+      <c r="Y55" s="8">
+        <f t="shared" si="88"/>
+        <v>648</v>
+      </c>
+      <c r="Z55" s="8">
+        <f t="shared" si="90"/>
+        <v>21.600000000000023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -3057,23 +4208,48 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="73">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="93">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="74">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="94">G56-F56</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T56" s="8">
+        <v>8</v>
+      </c>
+      <c r="U56" s="8">
+        <v>18</v>
+      </c>
+      <c r="V56" s="9">
+        <v>36</v>
+      </c>
+      <c r="W56" s="8">
+        <f t="shared" si="87"/>
+        <v>648</v>
+      </c>
+      <c r="X56" s="10">
+        <f t="shared" si="89"/>
+        <v>1274.4000000000001</v>
+      </c>
+      <c r="Y56" s="8">
+        <f t="shared" si="88"/>
+        <v>1296</v>
+      </c>
+      <c r="Z56" s="10">
+        <f t="shared" si="90"/>
+        <v>21.599999999999909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -3085,23 +4261,23 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="91"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="92"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="94"/>
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -3113,23 +4289,23 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="75">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="95">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="76">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="96">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="77">D58*36</f>
+        <f t="shared" ref="G58:G59" si="97">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="78">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="98">G58-F58</f>
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -3141,34 +4317,34 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="95"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="96"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="97"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="98"/>
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="23" t="s">
+    <row r="62" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +4367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -3231,7 +4407,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="79">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="99">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -3239,7 +4415,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="80">D65*36</f>
+        <f t="shared" ref="G65:G69" si="100">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -3259,19 +4435,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="99"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="81">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="101">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="100"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="82">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="102">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -3287,19 +4463,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="99"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="101"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="100"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="102"/>
         <v>360</v>
       </c>
     </row>
@@ -3315,19 +4491,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="99"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="101"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="100"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="102"/>
         <v>630</v>
       </c>
     </row>
@@ -3343,24 +4519,27 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="99"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="101"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="100"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="102"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
     <mergeCell ref="T16:Z16"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K11:Q11"/>
@@ -3373,9 +4552,11 @@
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="K21:Q21"/>
     <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3397,70 +4578,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -3822,36 +5003,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3887,7 +5068,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="A2" s="29">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -3928,7 +5109,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -3967,7 +5148,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497006F6-CFBD-4EA7-B98B-8ACBECE8E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5953A3-20EF-4751-A384-0F1519E8222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
     <sheet name="Tablero" sheetId="15" r:id="rId3"/>
+    <sheet name="Formulario_TEST_HR" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="35">
   <si>
     <t>Rep</t>
   </si>
@@ -208,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -240,11 +241,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +463,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,15 +490,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,38 +793,38 @@
   </sheetPr>
   <dimension ref="A2:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH10" sqref="AB10:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+    </row>
+    <row r="3" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -687,26 +867,26 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AB3" s="24" t="s">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AB3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-    </row>
-    <row r="4" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+    </row>
+    <row r="4" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -801,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -904,7 +1084,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1007,7 +1187,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1110,7 +1290,7 @@
         <v>1.7999999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1213,7 +1393,7 @@
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1316,7 +1496,7 @@
         <v>1.8000000000000043</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -1368,16 +1548,16 @@
         <v>1.7999999999999972</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="24" t="s">
+    <row r="11" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -1429,16 +1609,16 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1691,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1739,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1612,7 +1792,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -1665,7 +1845,7 @@
         <v>1.7999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -1720,17 +1900,17 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="T16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-    </row>
-    <row r="17" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+    </row>
+    <row r="17" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -1806,17 +1986,17 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="24" t="s">
+      <c r="AD17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-    </row>
-    <row r="18" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+    </row>
+    <row r="18" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -1921,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -2005,7 +2185,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S20">
         <v>25</v>
       </c>
@@ -2063,16 +2243,16 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="24" t="s">
+    <row r="21" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -2130,16 +2310,16 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2395,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2496,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -2419,7 +2599,7 @@
         <v>7.2000000000000171</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -2522,7 +2702,7 @@
         <v>10.800000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -2609,7 +2789,7 @@
         <v>10.799999999999955</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -2662,7 +2842,7 @@
         <v>5.4000000000000057</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -2737,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -2786,17 +2966,17 @@
         <f t="shared" ref="Y29:Y38" si="57">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="24" t="s">
+      <c r="AD29" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-    </row>
-    <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+    </row>
+    <row r="30" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -2841,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -2864,51 +3044,51 @@
         <f t="shared" si="57"/>
         <v>72</v>
       </c>
-      <c r="AD31" s="30">
+      <c r="AD31" s="24">
         <v>1</v>
       </c>
-      <c r="AE31" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF31" s="31">
+      <c r="AE31" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF31" s="25">
         <v>1</v>
       </c>
-      <c r="AG31" s="30">
+      <c r="AG31" s="24">
         <f>AE31*AF31</f>
         <v>18</v>
       </c>
-      <c r="AH31" s="32">
+      <c r="AH31" s="26">
         <f>AG31</f>
         <v>18</v>
       </c>
-      <c r="AI31" s="30">
+      <c r="AI31" s="24">
         <f>AF31*36</f>
         <v>36</v>
       </c>
-      <c r="AJ31" s="30">
+      <c r="AJ31" s="24">
         <f>AI31-AH31</f>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="K32" s="24" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="K32" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -2931,33 +3111,33 @@
         <f t="shared" si="57"/>
         <v>432</v>
       </c>
-      <c r="AD32" s="30">
+      <c r="AD32" s="24">
         <v>2</v>
       </c>
-      <c r="AE32" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF32" s="31">
+      <c r="AE32" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF32" s="25">
         <v>2</v>
       </c>
-      <c r="AG32" s="30">
+      <c r="AG32" s="24">
         <f t="shared" ref="AG32:AG38" si="58">AE32*AF32</f>
         <v>36</v>
       </c>
-      <c r="AH32" s="32">
+      <c r="AH32" s="26">
         <f>AG32+AH31</f>
         <v>54</v>
       </c>
-      <c r="AI32" s="30">
+      <c r="AI32" s="24">
         <f t="shared" ref="AI32:AI38" si="59">AF32*36</f>
         <v>72</v>
       </c>
-      <c r="AJ32" s="32">
+      <c r="AJ32" s="26">
         <f>AI32-AH32</f>
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -3022,33 +3202,33 @@
         <f t="shared" si="57"/>
         <v>684</v>
       </c>
-      <c r="AD33" s="30">
+      <c r="AD33" s="24">
         <v>3</v>
       </c>
-      <c r="AE33" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF33" s="31">
+      <c r="AE33" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF33" s="25">
         <v>3.5</v>
       </c>
-      <c r="AG33" s="30">
+      <c r="AG33" s="24">
         <f t="shared" si="58"/>
         <v>63</v>
       </c>
-      <c r="AH33" s="32">
+      <c r="AH33" s="26">
         <f t="shared" ref="AH33:AH38" si="61">AG33+AH32</f>
         <v>117</v>
       </c>
-      <c r="AI33" s="30">
+      <c r="AI33" s="24">
         <f t="shared" si="59"/>
         <v>126</v>
       </c>
-      <c r="AJ33" s="30">
+      <c r="AJ33" s="24">
         <f t="shared" ref="AJ33:AJ38" si="62">AI33-AH33</f>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -3121,33 +3301,33 @@
         <f t="shared" si="57"/>
         <v>576</v>
       </c>
-      <c r="AD34" s="30">
+      <c r="AD34" s="24">
         <v>4</v>
       </c>
-      <c r="AE34" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF34" s="31">
+      <c r="AE34" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF34" s="25">
         <v>7</v>
       </c>
-      <c r="AG34" s="30">
+      <c r="AG34" s="24">
         <f t="shared" si="58"/>
         <v>126</v>
       </c>
-      <c r="AH34" s="32">
+      <c r="AH34" s="26">
         <f t="shared" si="61"/>
         <v>243</v>
       </c>
-      <c r="AI34" s="30">
+      <c r="AI34" s="24">
         <f t="shared" si="59"/>
         <v>252</v>
       </c>
-      <c r="AJ34" s="32">
+      <c r="AJ34" s="26">
         <f t="shared" si="62"/>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -3220,33 +3400,33 @@
         <f t="shared" si="57"/>
         <v>144</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AD35" s="24">
         <v>5</v>
       </c>
-      <c r="AE35" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF35" s="31">
+      <c r="AE35" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF35" s="25">
         <v>13.8</v>
       </c>
-      <c r="AG35" s="30">
+      <c r="AG35" s="24">
         <f t="shared" si="58"/>
         <v>248.4</v>
       </c>
-      <c r="AH35" s="32">
+      <c r="AH35" s="26">
         <f t="shared" si="61"/>
         <v>491.4</v>
       </c>
-      <c r="AI35" s="30">
+      <c r="AI35" s="24">
         <f t="shared" si="59"/>
         <v>496.8</v>
       </c>
-      <c r="AJ35" s="30">
+      <c r="AJ35" s="24">
         <f t="shared" si="62"/>
         <v>5.4000000000000341</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -3319,33 +3499,33 @@
         <f t="shared" si="57"/>
         <v>117</v>
       </c>
-      <c r="AD36" s="30">
+      <c r="AD36" s="24">
         <v>6</v>
       </c>
-      <c r="AE36" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF36" s="31">
+      <c r="AE36" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF36" s="25">
         <v>27.6</v>
       </c>
-      <c r="AG36" s="30">
+      <c r="AG36" s="24">
         <f t="shared" si="58"/>
         <v>496.8</v>
       </c>
-      <c r="AH36" s="32">
+      <c r="AH36" s="26">
         <f t="shared" si="61"/>
         <v>988.2</v>
       </c>
-      <c r="AI36" s="30">
+      <c r="AI36" s="24">
         <f t="shared" si="59"/>
         <v>993.6</v>
       </c>
-      <c r="AJ36" s="32">
+      <c r="AJ36" s="26">
         <f t="shared" si="62"/>
         <v>5.3999999999999773</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -3444,7 +3624,7 @@
         <v>-826.2</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -3543,7 +3723,7 @@
         <v>-826.2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -3608,7 +3788,7 @@
         <v>14.856338028169016</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -3639,7 +3819,7 @@
         <v>-988.2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -3670,16 +3850,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="24" t="s">
+    <row r="42" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -3706,7 +3886,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -3757,7 +3937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -3785,7 +3965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -3813,7 +3993,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -3840,17 +4020,17 @@
         <f t="shared" si="82"/>
         <v>126</v>
       </c>
-      <c r="T47" s="24" t="s">
+      <c r="T47" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-    </row>
-    <row r="48" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+    </row>
+    <row r="48" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -3899,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -3952,7 +4132,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -3979,7 +4159,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -4006,16 +4186,16 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="24" t="s">
+    <row r="52" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -4042,7 +4222,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4270,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -4143,7 +4323,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -4196,7 +4376,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -4249,7 +4429,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -4277,7 +4457,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -4305,7 +4485,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -4333,18 +4513,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24" t="s">
+    <row r="62" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -4395,7 +4575,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -4423,7 +4603,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -4451,7 +4631,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -4479,7 +4659,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -4507,7 +4687,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -4537,12 +4717,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B62:H62"/>
     <mergeCell ref="B42:H42"/>
@@ -4550,10 +4727,13 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B32:H32"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
     <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
@@ -4571,77 +4751,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -4661,7 +4841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -4678,7 +4858,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -4695,7 +4875,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -4712,7 +4892,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -4729,7 +4909,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4746,7 +4926,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -4763,7 +4943,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -4780,7 +4960,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -4797,7 +4977,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -4814,7 +4994,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -4831,7 +5011,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -4848,7 +5028,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -4865,7 +5045,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -4882,7 +5062,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -4899,7 +5079,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -4916,7 +5096,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -4933,7 +5113,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -4950,7 +5130,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -4967,7 +5147,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -4984,7 +5164,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -5001,38 +5181,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5065,10 +5245,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29">
+    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -5108,8 +5288,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -5147,8 +5327,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5193,4 +5373,843 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C648A-248E-413F-A96F-7CFAA3B6AFB7}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="14" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>2</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>5</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>7</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>8</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>9</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>10</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>11</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>12</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>13</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>14</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>15</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>16</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>17</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>18</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>19</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>20</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>21</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>22</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>23</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>24</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>25</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>26</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>27</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>28</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>30</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>31</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>32</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>33</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>34</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>35</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>36</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>37</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>38</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="41"/>
+    </row>
+    <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>39</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="41"/>
+    </row>
+    <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <v>40</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5953A3-20EF-4751-A384-0F1519E8222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022EB340-2B78-4847-BFD8-E68FF2B362AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -472,6 +472,21 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,24 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +793,8 @@
   </sheetPr>
   <dimension ref="A2:AJ69"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AB10:AH10"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ36" sqref="AD31:AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -805,24 +805,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="K2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -867,24 +867,24 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AB3" s="27" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AB3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1549,15 +1549,15 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -1610,15 +1610,15 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1900,15 +1900,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="27" t="s">
+      <c r="T16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1986,15 +1986,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="27" t="s">
+      <c r="AD17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
     </row>
     <row r="18" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2244,15 +2244,15 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -2291,35 +2291,35 @@
         <v>18</v>
       </c>
       <c r="AF21" s="9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AG21" s="8">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AH21" s="10">
         <f t="shared" ref="AH21:AH26" si="38">AG21+AH20</f>
-        <v>14.4</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="37"/>
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" ref="AJ21:AJ26" si="39">AI21-AH21</f>
-        <v>3.5999999999999996</v>
+        <v>1.7999999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -2376,23 +2376,23 @@
         <v>18</v>
       </c>
       <c r="AF22" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG22" s="8">
         <f t="shared" si="36"/>
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="AH22" s="10">
         <f t="shared" si="38"/>
-        <v>32.4</v>
+        <v>27</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="37"/>
-        <v>36</v>
+        <v>28.8</v>
       </c>
       <c r="AJ22" s="10">
         <f t="shared" si="39"/>
-        <v>3.6000000000000014</v>
+        <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="AH23" s="10">
         <f t="shared" si="38"/>
-        <v>72</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="37"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="39"/>
-        <v>7.2000000000000028</v>
+        <v>12.600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AH24" s="10">
         <f t="shared" si="38"/>
-        <v>151.19999999999999</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="37"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="AJ24" s="10">
         <f t="shared" si="39"/>
-        <v>7.2000000000000171</v>
+        <v>12.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="AH25" s="10">
         <f t="shared" si="38"/>
-        <v>313.2</v>
+        <v>307.8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="37"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="39"/>
-        <v>10.800000000000011</v>
+        <v>16.199999999999989</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="AH26" s="10">
         <f t="shared" si="38"/>
-        <v>637.20000000000005</v>
+        <v>631.79999999999995</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="37"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="AJ26" s="10">
         <f t="shared" si="39"/>
-        <v>10.799999999999955</v>
+        <v>16.200000000000045</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2966,15 +2966,15 @@
         <f t="shared" ref="Y29:Y38" si="57">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="27" t="s">
+      <c r="AD29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
     </row>
     <row r="30" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T30" s="18" t="s">
@@ -3071,24 +3071,24 @@
       </c>
     </row>
     <row r="32" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="K32" s="27" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="K32" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -3209,23 +3209,23 @@
         <v>18</v>
       </c>
       <c r="AF33" s="25">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AG33" s="24">
         <f t="shared" si="58"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AH33" s="26">
         <f t="shared" ref="AH33:AH38" si="61">AG33+AH32</f>
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI33" s="24">
         <f t="shared" si="59"/>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="AJ33" s="24">
         <f t="shared" ref="AJ33:AJ38" si="62">AI33-AH33</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3308,23 +3308,23 @@
         <v>18</v>
       </c>
       <c r="AF34" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG34" s="24">
         <f t="shared" si="58"/>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="61"/>
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AI34" s="24">
         <f t="shared" si="59"/>
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="AJ34" s="26">
         <f t="shared" si="62"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,23 +3407,23 @@
         <v>18</v>
       </c>
       <c r="AF35" s="25">
-        <v>13.8</v>
+        <v>16</v>
       </c>
       <c r="AG35" s="24">
         <f t="shared" si="58"/>
-        <v>248.4</v>
+        <v>288</v>
       </c>
       <c r="AH35" s="26">
         <f t="shared" si="61"/>
-        <v>491.4</v>
+        <v>558</v>
       </c>
       <c r="AI35" s="24">
         <f t="shared" si="59"/>
-        <v>496.8</v>
+        <v>576</v>
       </c>
       <c r="AJ35" s="24">
         <f t="shared" si="62"/>
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3506,23 +3506,23 @@
         <v>18</v>
       </c>
       <c r="AF36" s="25">
-        <v>27.6</v>
+        <v>32</v>
       </c>
       <c r="AG36" s="24">
         <f t="shared" si="58"/>
-        <v>496.8</v>
+        <v>576</v>
       </c>
       <c r="AH36" s="26">
         <f t="shared" si="61"/>
-        <v>988.2</v>
+        <v>1134</v>
       </c>
       <c r="AI36" s="24">
         <f t="shared" si="59"/>
-        <v>993.6</v>
+        <v>1152</v>
       </c>
       <c r="AJ36" s="26">
         <f t="shared" si="62"/>
-        <v>5.3999999999999773</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="AH37" s="10">
         <f t="shared" si="61"/>
-        <v>1150.2</v>
+        <v>1296</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="59"/>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="62"/>
-        <v>-826.2</v>
+        <v>-972</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="AH38" s="10">
         <f t="shared" si="61"/>
-        <v>1474.2</v>
+        <v>1620</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="59"/>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="AJ38" s="10">
         <f t="shared" si="62"/>
-        <v>-826.2</v>
+        <v>-972</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,15 +3851,15 @@
       </c>
     </row>
     <row r="42" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -4020,15 +4020,15 @@
         <f t="shared" si="82"/>
         <v>126</v>
       </c>
-      <c r="T47" s="27" t="s">
+      <c r="T47" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
     </row>
     <row r="48" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
@@ -4187,15 +4187,15 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -4514,15 +4514,15 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -4717,13 +4717,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B32:H32"/>
@@ -4734,6 +4727,13 @@
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
@@ -4758,70 +4758,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -5183,36 +5183,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5248,7 +5248,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="43">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5379,7 +5379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C648A-248E-413F-A96F-7CFAA3B6AFB7}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -5390,814 +5390,814 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="41"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="41"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="41"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="41"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="41"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="41"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="41"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="27">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="41"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="27">
         <v>12</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="41"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="34"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="27">
         <v>13</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="41"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="27">
         <v>14</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="41"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="27">
         <v>15</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="41"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="27">
         <v>16</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="41"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="27">
         <v>17</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="41"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>18</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="41"/>
+      <c r="A22" s="27">
+        <v>18</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="27">
         <v>19</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="41"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="27">
         <v>20</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="41"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="27">
         <v>21</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="41"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="27">
         <v>22</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="41"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="27">
         <v>23</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="41"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="27">
         <v>24</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="41"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="27">
         <v>25</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="41"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="27">
         <v>26</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="41"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="27">
         <v>27</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="41"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="27">
         <v>28</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="41"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="27">
         <v>29</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="41"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="27">
         <v>30</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="41"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="27">
         <v>31</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="41"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="27">
         <v>32</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="41"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="27">
         <v>33</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="41"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="27">
         <v>34</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="41"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="27">
         <v>35</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="41"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="A40" s="27">
         <v>36</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="41"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="A41" s="27">
         <v>37</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="41"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
+      <c r="A42" s="27">
         <v>38</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="41"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="27">
         <v>39</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="41"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="A44" s="27">
         <v>40</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="44"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022EB340-2B78-4847-BFD8-E68FF2B362AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B5AE1-3D0D-4172-BC45-95B5E5606DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="35">
   <si>
     <t>Rep</t>
   </si>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,6 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,10 +794,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AJ69"/>
+  <dimension ref="A2:AR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ36" sqref="AD31:AJ36"/>
+    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -805,24 +808,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="K2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -867,24 +870,24 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AB3" s="38" t="s">
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AB3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
     </row>
     <row r="4" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1549,15 +1552,15 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -1610,15 +1613,15 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1900,15 +1903,15 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="T16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
     </row>
     <row r="17" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1986,15 +1989,15 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="38" t="s">
+      <c r="AD17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
     </row>
     <row r="18" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2196,23 +2199,23 @@
         <v>18</v>
       </c>
       <c r="V20" s="9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="32"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="X20" s="10">
         <f t="shared" ref="X20:X23" si="34">W20+X19</f>
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="33"/>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ref="Z20:Z23" si="35">Y20-X20</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB20" s="9">
         <v>1</v>
@@ -2244,15 +2247,15 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -2263,23 +2266,23 @@
         <v>18</v>
       </c>
       <c r="V21" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="32"/>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="X21" s="10">
         <f t="shared" si="34"/>
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="33"/>
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="Z21" s="10">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AB21" s="9">
         <v>2</v>
@@ -2311,15 +2314,15 @@
       </c>
     </row>
     <row r="22" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -2348,23 +2351,23 @@
         <v>18</v>
       </c>
       <c r="V22" s="9">
-        <v>13.8</v>
+        <v>16</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="32"/>
-        <v>248.4</v>
+        <v>288</v>
       </c>
       <c r="X22" s="10">
         <f t="shared" si="34"/>
-        <v>491.4</v>
+        <v>558</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="33"/>
-        <v>496.8</v>
+        <v>576</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" si="35"/>
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
       <c r="AB22" s="9">
         <v>5</v>
@@ -2449,23 +2452,23 @@
         <v>18</v>
       </c>
       <c r="V23" s="9">
-        <v>27.6</v>
+        <v>32</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="32"/>
-        <v>496.8</v>
+        <v>576</v>
       </c>
       <c r="X23" s="10">
         <f t="shared" si="34"/>
-        <v>988.2</v>
+        <v>1134</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="33"/>
-        <v>993.6</v>
+        <v>1152</v>
       </c>
       <c r="Z23" s="10">
         <f t="shared" si="35"/>
-        <v>5.3999999999999773</v>
+        <v>18</v>
       </c>
       <c r="AB23" s="9">
         <v>10</v>
@@ -2477,23 +2480,23 @@
         <v>18</v>
       </c>
       <c r="AF23" s="9">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="36"/>
-        <v>39.6</v>
+        <v>28.8</v>
       </c>
       <c r="AH23" s="10">
         <f t="shared" si="38"/>
-        <v>66.599999999999994</v>
+        <v>55.8</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="37"/>
-        <v>79.2</v>
+        <v>57.6</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="39"/>
-        <v>12.600000000000009</v>
+        <v>1.8000000000000043</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,7 +2566,7 @@
       </c>
       <c r="X24" s="10">
         <f t="shared" ref="X24:X25" si="43">W24+X23</f>
-        <v>1168.2</v>
+        <v>1314</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" ref="Y24:Y25" si="44">V24*36</f>
@@ -2571,7 +2574,7 @@
       </c>
       <c r="Z24" s="8">
         <f t="shared" ref="Z24:Z25" si="45">Y24-X24</f>
-        <v>-808.2</v>
+        <v>-954</v>
       </c>
       <c r="AD24" s="8">
         <v>6</v>
@@ -2580,23 +2583,23 @@
         <v>18</v>
       </c>
       <c r="AF24" s="9">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="AG24" s="8">
         <f t="shared" si="36"/>
-        <v>79.2</v>
+        <v>57.6</v>
       </c>
       <c r="AH24" s="10">
         <f t="shared" si="38"/>
-        <v>145.80000000000001</v>
+        <v>113.4</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="37"/>
-        <v>158.4</v>
+        <v>115.2</v>
       </c>
       <c r="AJ24" s="10">
         <f t="shared" si="39"/>
-        <v>12.599999999999994</v>
+        <v>1.7999999999999972</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,7 +2669,7 @@
       </c>
       <c r="X25" s="10">
         <f t="shared" si="43"/>
-        <v>1528.2</v>
+        <v>1674</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="44"/>
@@ -2674,7 +2677,7 @@
       </c>
       <c r="Z25" s="10">
         <f t="shared" si="45"/>
-        <v>-808.2</v>
+        <v>-954</v>
       </c>
       <c r="AD25" s="8">
         <v>7</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="AH25" s="10">
         <f t="shared" si="38"/>
-        <v>307.8</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="37"/>
@@ -2699,7 +2702,7 @@
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="39"/>
-        <v>16.199999999999989</v>
+        <v>48.600000000000023</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2778,7 +2781,7 @@
       </c>
       <c r="AH26" s="10">
         <f t="shared" si="38"/>
-        <v>631.79999999999995</v>
+        <v>599.4</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="37"/>
@@ -2786,7 +2789,7 @@
       </c>
       <c r="AJ26" s="10">
         <f t="shared" si="39"/>
-        <v>16.200000000000045</v>
+        <v>48.600000000000023</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2906,11 +2909,11 @@
       </c>
       <c r="W28" s="19">
         <f>Z23</f>
-        <v>5.3999999999999773</v>
+        <v>18</v>
       </c>
       <c r="X28" s="19">
         <f>V28+W28</f>
-        <v>23.399999999999977</v>
+        <v>36</v>
       </c>
       <c r="Y28">
         <f>W28*U28</f>
@@ -2948,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <f>Z18</f>
@@ -2956,32 +2959,32 @@
       </c>
       <c r="W29">
         <f>Z22</f>
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
       <c r="X29" s="19">
         <f t="shared" ref="X29:X38" si="56">V29+W29</f>
-        <v>23.400000000000034</v>
+        <v>36</v>
       </c>
       <c r="Y29">
         <f t="shared" ref="Y29:Y38" si="57">W29*U29</f>
-        <v>5.4000000000000341</v>
-      </c>
-      <c r="AD29" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
     </row>
     <row r="30" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
       <c r="U30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <f>Z18</f>
@@ -2989,15 +2992,15 @@
       </c>
       <c r="W30" s="19">
         <f>Z21</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X30" s="19">
         <f t="shared" si="56"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Y30">
         <f t="shared" si="57"/>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="AD30" s="23" t="s">
         <v>0</v>
@@ -3026,7 +3029,7 @@
         <v>24</v>
       </c>
       <c r="U31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V31">
         <f>Z18</f>
@@ -3034,15 +3037,15 @@
       </c>
       <c r="W31">
         <f>Z20</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X31" s="19">
         <f t="shared" si="56"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Y31">
         <f t="shared" si="57"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AD31" s="24">
         <v>1</v>
@@ -3071,29 +3074,29 @@
       </c>
     </row>
     <row r="32" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="K32" s="38" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="K32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
       <c r="U32">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="V32">
         <f>Z18</f>
@@ -3109,7 +3112,7 @@
       </c>
       <c r="Y32">
         <f t="shared" si="57"/>
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="AD32" s="24">
         <v>2</v>
@@ -3137,7 +3140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="U33">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="V33">
         <f>Z18</f>
@@ -3200,7 +3203,7 @@
       </c>
       <c r="Y33">
         <f t="shared" si="57"/>
-        <v>684</v>
+        <v>126</v>
       </c>
       <c r="AD33" s="24">
         <v>3</v>
@@ -3228,7 +3231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -3284,7 +3287,7 @@
         <v>28</v>
       </c>
       <c r="U34">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3299,7 +3302,7 @@
       </c>
       <c r="Y34">
         <f t="shared" si="57"/>
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="AD34" s="24">
         <v>4</v>
@@ -3327,7 +3330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -3383,22 +3386,22 @@
         <v>29</v>
       </c>
       <c r="U35">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
         <f t="shared" si="60"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X35" s="19">
         <f t="shared" si="56"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Y35">
         <f t="shared" si="57"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AD35" s="24">
         <v>5</v>
@@ -3426,7 +3429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -3482,22 +3485,22 @@
         <v>30</v>
       </c>
       <c r="U36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36" s="19">
         <f t="shared" si="60"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="X36" s="19">
         <f t="shared" si="56"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Y36">
         <f t="shared" si="57"/>
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AD36" s="24">
         <v>6</v>
@@ -3525,7 +3528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -3581,22 +3584,22 @@
         <v>31</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
         <f t="shared" si="60"/>
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
       <c r="X37" s="19">
         <f t="shared" si="56"/>
-        <v>5.4000000000000341</v>
+        <v>18</v>
       </c>
       <c r="Y37">
         <f t="shared" si="57"/>
-        <v>10.800000000000068</v>
+        <v>18</v>
       </c>
       <c r="AD37" s="8">
         <v>7</v>
@@ -3624,7 +3627,7 @@
         <v>-972</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -3680,22 +3683,22 @@
         <v>32</v>
       </c>
       <c r="U38" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="20">
         <v>0</v>
       </c>
       <c r="W38" s="21">
         <f t="shared" si="60"/>
-        <v>5.3999999999999773</v>
+        <v>18</v>
       </c>
       <c r="X38" s="21">
         <f t="shared" si="56"/>
-        <v>5.3999999999999773</v>
+        <v>18</v>
       </c>
       <c r="Y38" s="20">
         <f t="shared" si="57"/>
-        <v>5.3999999999999773</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="8">
         <v>8</v>
@@ -3723,7 +3726,7 @@
         <v>-972</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -3777,18 +3780,18 @@
       </c>
       <c r="U39">
         <f>SUM(U28:U38)</f>
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Y39" s="22">
         <f>SUM(Y28:Y38)</f>
-        <v>2109.6000000000004</v>
+        <v>720</v>
       </c>
       <c r="Z39">
         <f>Y39/U39</f>
-        <v>14.856338028169016</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -3816,10 +3819,10 @@
       </c>
       <c r="Y40" s="19">
         <f>-X23</f>
-        <v>-988.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-1134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -3847,19 +3850,37 @@
       </c>
       <c r="Y41">
         <f>SUM(Y39:Y40)</f>
-        <v>1121.4000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+        <v>-414</v>
+      </c>
+      <c r="AD41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AL41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+    </row>
+    <row r="42" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -3885,8 +3906,50 @@
         <f t="shared" si="78"/>
         <v>1.8000000000000682</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD42" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG42" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH42" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ42" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL42" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO42" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP42" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR42" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -3908,8 +3971,58 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD43" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF43" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="24">
+        <f>AE43*AF43</f>
+        <v>18</v>
+      </c>
+      <c r="AH43" s="26">
+        <f>AG43</f>
+        <v>18</v>
+      </c>
+      <c r="AI43" s="24">
+        <f>AF43*36</f>
+        <v>36</v>
+      </c>
+      <c r="AJ43" s="24">
+        <f>AI43-AH43</f>
+        <v>18</v>
+      </c>
+      <c r="AL43" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="24">
+        <v>18</v>
+      </c>
+      <c r="AN43" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="24">
+        <f>AM43*AN43</f>
+        <v>18</v>
+      </c>
+      <c r="AP43" s="26">
+        <f>AO43</f>
+        <v>18</v>
+      </c>
+      <c r="AQ43" s="24">
+        <f>AN43*36</f>
+        <v>36</v>
+      </c>
+      <c r="AR43" s="24">
+        <f>AQ43-AP43</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -3936,8 +4049,58 @@
         <f>G44-F44</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD44" s="24">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF44" s="25">
+        <v>2</v>
+      </c>
+      <c r="AG44" s="24">
+        <f t="shared" ref="AG44:AG48" si="79">AE44*AF44</f>
+        <v>36</v>
+      </c>
+      <c r="AH44" s="26">
+        <f>AG44+AH43</f>
+        <v>54</v>
+      </c>
+      <c r="AI44" s="24">
+        <f t="shared" ref="AI44:AI48" si="80">AF44*36</f>
+        <v>72</v>
+      </c>
+      <c r="AJ44" s="26">
+        <f>AI44-AH44</f>
+        <v>18</v>
+      </c>
+      <c r="AL44" s="24">
+        <v>2</v>
+      </c>
+      <c r="AM44" s="24">
+        <v>18</v>
+      </c>
+      <c r="AN44" s="25">
+        <v>2</v>
+      </c>
+      <c r="AO44" s="24">
+        <f t="shared" ref="AO44:AO48" si="81">AM44*AN44</f>
+        <v>36</v>
+      </c>
+      <c r="AP44" s="26">
+        <f>AO44+AP43</f>
+        <v>54</v>
+      </c>
+      <c r="AQ44" s="24">
+        <f t="shared" ref="AQ44:AQ48" si="82">AN44*36</f>
+        <v>72</v>
+      </c>
+      <c r="AR44" s="26">
+        <f>AQ44-AP44</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -3949,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="79">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="83">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -3957,15 +4120,65 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="80">D45*36</f>
+        <f t="shared" ref="G45:G47" si="84">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
         <f>G45-F45</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD45" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE45" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF45" s="25">
+        <v>4</v>
+      </c>
+      <c r="AG45" s="24">
+        <f t="shared" si="79"/>
+        <v>72</v>
+      </c>
+      <c r="AH45" s="26">
+        <f t="shared" ref="AH45:AH48" si="85">AG45+AH44</f>
+        <v>126</v>
+      </c>
+      <c r="AI45" s="24">
+        <f t="shared" si="80"/>
+        <v>144</v>
+      </c>
+      <c r="AJ45" s="24">
+        <f t="shared" ref="AJ45:AJ48" si="86">AI45-AH45</f>
+        <v>18</v>
+      </c>
+      <c r="AL45" s="24">
+        <v>3</v>
+      </c>
+      <c r="AM45" s="24">
+        <v>18</v>
+      </c>
+      <c r="AN45" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="AO45" s="24">
+        <f t="shared" si="81"/>
+        <v>63</v>
+      </c>
+      <c r="AP45" s="26">
+        <f t="shared" ref="AP45:AP48" si="87">AO45+AP44</f>
+        <v>117</v>
+      </c>
+      <c r="AQ45" s="24">
+        <f t="shared" si="82"/>
+        <v>126</v>
+      </c>
+      <c r="AR45" s="24">
+        <f t="shared" ref="AR45:AR48" si="88">AQ45-AP45</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -3977,23 +4190,73 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
+        <f t="shared" si="83"/>
+        <v>360</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:F47" si="89">E46+F45</f>
+        <v>594</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="84"/>
+        <v>720</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" ref="H46:H47" si="90">G46-F46</f>
+        <v>126</v>
+      </c>
+      <c r="AD46" s="24">
+        <v>4</v>
+      </c>
+      <c r="AE46" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF46" s="25">
+        <v>8</v>
+      </c>
+      <c r="AG46" s="24">
         <f t="shared" si="79"/>
-        <v>360</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="81">E46+F45</f>
-        <v>594</v>
-      </c>
-      <c r="G46" s="8">
+        <v>144</v>
+      </c>
+      <c r="AH46" s="26">
+        <f t="shared" si="85"/>
+        <v>270</v>
+      </c>
+      <c r="AI46" s="24">
         <f t="shared" si="80"/>
-        <v>720</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="82">G46-F46</f>
+        <v>288</v>
+      </c>
+      <c r="AJ46" s="26">
+        <f t="shared" si="86"/>
+        <v>18</v>
+      </c>
+      <c r="AL46" s="24">
+        <v>4</v>
+      </c>
+      <c r="AM46" s="24">
+        <v>18</v>
+      </c>
+      <c r="AN46" s="25">
+        <v>7</v>
+      </c>
+      <c r="AO46" s="24">
+        <f t="shared" si="81"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP46" s="26">
+        <f t="shared" si="87"/>
+        <v>243</v>
+      </c>
+      <c r="AQ46" s="24">
+        <f t="shared" si="82"/>
+        <v>252</v>
+      </c>
+      <c r="AR46" s="26">
+        <f t="shared" si="88"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -4005,32 +4268,82 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
+        <f t="shared" si="83"/>
+        <v>720</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="89"/>
+        <v>1314</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="84"/>
+        <v>1440</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="90"/>
+        <v>126</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AD47" s="24">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF47" s="25">
+        <v>16</v>
+      </c>
+      <c r="AG47" s="24">
         <f t="shared" si="79"/>
-        <v>720</v>
-      </c>
-      <c r="F47" s="10">
+        <v>288</v>
+      </c>
+      <c r="AH47" s="26">
+        <f t="shared" si="85"/>
+        <v>558</v>
+      </c>
+      <c r="AI47" s="24">
+        <f t="shared" si="80"/>
+        <v>576</v>
+      </c>
+      <c r="AJ47" s="24">
+        <f t="shared" si="86"/>
+        <v>18</v>
+      </c>
+      <c r="AL47" s="24">
+        <v>5</v>
+      </c>
+      <c r="AM47" s="24">
+        <v>18</v>
+      </c>
+      <c r="AN47" s="25">
+        <v>13.8</v>
+      </c>
+      <c r="AO47" s="24">
         <f t="shared" si="81"/>
-        <v>1314</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="80"/>
-        <v>1440</v>
-      </c>
-      <c r="H47" s="10">
+        <v>248.4</v>
+      </c>
+      <c r="AP47" s="26">
+        <f t="shared" si="87"/>
+        <v>491.4</v>
+      </c>
+      <c r="AQ47" s="24">
         <f t="shared" si="82"/>
-        <v>126</v>
-      </c>
-      <c r="T47" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-    </row>
-    <row r="48" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496.8</v>
+      </c>
+      <c r="AR47" s="24">
+        <f t="shared" si="88"/>
+        <v>5.4000000000000341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -4042,19 +4355,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="83">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="91">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="84">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="92">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="85">D48*36</f>
+        <f t="shared" ref="G48:G49" si="93">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="86">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="94">G48-F48</f>
         <v>486</v>
       </c>
       <c r="T48" s="23" t="s">
@@ -4077,6 +4390,56 @@
       </c>
       <c r="Z48" s="23" t="s">
         <v>6</v>
+      </c>
+      <c r="AD48" s="24">
+        <v>6</v>
+      </c>
+      <c r="AE48" s="24">
+        <v>18</v>
+      </c>
+      <c r="AF48" s="25">
+        <v>32</v>
+      </c>
+      <c r="AG48" s="24">
+        <f t="shared" si="79"/>
+        <v>576</v>
+      </c>
+      <c r="AH48" s="26">
+        <f t="shared" si="85"/>
+        <v>1134</v>
+      </c>
+      <c r="AI48" s="24">
+        <f t="shared" si="80"/>
+        <v>1152</v>
+      </c>
+      <c r="AJ48" s="26">
+        <f t="shared" si="86"/>
+        <v>18</v>
+      </c>
+      <c r="AL48" s="24">
+        <v>6</v>
+      </c>
+      <c r="AM48" s="24">
+        <v>18</v>
+      </c>
+      <c r="AN48" s="25">
+        <v>27.6</v>
+      </c>
+      <c r="AO48" s="24">
+        <f t="shared" si="81"/>
+        <v>496.8</v>
+      </c>
+      <c r="AP48" s="26">
+        <f t="shared" si="87"/>
+        <v>988.2</v>
+      </c>
+      <c r="AQ48" s="24">
+        <f t="shared" si="82"/>
+        <v>993.6</v>
+      </c>
+      <c r="AR48" s="26">
+        <f t="shared" si="88"/>
+        <v>5.3999999999999773</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,19 +4454,19 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>486</v>
       </c>
       <c r="T49" s="8">
@@ -4143,7 +4506,7 @@
         <v>0.4</v>
       </c>
       <c r="W50" s="8">
-        <f t="shared" ref="W50:W56" si="87">U50*V50</f>
+        <f t="shared" ref="W50:W56" si="95">U50*V50</f>
         <v>7.2</v>
       </c>
       <c r="X50" s="10">
@@ -4151,7 +4514,7 @@
         <v>10.8</v>
       </c>
       <c r="Y50" s="8">
-        <f t="shared" ref="Y50:Y56" si="88">V50*36</f>
+        <f t="shared" ref="Y50:Y56" si="96">V50*36</f>
         <v>14.4</v>
       </c>
       <c r="Z50" s="10">
@@ -4170,32 +4533,32 @@
         <v>1</v>
       </c>
       <c r="W51" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>18</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" ref="X51:X56" si="89">W51+X50</f>
+        <f t="shared" ref="X51:X56" si="97">W51+X50</f>
         <v>28.8</v>
       </c>
       <c r="Y51" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>36</v>
       </c>
       <c r="Z51" s="8">
-        <f t="shared" ref="Z51:Z56" si="90">Y51-X51</f>
+        <f t="shared" ref="Z51:Z56" si="98">Y51-X51</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -4206,19 +4569,19 @@
         <v>2</v>
       </c>
       <c r="W52" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>36</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>64.8</v>
       </c>
       <c r="Y52" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>72</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>7.2000000000000028</v>
       </c>
     </row>
@@ -4254,19 +4617,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="W53" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>79.2</v>
       </c>
       <c r="X53" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>144</v>
       </c>
       <c r="Y53" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>158.4</v>
       </c>
       <c r="Z53" s="8">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>14.400000000000006</v>
       </c>
     </row>
@@ -4307,19 +4670,19 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="W54" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>158.4</v>
       </c>
       <c r="X54" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>302.39999999999998</v>
       </c>
       <c r="Y54" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>316.8</v>
       </c>
       <c r="Z54" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>14.400000000000034</v>
       </c>
     </row>
@@ -4335,7 +4698,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="91">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="99">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -4343,7 +4706,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="92">D55*36</f>
+        <f t="shared" ref="G55:G57" si="100">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -4360,19 +4723,19 @@
         <v>18</v>
       </c>
       <c r="W55" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>324</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>626.4</v>
       </c>
       <c r="Y55" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>648</v>
       </c>
       <c r="Z55" s="8">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>21.600000000000023</v>
       </c>
     </row>
@@ -4388,19 +4751,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="93">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="101">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="94">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="102">G56-F56</f>
         <v>360</v>
       </c>
       <c r="T56" s="8">
@@ -4413,19 +4776,19 @@
         <v>36</v>
       </c>
       <c r="W56" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>648</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>1274.4000000000001</v>
       </c>
       <c r="Y56" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>1296</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>21.599999999999909</v>
       </c>
     </row>
@@ -4441,19 +4804,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>360</v>
       </c>
     </row>
@@ -4469,19 +4832,19 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="95">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="103">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="96">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="104">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="97">D58*36</f>
+        <f t="shared" ref="G58:G59" si="105">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="98">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="106">G58-F58</f>
         <v>720</v>
       </c>
     </row>
@@ -4497,32 +4860,32 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:26" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
@@ -4587,7 +4950,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="99">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="107">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -4595,7 +4958,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="100">D65*36</f>
+        <f t="shared" ref="G65:G69" si="108">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -4615,19 +4978,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="101">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="109">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="102">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="110">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -4643,19 +5006,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>360</v>
       </c>
     </row>
@@ -4671,19 +5034,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>630</v>
       </c>
     </row>
@@ -4699,24 +5062,31 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="AD41:AJ41"/>
+    <mergeCell ref="AL41:AR41"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B32:H32"/>
@@ -4729,11 +5099,6 @@
     <mergeCell ref="K21:Q21"/>
     <mergeCell ref="K32:Q32"/>
     <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
@@ -4758,70 +5123,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -5183,36 +5548,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5248,7 +5613,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="44">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -5289,7 +5654,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -5328,7 +5693,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5390,61 +5755,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="28" t="s">
         <v>27</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B5AE1-3D0D-4172-BC45-95B5E5606DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC85903-57E5-4504-87A8-F250B97F2FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,8 +796,8 @@
   </sheetPr>
   <dimension ref="A2:AR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN22" sqref="AN22"/>
+    <sheetView tabSelected="1" topLeftCell="S13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3054,23 +3054,23 @@
         <v>18</v>
       </c>
       <c r="AF31" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG31" s="24">
         <f>AE31*AF31</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AH31" s="26">
         <f>AG31</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AI31" s="24">
         <f>AF31*36</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AJ31" s="24">
         <f>AI31-AH31</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,23 +3121,23 @@
         <v>18</v>
       </c>
       <c r="AF32" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="24">
         <f t="shared" ref="AG32:AG38" si="58">AE32*AF32</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AH32" s="26">
         <f>AG32+AH31</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="AI32" s="24">
         <f t="shared" ref="AI32:AI38" si="59">AF32*36</f>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AJ32" s="26">
         <f>AI32-AH32</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,23 +3212,23 @@
         <v>18</v>
       </c>
       <c r="AF33" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG33" s="24">
         <f t="shared" si="58"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AH33" s="26">
         <f t="shared" ref="AH33:AH38" si="61">AG33+AH32</f>
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="AI33" s="24">
         <f t="shared" si="59"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AJ33" s="24">
         <f t="shared" ref="AJ33:AJ38" si="62">AI33-AH33</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,23 +3311,23 @@
         <v>18</v>
       </c>
       <c r="AF34" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG34" s="24">
         <f t="shared" si="58"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AH34" s="26">
         <f t="shared" si="61"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AI34" s="24">
         <f t="shared" si="59"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AJ34" s="26">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3410,23 +3410,23 @@
         <v>18</v>
       </c>
       <c r="AF35" s="25">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AG35" s="24">
         <f t="shared" si="58"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AH35" s="26">
         <f t="shared" si="61"/>
-        <v>558</v>
+        <v>279</v>
       </c>
       <c r="AI35" s="24">
         <f t="shared" si="59"/>
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="AJ35" s="24">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,23 +3509,23 @@
         <v>18</v>
       </c>
       <c r="AF36" s="25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AG36" s="24">
         <f t="shared" si="58"/>
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="AH36" s="26">
         <f t="shared" si="61"/>
-        <v>1134</v>
+        <v>567</v>
       </c>
       <c r="AI36" s="24">
         <f t="shared" si="59"/>
-        <v>1152</v>
+        <v>576</v>
       </c>
       <c r="AJ36" s="26">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="AH37" s="10">
         <f t="shared" si="61"/>
-        <v>1296</v>
+        <v>729</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="59"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="62"/>
-        <v>-972</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="38" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="AH38" s="10">
         <f t="shared" si="61"/>
-        <v>1620</v>
+        <v>1053</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="59"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="AJ38" s="10">
         <f t="shared" si="62"/>
-        <v>-972</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="39" spans="1:44" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5080,12 +5080,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AD41:AJ41"/>
-    <mergeCell ref="AL41:AR41"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
@@ -5099,6 +5093,12 @@
     <mergeCell ref="K21:Q21"/>
     <mergeCell ref="K32:Q32"/>
     <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="AD41:AJ41"/>
+    <mergeCell ref="AL41:AR41"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
@@ -5113,7 +5113,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497006F6-CFBD-4EA7-B98B-8ACBECE8E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA2B869-A5E9-4F74-BBDF-DE6D65B1081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
     <sheet name="Formulario_TEST" sheetId="14" r:id="rId2"/>
-    <sheet name="Tablero" sheetId="15" r:id="rId3"/>
+    <sheet name="Martingala ITER_2" sheetId="16" r:id="rId3"/>
+    <sheet name="Tablero" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formulario_TEST!$A$1:$M$27</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -143,6 +144,18 @@
   <si>
     <t>2nd win</t>
   </si>
+  <si>
+    <t>1ª Asegurar Iter</t>
+  </si>
+  <si>
+    <t>2ª Asegurar Iter</t>
+  </si>
+  <si>
+    <t>CASH INICIAL</t>
+  </si>
+  <si>
+    <t>2ª Asegurar Iter+Next Iter</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -240,11 +253,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,6 +513,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -319,13 +540,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,10 +904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AJ69"/>
+  <dimension ref="A2:BE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AB10:AH10"/>
+    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -624,27 +917,27 @@
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -687,26 +980,44 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AB3" s="24" t="s">
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AB3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-    </row>
-    <row r="4" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AM3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45"/>
+      <c r="AW3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="45"/>
+    </row>
+    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -800,8 +1111,50 @@
       <c r="AH4" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC4" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -903,8 +1256,58 @@
         <f>AG5-AF5</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AP5" s="8">
+        <f>AN5*AO5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AQ5" s="10">
+        <f>AP5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AR5" s="8">
+        <f>AO5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="AS5" s="49">
+        <f>AR5-AQ5</f>
+        <v>1.8</v>
+      </c>
+      <c r="AW5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="AZ5" s="8">
+        <f>AX5*AY5</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="BA5" s="10">
+        <f>AZ5</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="BB5" s="8">
+        <f>AY5*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="BC5" s="49">
+        <f>BB5-BA5</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1006,8 +1409,58 @@
         <f>AG6-AF6</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM6" s="48">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AP6" s="8">
+        <f t="shared" ref="AP6:AP10" si="12">AN6*AO6</f>
+        <v>3.6</v>
+      </c>
+      <c r="AQ6" s="10">
+        <f>AP6+AQ5</f>
+        <v>5.4</v>
+      </c>
+      <c r="AR6" s="8">
+        <f t="shared" ref="AR6:AR10" si="13">AO6*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="AS6" s="50">
+        <f>AR6-AQ6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AW6" s="48">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="AZ6" s="8">
+        <f t="shared" ref="AZ6:AZ10" si="14">AX6*AY6</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="BA6" s="10">
+        <f>AZ6+BA5</f>
+        <v>32.4</v>
+      </c>
+      <c r="BB6" s="8">
+        <f t="shared" ref="BB6:BB10" si="15">AY6*36</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="BC6" s="50">
+        <f>BB6-BA6</f>
+        <v>10.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1073,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="X7" s="10">
-        <f t="shared" ref="X7:X12" si="12">W7+X6</f>
+        <f t="shared" ref="X7:X12" si="16">W7+X6</f>
         <v>14.4</v>
       </c>
       <c r="Y7" s="8">
@@ -1081,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" ref="Z7:Z12" si="13">Y7-X7</f>
+        <f t="shared" ref="Z7:Z12" si="17">Y7-X7</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="AB7" s="8">
@@ -1098,7 +1551,7 @@
         <v>7.2</v>
       </c>
       <c r="AF7" s="10">
-        <f t="shared" ref="AF7:AF12" si="14">AE7+AF6</f>
+        <f t="shared" ref="AF7:AF12" si="18">AE7+AF6</f>
         <v>12.600000000000001</v>
       </c>
       <c r="AG7" s="8">
@@ -1106,11 +1559,69 @@
         <v>14.4</v>
       </c>
       <c r="AH7" s="8">
-        <f t="shared" ref="AH7:AH12" si="15">AG7-AF7</f>
+        <f t="shared" ref="AH7:AH12" si="19">AG7-AF7</f>
         <v>1.7999999999999989</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM7" s="48">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="AP7" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2</v>
+      </c>
+      <c r="AQ7" s="10">
+        <f t="shared" ref="AQ7:AQ10" si="20">AP7+AQ6</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="AR7" s="8">
+        <f t="shared" si="13"/>
+        <v>14.4</v>
+      </c>
+      <c r="AS7" s="49">
+        <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="AT7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU7" s="36"/>
+      <c r="AW7" s="48">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="AZ7" s="8">
+        <f t="shared" si="14"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="BA7" s="10">
+        <f t="shared" ref="BA7:BA10" si="22">AZ7+BA6</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="BB7" s="8">
+        <f t="shared" si="15"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="BC7" s="49">
+        <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="BD7" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE7" s="56"/>
+    </row>
+    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1122,19 +1633,19 @@
         <v>5</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E9" si="16">C8*D8</f>
+        <f t="shared" ref="E8:E9" si="24">C8*D8</f>
         <v>90</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="17">E8+F7</f>
+        <f t="shared" ref="F8:F9" si="25">E8+F7</f>
         <v>154.80000000000001</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G9" si="18">D8*36</f>
+        <f t="shared" ref="G8:G9" si="26">D8*36</f>
         <v>180</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H9" si="19">G8-F8</f>
+        <f t="shared" ref="H8:H9" si="27">G8-F8</f>
         <v>25.199999999999989</v>
       </c>
       <c r="K8" s="8">
@@ -1176,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="X8" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>32.4</v>
       </c>
       <c r="Y8" s="8">
@@ -1184,7 +1695,7 @@
         <v>36</v>
       </c>
       <c r="Z8" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="AB8" s="8">
@@ -1201,7 +1712,7 @@
         <v>14.4</v>
       </c>
       <c r="AF8" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="AG8" s="8">
@@ -1209,11 +1720,77 @@
         <v>28.8</v>
       </c>
       <c r="AH8" s="10">
+        <f t="shared" si="19"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AM8" s="48">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AP8" s="8">
+        <f t="shared" si="12"/>
+        <v>14.4</v>
+      </c>
+      <c r="AQ8" s="10">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="AR8" s="8">
+        <f t="shared" si="13"/>
+        <v>28.8</v>
+      </c>
+      <c r="AS8" s="50">
+        <f t="shared" si="21"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AT8" s="41">
+        <f>AQ10</f>
+        <v>113.4</v>
+      </c>
+      <c r="AU8" s="37">
+        <f>AT8/AS10</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="AW8" s="48">
+        <v>4</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY8" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="AZ8" s="8">
+        <f t="shared" si="14"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="BA8" s="10">
+        <f t="shared" si="22"/>
+        <v>162</v>
+      </c>
+      <c r="BB8" s="8">
         <f t="shared" si="15"/>
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172.79999999999998</v>
+      </c>
+      <c r="BC8" s="50">
+        <f t="shared" si="23"/>
+        <v>10.799999999999983</v>
+      </c>
+      <c r="BD8" s="41">
+        <f>BA10</f>
+        <v>680.39999999999986</v>
+      </c>
+      <c r="BE8" s="37">
+        <f>BD8/BC10</f>
+        <v>62.999999999999588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1225,19 +1802,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>334.8</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>360</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>25.199999999999989</v>
       </c>
       <c r="K9" s="8">
@@ -1279,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="X9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>68.400000000000006</v>
       </c>
       <c r="Y9" s="8">
@@ -1287,7 +1864,7 @@
         <v>72</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="AB9" s="8">
@@ -1304,7 +1881,7 @@
         <v>28.8</v>
       </c>
       <c r="AF9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>55.8</v>
       </c>
       <c r="AG9" s="8">
@@ -1312,11 +1889,69 @@
         <v>57.6</v>
       </c>
       <c r="AH9" s="8">
+        <f t="shared" si="19"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="AM9" s="48">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AP9" s="8">
+        <f t="shared" si="12"/>
+        <v>28.8</v>
+      </c>
+      <c r="AQ9" s="10">
+        <f t="shared" si="20"/>
+        <v>55.8</v>
+      </c>
+      <c r="AR9" s="8">
+        <f t="shared" si="13"/>
+        <v>57.6</v>
+      </c>
+      <c r="AS9" s="49">
+        <f t="shared" si="21"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="AT9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU9" s="38"/>
+      <c r="AW9" s="48">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY9" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="AZ9" s="8">
+        <f t="shared" si="14"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="BA9" s="10">
+        <f t="shared" si="22"/>
+        <v>334.79999999999995</v>
+      </c>
+      <c r="BB9" s="8">
         <f t="shared" si="15"/>
-        <v>1.8000000000000043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>345.59999999999997</v>
+      </c>
+      <c r="BC9" s="49">
+        <f t="shared" si="23"/>
+        <v>10.800000000000011</v>
+      </c>
+      <c r="BD9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE9" s="38"/>
+    </row>
+    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -1331,7 +1966,7 @@
         <v>90</v>
       </c>
       <c r="X10" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>158.4</v>
       </c>
       <c r="Y10" s="8">
@@ -1339,7 +1974,7 @@
         <v>180</v>
       </c>
       <c r="Z10" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21.599999999999994</v>
       </c>
       <c r="AB10" s="8">
@@ -1356,7 +1991,7 @@
         <v>57.6</v>
       </c>
       <c r="AF10" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>113.4</v>
       </c>
       <c r="AG10" s="8">
@@ -1364,20 +1999,86 @@
         <v>115.2</v>
       </c>
       <c r="AH10" s="10">
+        <f t="shared" si="19"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="AM10" s="51">
+        <v>6</v>
+      </c>
+      <c r="AN10" s="52">
+        <v>18</v>
+      </c>
+      <c r="AO10" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="AP10" s="52">
+        <f t="shared" si="12"/>
+        <v>57.6</v>
+      </c>
+      <c r="AQ10" s="54">
+        <f t="shared" si="20"/>
+        <v>113.4</v>
+      </c>
+      <c r="AR10" s="52">
+        <f t="shared" si="13"/>
+        <v>115.2</v>
+      </c>
+      <c r="AS10" s="55">
+        <f t="shared" si="21"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="AT10" s="42">
+        <f>AQ10</f>
+        <v>113.4</v>
+      </c>
+      <c r="AU10" s="39">
+        <f>AT10/AS10</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="AW10" s="51">
+        <v>6</v>
+      </c>
+      <c r="AX10" s="52">
+        <v>18</v>
+      </c>
+      <c r="AY10" s="53">
+        <v>19.2</v>
+      </c>
+      <c r="AZ10" s="52">
+        <f t="shared" si="14"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="BA10" s="54">
+        <f t="shared" si="22"/>
+        <v>680.39999999999986</v>
+      </c>
+      <c r="BB10" s="52">
         <f t="shared" si="15"/>
-        <v>1.7999999999999972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="24" t="s">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="BC10" s="55">
+        <f t="shared" si="23"/>
+        <v>10.800000000000068</v>
+      </c>
+      <c r="BD10" s="42">
+        <f>BA10-AQ50</f>
+        <v>113.39999999999986</v>
+      </c>
+      <c r="BE10" s="39">
+        <f>BD10/BC10</f>
+        <v>10.499999999999922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -1392,7 +2093,7 @@
         <v>180</v>
       </c>
       <c r="X11" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>338.4</v>
       </c>
       <c r="Y11" s="8">
@@ -1400,7 +2101,7 @@
         <v>360</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21.600000000000023</v>
       </c>
       <c r="AB11" s="8">
@@ -1417,7 +2118,7 @@
         <v>115.2</v>
       </c>
       <c r="AF11" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>228.60000000000002</v>
       </c>
       <c r="AG11" s="8">
@@ -1425,20 +2126,20 @@
         <v>230.4</v>
       </c>
       <c r="AH11" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +2175,7 @@
         <v>360</v>
       </c>
       <c r="X12" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>698.4</v>
       </c>
       <c r="Y12" s="8">
@@ -1482,7 +2183,7 @@
         <v>720</v>
       </c>
       <c r="Z12" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21.600000000000023</v>
       </c>
       <c r="AB12" s="8">
@@ -1499,7 +2200,7 @@
         <v>230.4</v>
       </c>
       <c r="AF12" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>459</v>
       </c>
       <c r="AG12" s="8">
@@ -1507,11 +2208,11 @@
         <v>460.8</v>
       </c>
       <c r="AH12" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1558,8 +2259,26 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="45"/>
+      <c r="AW13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="45"/>
+    </row>
+    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -1596,7 +2315,7 @@
         <v>0.2</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" ref="N14:N18" si="20">L14*M14</f>
+        <f t="shared" ref="N14:N18" si="28">L14*M14</f>
         <v>3.6</v>
       </c>
       <c r="O14" s="10">
@@ -1604,15 +2323,57 @@
         <v>5.4</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P18" si="21">M14*36</f>
+        <f t="shared" ref="P14:P18" si="29">M14*36</f>
         <v>7.2</v>
       </c>
       <c r="Q14" s="10">
         <f>P14-O14</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC14" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -1624,7 +2385,7 @@
         <v>0.8</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E17" si="22">C15*D15</f>
+        <f t="shared" ref="E15:E17" si="30">C15*D15</f>
         <v>14.4</v>
       </c>
       <c r="F15" s="10">
@@ -1632,7 +2393,7 @@
         <v>21.6</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G17" si="23">D15*36</f>
+        <f t="shared" ref="G15:G17" si="31">D15*36</f>
         <v>28.8</v>
       </c>
       <c r="H15" s="10">
@@ -1649,23 +2410,73 @@
         <v>0.4</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>7.2</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O18" si="24">N15+O14</f>
+        <f t="shared" ref="O15:O18" si="32">N15+O14</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>14.4</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" ref="Q15:Q18" si="25">P15-O15</f>
+        <f t="shared" ref="Q15:Q18" si="33">P15-O15</f>
         <v>1.7999999999999989</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM15" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AP15" s="8">
+        <f>AN15*AO15</f>
+        <v>3.6</v>
+      </c>
+      <c r="AQ15" s="10">
+        <f>AP15</f>
+        <v>3.6</v>
+      </c>
+      <c r="AR15" s="8">
+        <f>AO15*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="AS15" s="49">
+        <f>AR15-AQ15</f>
+        <v>3.6</v>
+      </c>
+      <c r="AW15" s="48">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY15" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="AZ15" s="8">
+        <f>AX15*AY15</f>
+        <v>12.6</v>
+      </c>
+      <c r="BA15" s="10">
+        <f>AZ15</f>
+        <v>12.6</v>
+      </c>
+      <c r="BB15" s="8">
+        <f>AY15*36</f>
+        <v>25.2</v>
+      </c>
+      <c r="BC15" s="49">
+        <f>BB15-BA15</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -1677,19 +2488,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>36</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="26">E16+F15</f>
+        <f t="shared" ref="F16:F17" si="34">E16+F15</f>
         <v>57.6</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>72</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:H17" si="27">G16-F16</f>
+        <f t="shared" ref="H16:H17" si="35">G16-F16</f>
         <v>14.399999999999999</v>
       </c>
       <c r="K16" s="8">
@@ -1702,35 +2513,85 @@
         <v>0.8</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>14.4</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>27</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>28.8</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="T16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-    </row>
-    <row r="17" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AM16" s="48">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO16" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="AP16" s="8">
+        <f t="shared" ref="AP16:AP20" si="36">AN16*AO16</f>
+        <v>7.2</v>
+      </c>
+      <c r="AQ16" s="10">
+        <f>AP16+AQ15</f>
+        <v>10.8</v>
+      </c>
+      <c r="AR16" s="8">
+        <f t="shared" ref="AR16:AR20" si="37">AO16*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="AS16" s="50">
+        <f>AR16-AQ16</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AW16" s="48">
+        <v>2</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY16" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="AZ16" s="8">
+        <f t="shared" ref="AZ16:AZ20" si="38">AX16*AY16</f>
+        <v>25.2</v>
+      </c>
+      <c r="BA16" s="10">
+        <f>AZ16+BA15</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="BB16" s="8">
+        <f t="shared" ref="BB16:BB20" si="39">AY16*36</f>
+        <v>50.4</v>
+      </c>
+      <c r="BC16" s="50">
+        <f>BB16-BA16</f>
+        <v>12.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -1742,19 +2603,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>72</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>129.6</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>144</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14.400000000000006</v>
       </c>
       <c r="K17" s="8">
@@ -1767,19 +2628,19 @@
         <v>1.6</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>28.8</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>55.8</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>57.6</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="S17">
@@ -1806,17 +2667,75 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="24" t="s">
+      <c r="AD17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-    </row>
-    <row r="18" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AM17" s="48">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AP17" s="8">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="AQ17" s="10">
+        <f t="shared" ref="AQ17:AQ20" si="40">AP17+AQ16</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="AR17" s="8">
+        <f t="shared" si="37"/>
+        <v>28.8</v>
+      </c>
+      <c r="AS17" s="49">
+        <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="AT17" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU17" s="56"/>
+      <c r="AW17" s="48">
+        <v>3</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY17" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="AZ17" s="8">
+        <f t="shared" si="38"/>
+        <v>50.4</v>
+      </c>
+      <c r="BA17" s="10">
+        <f t="shared" ref="BA17:BA20" si="42">AZ17+BA16</f>
+        <v>88.199999999999989</v>
+      </c>
+      <c r="BB17" s="8">
+        <f t="shared" si="39"/>
+        <v>100.8</v>
+      </c>
+      <c r="BC17" s="49">
+        <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
+        <v>12.600000000000009</v>
+      </c>
+      <c r="BD17" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE17" s="56"/>
+    </row>
+    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -1828,19 +2747,19 @@
         <v>10</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" ref="E18:E19" si="28">C18*D18</f>
+        <f t="shared" ref="E18:E19" si="44">C18*D18</f>
         <v>180</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="29">E18+F17</f>
+        <f t="shared" ref="F18:F19" si="45">E18+F17</f>
         <v>309.60000000000002</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G19" si="30">D18*36</f>
+        <f t="shared" ref="G18:G19" si="46">D18*36</f>
         <v>360</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ref="H18:H19" si="31">G18-F18</f>
+        <f t="shared" ref="H18:H19" si="47">G18-F18</f>
         <v>50.399999999999977</v>
       </c>
       <c r="K18" s="8">
@@ -1853,19 +2772,19 @@
         <v>3.2</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>57.6</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.4</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>115.2</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="S18">
@@ -1920,8 +2839,74 @@
       <c r="AJ18" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM18" s="48">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO18" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AP18" s="8">
+        <f t="shared" si="36"/>
+        <v>28.8</v>
+      </c>
+      <c r="AQ18" s="10">
+        <f t="shared" si="40"/>
+        <v>54</v>
+      </c>
+      <c r="AR18" s="8">
+        <f t="shared" si="37"/>
+        <v>57.6</v>
+      </c>
+      <c r="AS18" s="50">
+        <f t="shared" si="41"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="AT18" s="41">
+        <f>AQ20</f>
+        <v>226.8</v>
+      </c>
+      <c r="AU18" s="37">
+        <f>AT18/AS20</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="AW18" s="48">
+        <v>4</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY18" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="AZ18" s="8">
+        <f t="shared" si="38"/>
+        <v>100.8</v>
+      </c>
+      <c r="BA18" s="10">
+        <f t="shared" si="42"/>
+        <v>189</v>
+      </c>
+      <c r="BB18" s="8">
+        <f t="shared" si="39"/>
+        <v>201.6</v>
+      </c>
+      <c r="BC18" s="50">
+        <f t="shared" si="43"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="BD18" s="41">
+        <f>BA20</f>
+        <v>793.8</v>
+      </c>
+      <c r="BE18" s="37">
+        <f>BD18/BC20</f>
+        <v>62.999999999999879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -1933,19 +2918,19 @@
         <v>20</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>360</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>669.6</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>720</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>50.399999999999977</v>
       </c>
       <c r="S19">
@@ -1961,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" ref="W19:W23" si="32">U19*V19</f>
+        <f t="shared" ref="W19:W23" si="48">U19*V19</f>
         <v>36</v>
       </c>
       <c r="X19" s="10">
@@ -1969,7 +2954,7 @@
         <v>54</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" ref="Y19:Y23" si="33">V19*36</f>
+        <f t="shared" ref="Y19:Y23" si="49">V19*36</f>
         <v>72</v>
       </c>
       <c r="Z19" s="10">
@@ -2004,8 +2989,66 @@
         <f>AI19-AH19</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM19" s="48">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO19" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="AP19" s="8">
+        <f t="shared" si="36"/>
+        <v>57.6</v>
+      </c>
+      <c r="AQ19" s="10">
+        <f t="shared" si="40"/>
+        <v>111.6</v>
+      </c>
+      <c r="AR19" s="8">
+        <f t="shared" si="37"/>
+        <v>115.2</v>
+      </c>
+      <c r="AS19" s="49">
+        <f t="shared" si="41"/>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="AT19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU19" s="38"/>
+      <c r="AW19" s="48">
+        <v>5</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY19" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="AZ19" s="8">
+        <f t="shared" si="38"/>
+        <v>201.6</v>
+      </c>
+      <c r="BA19" s="10">
+        <f t="shared" si="42"/>
+        <v>390.6</v>
+      </c>
+      <c r="BB19" s="8">
+        <f t="shared" si="39"/>
+        <v>403.2</v>
+      </c>
+      <c r="BC19" s="49">
+        <f t="shared" si="43"/>
+        <v>12.599999999999966</v>
+      </c>
+      <c r="BD19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE19" s="38"/>
+    </row>
+    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
         <v>25</v>
       </c>
@@ -2019,19 +3062,19 @@
         <v>3.5</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>63</v>
       </c>
       <c r="X20" s="10">
-        <f t="shared" ref="X20:X23" si="34">W20+X19</f>
+        <f t="shared" ref="X20:X23" si="50">W20+X19</f>
         <v>117</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>126</v>
       </c>
       <c r="Z20" s="8">
-        <f t="shared" ref="Z20:Z23" si="35">Y20-X20</f>
+        <f t="shared" ref="Z20:Z23" si="51">Y20-X20</f>
         <v>9</v>
       </c>
       <c r="AB20" s="9">
@@ -2047,7 +3090,7 @@
         <v>0.2</v>
       </c>
       <c r="AG20" s="8">
-        <f t="shared" ref="AG20:AG26" si="36">AE20*AF20</f>
+        <f t="shared" ref="AG20:AG26" si="52">AE20*AF20</f>
         <v>3.6</v>
       </c>
       <c r="AH20" s="10">
@@ -2055,24 +3098,90 @@
         <v>5.4</v>
       </c>
       <c r="AI20" s="8">
-        <f t="shared" ref="AI20:AI26" si="37">AF20*36</f>
+        <f t="shared" ref="AI20:AI26" si="53">AF20*36</f>
         <v>7.2</v>
       </c>
       <c r="AJ20" s="10">
         <f>AI20-AH20</f>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="24" t="s">
+      <c r="AM20" s="51">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="52">
+        <v>18</v>
+      </c>
+      <c r="AO20" s="53">
+        <v>6.4</v>
+      </c>
+      <c r="AP20" s="52">
+        <f t="shared" si="36"/>
+        <v>115.2</v>
+      </c>
+      <c r="AQ20" s="54">
+        <f t="shared" si="40"/>
+        <v>226.8</v>
+      </c>
+      <c r="AR20" s="52">
+        <f t="shared" si="37"/>
+        <v>230.4</v>
+      </c>
+      <c r="AS20" s="55">
+        <f t="shared" si="41"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="AT20" s="42">
+        <f>AQ20-AQ10</f>
+        <v>113.4</v>
+      </c>
+      <c r="AU20" s="39">
+        <f>AT20/AS20</f>
+        <v>31.50000000000005</v>
+      </c>
+      <c r="AW20" s="51">
+        <v>6</v>
+      </c>
+      <c r="AX20" s="52">
+        <v>18</v>
+      </c>
+      <c r="AY20" s="53">
+        <v>22.4</v>
+      </c>
+      <c r="AZ20" s="52">
+        <f t="shared" si="38"/>
+        <v>403.2</v>
+      </c>
+      <c r="BA20" s="54">
+        <f t="shared" si="42"/>
+        <v>793.8</v>
+      </c>
+      <c r="BB20" s="52">
+        <f t="shared" si="39"/>
+        <v>806.4</v>
+      </c>
+      <c r="BC20" s="55">
+        <f t="shared" si="43"/>
+        <v>12.600000000000023</v>
+      </c>
+      <c r="BD20" s="42">
+        <f>BA20-BA10</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="BE20" s="39">
+        <f>BD20/BC20</f>
+        <v>8.9999999999999911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -2086,19 +3195,19 @@
         <v>7</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>126</v>
       </c>
       <c r="X21" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>243</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>252</v>
       </c>
       <c r="Z21" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="AB21" s="9">
@@ -2114,32 +3223,32 @@
         <v>0.5</v>
       </c>
       <c r="AG21" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="AH21" s="10">
-        <f t="shared" ref="AH21:AH26" si="38">AG21+AH20</f>
+        <f t="shared" ref="AH21:AH26" si="54">AG21+AH20</f>
         <v>14.4</v>
       </c>
       <c r="AI21" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" ref="AJ21:AJ26" si="39">AI21-AH21</f>
+        <f t="shared" ref="AJ21:AJ26" si="55">AI21-AH21</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -2171,19 +3280,19 @@
         <v>13.8</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>248.4</v>
       </c>
       <c r="X22" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>491.4</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>496.8</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>5.4000000000000341</v>
       </c>
       <c r="AB22" s="9">
@@ -2199,23 +3308,23 @@
         <v>1</v>
       </c>
       <c r="AG22" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="AH22" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>32.4</v>
       </c>
       <c r="AI22" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>36</v>
       </c>
       <c r="AJ22" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2272,19 +3381,19 @@
         <v>27.6</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>496.8</v>
       </c>
       <c r="X23" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>988.2</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>993.6</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="AB23" s="9">
@@ -2300,23 +3409,41 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AG23" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>39.6</v>
       </c>
       <c r="AH23" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>72</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>79.2</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="45"/>
+      <c r="AW23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="45"/>
+    </row>
+    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -2353,7 +3480,7 @@
         <v>0.2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" ref="N24:N28" si="40">L24*M24</f>
+        <f t="shared" ref="N24:N28" si="56">L24*M24</f>
         <v>3.6</v>
       </c>
       <c r="O24" s="10">
@@ -2361,7 +3488,7 @@
         <v>5.4</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" ref="P24:P28" si="41">M24*36</f>
+        <f t="shared" ref="P24:P28" si="57">M24*36</f>
         <v>7.2</v>
       </c>
       <c r="Q24" s="10">
@@ -2378,19 +3505,19 @@
         <v>10</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" ref="W24:W25" si="42">U24*V24</f>
+        <f t="shared" ref="W24:W25" si="58">U24*V24</f>
         <v>180</v>
       </c>
       <c r="X24" s="10">
-        <f t="shared" ref="X24:X25" si="43">W24+X23</f>
+        <f t="shared" ref="X24:X25" si="59">W24+X23</f>
         <v>1168.2</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" ref="Y24:Y25" si="44">V24*36</f>
+        <f t="shared" ref="Y24:Y25" si="60">V24*36</f>
         <v>360</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" ref="Z24:Z25" si="45">Y24-X24</f>
+        <f t="shared" ref="Z24:Z25" si="61">Y24-X24</f>
         <v>-808.2</v>
       </c>
       <c r="AD24" s="8">
@@ -2403,23 +3530,65 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>79.2</v>
       </c>
       <c r="AH24" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>151.19999999999999</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>158.4</v>
       </c>
       <c r="AJ24" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>7.2000000000000171</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM24" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW24" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -2431,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:E27" si="46">C25*D25</f>
+        <f t="shared" ref="E25:E27" si="62">C25*D25</f>
         <v>36</v>
       </c>
       <c r="F25" s="10">
@@ -2439,7 +3608,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G27" si="47">D25*36</f>
+        <f t="shared" ref="G25:G27" si="63">D25*36</f>
         <v>72</v>
       </c>
       <c r="H25" s="10">
@@ -2456,19 +3625,19 @@
         <v>0.4</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>7.2</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" ref="O25:O28" si="48">N25+O24</f>
+        <f t="shared" ref="O25:O28" si="64">N25+O24</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>14.4</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:Q28" si="49">P25-O25</f>
+        <f t="shared" ref="Q25:Q28" si="65">P25-O25</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="T25" s="8">
@@ -2481,19 +3650,19 @@
         <v>20</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="58"/>
         <v>360</v>
       </c>
       <c r="X25" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
         <v>1528.2</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="60"/>
         <v>720</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="61"/>
         <v>-808.2</v>
       </c>
       <c r="AD25" s="8">
@@ -2506,23 +3675,73 @@
         <v>9</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>162</v>
       </c>
       <c r="AH25" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>313.2</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>324</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>10.800000000000011</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM25" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO25" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AP25" s="8">
+        <f>AN25*AO25</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AQ25" s="10">
+        <f>AP25</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AR25" s="8">
+        <f>AO25*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AS25" s="49">
+        <f>AR25-AQ25</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AW25" s="48">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY25" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AZ25" s="8">
+        <f>AX25*AY25</f>
+        <v>14.4</v>
+      </c>
+      <c r="BA25" s="10">
+        <f>AZ25</f>
+        <v>14.4</v>
+      </c>
+      <c r="BB25" s="8">
+        <f>AY25*36</f>
+        <v>28.8</v>
+      </c>
+      <c r="BC25" s="49">
+        <f>BB25-BA25</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -2534,19 +3753,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>90</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="50">E26+F25</f>
+        <f t="shared" ref="F26:F27" si="66">E26+F25</f>
         <v>144</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>180</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:H27" si="51">G26-F26</f>
+        <f t="shared" ref="H26:H27" si="67">G26-F26</f>
         <v>36</v>
       </c>
       <c r="K26" s="8">
@@ -2559,19 +3778,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>30.6</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>36</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="V26" t="s">
@@ -2593,23 +3812,73 @@
         <v>18</v>
       </c>
       <c r="AG26" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>324</v>
       </c>
       <c r="AH26" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>637.20000000000005</v>
       </c>
       <c r="AI26" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>648</v>
       </c>
       <c r="AJ26" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>10.799999999999955</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM26" s="48">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO26" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="AP26" s="8">
+        <f t="shared" ref="AP26:AP30" si="68">AN26*AO26</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AQ26" s="10">
+        <f>AP26+AQ25</f>
+        <v>16.2</v>
+      </c>
+      <c r="AR26" s="8">
+        <f t="shared" ref="AR26:AR30" si="69">AO26*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="AS26" s="50">
+        <f>AR26-AQ26</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="AW26" s="48">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY26" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AZ26" s="8">
+        <f t="shared" ref="AZ26:AZ30" si="70">AX26*AY26</f>
+        <v>28.8</v>
+      </c>
+      <c r="BA26" s="10">
+        <f>AZ26+BA25</f>
+        <v>43.2</v>
+      </c>
+      <c r="BB26" s="8">
+        <f t="shared" ref="BB26:BB30" si="71">AY26*36</f>
+        <v>57.6</v>
+      </c>
+      <c r="BC26" s="50">
+        <f>BB26-BA26</f>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -2621,19 +3890,19 @@
         <v>10</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="62"/>
         <v>180</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>324</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="63"/>
         <v>360</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>36</v>
       </c>
       <c r="K27" s="8">
@@ -2646,23 +3915,81 @@
         <v>2</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>36</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>66.599999999999994</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>72</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM27" s="48">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO27" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="AP27" s="8">
+        <f t="shared" si="68"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="AQ27" s="10">
+        <f t="shared" ref="AQ27:AQ30" si="72">AP27+AQ26</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AR27" s="8">
+        <f t="shared" si="69"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="AS27" s="49">
+        <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="AT27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU27" s="56"/>
+      <c r="AW27" s="48">
+        <v>3</v>
+      </c>
+      <c r="AX27" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY27" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="AZ27" s="8">
+        <f t="shared" si="70"/>
+        <v>57.6</v>
+      </c>
+      <c r="BA27" s="10">
+        <f t="shared" ref="BA27:BA30" si="74">AZ27+BA26</f>
+        <v>100.80000000000001</v>
+      </c>
+      <c r="BB27" s="8">
+        <f t="shared" si="71"/>
+        <v>115.2</v>
+      </c>
+      <c r="BC27" s="49">
+        <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
+        <v>14.399999999999991</v>
+      </c>
+      <c r="BD27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE27" s="56"/>
+    </row>
+    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -2674,19 +4001,19 @@
         <v>20</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E29" si="52">C28*D28</f>
+        <f t="shared" ref="E28:E29" si="76">C28*D28</f>
         <v>360</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:F29" si="53">E28+F27</f>
+        <f t="shared" ref="F28:F29" si="77">E28+F27</f>
         <v>684</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G29" si="54">D28*36</f>
+        <f t="shared" ref="G28:G29" si="78">D28*36</f>
         <v>720</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H29" si="55">G28-F28</f>
+        <f t="shared" ref="H28:H29" si="79">G28-F28</f>
         <v>36</v>
       </c>
       <c r="K28" s="8">
@@ -2699,19 +4026,19 @@
         <v>4</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="56"/>
         <v>72</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="64"/>
         <v>138.6</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="57"/>
         <v>144</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="T28" s="18" t="s">
@@ -2736,8 +4063,74 @@
         <f>W28*U28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM28" s="48">
+        <v>4</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO28" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="AP28" s="8">
+        <f t="shared" si="68"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="AQ28" s="10">
+        <f t="shared" si="72"/>
+        <v>81</v>
+      </c>
+      <c r="AR28" s="8">
+        <f t="shared" si="69"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="AS28" s="50">
+        <f t="shared" si="73"/>
+        <v>5.3999999999999915</v>
+      </c>
+      <c r="AT28" s="41">
+        <f>AQ30</f>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="AU28" s="37">
+        <f>AT28/AS30</f>
+        <v>62.999999999999588</v>
+      </c>
+      <c r="AW28" s="48">
+        <v>4</v>
+      </c>
+      <c r="AX28" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY28" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="AZ28" s="8">
+        <f t="shared" si="70"/>
+        <v>115.2</v>
+      </c>
+      <c r="BA28" s="10">
+        <f t="shared" si="74"/>
+        <v>216</v>
+      </c>
+      <c r="BB28" s="8">
+        <f t="shared" si="71"/>
+        <v>230.4</v>
+      </c>
+      <c r="BC28" s="50">
+        <f t="shared" si="75"/>
+        <v>14.400000000000006</v>
+      </c>
+      <c r="BD28" s="41">
+        <f>BA30</f>
+        <v>907.2</v>
+      </c>
+      <c r="BE28" s="37">
+        <f>BD28/BC30</f>
+        <v>63.000000000000099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -2749,19 +4142,19 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="76"/>
         <v>900</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="77"/>
         <v>1584</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>1800</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>216</v>
       </c>
       <c r="T29" s="18" t="s">
@@ -2779,24 +4172,82 @@
         <v>5.4000000000000341</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" ref="X29:X38" si="56">V29+W29</f>
+        <f t="shared" ref="X29:X38" si="80">V29+W29</f>
         <v>23.400000000000034</v>
       </c>
       <c r="Y29">
-        <f t="shared" ref="Y29:Y38" si="57">W29*U29</f>
+        <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="24" t="s">
+      <c r="AD29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-    </row>
-    <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AM29" s="48">
+        <v>5</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="AP29" s="8">
+        <f t="shared" si="68"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="AQ29" s="10">
+        <f t="shared" si="72"/>
+        <v>167.39999999999998</v>
+      </c>
+      <c r="AR29" s="8">
+        <f t="shared" si="69"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="AS29" s="49">
+        <f t="shared" si="73"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="AT29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU29" s="38"/>
+      <c r="AW29" s="48">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY29" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="AZ29" s="8">
+        <f t="shared" si="70"/>
+        <v>230.4</v>
+      </c>
+      <c r="BA29" s="10">
+        <f t="shared" si="74"/>
+        <v>446.4</v>
+      </c>
+      <c r="BB29" s="8">
+        <f t="shared" si="71"/>
+        <v>460.8</v>
+      </c>
+      <c r="BC29" s="49">
+        <f t="shared" si="75"/>
+        <v>14.400000000000034</v>
+      </c>
+      <c r="BD29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE29" s="38"/>
+    </row>
+    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -2812,11 +4263,11 @@
         <v>9</v>
       </c>
       <c r="X30" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>27</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>63</v>
       </c>
       <c r="AD30" s="23" t="s">
@@ -2840,8 +4291,74 @@
       <c r="AJ30" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM30" s="51">
+        <v>6</v>
+      </c>
+      <c r="AN30" s="52">
+        <v>18</v>
+      </c>
+      <c r="AO30" s="53">
+        <v>9.6</v>
+      </c>
+      <c r="AP30" s="52">
+        <f t="shared" si="68"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="AQ30" s="54">
+        <f t="shared" si="72"/>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="AR30" s="52">
+        <f t="shared" si="69"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="AS30" s="55">
+        <f t="shared" si="73"/>
+        <v>5.4000000000000341</v>
+      </c>
+      <c r="AT30" s="42">
+        <f>AQ30-AQ20</f>
+        <v>113.39999999999992</v>
+      </c>
+      <c r="AU30" s="39">
+        <f>AT30/AS30</f>
+        <v>20.999999999999854</v>
+      </c>
+      <c r="AW30" s="51">
+        <v>6</v>
+      </c>
+      <c r="AX30" s="52">
+        <v>18</v>
+      </c>
+      <c r="AY30" s="53">
+        <v>25.6</v>
+      </c>
+      <c r="AZ30" s="52">
+        <f t="shared" si="70"/>
+        <v>460.8</v>
+      </c>
+      <c r="BA30" s="54">
+        <f t="shared" si="74"/>
+        <v>907.2</v>
+      </c>
+      <c r="BB30" s="52">
+        <f t="shared" si="71"/>
+        <v>921.6</v>
+      </c>
+      <c r="BC30" s="55">
+        <f t="shared" si="75"/>
+        <v>14.399999999999977</v>
+      </c>
+      <c r="BD30" s="42">
+        <f>BA30-BA20</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="BE30" s="39">
+        <f>BD30/BC30</f>
+        <v>7.8750000000000187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -2857,58 +4374,58 @@
         <v>9</v>
       </c>
       <c r="X31" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>27</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>72</v>
       </c>
-      <c r="AD31" s="30">
+      <c r="AD31" s="25">
         <v>1</v>
       </c>
-      <c r="AE31" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF31" s="31">
+      <c r="AE31" s="25">
+        <v>18</v>
+      </c>
+      <c r="AF31" s="26">
         <v>1</v>
       </c>
-      <c r="AG31" s="30">
+      <c r="AG31" s="25">
         <f>AE31*AF31</f>
         <v>18</v>
       </c>
-      <c r="AH31" s="32">
+      <c r="AH31" s="27">
         <f>AG31</f>
         <v>18</v>
       </c>
-      <c r="AI31" s="30">
+      <c r="AI31" s="25">
         <f>AF31*36</f>
         <v>36</v>
       </c>
-      <c r="AJ31" s="30">
+      <c r="AJ31" s="25">
         <f>AI31-AH31</f>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="K32" s="24" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="K32" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -2924,40 +4441,40 @@
         <v>18</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>36</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>432</v>
       </c>
-      <c r="AD32" s="30">
+      <c r="AD32" s="25">
         <v>2</v>
       </c>
-      <c r="AE32" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF32" s="31">
+      <c r="AE32" s="25">
+        <v>18</v>
+      </c>
+      <c r="AF32" s="26">
         <v>2</v>
       </c>
-      <c r="AG32" s="30">
-        <f t="shared" ref="AG32:AG38" si="58">AE32*AF32</f>
+      <c r="AG32" s="25">
+        <f t="shared" ref="AG32:AG38" si="82">AE32*AF32</f>
         <v>36</v>
       </c>
-      <c r="AH32" s="32">
+      <c r="AH32" s="27">
         <f>AG32+AH31</f>
         <v>54</v>
       </c>
-      <c r="AI32" s="30">
-        <f t="shared" ref="AI32:AI38" si="59">AF32*36</f>
+      <c r="AI32" s="25">
+        <f t="shared" ref="AI32:AI38" si="83">AF32*36</f>
         <v>72</v>
       </c>
-      <c r="AJ32" s="32">
+      <c r="AJ32" s="27">
         <f>AI32-AH32</f>
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -3011,44 +4528,62 @@
         <v>18</v>
       </c>
       <c r="W33">
-        <f t="shared" ref="W33:W38" si="60">Z18</f>
+        <f t="shared" ref="W33:W38" si="84">Z18</f>
         <v>18</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>36</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>684</v>
       </c>
-      <c r="AD33" s="30">
+      <c r="AD33" s="25">
         <v>3</v>
       </c>
-      <c r="AE33" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF33" s="31">
+      <c r="AE33" s="25">
+        <v>18</v>
+      </c>
+      <c r="AF33" s="26">
         <v>3.5</v>
       </c>
-      <c r="AG33" s="30">
-        <f t="shared" si="58"/>
+      <c r="AG33" s="25">
+        <f t="shared" si="82"/>
         <v>63</v>
       </c>
-      <c r="AH33" s="32">
-        <f t="shared" ref="AH33:AH38" si="61">AG33+AH32</f>
+      <c r="AH33" s="27">
+        <f t="shared" ref="AH33:AH38" si="85">AG33+AH32</f>
         <v>117</v>
       </c>
-      <c r="AI33" s="30">
-        <f t="shared" si="59"/>
+      <c r="AI33" s="25">
+        <f t="shared" si="83"/>
         <v>126</v>
       </c>
-      <c r="AJ33" s="30">
-        <f t="shared" ref="AJ33:AJ38" si="62">AI33-AH33</f>
+      <c r="AJ33" s="25">
+        <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM33" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="45"/>
+      <c r="AW33" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="45"/>
+    </row>
+    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -3110,44 +4645,86 @@
         <v>0</v>
       </c>
       <c r="W34" s="19">
-        <f t="shared" si="60"/>
+        <f t="shared" si="84"/>
         <v>18</v>
       </c>
       <c r="X34" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>18</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>576</v>
       </c>
-      <c r="AD34" s="30">
+      <c r="AD34" s="25">
         <v>4</v>
       </c>
-      <c r="AE34" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF34" s="31">
+      <c r="AE34" s="25">
+        <v>18</v>
+      </c>
+      <c r="AF34" s="26">
         <v>7</v>
       </c>
-      <c r="AG34" s="30">
-        <f t="shared" si="58"/>
+      <c r="AG34" s="25">
+        <f t="shared" si="82"/>
         <v>126</v>
       </c>
-      <c r="AH34" s="32">
-        <f t="shared" si="61"/>
+      <c r="AH34" s="27">
+        <f t="shared" si="85"/>
         <v>243</v>
       </c>
-      <c r="AI34" s="30">
-        <f t="shared" si="59"/>
+      <c r="AI34" s="25">
+        <f t="shared" si="83"/>
         <v>252</v>
       </c>
-      <c r="AJ34" s="32">
-        <f t="shared" si="62"/>
+      <c r="AJ34" s="27">
+        <f t="shared" si="86"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM34" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ34" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR34" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS34" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW34" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA34" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB34" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC34" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -3159,7 +4736,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:E37" si="63">C35*D35</f>
+        <f t="shared" ref="E35:E37" si="87">C35*D35</f>
         <v>72</v>
       </c>
       <c r="F35" s="10">
@@ -3167,7 +4744,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:G37" si="64">D35*36</f>
+        <f t="shared" ref="G35:G37" si="88">D35*36</f>
         <v>144</v>
       </c>
       <c r="H35" s="10">
@@ -3184,7 +4761,7 @@
         <v>0.2</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35:N39" si="65">L35*M35</f>
+        <f t="shared" ref="N35:N39" si="89">L35*M35</f>
         <v>3.6</v>
       </c>
       <c r="O35" s="10">
@@ -3192,7 +4769,7 @@
         <v>5.4</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" ref="P35:P39" si="66">M35*36</f>
+        <f t="shared" ref="P35:P39" si="90">M35*36</f>
         <v>7.2</v>
       </c>
       <c r="Q35" s="10">
@@ -3209,44 +4786,94 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="84"/>
         <v>9</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>144</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AD35" s="25">
         <v>5</v>
       </c>
-      <c r="AE35" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF35" s="31">
+      <c r="AE35" s="25">
+        <v>18</v>
+      </c>
+      <c r="AF35" s="26">
         <v>13.8</v>
       </c>
-      <c r="AG35" s="30">
-        <f t="shared" si="58"/>
+      <c r="AG35" s="25">
+        <f t="shared" si="82"/>
         <v>248.4</v>
       </c>
-      <c r="AH35" s="32">
-        <f t="shared" si="61"/>
+      <c r="AH35" s="27">
+        <f t="shared" si="85"/>
         <v>491.4</v>
       </c>
-      <c r="AI35" s="30">
-        <f t="shared" si="59"/>
+      <c r="AI35" s="25">
+        <f t="shared" si="83"/>
         <v>496.8</v>
       </c>
-      <c r="AJ35" s="30">
-        <f t="shared" si="62"/>
+      <c r="AJ35" s="25">
+        <f t="shared" si="86"/>
         <v>5.4000000000000341</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM35" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="AP35" s="8">
+        <f>AN35*AO35</f>
+        <v>7.2</v>
+      </c>
+      <c r="AQ35" s="10">
+        <f>AP35</f>
+        <v>7.2</v>
+      </c>
+      <c r="AR35" s="8">
+        <f>AO35*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="AS35" s="49">
+        <f>AR35-AQ35</f>
+        <v>7.2</v>
+      </c>
+      <c r="AW35" s="48">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY35" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="AZ35" s="8">
+        <f>AX35*AY35</f>
+        <v>16.2</v>
+      </c>
+      <c r="BA35" s="10">
+        <f>AZ35</f>
+        <v>16.2</v>
+      </c>
+      <c r="BB35" s="8">
+        <f>AY35*36</f>
+        <v>32.4</v>
+      </c>
+      <c r="BC35" s="49">
+        <f>BB35-BA35</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -3258,19 +4885,19 @@
         <v>10</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="87"/>
         <v>180</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" ref="F36:F37" si="67">E36+F35</f>
+        <f t="shared" ref="F36:F37" si="91">E36+F35</f>
         <v>288</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>360</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ref="H36:H37" si="68">G36-F36</f>
+        <f t="shared" ref="H36:H37" si="92">G36-F36</f>
         <v>72</v>
       </c>
       <c r="K36" s="8">
@@ -3283,19 +4910,19 @@
         <v>0.4</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>7.2</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" ref="O36:O39" si="69">N36+O35</f>
+        <f t="shared" ref="O36:O39" si="93">N36+O35</f>
         <v>12.600000000000001</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>14.4</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" ref="Q36:Q39" si="70">P36-O36</f>
+        <f t="shared" ref="Q36:Q39" si="94">P36-O36</f>
         <v>1.7999999999999989</v>
       </c>
       <c r="T36" s="18" t="s">
@@ -3308,44 +4935,94 @@
         <v>0</v>
       </c>
       <c r="W36" s="19">
-        <f t="shared" si="60"/>
+        <f t="shared" si="84"/>
         <v>9</v>
       </c>
       <c r="X36" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>9</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>117</v>
       </c>
-      <c r="AD36" s="30">
+      <c r="AD36" s="25">
         <v>6</v>
       </c>
-      <c r="AE36" s="30">
-        <v>18</v>
-      </c>
-      <c r="AF36" s="31">
+      <c r="AE36" s="25">
+        <v>18</v>
+      </c>
+      <c r="AF36" s="26">
         <v>27.6</v>
       </c>
-      <c r="AG36" s="30">
-        <f t="shared" si="58"/>
+      <c r="AG36" s="25">
+        <f t="shared" si="82"/>
         <v>496.8</v>
       </c>
-      <c r="AH36" s="32">
-        <f t="shared" si="61"/>
+      <c r="AH36" s="27">
+        <f t="shared" si="85"/>
         <v>988.2</v>
       </c>
-      <c r="AI36" s="30">
-        <f t="shared" si="59"/>
+      <c r="AI36" s="25">
+        <f t="shared" si="83"/>
         <v>993.6</v>
       </c>
-      <c r="AJ36" s="32">
-        <f t="shared" si="62"/>
+      <c r="AJ36" s="27">
+        <f t="shared" si="86"/>
         <v>5.3999999999999773</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM36" s="48">
+        <v>2</v>
+      </c>
+      <c r="AN36" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO36" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AP36" s="8">
+        <f t="shared" ref="AP36:AP40" si="95">AN36*AO36</f>
+        <v>14.4</v>
+      </c>
+      <c r="AQ36" s="10">
+        <f>AP36+AQ35</f>
+        <v>21.6</v>
+      </c>
+      <c r="AR36" s="8">
+        <f t="shared" ref="AR36:AR40" si="96">AO36*36</f>
+        <v>28.8</v>
+      </c>
+      <c r="AS36" s="50">
+        <f>AR36-AQ36</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AW36" s="48">
+        <v>2</v>
+      </c>
+      <c r="AX36" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY36" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="AZ36" s="8">
+        <f t="shared" ref="AZ36:AZ40" si="97">AX36*AY36</f>
+        <v>32.4</v>
+      </c>
+      <c r="BA36" s="10">
+        <f>AZ36+BA35</f>
+        <v>48.599999999999994</v>
+      </c>
+      <c r="BB36" s="8">
+        <f t="shared" ref="BB36:BB40" si="98">AY36*36</f>
+        <v>64.8</v>
+      </c>
+      <c r="BC36" s="50">
+        <f>BB36-BA36</f>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -3357,19 +5034,19 @@
         <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="87"/>
         <v>360</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="91"/>
         <v>648</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="88"/>
         <v>720</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="92"/>
         <v>72</v>
       </c>
       <c r="K37" s="8">
@@ -3382,19 +5059,19 @@
         <v>0.8</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>14.4</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>27</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>28.8</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="T37" s="18" t="s">
@@ -3407,15 +5084,15 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="84"/>
         <v>5.4000000000000341</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>5.4000000000000341</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>10.800000000000068</v>
       </c>
       <c r="AD37" s="8">
@@ -3428,23 +5105,81 @@
         <v>9</v>
       </c>
       <c r="AG37" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v>162</v>
       </c>
       <c r="AH37" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>1150.2</v>
       </c>
       <c r="AI37" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>324</v>
       </c>
       <c r="AJ37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM37" s="48">
+        <v>3</v>
+      </c>
+      <c r="AN37" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO37" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="AP37" s="8">
+        <f t="shared" si="95"/>
+        <v>28.8</v>
+      </c>
+      <c r="AQ37" s="10">
+        <f t="shared" ref="AQ37:AQ40" si="99">AP37+AQ36</f>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="AR37" s="8">
+        <f t="shared" si="96"/>
+        <v>57.6</v>
+      </c>
+      <c r="AS37" s="49">
+        <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="AT37" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU37" s="56"/>
+      <c r="AW37" s="48">
+        <v>3</v>
+      </c>
+      <c r="AX37" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY37" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="AZ37" s="8">
+        <f t="shared" si="97"/>
+        <v>64.8</v>
+      </c>
+      <c r="BA37" s="10">
+        <f t="shared" ref="BA37:BA40" si="101">AZ37+BA36</f>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="BB37" s="8">
+        <f t="shared" si="98"/>
+        <v>129.6</v>
+      </c>
+      <c r="BC37" s="49">
+        <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="BD37" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE37" s="56"/>
+    </row>
+    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -3456,19 +5191,19 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" ref="E38:E39" si="71">C38*D38</f>
+        <f t="shared" ref="E38:E39" si="103">C38*D38</f>
         <v>900</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" ref="F38:F39" si="72">E38+F37</f>
+        <f t="shared" ref="F38:F39" si="104">E38+F37</f>
         <v>1548</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" ref="G38:G39" si="73">D38*36</f>
+        <f t="shared" ref="G38:G39" si="105">D38*36</f>
         <v>1800</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ref="H38:H39" si="74">G38-F38</f>
+        <f t="shared" ref="H38:H39" si="106">G38-F38</f>
         <v>252</v>
       </c>
       <c r="K38" s="8">
@@ -3481,19 +5216,19 @@
         <v>1.6</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>28.8</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>55.8</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>57.6</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="T38" s="18" t="s">
@@ -3506,15 +5241,15 @@
         <v>0</v>
       </c>
       <c r="W38" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="84"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="X38" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="Y38" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="AD38" s="8">
@@ -3527,23 +5262,89 @@
         <v>18</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v>324</v>
       </c>
       <c r="AH38" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>1474.2</v>
       </c>
       <c r="AI38" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>648</v>
       </c>
       <c r="AJ38" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM38" s="48">
+        <v>4</v>
+      </c>
+      <c r="AN38" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO38" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="AP38" s="8">
+        <f t="shared" si="95"/>
+        <v>57.6</v>
+      </c>
+      <c r="AQ38" s="10">
+        <f t="shared" si="99"/>
+        <v>108</v>
+      </c>
+      <c r="AR38" s="8">
+        <f t="shared" si="96"/>
+        <v>115.2</v>
+      </c>
+      <c r="AS38" s="50">
+        <f t="shared" si="100"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="AT38" s="41">
+        <f>AQ40</f>
+        <v>453.6</v>
+      </c>
+      <c r="AU38" s="37">
+        <f>AT38/AS40</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="AW38" s="48">
+        <v>4</v>
+      </c>
+      <c r="AX38" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY38" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="AZ38" s="8">
+        <f t="shared" si="97"/>
+        <v>129.6</v>
+      </c>
+      <c r="BA38" s="10">
+        <f t="shared" si="101"/>
+        <v>243</v>
+      </c>
+      <c r="BB38" s="8">
+        <f t="shared" si="98"/>
+        <v>259.2</v>
+      </c>
+      <c r="BC38" s="50">
+        <f t="shared" si="102"/>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="BD38" s="41">
+        <f>BA40</f>
+        <v>1020.5999999999999</v>
+      </c>
+      <c r="BE38" s="37">
+        <f>BD38/BC40</f>
+        <v>62.999999999999815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -3555,19 +5356,19 @@
         <v>100</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>1800</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>3348</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>3600</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>252</v>
       </c>
       <c r="K39" s="8">
@@ -3580,19 +5381,19 @@
         <v>3.2</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="89"/>
         <v>57.6</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>113.4</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>115.2</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="94"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="U39">
@@ -3607,8 +5408,66 @@
         <f>Y39/U39</f>
         <v>14.856338028169016</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM39" s="48">
+        <v>5</v>
+      </c>
+      <c r="AN39" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="AP39" s="8">
+        <f t="shared" si="95"/>
+        <v>115.2</v>
+      </c>
+      <c r="AQ39" s="10">
+        <f t="shared" si="99"/>
+        <v>223.2</v>
+      </c>
+      <c r="AR39" s="8">
+        <f t="shared" si="96"/>
+        <v>230.4</v>
+      </c>
+      <c r="AS39" s="49">
+        <f t="shared" si="100"/>
+        <v>7.2000000000000171</v>
+      </c>
+      <c r="AT39" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU39" s="38"/>
+      <c r="AW39" s="48">
+        <v>5</v>
+      </c>
+      <c r="AX39" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY39" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="AZ39" s="8">
+        <f t="shared" si="97"/>
+        <v>259.2</v>
+      </c>
+      <c r="BA39" s="10">
+        <f t="shared" si="101"/>
+        <v>502.2</v>
+      </c>
+      <c r="BB39" s="8">
+        <f t="shared" si="98"/>
+        <v>518.4</v>
+      </c>
+      <c r="BC39" s="49">
+        <f t="shared" si="102"/>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="BD39" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE39" s="38"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -3619,27 +5478,93 @@
         <v>6.4</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" ref="N40:N42" si="75">L40*M40</f>
+        <f t="shared" ref="N40:N42" si="107">L40*M40</f>
         <v>115.2</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" ref="O40:O42" si="76">N40+O39</f>
+        <f t="shared" ref="O40:O42" si="108">N40+O39</f>
         <v>228.60000000000002</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:P42" si="77">M40*36</f>
+        <f t="shared" ref="P40:P42" si="109">M40*36</f>
         <v>230.4</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40:Q42" si="78">P40-O40</f>
+        <f t="shared" ref="Q40:Q42" si="110">P40-O40</f>
         <v>1.7999999999999829</v>
       </c>
       <c r="Y40" s="19">
         <f>-X23</f>
         <v>-988.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM40" s="51">
+        <v>6</v>
+      </c>
+      <c r="AN40" s="52">
+        <v>18</v>
+      </c>
+      <c r="AO40" s="53">
+        <v>12.8</v>
+      </c>
+      <c r="AP40" s="52">
+        <f t="shared" si="95"/>
+        <v>230.4</v>
+      </c>
+      <c r="AQ40" s="54">
+        <f t="shared" si="99"/>
+        <v>453.6</v>
+      </c>
+      <c r="AR40" s="52">
+        <f t="shared" si="96"/>
+        <v>460.8</v>
+      </c>
+      <c r="AS40" s="55">
+        <f t="shared" si="100"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="AT40" s="42">
+        <f>AQ40-AQ30</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="AU40" s="39">
+        <f>AT40/AS40</f>
+        <v>15.750000000000037</v>
+      </c>
+      <c r="AW40" s="51">
+        <v>6</v>
+      </c>
+      <c r="AX40" s="52">
+        <v>18</v>
+      </c>
+      <c r="AY40" s="53">
+        <v>28.8</v>
+      </c>
+      <c r="AZ40" s="52">
+        <f t="shared" si="97"/>
+        <v>518.4</v>
+      </c>
+      <c r="BA40" s="54">
+        <f t="shared" si="101"/>
+        <v>1020.5999999999999</v>
+      </c>
+      <c r="BB40" s="52">
+        <f t="shared" si="98"/>
+        <v>1036.8</v>
+      </c>
+      <c r="BC40" s="55">
+        <f t="shared" si="102"/>
+        <v>16.200000000000045</v>
+      </c>
+      <c r="BD40" s="42">
+        <f>BA40-BA30</f>
+        <v>113.39999999999986</v>
+      </c>
+      <c r="BE40" s="39">
+        <f>BD40/BC40</f>
+        <v>6.9999999999999716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -3650,19 +5575,19 @@
         <v>12.8</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>230.4</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>459</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>460.8</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>1.8000000000000114</v>
       </c>
       <c r="Y41">
@@ -3670,16 +5595,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="24" t="s">
+    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -3690,23 +5615,23 @@
         <v>25.6</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>460.8</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>919.8</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>921.6</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -3728,8 +5653,26 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="45"/>
+      <c r="AW43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="44"/>
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="45"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -3756,8 +5699,50 @@
         <f>G44-F44</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS44" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC44" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -3769,7 +5754,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:E47" si="79">C45*D45</f>
+        <f t="shared" ref="E45:E47" si="111">C45*D45</f>
         <v>144</v>
       </c>
       <c r="F45" s="10">
@@ -3777,15 +5762,65 @@
         <v>234</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45:G47" si="80">D45*36</f>
+        <f t="shared" ref="G45:G47" si="112">D45*36</f>
         <v>288</v>
       </c>
       <c r="H45" s="10">
         <f>G45-F45</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM45" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP45" s="8">
+        <f>AN45*AO45</f>
+        <v>9</v>
+      </c>
+      <c r="AQ45" s="10">
+        <f>AP45</f>
+        <v>9</v>
+      </c>
+      <c r="AR45" s="8">
+        <f>AO45*36</f>
+        <v>18</v>
+      </c>
+      <c r="AS45" s="49">
+        <f>AR45-AQ45</f>
+        <v>9</v>
+      </c>
+      <c r="AW45" s="48">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="8">
+        <f>AX45*AY45</f>
+        <v>18</v>
+      </c>
+      <c r="BA45" s="10">
+        <f>AZ45</f>
+        <v>18</v>
+      </c>
+      <c r="BB45" s="8">
+        <f>AY45*36</f>
+        <v>36</v>
+      </c>
+      <c r="BC45" s="49">
+        <f>BB45-BA45</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -3797,23 +5832,73 @@
         <v>20</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>360</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F47" si="81">E46+F45</f>
+        <f t="shared" ref="F46:F47" si="113">E46+F45</f>
         <v>594</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>720</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46:H47" si="82">G46-F46</f>
+        <f t="shared" ref="H46:H47" si="114">G46-F46</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM46" s="48">
+        <v>2</v>
+      </c>
+      <c r="AN46" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO46" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="8">
+        <f t="shared" ref="AP46:AP50" si="115">AN46*AO46</f>
+        <v>18</v>
+      </c>
+      <c r="AQ46" s="10">
+        <f>AP46+AQ45</f>
+        <v>27</v>
+      </c>
+      <c r="AR46" s="8">
+        <f t="shared" ref="AR46:AR50" si="116">AO46*36</f>
+        <v>36</v>
+      </c>
+      <c r="AS46" s="50">
+        <f>AR46-AQ46</f>
+        <v>9</v>
+      </c>
+      <c r="AW46" s="48">
+        <v>2</v>
+      </c>
+      <c r="AX46" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY46" s="9">
+        <v>2</v>
+      </c>
+      <c r="AZ46" s="8">
+        <f t="shared" ref="AZ46:AZ50" si="117">AX46*AY46</f>
+        <v>36</v>
+      </c>
+      <c r="BA46" s="10">
+        <f>AZ46+BA45</f>
+        <v>54</v>
+      </c>
+      <c r="BB46" s="8">
+        <f t="shared" ref="BB46:BB50" si="118">AY46*36</f>
+        <v>72</v>
+      </c>
+      <c r="BC46" s="50">
+        <f>BB46-BA46</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -3825,32 +5910,90 @@
         <v>40</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>720</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>1314</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>1440</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="24" t="s">
+      <c r="T47" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-    </row>
-    <row r="48" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AM47" s="48">
+        <v>3</v>
+      </c>
+      <c r="AN47" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO47" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP47" s="8">
+        <f t="shared" si="115"/>
+        <v>36</v>
+      </c>
+      <c r="AQ47" s="10">
+        <f t="shared" ref="AQ47:AQ50" si="119">AP47+AQ46</f>
+        <v>63</v>
+      </c>
+      <c r="AR47" s="8">
+        <f t="shared" si="116"/>
+        <v>72</v>
+      </c>
+      <c r="AS47" s="49">
+        <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
+        <v>9</v>
+      </c>
+      <c r="AT47" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU47" s="56"/>
+      <c r="AW47" s="48">
+        <v>3</v>
+      </c>
+      <c r="AX47" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY47" s="9">
+        <v>4</v>
+      </c>
+      <c r="AZ47" s="8">
+        <f t="shared" si="117"/>
+        <v>72</v>
+      </c>
+      <c r="BA47" s="10">
+        <f t="shared" ref="BA47:BA50" si="121">AZ47+BA46</f>
+        <v>126</v>
+      </c>
+      <c r="BB47" s="8">
+        <f t="shared" si="118"/>
+        <v>144</v>
+      </c>
+      <c r="BC47" s="49">
+        <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
+        <v>18</v>
+      </c>
+      <c r="BD47" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE47" s="56"/>
+    </row>
+    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -3862,19 +6005,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:E49" si="83">C48*D48</f>
+        <f t="shared" ref="E48:E49" si="123">C48*D48</f>
         <v>1800</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" ref="F48:F49" si="84">E48+F47</f>
+        <f t="shared" ref="F48:F49" si="124">E48+F47</f>
         <v>3114</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" ref="G48:G49" si="85">D48*36</f>
+        <f t="shared" ref="G48:G49" si="125">D48*36</f>
         <v>3600</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ref="H48:H49" si="86">G48-F48</f>
+        <f t="shared" ref="H48:H49" si="126">G48-F48</f>
         <v>486</v>
       </c>
       <c r="T48" s="23" t="s">
@@ -3898,8 +6041,74 @@
       <c r="Z48" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM48" s="48">
+        <v>4</v>
+      </c>
+      <c r="AN48" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO48" s="9">
+        <v>4</v>
+      </c>
+      <c r="AP48" s="8">
+        <f t="shared" si="115"/>
+        <v>72</v>
+      </c>
+      <c r="AQ48" s="10">
+        <f t="shared" si="119"/>
+        <v>135</v>
+      </c>
+      <c r="AR48" s="8">
+        <f t="shared" si="116"/>
+        <v>144</v>
+      </c>
+      <c r="AS48" s="50">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="AT48" s="41">
+        <f>AQ50</f>
+        <v>567</v>
+      </c>
+      <c r="AU48" s="37">
+        <f>AT48/AS50</f>
+        <v>63</v>
+      </c>
+      <c r="AW48" s="48">
+        <v>4</v>
+      </c>
+      <c r="AX48" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY48" s="9">
+        <v>8</v>
+      </c>
+      <c r="AZ48" s="8">
+        <f t="shared" si="117"/>
+        <v>144</v>
+      </c>
+      <c r="BA48" s="10">
+        <f t="shared" si="121"/>
+        <v>270</v>
+      </c>
+      <c r="BB48" s="8">
+        <f t="shared" si="118"/>
+        <v>288</v>
+      </c>
+      <c r="BC48" s="50">
+        <f t="shared" si="122"/>
+        <v>18</v>
+      </c>
+      <c r="BD48" s="41">
+        <f>BA50</f>
+        <v>1134</v>
+      </c>
+      <c r="BE48" s="37">
+        <f>BD48/BC50</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -3911,19 +6120,19 @@
         <v>200</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="123"/>
         <v>3600</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="124"/>
         <v>6714</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="125"/>
         <v>7200</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="126"/>
         <v>486</v>
       </c>
       <c r="T49" s="8">
@@ -3951,8 +6160,66 @@
         <f>Y49-X49</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM49" s="48">
+        <v>5</v>
+      </c>
+      <c r="AN49" s="8">
+        <v>18</v>
+      </c>
+      <c r="AO49" s="9">
+        <v>8</v>
+      </c>
+      <c r="AP49" s="8">
+        <f t="shared" si="115"/>
+        <v>144</v>
+      </c>
+      <c r="AQ49" s="10">
+        <f t="shared" si="119"/>
+        <v>279</v>
+      </c>
+      <c r="AR49" s="8">
+        <f t="shared" si="116"/>
+        <v>288</v>
+      </c>
+      <c r="AS49" s="49">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="AT49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU49" s="38"/>
+      <c r="AW49" s="48">
+        <v>5</v>
+      </c>
+      <c r="AX49" s="8">
+        <v>18</v>
+      </c>
+      <c r="AY49" s="9">
+        <v>16</v>
+      </c>
+      <c r="AZ49" s="8">
+        <f t="shared" si="117"/>
+        <v>288</v>
+      </c>
+      <c r="BA49" s="10">
+        <f t="shared" si="121"/>
+        <v>558</v>
+      </c>
+      <c r="BB49" s="8">
+        <f t="shared" si="118"/>
+        <v>576</v>
+      </c>
+      <c r="BC49" s="49">
+        <f t="shared" si="122"/>
+        <v>18</v>
+      </c>
+      <c r="BD49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE49" s="38"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -3963,7 +6230,7 @@
         <v>0.4</v>
       </c>
       <c r="W50" s="8">
-        <f t="shared" ref="W50:W56" si="87">U50*V50</f>
+        <f t="shared" ref="W50:W56" si="127">U50*V50</f>
         <v>7.2</v>
       </c>
       <c r="X50" s="10">
@@ -3971,15 +6238,81 @@
         <v>10.8</v>
       </c>
       <c r="Y50" s="8">
-        <f t="shared" ref="Y50:Y56" si="88">V50*36</f>
+        <f t="shared" ref="Y50:Y56" si="128">V50*36</f>
         <v>14.4</v>
       </c>
       <c r="Z50" s="10">
         <f>Y50-X50</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AM50" s="51">
+        <v>6</v>
+      </c>
+      <c r="AN50" s="52">
+        <v>18</v>
+      </c>
+      <c r="AO50" s="53">
+        <v>16</v>
+      </c>
+      <c r="AP50" s="52">
+        <f t="shared" si="115"/>
+        <v>288</v>
+      </c>
+      <c r="AQ50" s="54">
+        <f t="shared" si="119"/>
+        <v>567</v>
+      </c>
+      <c r="AR50" s="52">
+        <f t="shared" si="116"/>
+        <v>576</v>
+      </c>
+      <c r="AS50" s="55">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="AT50" s="42">
+        <f>AQ50-AQ40</f>
+        <v>113.39999999999998</v>
+      </c>
+      <c r="AU50" s="39">
+        <f>AT50/AS50</f>
+        <v>12.599999999999998</v>
+      </c>
+      <c r="AW50" s="51">
+        <v>6</v>
+      </c>
+      <c r="AX50" s="52">
+        <v>18</v>
+      </c>
+      <c r="AY50" s="53">
+        <v>32</v>
+      </c>
+      <c r="AZ50" s="52">
+        <f t="shared" si="117"/>
+        <v>576</v>
+      </c>
+      <c r="BA50" s="54">
+        <f t="shared" si="121"/>
+        <v>1134</v>
+      </c>
+      <c r="BB50" s="52">
+        <f t="shared" si="118"/>
+        <v>1152</v>
+      </c>
+      <c r="BC50" s="55">
+        <f t="shared" si="122"/>
+        <v>18</v>
+      </c>
+      <c r="BD50" s="42">
+        <f>BA50-BA40</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="BE50" s="39">
+        <f>BD50/BC50</f>
+        <v>6.3000000000000052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -3990,32 +6323,32 @@
         <v>1</v>
       </c>
       <c r="W51" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="127"/>
         <v>18</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" ref="X51:X56" si="89">W51+X50</f>
+        <f t="shared" ref="X51:X56" si="129">W51+X50</f>
         <v>28.8</v>
       </c>
       <c r="Y51" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="Z51" s="8">
-        <f t="shared" ref="Z51:Z56" si="90">Y51-X51</f>
+        <f t="shared" ref="Z51:Z56" si="130">Y51-X51</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="24" t="s">
+    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -4026,23 +6359,23 @@
         <v>2</v>
       </c>
       <c r="W52" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="127"/>
         <v>36</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="129"/>
         <v>64.8</v>
       </c>
       <c r="Y52" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="128"/>
         <v>72</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="130"/>
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -4074,23 +6407,23 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="W53" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="127"/>
         <v>79.2</v>
       </c>
       <c r="X53" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="129"/>
         <v>144</v>
       </c>
       <c r="Y53" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="128"/>
         <v>158.4</v>
       </c>
       <c r="Z53" s="8">
-        <f t="shared" si="90"/>
+        <f t="shared" si="130"/>
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -4127,23 +6460,23 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="W54" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="127"/>
         <v>158.4</v>
       </c>
       <c r="X54" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="129"/>
         <v>302.39999999999998</v>
       </c>
       <c r="Y54" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="128"/>
         <v>316.8</v>
       </c>
       <c r="Z54" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="130"/>
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -4155,7 +6488,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:E57" si="91">C55*D55</f>
+        <f t="shared" ref="E55:E57" si="131">C55*D55</f>
         <v>360</v>
       </c>
       <c r="F55" s="10">
@@ -4163,7 +6496,7 @@
         <v>540</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G57" si="92">D55*36</f>
+        <f t="shared" ref="G55:G57" si="132">D55*36</f>
         <v>720</v>
       </c>
       <c r="H55" s="10">
@@ -4180,23 +6513,23 @@
         <v>18</v>
       </c>
       <c r="W55" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="127"/>
         <v>324</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="129"/>
         <v>626.4</v>
       </c>
       <c r="Y55" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="128"/>
         <v>648</v>
       </c>
       <c r="Z55" s="8">
-        <f t="shared" si="90"/>
+        <f t="shared" si="130"/>
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -4208,19 +6541,19 @@
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="131"/>
         <v>900</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" ref="F56:F57" si="93">E56+F55</f>
+        <f t="shared" ref="F56:F57" si="133">E56+F55</f>
         <v>1440</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="132"/>
         <v>1800</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" ref="H56:H57" si="94">G56-F56</f>
+        <f t="shared" ref="H56:H57" si="134">G56-F56</f>
         <v>360</v>
       </c>
       <c r="T56" s="8">
@@ -4233,23 +6566,23 @@
         <v>36</v>
       </c>
       <c r="W56" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="127"/>
         <v>648</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="129"/>
         <v>1274.4000000000001</v>
       </c>
       <c r="Y56" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="128"/>
         <v>1296</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="130"/>
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -4261,23 +6594,23 @@
         <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="131"/>
         <v>1800</v>
       </c>
       <c r="F57" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="133"/>
         <v>3240</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="132"/>
         <v>3600</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="134"/>
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -4289,23 +6622,23 @@
         <v>220</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E59" si="95">C58*D58</f>
+        <f t="shared" ref="E58:E59" si="135">C58*D58</f>
         <v>3960</v>
       </c>
       <c r="F58" s="10">
-        <f t="shared" ref="F58:F59" si="96">E58+F57</f>
+        <f t="shared" ref="F58:F59" si="136">E58+F57</f>
         <v>7200</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:G59" si="97">D58*36</f>
+        <f t="shared" ref="G58:G59" si="137">D58*36</f>
         <v>7920</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58:H59" si="98">G58-F58</f>
+        <f t="shared" ref="H58:H59" si="138">G58-F58</f>
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -4317,34 +6650,34 @@
         <v>440</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="135"/>
         <v>7920</v>
       </c>
       <c r="F59" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="136"/>
         <v>15120</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="137"/>
         <v>15840</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="138"/>
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24" t="s">
+    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -4407,7 +6740,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" ref="E65:E69" si="99">C65*D65</f>
+        <f t="shared" ref="E65:E69" si="139">C65*D65</f>
         <v>540</v>
       </c>
       <c r="F65" s="10">
@@ -4415,7 +6748,7 @@
         <v>810</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" ref="G65:G69" si="100">D65*36</f>
+        <f t="shared" ref="G65:G69" si="140">D65*36</f>
         <v>1080</v>
       </c>
       <c r="H65" s="10">
@@ -4435,19 +6768,19 @@
         <v>65</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="139"/>
         <v>1170</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66:F69" si="101">E66+F65</f>
+        <f t="shared" ref="F66:F69" si="141">E66+F65</f>
         <v>1980</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="140"/>
         <v>2340</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" ref="H66:H69" si="102">G66-F66</f>
+        <f t="shared" ref="H66:H69" si="142">G66-F66</f>
         <v>360</v>
       </c>
     </row>
@@ -4463,19 +6796,19 @@
         <v>130</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="139"/>
         <v>2340</v>
       </c>
       <c r="F67" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="141"/>
         <v>4320</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="140"/>
         <v>4680</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="142"/>
         <v>360</v>
       </c>
     </row>
@@ -4491,19 +6824,19 @@
         <v>275</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="139"/>
         <v>4950</v>
       </c>
       <c r="F68" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="141"/>
         <v>9270</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="140"/>
         <v>9900</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="142"/>
         <v>630</v>
       </c>
     </row>
@@ -4519,30 +6852,57 @@
         <v>550</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="139"/>
         <v>9900</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="141"/>
         <v>19170</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="140"/>
         <v>19800</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="142"/>
         <v>630</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
+  <mergeCells count="47">
+    <mergeCell ref="AT49:AU49"/>
+    <mergeCell ref="BD49:BE49"/>
+    <mergeCell ref="BD39:BE39"/>
+    <mergeCell ref="BD29:BE29"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="BD47:BE47"/>
+    <mergeCell ref="BD37:BE37"/>
+    <mergeCell ref="BD27:BE27"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AT37:AU37"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AT39:AU39"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B62:H62"/>
     <mergeCell ref="B42:H42"/>
@@ -4550,13 +6910,16 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B32:H32"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
     <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4578,70 +6941,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -5003,36 +7366,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5055,6 +7418,2242 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9606BF1C-A351-497E-AD56-66400B551869}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:U50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="M3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+    </row>
+    <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="48">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8">
+        <f>C5*D5</f>
+        <v>1.8</v>
+      </c>
+      <c r="F5" s="10">
+        <f>E5</f>
+        <v>1.8</v>
+      </c>
+      <c r="G5" s="8">
+        <f>D5*36</f>
+        <v>3.6</v>
+      </c>
+      <c r="H5" s="49">
+        <f>G5-F5</f>
+        <v>1.8</v>
+      </c>
+      <c r="M5" s="48">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>18</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="8">
+        <f>N5*O5</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>P5</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="R5" s="8">
+        <f>O5*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="S5" s="49">
+        <f>R5-Q5</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="48">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E10" si="0">C6*D6</f>
+        <v>3.6</v>
+      </c>
+      <c r="F6" s="10">
+        <f>E6+F5</f>
+        <v>5.4</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G10" si="1">D6*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="H6" s="50">
+        <f>G6-F6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="M6" s="48">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>18</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6:P10" si="2">N6*O6</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>P6+Q5</f>
+        <v>32.4</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" ref="R6:R10" si="3">O6*36</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="S6" s="50">
+        <f>R6-Q6</f>
+        <v>10.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F10" si="4">E7+F6</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
+      <c r="H7" s="49">
+        <f t="shared" ref="H7:H10" si="5">G7-F7</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="58"/>
+      <c r="M7" s="48">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>18</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="2"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" ref="Q7:Q10" si="6">P7+Q6</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="S7" s="49">
+        <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="56"/>
+    </row>
+    <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="48">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+      <c r="H8" s="50">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="I8" s="41">
+        <f>F10</f>
+        <v>113.4</v>
+      </c>
+      <c r="J8" s="37">
+        <f>I8/H10</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="K8" s="60">
+        <f>K1+I8</f>
+        <v>226.8</v>
+      </c>
+      <c r="M8" s="48">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="2"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="3"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="S8" s="50">
+        <f t="shared" si="7"/>
+        <v>10.799999999999983</v>
+      </c>
+      <c r="T8" s="41">
+        <f>Q10</f>
+        <v>680.39999999999986</v>
+      </c>
+      <c r="U8" s="37">
+        <f>T8/S10</f>
+        <v>62.999999999999588</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="48">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="4"/>
+        <v>55.8</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>57.6</v>
+      </c>
+      <c r="H9" s="49">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="58"/>
+      <c r="M9" s="48">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>18</v>
+      </c>
+      <c r="O9" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="2"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="6"/>
+        <v>334.79999999999995</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="3"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="S9" s="49">
+        <f t="shared" si="7"/>
+        <v>10.800000000000011</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="38"/>
+    </row>
+    <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="51">
+        <v>6</v>
+      </c>
+      <c r="C10" s="52">
+        <v>18</v>
+      </c>
+      <c r="D10" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="E10" s="52">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
+      </c>
+      <c r="F10" s="54">
+        <f t="shared" si="4"/>
+        <v>113.4</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
+      </c>
+      <c r="H10" s="55">
+        <f t="shared" si="5"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="I10" s="42">
+        <f>F10</f>
+        <v>113.4</v>
+      </c>
+      <c r="J10" s="39">
+        <f>I10/H10</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="K10" s="60">
+        <f>I10+K8</f>
+        <v>340.20000000000005</v>
+      </c>
+      <c r="M10" s="51">
+        <v>6</v>
+      </c>
+      <c r="N10" s="52">
+        <v>18</v>
+      </c>
+      <c r="O10" s="53">
+        <v>19.2</v>
+      </c>
+      <c r="P10" s="52">
+        <f t="shared" si="2"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="Q10" s="54">
+        <f t="shared" si="6"/>
+        <v>680.39999999999986</v>
+      </c>
+      <c r="R10" s="52">
+        <f t="shared" si="3"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="S10" s="55">
+        <f t="shared" si="7"/>
+        <v>10.800000000000068</v>
+      </c>
+      <c r="T10" s="42">
+        <f>Q10-F50</f>
+        <v>113.39999999999986</v>
+      </c>
+      <c r="U10" s="39">
+        <f>T10/S10</f>
+        <v>10.499999999999922</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="M13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="45"/>
+    </row>
+    <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="48">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="8">
+        <f>C15*D15</f>
+        <v>3.6</v>
+      </c>
+      <c r="F15" s="10">
+        <f>E15</f>
+        <v>3.6</v>
+      </c>
+      <c r="G15" s="8">
+        <f>D15*36</f>
+        <v>7.2</v>
+      </c>
+      <c r="H15" s="49">
+        <f>G15-F15</f>
+        <v>3.6</v>
+      </c>
+      <c r="M15" s="48">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>18</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="P15" s="8">
+        <f>N15*O15</f>
+        <v>12.6</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>P15</f>
+        <v>12.6</v>
+      </c>
+      <c r="R15" s="8">
+        <f>O15*36</f>
+        <v>25.2</v>
+      </c>
+      <c r="S15" s="49">
+        <f>R15-Q15</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="48">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ref="E16:E20" si="8">C16*D16</f>
+        <v>7.2</v>
+      </c>
+      <c r="F16" s="10">
+        <f>E16+F15</f>
+        <v>10.8</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" ref="G16:G20" si="9">D16*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="H16" s="50">
+        <f>G16-F16</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M16" s="48">
+        <v>2</v>
+      </c>
+      <c r="N16" s="8">
+        <v>18</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" ref="P16:P20" si="10">N16*O16</f>
+        <v>25.2</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>P16+Q15</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" ref="R16:R20" si="11">O16*36</f>
+        <v>50.4</v>
+      </c>
+      <c r="S16" s="50">
+        <f>R16-Q16</f>
+        <v>12.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="48">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="8"/>
+        <v>14.4</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F20" si="12">E17+F16</f>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="9"/>
+        <v>28.8</v>
+      </c>
+      <c r="H17" s="49">
+        <f t="shared" ref="H17:H20" si="13">G17-F17</f>
+        <v>3.5999999999999979</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="58"/>
+      <c r="M17" s="48">
+        <v>3</v>
+      </c>
+      <c r="N17" s="8">
+        <v>18</v>
+      </c>
+      <c r="O17" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="10"/>
+        <v>50.4</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" ref="Q17:Q20" si="14">P17+Q16</f>
+        <v>88.199999999999989</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="11"/>
+        <v>100.8</v>
+      </c>
+      <c r="S17" s="49">
+        <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
+        <v>12.600000000000009</v>
+      </c>
+      <c r="T17" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="56"/>
+    </row>
+    <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="48">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="8"/>
+        <v>28.8</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="9"/>
+        <v>57.6</v>
+      </c>
+      <c r="H18" s="50">
+        <f t="shared" si="13"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="I18" s="41">
+        <f>F20</f>
+        <v>226.8</v>
+      </c>
+      <c r="J18" s="37">
+        <f>I18/H20</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="K18" s="60">
+        <f>K10+I18</f>
+        <v>567</v>
+      </c>
+      <c r="M18" s="48">
+        <v>4</v>
+      </c>
+      <c r="N18" s="8">
+        <v>18</v>
+      </c>
+      <c r="O18" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="10"/>
+        <v>100.8</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="11"/>
+        <v>201.6</v>
+      </c>
+      <c r="S18" s="50">
+        <f t="shared" si="15"/>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="T18" s="41">
+        <f>Q20</f>
+        <v>793.8</v>
+      </c>
+      <c r="U18" s="37">
+        <f>T18/S20</f>
+        <v>62.999999999999879</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="48">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="8"/>
+        <v>57.6</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="12"/>
+        <v>111.6</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="9"/>
+        <v>115.2</v>
+      </c>
+      <c r="H19" s="49">
+        <f t="shared" si="13"/>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="58"/>
+      <c r="M19" s="48">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>18</v>
+      </c>
+      <c r="O19" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="10"/>
+        <v>201.6</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="14"/>
+        <v>390.6</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="11"/>
+        <v>403.2</v>
+      </c>
+      <c r="S19" s="49">
+        <f t="shared" si="15"/>
+        <v>12.599999999999966</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="38"/>
+    </row>
+    <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="51">
+        <v>6</v>
+      </c>
+      <c r="C20" s="52">
+        <v>18</v>
+      </c>
+      <c r="D20" s="53">
+        <v>6.4</v>
+      </c>
+      <c r="E20" s="52">
+        <f t="shared" si="8"/>
+        <v>115.2</v>
+      </c>
+      <c r="F20" s="54">
+        <f t="shared" si="12"/>
+        <v>226.8</v>
+      </c>
+      <c r="G20" s="52">
+        <f t="shared" si="9"/>
+        <v>230.4</v>
+      </c>
+      <c r="H20" s="55">
+        <f t="shared" si="13"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="I20" s="42">
+        <f>F20-F10</f>
+        <v>113.4</v>
+      </c>
+      <c r="J20" s="39">
+        <f>I20/H20</f>
+        <v>31.50000000000005</v>
+      </c>
+      <c r="K20" s="60">
+        <f>I20+K18</f>
+        <v>680.4</v>
+      </c>
+      <c r="M20" s="51">
+        <v>6</v>
+      </c>
+      <c r="N20" s="52">
+        <v>18</v>
+      </c>
+      <c r="O20" s="53">
+        <v>22.4</v>
+      </c>
+      <c r="P20" s="52">
+        <f t="shared" si="10"/>
+        <v>403.2</v>
+      </c>
+      <c r="Q20" s="54">
+        <f t="shared" si="14"/>
+        <v>793.8</v>
+      </c>
+      <c r="R20" s="52">
+        <f t="shared" si="11"/>
+        <v>806.4</v>
+      </c>
+      <c r="S20" s="55">
+        <f t="shared" si="15"/>
+        <v>12.600000000000023</v>
+      </c>
+      <c r="T20" s="42">
+        <f>Q20-Q10</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="U20" s="39">
+        <f>T20/S20</f>
+        <v>8.9999999999999911</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="M23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+    </row>
+    <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="48">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="8">
+        <f>C25*D25</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="F25" s="10">
+        <f>E25</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="G25" s="8">
+        <f>D25*36</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H25" s="49">
+        <f>G25-F25</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="M25" s="48">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8">
+        <v>18</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="8">
+        <f>N25*O25</f>
+        <v>14.4</v>
+      </c>
+      <c r="Q25" s="10">
+        <f>P25</f>
+        <v>14.4</v>
+      </c>
+      <c r="R25" s="8">
+        <f>O25*36</f>
+        <v>28.8</v>
+      </c>
+      <c r="S25" s="49">
+        <f>R25-Q25</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="48">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" ref="E26:E30" si="16">C26*D26</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="F26" s="10">
+        <f>E26+F25</f>
+        <v>16.2</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26:G30" si="17">D26*36</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="H26" s="50">
+        <f>G26-F26</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="M26" s="48">
+        <v>2</v>
+      </c>
+      <c r="N26" s="8">
+        <v>18</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26:P30" si="18">N26*O26</f>
+        <v>28.8</v>
+      </c>
+      <c r="Q26" s="10">
+        <f>P26+Q25</f>
+        <v>43.2</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" ref="R26:R30" si="19">O26*36</f>
+        <v>57.6</v>
+      </c>
+      <c r="S26" s="50">
+        <f>R26-Q26</f>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="48">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="16"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:F30" si="20">E27+F26</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="17"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="H27" s="49">
+        <f t="shared" ref="H27:H30" si="21">G27-F27</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="I27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="56"/>
+      <c r="K27" s="58"/>
+      <c r="M27" s="48">
+        <v>3</v>
+      </c>
+      <c r="N27" s="8">
+        <v>18</v>
+      </c>
+      <c r="O27" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="18"/>
+        <v>57.6</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" ref="Q27:Q30" si="22">P27+Q26</f>
+        <v>100.80000000000001</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="19"/>
+        <v>115.2</v>
+      </c>
+      <c r="S27" s="49">
+        <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
+        <v>14.399999999999991</v>
+      </c>
+      <c r="T27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="56"/>
+    </row>
+    <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="48">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="16"/>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="17"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="H28" s="50">
+        <f t="shared" si="21"/>
+        <v>5.3999999999999915</v>
+      </c>
+      <c r="I28" s="41">
+        <f>F30</f>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="J28" s="37">
+        <f>I28/H30</f>
+        <v>62.999999999999588</v>
+      </c>
+      <c r="K28" s="60">
+        <f>K20+I28</f>
+        <v>1020.5999999999999</v>
+      </c>
+      <c r="M28" s="48">
+        <v>4</v>
+      </c>
+      <c r="N28" s="8">
+        <v>18</v>
+      </c>
+      <c r="O28" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="18"/>
+        <v>115.2</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="22"/>
+        <v>216</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="19"/>
+        <v>230.4</v>
+      </c>
+      <c r="S28" s="50">
+        <f t="shared" si="23"/>
+        <v>14.400000000000006</v>
+      </c>
+      <c r="T28" s="41">
+        <f>Q30</f>
+        <v>907.2</v>
+      </c>
+      <c r="U28" s="37">
+        <f>T28/S30</f>
+        <v>63.000000000000099</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="48">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="16"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="20"/>
+        <v>167.39999999999998</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="17"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="H29" s="49">
+        <f t="shared" si="21"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="58"/>
+      <c r="M29" s="48">
+        <v>5</v>
+      </c>
+      <c r="N29" s="8">
+        <v>18</v>
+      </c>
+      <c r="O29" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" si="18"/>
+        <v>230.4</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="22"/>
+        <v>446.4</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="19"/>
+        <v>460.8</v>
+      </c>
+      <c r="S29" s="49">
+        <f t="shared" si="23"/>
+        <v>14.400000000000034</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="38"/>
+    </row>
+    <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="51">
+        <v>6</v>
+      </c>
+      <c r="C30" s="52">
+        <v>18</v>
+      </c>
+      <c r="D30" s="53">
+        <v>9.6</v>
+      </c>
+      <c r="E30" s="52">
+        <f t="shared" si="16"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="F30" s="54">
+        <f t="shared" si="20"/>
+        <v>340.19999999999993</v>
+      </c>
+      <c r="G30" s="52">
+        <f t="shared" si="17"/>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H30" s="55">
+        <f t="shared" si="21"/>
+        <v>5.4000000000000341</v>
+      </c>
+      <c r="I30" s="42">
+        <f>F30-F20</f>
+        <v>113.39999999999992</v>
+      </c>
+      <c r="J30" s="39">
+        <f>I30/H30</f>
+        <v>20.999999999999854</v>
+      </c>
+      <c r="K30" s="60">
+        <f>I30+K28</f>
+        <v>1133.9999999999998</v>
+      </c>
+      <c r="M30" s="51">
+        <v>6</v>
+      </c>
+      <c r="N30" s="52">
+        <v>18</v>
+      </c>
+      <c r="O30" s="53">
+        <v>25.6</v>
+      </c>
+      <c r="P30" s="52">
+        <f t="shared" si="18"/>
+        <v>460.8</v>
+      </c>
+      <c r="Q30" s="54">
+        <f t="shared" si="22"/>
+        <v>907.2</v>
+      </c>
+      <c r="R30" s="52">
+        <f t="shared" si="19"/>
+        <v>921.6</v>
+      </c>
+      <c r="S30" s="55">
+        <f t="shared" si="23"/>
+        <v>14.399999999999977</v>
+      </c>
+      <c r="T30" s="42">
+        <f>Q30-Q20</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="U30" s="39">
+        <f>T30/S30</f>
+        <v>7.8750000000000187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="M33" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="45"/>
+    </row>
+    <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="48">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E35" s="8">
+        <f>C35*D35</f>
+        <v>7.2</v>
+      </c>
+      <c r="F35" s="10">
+        <f>E35</f>
+        <v>7.2</v>
+      </c>
+      <c r="G35" s="8">
+        <f>D35*36</f>
+        <v>14.4</v>
+      </c>
+      <c r="H35" s="49">
+        <f>G35-F35</f>
+        <v>7.2</v>
+      </c>
+      <c r="M35" s="48">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>18</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="P35" s="8">
+        <f>N35*O35</f>
+        <v>16.2</v>
+      </c>
+      <c r="Q35" s="10">
+        <f>P35</f>
+        <v>16.2</v>
+      </c>
+      <c r="R35" s="8">
+        <f>O35*36</f>
+        <v>32.4</v>
+      </c>
+      <c r="S35" s="49">
+        <f>R35-Q35</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="48">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" ref="E36:E40" si="24">C36*D36</f>
+        <v>14.4</v>
+      </c>
+      <c r="F36" s="10">
+        <f>E36+F35</f>
+        <v>21.6</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" ref="G36:G40" si="25">D36*36</f>
+        <v>28.8</v>
+      </c>
+      <c r="H36" s="50">
+        <f>G36-F36</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="M36" s="48">
+        <v>2</v>
+      </c>
+      <c r="N36" s="8">
+        <v>18</v>
+      </c>
+      <c r="O36" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" ref="P36:P40" si="26">N36*O36</f>
+        <v>32.4</v>
+      </c>
+      <c r="Q36" s="10">
+        <f>P36+Q35</f>
+        <v>48.599999999999994</v>
+      </c>
+      <c r="R36" s="8">
+        <f t="shared" ref="R36:R40" si="27">O36*36</f>
+        <v>64.8</v>
+      </c>
+      <c r="S36" s="50">
+        <f>R36-Q36</f>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="48">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="24"/>
+        <v>28.8</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" ref="F37:F40" si="28">E37+F36</f>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="25"/>
+        <v>57.6</v>
+      </c>
+      <c r="H37" s="49">
+        <f t="shared" ref="H37:H40" si="29">G37-F37</f>
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="56"/>
+      <c r="K37" s="58"/>
+      <c r="M37" s="48">
+        <v>3</v>
+      </c>
+      <c r="N37" s="8">
+        <v>18</v>
+      </c>
+      <c r="O37" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" si="26"/>
+        <v>64.8</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" ref="Q37:Q40" si="30">P37+Q36</f>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="27"/>
+        <v>129.6</v>
+      </c>
+      <c r="S37" s="49">
+        <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="T37" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="56"/>
+    </row>
+    <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="48">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8">
+        <v>18</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="24"/>
+        <v>57.6</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="28"/>
+        <v>108</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="25"/>
+        <v>115.2</v>
+      </c>
+      <c r="H38" s="50">
+        <f t="shared" si="29"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="I38" s="41">
+        <f>F40</f>
+        <v>453.6</v>
+      </c>
+      <c r="J38" s="37">
+        <f>I38/H40</f>
+        <v>63.000000000000099</v>
+      </c>
+      <c r="K38" s="60">
+        <f>K30+I38</f>
+        <v>1587.6</v>
+      </c>
+      <c r="M38" s="48">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>18</v>
+      </c>
+      <c r="O38" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="26"/>
+        <v>129.6</v>
+      </c>
+      <c r="Q38" s="10">
+        <f t="shared" si="30"/>
+        <v>243</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" si="27"/>
+        <v>259.2</v>
+      </c>
+      <c r="S38" s="50">
+        <f t="shared" si="31"/>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="T38" s="41">
+        <f>Q40</f>
+        <v>1020.5999999999999</v>
+      </c>
+      <c r="U38" s="37">
+        <f>T38/S40</f>
+        <v>62.999999999999815</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="48">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="24"/>
+        <v>115.2</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="28"/>
+        <v>223.2</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="25"/>
+        <v>230.4</v>
+      </c>
+      <c r="H39" s="49">
+        <f t="shared" si="29"/>
+        <v>7.2000000000000171</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39" s="58"/>
+      <c r="M39" s="48">
+        <v>5</v>
+      </c>
+      <c r="N39" s="8">
+        <v>18</v>
+      </c>
+      <c r="O39" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" si="26"/>
+        <v>259.2</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" si="30"/>
+        <v>502.2</v>
+      </c>
+      <c r="R39" s="8">
+        <f t="shared" si="27"/>
+        <v>518.4</v>
+      </c>
+      <c r="S39" s="49">
+        <f t="shared" si="31"/>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="T39" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" s="38"/>
+    </row>
+    <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="51">
+        <v>6</v>
+      </c>
+      <c r="C40" s="52">
+        <v>18</v>
+      </c>
+      <c r="D40" s="53">
+        <v>12.8</v>
+      </c>
+      <c r="E40" s="52">
+        <f t="shared" si="24"/>
+        <v>230.4</v>
+      </c>
+      <c r="F40" s="54">
+        <f t="shared" si="28"/>
+        <v>453.6</v>
+      </c>
+      <c r="G40" s="52">
+        <f t="shared" si="25"/>
+        <v>460.8</v>
+      </c>
+      <c r="H40" s="55">
+        <f t="shared" si="29"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="I40" s="42">
+        <f>F40-F30</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="J40" s="39">
+        <f>I40/H40</f>
+        <v>15.750000000000037</v>
+      </c>
+      <c r="K40" s="60">
+        <f>I40+K38</f>
+        <v>1701</v>
+      </c>
+      <c r="M40" s="51">
+        <v>6</v>
+      </c>
+      <c r="N40" s="52">
+        <v>18</v>
+      </c>
+      <c r="O40" s="53">
+        <v>28.8</v>
+      </c>
+      <c r="P40" s="52">
+        <f t="shared" si="26"/>
+        <v>518.4</v>
+      </c>
+      <c r="Q40" s="54">
+        <f t="shared" si="30"/>
+        <v>1020.5999999999999</v>
+      </c>
+      <c r="R40" s="52">
+        <f t="shared" si="27"/>
+        <v>1036.8</v>
+      </c>
+      <c r="S40" s="55">
+        <f t="shared" si="31"/>
+        <v>16.200000000000045</v>
+      </c>
+      <c r="T40" s="42">
+        <f>Q40-Q30</f>
+        <v>113.39999999999986</v>
+      </c>
+      <c r="U40" s="39">
+        <f>T40/S40</f>
+        <v>6.9999999999999716</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="45"/>
+      <c r="M43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="45"/>
+    </row>
+    <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="48">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8">
+        <v>18</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="8">
+        <f>C45*D45</f>
+        <v>9</v>
+      </c>
+      <c r="F45" s="10">
+        <f>E45</f>
+        <v>9</v>
+      </c>
+      <c r="G45" s="8">
+        <f>D45*36</f>
+        <v>18</v>
+      </c>
+      <c r="H45" s="49">
+        <f>G45-F45</f>
+        <v>9</v>
+      </c>
+      <c r="M45" s="48">
+        <v>1</v>
+      </c>
+      <c r="N45" s="8">
+        <v>18</v>
+      </c>
+      <c r="O45" s="9">
+        <v>1</v>
+      </c>
+      <c r="P45" s="8">
+        <f>N45*O45</f>
+        <v>18</v>
+      </c>
+      <c r="Q45" s="10">
+        <f>P45</f>
+        <v>18</v>
+      </c>
+      <c r="R45" s="8">
+        <f>O45*36</f>
+        <v>36</v>
+      </c>
+      <c r="S45" s="49">
+        <f>R45-Q45</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="48">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8">
+        <v>18</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" ref="E46:E50" si="32">C46*D46</f>
+        <v>18</v>
+      </c>
+      <c r="F46" s="10">
+        <f>E46+F45</f>
+        <v>27</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" ref="G46:G50" si="33">D46*36</f>
+        <v>36</v>
+      </c>
+      <c r="H46" s="50">
+        <f>G46-F46</f>
+        <v>9</v>
+      </c>
+      <c r="M46" s="48">
+        <v>2</v>
+      </c>
+      <c r="N46" s="8">
+        <v>18</v>
+      </c>
+      <c r="O46" s="9">
+        <v>2</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" ref="P46:P50" si="34">N46*O46</f>
+        <v>36</v>
+      </c>
+      <c r="Q46" s="10">
+        <f>P46+Q45</f>
+        <v>54</v>
+      </c>
+      <c r="R46" s="8">
+        <f t="shared" ref="R46:R50" si="35">O46*36</f>
+        <v>72</v>
+      </c>
+      <c r="S46" s="50">
+        <f>R46-Q46</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="48">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8">
+        <v>18</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="32"/>
+        <v>36</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" ref="F47:F50" si="36">E47+F46</f>
+        <v>63</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="33"/>
+        <v>72</v>
+      </c>
+      <c r="H47" s="49">
+        <f t="shared" ref="H47:H50" si="37">G47-F47</f>
+        <v>9</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="56"/>
+      <c r="K47" s="58"/>
+      <c r="M47" s="48">
+        <v>3</v>
+      </c>
+      <c r="N47" s="8">
+        <v>18</v>
+      </c>
+      <c r="O47" s="9">
+        <v>4</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" si="34"/>
+        <v>72</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" ref="Q47:Q50" si="38">P47+Q46</f>
+        <v>126</v>
+      </c>
+      <c r="R47" s="8">
+        <f t="shared" si="35"/>
+        <v>144</v>
+      </c>
+      <c r="S47" s="49">
+        <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
+        <v>18</v>
+      </c>
+      <c r="T47" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" s="56"/>
+    </row>
+    <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8">
+        <v>18</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="36"/>
+        <v>135</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="33"/>
+        <v>144</v>
+      </c>
+      <c r="H48" s="50">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="I48" s="41">
+        <f>F50</f>
+        <v>567</v>
+      </c>
+      <c r="J48" s="37">
+        <f>I48/H50</f>
+        <v>63</v>
+      </c>
+      <c r="K48" s="60">
+        <f>K40+I48</f>
+        <v>2268</v>
+      </c>
+      <c r="M48" s="48">
+        <v>4</v>
+      </c>
+      <c r="N48" s="8">
+        <v>18</v>
+      </c>
+      <c r="O48" s="9">
+        <v>8</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="34"/>
+        <v>144</v>
+      </c>
+      <c r="Q48" s="10">
+        <f t="shared" si="38"/>
+        <v>270</v>
+      </c>
+      <c r="R48" s="8">
+        <f t="shared" si="35"/>
+        <v>288</v>
+      </c>
+      <c r="S48" s="50">
+        <f t="shared" si="39"/>
+        <v>18</v>
+      </c>
+      <c r="T48" s="41">
+        <f>Q50</f>
+        <v>1134</v>
+      </c>
+      <c r="U48" s="37">
+        <f>T48/S50</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="48">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
+        <v>8</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="32"/>
+        <v>144</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="36"/>
+        <v>279</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="33"/>
+        <v>288</v>
+      </c>
+      <c r="H49" s="49">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="38"/>
+      <c r="K49" s="58"/>
+      <c r="M49" s="48">
+        <v>5</v>
+      </c>
+      <c r="N49" s="8">
+        <v>18</v>
+      </c>
+      <c r="O49" s="9">
+        <v>16</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" si="34"/>
+        <v>288</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" si="38"/>
+        <v>558</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" si="35"/>
+        <v>576</v>
+      </c>
+      <c r="S49" s="49">
+        <f t="shared" si="39"/>
+        <v>18</v>
+      </c>
+      <c r="T49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" s="38"/>
+    </row>
+    <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="51">
+        <v>6</v>
+      </c>
+      <c r="C50" s="52">
+        <v>18</v>
+      </c>
+      <c r="D50" s="53">
+        <v>16</v>
+      </c>
+      <c r="E50" s="52">
+        <f t="shared" si="32"/>
+        <v>288</v>
+      </c>
+      <c r="F50" s="54">
+        <f t="shared" si="36"/>
+        <v>567</v>
+      </c>
+      <c r="G50" s="52">
+        <f t="shared" si="33"/>
+        <v>576</v>
+      </c>
+      <c r="H50" s="55">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="I50" s="42">
+        <f>F50-F40</f>
+        <v>113.39999999999998</v>
+      </c>
+      <c r="J50" s="39">
+        <f>I50/H50</f>
+        <v>12.599999999999998</v>
+      </c>
+      <c r="K50" s="60">
+        <f>I50+K48</f>
+        <v>2381.4</v>
+      </c>
+      <c r="M50" s="51">
+        <v>6</v>
+      </c>
+      <c r="N50" s="52">
+        <v>18</v>
+      </c>
+      <c r="O50" s="53">
+        <v>32</v>
+      </c>
+      <c r="P50" s="52">
+        <f t="shared" si="34"/>
+        <v>576</v>
+      </c>
+      <c r="Q50" s="54">
+        <f t="shared" si="38"/>
+        <v>1134</v>
+      </c>
+      <c r="R50" s="52">
+        <f t="shared" si="35"/>
+        <v>1152</v>
+      </c>
+      <c r="S50" s="55">
+        <f t="shared" si="39"/>
+        <v>18</v>
+      </c>
+      <c r="T50" s="42">
+        <f>Q50-Q40</f>
+        <v>113.40000000000009</v>
+      </c>
+      <c r="U50" s="39">
+        <f>T50/S50</f>
+        <v>6.3000000000000052</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="M33:S33"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="M3:S3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE15A31C-658C-4517-9C16-F9A3BB1636BA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5068,7 +9667,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29">
+      <c r="A2" s="33">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -5109,7 +9708,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -5148,7 +9747,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA2B869-A5E9-4F74-BBDF-DE6D65B1081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4051D694-7CA8-4058-8D83-0B1E8E943138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -522,58 +522,16 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,19 +564,61 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,34 +910,34 @@
       <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="8" width="16" hidden="1" customWidth="1"/>
     <col min="9" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+    </row>
+    <row r="3" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -980,44 +980,44 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AB3" s="28" t="s">
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AB3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AM3" s="43" t="s">
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AM3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45"/>
-      <c r="AW3" s="43" t="s">
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="52"/>
+      <c r="AW3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="45"/>
-    </row>
-    <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="52"/>
+    </row>
+    <row r="4" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1111,7 +1111,7 @@
       <c r="AH4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM4" s="46" t="s">
+      <c r="AM4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN4" s="24" t="s">
@@ -1129,10 +1129,10 @@
       <c r="AR4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="47" t="s">
+      <c r="AS4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW4" s="46" t="s">
+      <c r="AW4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="24" t="s">
@@ -1150,11 +1150,11 @@
       <c r="BB4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC4" s="47" t="s">
+      <c r="BC4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -1256,7 +1256,7 @@
         <f>AG5-AF5</f>
         <v>1.8</v>
       </c>
-      <c r="AM5" s="48">
+      <c r="AM5" s="34">
         <v>1</v>
       </c>
       <c r="AN5" s="8">
@@ -1277,11 +1277,11 @@
         <f>AO5*36</f>
         <v>3.6</v>
       </c>
-      <c r="AS5" s="49">
+      <c r="AS5" s="35">
         <f>AR5-AQ5</f>
         <v>1.8</v>
       </c>
-      <c r="AW5" s="48">
+      <c r="AW5" s="34">
         <v>1</v>
       </c>
       <c r="AX5" s="8">
@@ -1302,12 +1302,12 @@
         <f>AY5*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="BC5" s="49">
+      <c r="BC5" s="35">
         <f>BB5-BA5</f>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>3</v>
@@ -1409,7 +1409,7 @@
         <f>AG6-AF6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM6" s="48">
+      <c r="AM6" s="34">
         <v>2</v>
       </c>
       <c r="AN6" s="8">
@@ -1430,11 +1430,11 @@
         <f t="shared" ref="AR6:AR10" si="13">AO6*36</f>
         <v>7.2</v>
       </c>
-      <c r="AS6" s="50">
+      <c r="AS6" s="36">
         <f>AR6-AQ6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AW6" s="48">
+      <c r="AW6" s="34">
         <v>2</v>
       </c>
       <c r="AX6" s="8">
@@ -1455,12 +1455,12 @@
         <f t="shared" ref="BB6:BB10" si="15">AY6*36</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="BC6" s="50">
+      <c r="BC6" s="36">
         <f>BB6-BA6</f>
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1562,7 +1562,7 @@
         <f t="shared" ref="AH7:AH12" si="19">AG7-AF7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AM7" s="48">
+      <c r="AM7" s="34">
         <v>3</v>
       </c>
       <c r="AN7" s="8">
@@ -1583,15 +1583,15 @@
         <f t="shared" si="13"/>
         <v>14.4</v>
       </c>
-      <c r="AS7" s="49">
+      <c r="AS7" s="35">
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="40" t="s">
+      <c r="AT7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="36"/>
-      <c r="AW7" s="48">
+      <c r="AU7" s="49"/>
+      <c r="AW7" s="34">
         <v>3</v>
       </c>
       <c r="AX7" s="8">
@@ -1612,16 +1612,16 @@
         <f t="shared" si="15"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="BC7" s="49">
+      <c r="BC7" s="35">
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="57" t="s">
+      <c r="BD7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="56"/>
-    </row>
-    <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE7" s="47"/>
+    </row>
+    <row r="8" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>5</v>
@@ -1723,7 +1723,7 @@
         <f t="shared" si="19"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AM8" s="48">
+      <c r="AM8" s="34">
         <v>4</v>
       </c>
       <c r="AN8" s="8">
@@ -1744,19 +1744,19 @@
         <f t="shared" si="13"/>
         <v>28.8</v>
       </c>
-      <c r="AS8" s="50">
+      <c r="AS8" s="36">
         <f t="shared" si="21"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AT8" s="41">
+      <c r="AT8" s="30">
         <f>AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU8" s="37">
+      <c r="AU8" s="28">
         <f>AT8/AS10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW8" s="48">
+      <c r="AW8" s="34">
         <v>4</v>
       </c>
       <c r="AX8" s="8">
@@ -1777,20 +1777,20 @@
         <f t="shared" si="15"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="BC8" s="50">
+      <c r="BC8" s="36">
         <f t="shared" si="23"/>
         <v>10.799999999999983</v>
       </c>
-      <c r="BD8" s="41">
+      <c r="BD8" s="30">
         <f>BA10</f>
         <v>680.39999999999986</v>
       </c>
-      <c r="BE8" s="37">
+      <c r="BE8" s="28">
         <f>BD8/BC10</f>
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>6</v>
@@ -1892,7 +1892,7 @@
         <f t="shared" si="19"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AM9" s="48">
+      <c r="AM9" s="34">
         <v>5</v>
       </c>
       <c r="AN9" s="8">
@@ -1913,15 +1913,15 @@
         <f t="shared" si="13"/>
         <v>57.6</v>
       </c>
-      <c r="AS9" s="49">
+      <c r="AS9" s="35">
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="34" t="s">
+      <c r="AT9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AW9" s="48">
+      <c r="AU9" s="45"/>
+      <c r="AW9" s="34">
         <v>5</v>
       </c>
       <c r="AX9" s="8">
@@ -1942,16 +1942,16 @@
         <f t="shared" si="15"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="BC9" s="49">
+      <c r="BC9" s="35">
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="34" t="s">
+      <c r="BD9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="38"/>
-    </row>
-    <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE9" s="45"/>
+    </row>
+    <row r="10" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T10" s="8">
         <v>6</v>
       </c>
@@ -2002,83 +2002,83 @@
         <f t="shared" si="19"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AM10" s="51">
+      <c r="AM10" s="37">
         <v>6</v>
       </c>
-      <c r="AN10" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO10" s="53">
+      <c r="AN10" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO10" s="39">
         <v>3.2</v>
       </c>
-      <c r="AP10" s="52">
+      <c r="AP10" s="38">
         <f t="shared" si="12"/>
         <v>57.6</v>
       </c>
-      <c r="AQ10" s="54">
+      <c r="AQ10" s="40">
         <f t="shared" si="20"/>
         <v>113.4</v>
       </c>
-      <c r="AR10" s="52">
+      <c r="AR10" s="38">
         <f t="shared" si="13"/>
         <v>115.2</v>
       </c>
-      <c r="AS10" s="55">
+      <c r="AS10" s="41">
         <f t="shared" si="21"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AT10" s="42">
+      <c r="AT10" s="31">
         <f>AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU10" s="39">
+      <c r="AU10" s="29">
         <f>AT10/AS10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW10" s="51">
+      <c r="AW10" s="37">
         <v>6</v>
       </c>
-      <c r="AX10" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY10" s="53">
+      <c r="AX10" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY10" s="39">
         <v>19.2</v>
       </c>
-      <c r="AZ10" s="52">
+      <c r="AZ10" s="38">
         <f t="shared" si="14"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="BA10" s="54">
+      <c r="BA10" s="40">
         <f t="shared" si="22"/>
         <v>680.39999999999986</v>
       </c>
-      <c r="BB10" s="52">
+      <c r="BB10" s="38">
         <f t="shared" si="15"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="BC10" s="55">
+      <c r="BC10" s="41">
         <f t="shared" si="23"/>
         <v>10.800000000000068</v>
       </c>
-      <c r="BD10" s="42">
+      <c r="BD10" s="31">
         <f>BA10-AQ50</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="BE10" s="39">
+      <c r="BE10" s="29">
         <f>BD10/BC10</f>
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="28" t="s">
+    <row r="11" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2130,16 +2130,16 @@
         <v>1.7999999999999829</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1.8000000000000114</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2259,26 +2259,26 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="43" t="s">
+      <c r="AM13" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="45"/>
-      <c r="AW13" s="43" t="s">
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="52"/>
+      <c r="AW13" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="45"/>
-    </row>
-    <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="52"/>
+    </row>
+    <row r="14" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <f>P14-O14</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM14" s="46" t="s">
+      <c r="AM14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN14" s="24" t="s">
@@ -2348,10 +2348,10 @@
       <c r="AR14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS14" s="47" t="s">
+      <c r="AS14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW14" s="46" t="s">
+      <c r="AW14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="24" t="s">
@@ -2369,11 +2369,11 @@
       <c r="BB14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC14" s="47" t="s">
+      <c r="BC14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -2425,7 +2425,7 @@
         <f t="shared" ref="Q15:Q18" si="33">P15-O15</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AM15" s="48">
+      <c r="AM15" s="34">
         <v>1</v>
       </c>
       <c r="AN15" s="8">
@@ -2446,11 +2446,11 @@
         <f>AO15*36</f>
         <v>7.2</v>
       </c>
-      <c r="AS15" s="49">
+      <c r="AS15" s="35">
         <f>AR15-AQ15</f>
         <v>3.6</v>
       </c>
-      <c r="AW15" s="48">
+      <c r="AW15" s="34">
         <v>1</v>
       </c>
       <c r="AX15" s="8">
@@ -2471,12 +2471,12 @@
         <f>AY15*36</f>
         <v>25.2</v>
       </c>
-      <c r="BC15" s="49">
+      <c r="BC15" s="35">
         <f>BB15-BA15</f>
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -2531,16 +2531,16 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AM16" s="48">
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AM16" s="34">
         <v>2</v>
       </c>
       <c r="AN16" s="8">
@@ -2561,11 +2561,11 @@
         <f t="shared" ref="AR16:AR20" si="37">AO16*36</f>
         <v>14.4</v>
       </c>
-      <c r="AS16" s="50">
+      <c r="AS16" s="36">
         <f>AR16-AQ16</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AW16" s="48">
+      <c r="AW16" s="34">
         <v>2</v>
       </c>
       <c r="AX16" s="8">
@@ -2586,12 +2586,12 @@
         <f t="shared" ref="BB16:BB20" si="39">AY16*36</f>
         <v>50.4</v>
       </c>
-      <c r="BC16" s="50">
+      <c r="BC16" s="36">
         <f>BB16-BA16</f>
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -2667,16 +2667,16 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="28" t="s">
+      <c r="AD17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AM17" s="48">
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AM17" s="34">
         <v>3</v>
       </c>
       <c r="AN17" s="8">
@@ -2697,15 +2697,15 @@
         <f t="shared" si="37"/>
         <v>28.8</v>
       </c>
-      <c r="AS17" s="49">
+      <c r="AS17" s="35">
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="57" t="s">
+      <c r="AT17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="56"/>
-      <c r="AW17" s="48">
+      <c r="AU17" s="47"/>
+      <c r="AW17" s="34">
         <v>3</v>
       </c>
       <c r="AX17" s="8">
@@ -2726,16 +2726,16 @@
         <f t="shared" si="39"/>
         <v>100.8</v>
       </c>
-      <c r="BC17" s="49">
+      <c r="BC17" s="35">
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="57" t="s">
+      <c r="BD17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="56"/>
-    </row>
-    <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE17" s="47"/>
+    </row>
+    <row r="18" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -2839,7 +2839,7 @@
       <c r="AJ18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM18" s="48">
+      <c r="AM18" s="34">
         <v>4</v>
       </c>
       <c r="AN18" s="8">
@@ -2860,19 +2860,19 @@
         <f t="shared" si="37"/>
         <v>57.6</v>
       </c>
-      <c r="AS18" s="50">
+      <c r="AS18" s="36">
         <f t="shared" si="41"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="AT18" s="41">
+      <c r="AT18" s="30">
         <f>AQ20</f>
         <v>226.8</v>
       </c>
-      <c r="AU18" s="37">
+      <c r="AU18" s="28">
         <f>AT18/AS20</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW18" s="48">
+      <c r="AW18" s="34">
         <v>4</v>
       </c>
       <c r="AX18" s="8">
@@ -2893,20 +2893,20 @@
         <f t="shared" si="39"/>
         <v>201.6</v>
       </c>
-      <c r="BC18" s="50">
+      <c r="BC18" s="36">
         <f t="shared" si="43"/>
         <v>12.599999999999994</v>
       </c>
-      <c r="BD18" s="41">
+      <c r="BD18" s="30">
         <f>BA20</f>
         <v>793.8</v>
       </c>
-      <c r="BE18" s="37">
+      <c r="BE18" s="28">
         <f>BD18/BC20</f>
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>6</v>
@@ -2989,7 +2989,7 @@
         <f>AI19-AH19</f>
         <v>1.8</v>
       </c>
-      <c r="AM19" s="48">
+      <c r="AM19" s="34">
         <v>5</v>
       </c>
       <c r="AN19" s="8">
@@ -3010,15 +3010,15 @@
         <f t="shared" si="37"/>
         <v>115.2</v>
       </c>
-      <c r="AS19" s="49">
+      <c r="AS19" s="35">
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="34" t="s">
+      <c r="AT19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="38"/>
-      <c r="AW19" s="48">
+      <c r="AU19" s="45"/>
+      <c r="AW19" s="34">
         <v>5</v>
       </c>
       <c r="AX19" s="8">
@@ -3039,16 +3039,16 @@
         <f t="shared" si="39"/>
         <v>403.2</v>
       </c>
-      <c r="BC19" s="49">
+      <c r="BC19" s="35">
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="34" t="s">
+      <c r="BD19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="38"/>
-    </row>
-    <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE19" s="45"/>
+    </row>
+    <row r="20" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20">
         <v>25</v>
       </c>
@@ -3105,83 +3105,83 @@
         <f>AI20-AH20</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM20" s="51">
+      <c r="AM20" s="37">
         <v>6</v>
       </c>
-      <c r="AN20" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO20" s="53">
+      <c r="AN20" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO20" s="39">
         <v>6.4</v>
       </c>
-      <c r="AP20" s="52">
+      <c r="AP20" s="38">
         <f t="shared" si="36"/>
         <v>115.2</v>
       </c>
-      <c r="AQ20" s="54">
+      <c r="AQ20" s="40">
         <f t="shared" si="40"/>
         <v>226.8</v>
       </c>
-      <c r="AR20" s="52">
+      <c r="AR20" s="38">
         <f t="shared" si="37"/>
         <v>230.4</v>
       </c>
-      <c r="AS20" s="55">
+      <c r="AS20" s="41">
         <f t="shared" si="41"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="AT20" s="42">
+      <c r="AT20" s="31">
         <f>AQ20-AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU20" s="39">
+      <c r="AU20" s="29">
         <f>AT20/AS20</f>
         <v>31.50000000000005</v>
       </c>
-      <c r="AW20" s="51">
+      <c r="AW20" s="37">
         <v>6</v>
       </c>
-      <c r="AX20" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY20" s="53">
+      <c r="AX20" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY20" s="39">
         <v>22.4</v>
       </c>
-      <c r="AZ20" s="52">
+      <c r="AZ20" s="38">
         <f t="shared" si="38"/>
         <v>403.2</v>
       </c>
-      <c r="BA20" s="54">
+      <c r="BA20" s="40">
         <f t="shared" si="42"/>
         <v>793.8</v>
       </c>
-      <c r="BB20" s="52">
+      <c r="BB20" s="38">
         <f t="shared" si="39"/>
         <v>806.4</v>
       </c>
-      <c r="BC20" s="55">
+      <c r="BC20" s="41">
         <f t="shared" si="43"/>
         <v>12.600000000000023</v>
       </c>
-      <c r="BD20" s="42">
+      <c r="BD20" s="31">
         <f>BA20-BA10</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE20" s="39">
+      <c r="BE20" s="29">
         <f>BD20/BC20</f>
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="28" t="s">
+    <row r="21" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3239,16 +3239,16 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -3424,26 +3424,26 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="43" t="s">
+      <c r="AM23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="45"/>
-      <c r="AW23" s="43" t="s">
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="52"/>
+      <c r="AW23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="45"/>
-    </row>
-    <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="52"/>
+    </row>
+    <row r="24" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>1</v>
@@ -3545,7 +3545,7 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AM24" s="46" t="s">
+      <c r="AM24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN24" s="24" t="s">
@@ -3563,10 +3563,10 @@
       <c r="AR24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS24" s="47" t="s">
+      <c r="AS24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW24" s="46" t="s">
+      <c r="AW24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX24" s="24" t="s">
@@ -3584,11 +3584,11 @@
       <c r="BB24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC24" s="47" t="s">
+      <c r="BC24" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         <f t="shared" si="55"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="AM25" s="48">
+      <c r="AM25" s="34">
         <v>1</v>
       </c>
       <c r="AN25" s="8">
@@ -3711,11 +3711,11 @@
         <f>AO25*36</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="AS25" s="49">
+      <c r="AS25" s="35">
         <f>AR25-AQ25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="AW25" s="48">
+      <c r="AW25" s="34">
         <v>1</v>
       </c>
       <c r="AX25" s="8">
@@ -3736,12 +3736,12 @@
         <f>AY25*36</f>
         <v>28.8</v>
       </c>
-      <c r="BC25" s="49">
+      <c r="BC25" s="35">
         <f>BB25-BA25</f>
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>3</v>
@@ -3827,7 +3827,7 @@
         <f t="shared" si="55"/>
         <v>10.799999999999955</v>
       </c>
-      <c r="AM26" s="48">
+      <c r="AM26" s="34">
         <v>2</v>
       </c>
       <c r="AN26" s="8">
@@ -3848,11 +3848,11 @@
         <f t="shared" ref="AR26:AR30" si="69">AO26*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="AS26" s="50">
+      <c r="AS26" s="36">
         <f>AR26-AQ26</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AW26" s="48">
+      <c r="AW26" s="34">
         <v>2</v>
       </c>
       <c r="AX26" s="8">
@@ -3873,12 +3873,12 @@
         <f t="shared" ref="BB26:BB30" si="71">AY26*36</f>
         <v>57.6</v>
       </c>
-      <c r="BC26" s="50">
+      <c r="BC26" s="36">
         <f>BB26-BA26</f>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>4</v>
@@ -3930,7 +3930,7 @@
         <f t="shared" si="65"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AM27" s="48">
+      <c r="AM27" s="34">
         <v>3</v>
       </c>
       <c r="AN27" s="8">
@@ -3951,15 +3951,15 @@
         <f t="shared" si="69"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="AS27" s="49">
+      <c r="AS27" s="35">
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="57" t="s">
+      <c r="AT27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="56"/>
-      <c r="AW27" s="48">
+      <c r="AU27" s="47"/>
+      <c r="AW27" s="34">
         <v>3</v>
       </c>
       <c r="AX27" s="8">
@@ -3980,16 +3980,16 @@
         <f t="shared" si="71"/>
         <v>115.2</v>
       </c>
-      <c r="BC27" s="49">
+      <c r="BC27" s="35">
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="57" t="s">
+      <c r="BD27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="56"/>
-    </row>
-    <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE27" s="47"/>
+    </row>
+    <row r="28" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>5</v>
@@ -4063,7 +4063,7 @@
         <f>W28*U28</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="48">
+      <c r="AM28" s="34">
         <v>4</v>
       </c>
       <c r="AN28" s="8">
@@ -4084,19 +4084,19 @@
         <f t="shared" si="69"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="AS28" s="50">
+      <c r="AS28" s="36">
         <f t="shared" si="73"/>
         <v>5.3999999999999915</v>
       </c>
-      <c r="AT28" s="41">
+      <c r="AT28" s="30">
         <f>AQ30</f>
         <v>340.19999999999993</v>
       </c>
-      <c r="AU28" s="37">
+      <c r="AU28" s="28">
         <f>AT28/AS30</f>
         <v>62.999999999999588</v>
       </c>
-      <c r="AW28" s="48">
+      <c r="AW28" s="34">
         <v>4</v>
       </c>
       <c r="AX28" s="8">
@@ -4117,20 +4117,20 @@
         <f t="shared" si="71"/>
         <v>230.4</v>
       </c>
-      <c r="BC28" s="50">
+      <c r="BC28" s="36">
         <f t="shared" si="75"/>
         <v>14.400000000000006</v>
       </c>
-      <c r="BD28" s="41">
+      <c r="BD28" s="30">
         <f>BA30</f>
         <v>907.2</v>
       </c>
-      <c r="BE28" s="37">
+      <c r="BE28" s="28">
         <f>BD28/BC30</f>
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>6</v>
@@ -4179,16 +4179,16 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="28" t="s">
+      <c r="AD29" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AM29" s="48">
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AM29" s="34">
         <v>5</v>
       </c>
       <c r="AN29" s="8">
@@ -4209,15 +4209,15 @@
         <f t="shared" si="69"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AS29" s="49">
+      <c r="AS29" s="35">
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="34" t="s">
+      <c r="AT29" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="38"/>
-      <c r="AW29" s="48">
+      <c r="AU29" s="45"/>
+      <c r="AW29" s="34">
         <v>5</v>
       </c>
       <c r="AX29" s="8">
@@ -4238,16 +4238,16 @@
         <f t="shared" si="71"/>
         <v>460.8</v>
       </c>
-      <c r="BC29" s="49">
+      <c r="BC29" s="35">
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="34" t="s">
+      <c r="BD29" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="38"/>
-    </row>
-    <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE29" s="45"/>
+    </row>
+    <row r="30" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T30" s="18" t="s">
         <v>25</v>
       </c>
@@ -4291,74 +4291,74 @@
       <c r="AJ30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM30" s="51">
+      <c r="AM30" s="37">
         <v>6</v>
       </c>
-      <c r="AN30" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO30" s="53">
+      <c r="AN30" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO30" s="39">
         <v>9.6</v>
       </c>
-      <c r="AP30" s="52">
+      <c r="AP30" s="38">
         <f t="shared" si="68"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AQ30" s="54">
+      <c r="AQ30" s="40">
         <f t="shared" si="72"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="AR30" s="52">
+      <c r="AR30" s="38">
         <f t="shared" si="69"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="AS30" s="55">
+      <c r="AS30" s="41">
         <f t="shared" si="73"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AT30" s="42">
+      <c r="AT30" s="31">
         <f>AQ30-AQ20</f>
         <v>113.39999999999992</v>
       </c>
-      <c r="AU30" s="39">
+      <c r="AU30" s="29">
         <f>AT30/AS30</f>
         <v>20.999999999999854</v>
       </c>
-      <c r="AW30" s="51">
+      <c r="AW30" s="37">
         <v>6</v>
       </c>
-      <c r="AX30" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY30" s="53">
+      <c r="AX30" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY30" s="39">
         <v>25.6</v>
       </c>
-      <c r="AZ30" s="52">
+      <c r="AZ30" s="38">
         <f t="shared" si="70"/>
         <v>460.8</v>
       </c>
-      <c r="BA30" s="54">
+      <c r="BA30" s="40">
         <f t="shared" si="74"/>
         <v>907.2</v>
       </c>
-      <c r="BB30" s="52">
+      <c r="BB30" s="38">
         <f t="shared" si="71"/>
         <v>921.6</v>
       </c>
-      <c r="BC30" s="55">
+      <c r="BC30" s="41">
         <f t="shared" si="75"/>
         <v>14.399999999999977</v>
       </c>
-      <c r="BD30" s="42">
+      <c r="BD30" s="31">
         <f>BA30-BA20</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE30" s="39">
+      <c r="BE30" s="29">
         <f>BD30/BC30</f>
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" s="18" t="s">
         <v>24</v>
       </c>
@@ -4407,25 +4407,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
+    <row r="32" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="K32" s="28" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="K32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
@@ -4564,26 +4564,26 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="43" t="s">
+      <c r="AM33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="45"/>
-      <c r="AW33" s="43" t="s">
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="52"/>
+      <c r="AW33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="44"/>
-      <c r="BB33" s="44"/>
-      <c r="BC33" s="45"/>
-    </row>
-    <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="51"/>
+      <c r="BC33" s="52"/>
+    </row>
+    <row r="34" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <f t="shared" si="86"/>
         <v>9</v>
       </c>
-      <c r="AM34" s="46" t="s">
+      <c r="AM34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN34" s="24" t="s">
@@ -4699,10 +4699,10 @@
       <c r="AR34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="47" t="s">
+      <c r="AS34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW34" s="46" t="s">
+      <c r="AW34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX34" s="24" t="s">
@@ -4720,11 +4720,11 @@
       <c r="BB34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC34" s="47" t="s">
+      <c r="BC34" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>2</v>
@@ -4822,7 +4822,7 @@
         <f t="shared" si="86"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AM35" s="48">
+      <c r="AM35" s="34">
         <v>1</v>
       </c>
       <c r="AN35" s="8">
@@ -4843,11 +4843,11 @@
         <f>AO35*36</f>
         <v>14.4</v>
       </c>
-      <c r="AS35" s="49">
+      <c r="AS35" s="35">
         <f>AR35-AQ35</f>
         <v>7.2</v>
       </c>
-      <c r="AW35" s="48">
+      <c r="AW35" s="34">
         <v>1</v>
       </c>
       <c r="AX35" s="8">
@@ -4868,12 +4868,12 @@
         <f>AY35*36</f>
         <v>32.4</v>
       </c>
-      <c r="BC35" s="49">
+      <c r="BC35" s="35">
         <f>BB35-BA35</f>
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>3</v>
@@ -4971,7 +4971,7 @@
         <f t="shared" si="86"/>
         <v>5.3999999999999773</v>
       </c>
-      <c r="AM36" s="48">
+      <c r="AM36" s="34">
         <v>2</v>
       </c>
       <c r="AN36" s="8">
@@ -4992,11 +4992,11 @@
         <f t="shared" ref="AR36:AR40" si="96">AO36*36</f>
         <v>28.8</v>
       </c>
-      <c r="AS36" s="50">
+      <c r="AS36" s="36">
         <f>AR36-AQ36</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AW36" s="48">
+      <c r="AW36" s="34">
         <v>2</v>
       </c>
       <c r="AX36" s="8">
@@ -5017,12 +5017,12 @@
         <f t="shared" ref="BB36:BB40" si="98">AY36*36</f>
         <v>64.8</v>
       </c>
-      <c r="BC36" s="50">
+      <c r="BC36" s="36">
         <f>BB36-BA36</f>
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>4</v>
@@ -5120,7 +5120,7 @@
         <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-      <c r="AM37" s="48">
+      <c r="AM37" s="34">
         <v>3</v>
       </c>
       <c r="AN37" s="8">
@@ -5141,15 +5141,15 @@
         <f t="shared" si="96"/>
         <v>57.6</v>
       </c>
-      <c r="AS37" s="49">
+      <c r="AS37" s="35">
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="57" t="s">
+      <c r="AT37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="56"/>
-      <c r="AW37" s="48">
+      <c r="AU37" s="47"/>
+      <c r="AW37" s="34">
         <v>3</v>
       </c>
       <c r="AX37" s="8">
@@ -5170,16 +5170,16 @@
         <f t="shared" si="98"/>
         <v>129.6</v>
       </c>
-      <c r="BC37" s="49">
+      <c r="BC37" s="35">
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="57" t="s">
+      <c r="BD37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="56"/>
-    </row>
-    <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE37" s="47"/>
+    </row>
+    <row r="38" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -5277,7 +5277,7 @@
         <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-      <c r="AM38" s="48">
+      <c r="AM38" s="34">
         <v>4</v>
       </c>
       <c r="AN38" s="8">
@@ -5298,19 +5298,19 @@
         <f t="shared" si="96"/>
         <v>115.2</v>
       </c>
-      <c r="AS38" s="50">
+      <c r="AS38" s="36">
         <f t="shared" si="100"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AT38" s="41">
+      <c r="AT38" s="30">
         <f>AQ40</f>
         <v>453.6</v>
       </c>
-      <c r="AU38" s="37">
+      <c r="AU38" s="28">
         <f>AT38/AS40</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW38" s="48">
+      <c r="AW38" s="34">
         <v>4</v>
       </c>
       <c r="AX38" s="8">
@@ -5331,20 +5331,20 @@
         <f t="shared" si="98"/>
         <v>259.2</v>
       </c>
-      <c r="BC38" s="50">
+      <c r="BC38" s="36">
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD38" s="41">
+      <c r="BD38" s="30">
         <f>BA40</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="BE38" s="37">
+      <c r="BE38" s="28">
         <f>BD38/BC40</f>
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>6</v>
@@ -5408,7 +5408,7 @@
         <f>Y39/U39</f>
         <v>14.856338028169016</v>
       </c>
-      <c r="AM39" s="48">
+      <c r="AM39" s="34">
         <v>5</v>
       </c>
       <c r="AN39" s="8">
@@ -5429,15 +5429,15 @@
         <f t="shared" si="96"/>
         <v>230.4</v>
       </c>
-      <c r="AS39" s="49">
+      <c r="AS39" s="35">
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="34" t="s">
+      <c r="AT39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="38"/>
-      <c r="AW39" s="48">
+      <c r="AU39" s="45"/>
+      <c r="AW39" s="34">
         <v>5</v>
       </c>
       <c r="AX39" s="8">
@@ -5458,16 +5458,16 @@
         <f t="shared" si="98"/>
         <v>518.4</v>
       </c>
-      <c r="BC39" s="49">
+      <c r="BC39" s="35">
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="34" t="s">
+      <c r="BD39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="38"/>
-    </row>
-    <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE39" s="45"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="8">
         <v>7</v>
       </c>
@@ -5497,74 +5497,74 @@
         <f>-X23</f>
         <v>-988.2</v>
       </c>
-      <c r="AM40" s="51">
+      <c r="AM40" s="37">
         <v>6</v>
       </c>
-      <c r="AN40" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO40" s="53">
+      <c r="AN40" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO40" s="39">
         <v>12.8</v>
       </c>
-      <c r="AP40" s="52">
+      <c r="AP40" s="38">
         <f t="shared" si="95"/>
         <v>230.4</v>
       </c>
-      <c r="AQ40" s="54">
+      <c r="AQ40" s="40">
         <f t="shared" si="99"/>
         <v>453.6</v>
       </c>
-      <c r="AR40" s="52">
+      <c r="AR40" s="38">
         <f t="shared" si="96"/>
         <v>460.8</v>
       </c>
-      <c r="AS40" s="55">
+      <c r="AS40" s="41">
         <f t="shared" si="100"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="AT40" s="42">
+      <c r="AT40" s="31">
         <f>AQ40-AQ30</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="AU40" s="39">
+      <c r="AU40" s="29">
         <f>AT40/AS40</f>
         <v>15.750000000000037</v>
       </c>
-      <c r="AW40" s="51">
+      <c r="AW40" s="37">
         <v>6</v>
       </c>
-      <c r="AX40" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY40" s="53">
+      <c r="AX40" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY40" s="39">
         <v>28.8</v>
       </c>
-      <c r="AZ40" s="52">
+      <c r="AZ40" s="38">
         <f t="shared" si="97"/>
         <v>518.4</v>
       </c>
-      <c r="BA40" s="54">
+      <c r="BA40" s="40">
         <f t="shared" si="101"/>
         <v>1020.5999999999999</v>
       </c>
-      <c r="BB40" s="52">
+      <c r="BB40" s="38">
         <f t="shared" si="98"/>
         <v>1036.8</v>
       </c>
-      <c r="BC40" s="55">
+      <c r="BC40" s="41">
         <f t="shared" si="102"/>
         <v>16.200000000000045</v>
       </c>
-      <c r="BD40" s="42">
+      <c r="BD40" s="31">
         <f>BA40-BA30</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="BE40" s="39">
+      <c r="BE40" s="29">
         <f>BD40/BC40</f>
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K41" s="8">
         <v>8</v>
       </c>
@@ -5595,16 +5595,16 @@
         <v>1121.4000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="28" t="s">
+    <row r="42" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>1.8000000000000682</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
@@ -5653,26 +5653,26 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="43" t="s">
+      <c r="AM43" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="45"/>
-      <c r="AW43" s="43" t="s">
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="52"/>
+      <c r="AW43" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="44"/>
-      <c r="AY43" s="44"/>
-      <c r="AZ43" s="44"/>
-      <c r="BA43" s="44"/>
-      <c r="BB43" s="44"/>
-      <c r="BC43" s="45"/>
-    </row>
-    <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX43" s="51"/>
+      <c r="AY43" s="51"/>
+      <c r="AZ43" s="51"/>
+      <c r="BA43" s="51"/>
+      <c r="BB43" s="51"/>
+      <c r="BC43" s="52"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>1</v>
@@ -5699,7 +5699,7 @@
         <f>G44-F44</f>
         <v>90</v>
       </c>
-      <c r="AM44" s="46" t="s">
+      <c r="AM44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN44" s="24" t="s">
@@ -5717,10 +5717,10 @@
       <c r="AR44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS44" s="47" t="s">
+      <c r="AS44" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AW44" s="46" t="s">
+      <c r="AW44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AX44" s="24" t="s">
@@ -5738,11 +5738,11 @@
       <c r="BB44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC44" s="47" t="s">
+      <c r="BC44" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -5769,7 +5769,7 @@
         <f>G45-F45</f>
         <v>54</v>
       </c>
-      <c r="AM45" s="48">
+      <c r="AM45" s="34">
         <v>1</v>
       </c>
       <c r="AN45" s="8">
@@ -5790,11 +5790,11 @@
         <f>AO45*36</f>
         <v>18</v>
       </c>
-      <c r="AS45" s="49">
+      <c r="AS45" s="35">
         <f>AR45-AQ45</f>
         <v>9</v>
       </c>
-      <c r="AW45" s="48">
+      <c r="AW45" s="34">
         <v>1</v>
       </c>
       <c r="AX45" s="8">
@@ -5815,12 +5815,12 @@
         <f>AY45*36</f>
         <v>36</v>
       </c>
-      <c r="BC45" s="49">
+      <c r="BC45" s="35">
         <f>BB45-BA45</f>
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>3</v>
@@ -5847,7 +5847,7 @@
         <f t="shared" ref="H46:H47" si="114">G46-F46</f>
         <v>126</v>
       </c>
-      <c r="AM46" s="48">
+      <c r="AM46" s="34">
         <v>2</v>
       </c>
       <c r="AN46" s="8">
@@ -5868,11 +5868,11 @@
         <f t="shared" ref="AR46:AR50" si="116">AO46*36</f>
         <v>36</v>
       </c>
-      <c r="AS46" s="50">
+      <c r="AS46" s="36">
         <f>AR46-AQ46</f>
         <v>9</v>
       </c>
-      <c r="AW46" s="48">
+      <c r="AW46" s="34">
         <v>2</v>
       </c>
       <c r="AX46" s="8">
@@ -5893,12 +5893,12 @@
         <f t="shared" ref="BB46:BB50" si="118">AY46*36</f>
         <v>72</v>
       </c>
-      <c r="BC46" s="50">
+      <c r="BC46" s="36">
         <f>BB46-BA46</f>
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>4</v>
@@ -5925,16 +5925,16 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="28" t="s">
+      <c r="T47" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AM47" s="48">
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AM47" s="34">
         <v>3</v>
       </c>
       <c r="AN47" s="8">
@@ -5955,15 +5955,15 @@
         <f t="shared" si="116"/>
         <v>72</v>
       </c>
-      <c r="AS47" s="49">
+      <c r="AS47" s="35">
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="57" t="s">
+      <c r="AT47" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="56"/>
-      <c r="AW47" s="48">
+      <c r="AU47" s="47"/>
+      <c r="AW47" s="34">
         <v>3</v>
       </c>
       <c r="AX47" s="8">
@@ -5984,16 +5984,16 @@
         <f t="shared" si="118"/>
         <v>144</v>
       </c>
-      <c r="BC47" s="49">
+      <c r="BC47" s="35">
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="57" t="s">
+      <c r="BD47" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="56"/>
-    </row>
-    <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE47" s="47"/>
+    </row>
+    <row r="48" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>5</v>
@@ -6041,7 +6041,7 @@
       <c r="Z48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM48" s="48">
+      <c r="AM48" s="34">
         <v>4</v>
       </c>
       <c r="AN48" s="8">
@@ -6062,19 +6062,19 @@
         <f t="shared" si="116"/>
         <v>144</v>
       </c>
-      <c r="AS48" s="50">
+      <c r="AS48" s="36">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT48" s="41">
+      <c r="AT48" s="30">
         <f>AQ50</f>
         <v>567</v>
       </c>
-      <c r="AU48" s="37">
+      <c r="AU48" s="28">
         <f>AT48/AS50</f>
         <v>63</v>
       </c>
-      <c r="AW48" s="48">
+      <c r="AW48" s="34">
         <v>4</v>
       </c>
       <c r="AX48" s="8">
@@ -6095,20 +6095,20 @@
         <f t="shared" si="118"/>
         <v>288</v>
       </c>
-      <c r="BC48" s="50">
+      <c r="BC48" s="36">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD48" s="41">
+      <c r="BD48" s="30">
         <f>BA50</f>
         <v>1134</v>
       </c>
-      <c r="BE48" s="37">
+      <c r="BE48" s="28">
         <f>BD48/BC50</f>
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>6</v>
@@ -6160,7 +6160,7 @@
         <f>Y49-X49</f>
         <v>3.6</v>
       </c>
-      <c r="AM49" s="48">
+      <c r="AM49" s="34">
         <v>5</v>
       </c>
       <c r="AN49" s="8">
@@ -6181,15 +6181,15 @@
         <f t="shared" si="116"/>
         <v>288</v>
       </c>
-      <c r="AS49" s="49">
+      <c r="AS49" s="35">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="34" t="s">
+      <c r="AT49" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="38"/>
-      <c r="AW49" s="48">
+      <c r="AU49" s="45"/>
+      <c r="AW49" s="34">
         <v>5</v>
       </c>
       <c r="AX49" s="8">
@@ -6210,16 +6210,16 @@
         <f t="shared" si="118"/>
         <v>576</v>
       </c>
-      <c r="BC49" s="49">
+      <c r="BC49" s="35">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="34" t="s">
+      <c r="BD49" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="38"/>
-    </row>
-    <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BE49" s="45"/>
+    </row>
+    <row r="50" spans="1:57" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T50" s="8">
         <v>2</v>
       </c>
@@ -6245,74 +6245,74 @@
         <f>Y50-X50</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AM50" s="51">
+      <c r="AM50" s="37">
         <v>6</v>
       </c>
-      <c r="AN50" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO50" s="53">
+      <c r="AN50" s="38">
+        <v>18</v>
+      </c>
+      <c r="AO50" s="39">
         <v>16</v>
       </c>
-      <c r="AP50" s="52">
+      <c r="AP50" s="38">
         <f t="shared" si="115"/>
         <v>288</v>
       </c>
-      <c r="AQ50" s="54">
+      <c r="AQ50" s="40">
         <f t="shared" si="119"/>
         <v>567</v>
       </c>
-      <c r="AR50" s="52">
+      <c r="AR50" s="38">
         <f t="shared" si="116"/>
         <v>576</v>
       </c>
-      <c r="AS50" s="55">
+      <c r="AS50" s="41">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT50" s="42">
+      <c r="AT50" s="31">
         <f>AQ50-AQ40</f>
         <v>113.39999999999998</v>
       </c>
-      <c r="AU50" s="39">
+      <c r="AU50" s="29">
         <f>AT50/AS50</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="AW50" s="51">
+      <c r="AW50" s="37">
         <v>6</v>
       </c>
-      <c r="AX50" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY50" s="53">
+      <c r="AX50" s="38">
+        <v>18</v>
+      </c>
+      <c r="AY50" s="39">
         <v>32</v>
       </c>
-      <c r="AZ50" s="52">
+      <c r="AZ50" s="38">
         <f t="shared" si="117"/>
         <v>576</v>
       </c>
-      <c r="BA50" s="54">
+      <c r="BA50" s="40">
         <f t="shared" si="121"/>
         <v>1134</v>
       </c>
-      <c r="BB50" s="52">
+      <c r="BB50" s="38">
         <f t="shared" si="118"/>
         <v>1152</v>
       </c>
-      <c r="BC50" s="55">
+      <c r="BC50" s="41">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD50" s="42">
+      <c r="BD50" s="31">
         <f>BA50-BA40</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE50" s="39">
+      <c r="BE50" s="29">
         <f>BD50/BC50</f>
         <v>6.3000000000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" s="8">
         <v>3</v>
       </c>
@@ -6339,16 +6339,16 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>14.400000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>1</v>
@@ -6476,7 +6476,7 @@
         <v>14.400000000000034</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>2</v>
@@ -6529,7 +6529,7 @@
         <v>21.600000000000023</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>3</v>
@@ -6582,7 +6582,7 @@
         <v>21.599999999999909</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>4</v>
@@ -6610,7 +6610,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>5</v>
@@ -6638,7 +6638,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>6</v>
@@ -6666,18 +6666,18 @@
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="28" t="s">
+    <row r="62" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+    </row>
+    <row r="63" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:57" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>1</v>
@@ -6728,7 +6728,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>2</v>
@@ -6756,7 +6756,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>3</v>
@@ -6784,7 +6784,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>4</v>
@@ -6812,7 +6812,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>5</v>
@@ -6840,7 +6840,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>6</v>
@@ -6870,6 +6870,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6878,45 +6911,12 @@
     <mergeCell ref="BD47:BE47"/>
     <mergeCell ref="BD37:BE37"/>
     <mergeCell ref="BD27:BE27"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
     <mergeCell ref="AT27:AU27"/>
     <mergeCell ref="AT37:AU37"/>
     <mergeCell ref="AT47:AU47"/>
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6934,77 +6934,77 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -7041,7 +7041,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -7296,7 +7296,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -7364,38 +7364,38 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+    <row r="25" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7425,43 +7425,40 @@
   <dimension ref="B1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="59" t="s">
+    <row r="1" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1">
-        <v>113.4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="M3" s="43" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="M3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
-    </row>
-    <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7479,10 +7476,10 @@
       <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="24" t="s">
@@ -7500,12 +7497,12 @@
       <c r="R4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48">
+    <row r="5" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
       <c r="C5" s="8">
@@ -7526,11 +7523,11 @@
         <f>D5*36</f>
         <v>3.6</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="35">
         <f>G5-F5</f>
         <v>1.8</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="34">
         <v>1</v>
       </c>
       <c r="N5" s="8">
@@ -7551,13 +7548,13 @@
         <f>O5*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="35">
         <f>R5-Q5</f>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="48">
+    <row r="6" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="C6" s="8">
@@ -7578,11 +7575,11 @@
         <f t="shared" ref="G6:G10" si="1">D6*36</f>
         <v>7.2</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="36">
         <f>G6-F6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="34">
         <v>2</v>
       </c>
       <c r="N6" s="8">
@@ -7603,13 +7600,13 @@
         <f t="shared" ref="R6:R10" si="3">O6*36</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="36">
         <f>R6-Q6</f>
         <v>10.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48">
+    <row r="7" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
         <v>3</v>
       </c>
       <c r="C7" s="8">
@@ -7630,16 +7627,16 @@
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="35">
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="58"/>
-      <c r="M7" s="48">
+      <c r="J7" s="49"/>
+      <c r="K7" s="42"/>
+      <c r="M7" s="34">
         <v>3</v>
       </c>
       <c r="N7" s="8">
@@ -7660,17 +7657,17 @@
         <f t="shared" si="3"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="35">
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="56"/>
-    </row>
-    <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48">
+      <c r="U7" s="47"/>
+    </row>
+    <row r="8" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
       <c r="C8" s="8">
@@ -7691,23 +7688,20 @@
         <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="36">
         <f t="shared" si="5"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="30">
         <f>F10</f>
         <v>113.4</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="28">
         <f>I8/H10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K8" s="60">
-        <f>K1+I8</f>
-        <v>226.8</v>
-      </c>
-      <c r="M8" s="48">
+      <c r="K8" s="43"/>
+      <c r="M8" s="34">
         <v>4</v>
       </c>
       <c r="N8" s="8">
@@ -7728,21 +7722,21 @@
         <f t="shared" si="3"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="36">
         <f t="shared" si="7"/>
         <v>10.799999999999983</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="30">
         <f>Q10</f>
         <v>680.39999999999986</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="28">
         <f>T8/S10</f>
         <v>62.999999999999588</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48">
+    <row r="9" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
         <v>5</v>
       </c>
       <c r="C9" s="8">
@@ -7763,16 +7757,16 @@
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="35">
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="58"/>
-      <c r="M9" s="48">
+      <c r="J9" s="45"/>
+      <c r="K9" s="42"/>
+      <c r="M9" s="34">
         <v>5</v>
       </c>
       <c r="N9" s="8">
@@ -7793,110 +7787,107 @@
         <f t="shared" si="3"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="35">
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="38"/>
-    </row>
-    <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="51">
+      <c r="U9" s="45"/>
+    </row>
+    <row r="10" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="52">
-        <v>18</v>
-      </c>
-      <c r="D10" s="53">
+      <c r="C10" s="38">
+        <v>18</v>
+      </c>
+      <c r="D10" s="39">
         <v>3.2</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="38">
         <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="40">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="38">
         <f t="shared" si="1"/>
         <v>115.2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="41">
         <f t="shared" si="5"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="31">
         <f>F10</f>
         <v>113.4</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="29">
         <f>I10/H10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K10" s="60">
-        <f>I10+K8</f>
-        <v>340.20000000000005</v>
-      </c>
-      <c r="M10" s="51">
+      <c r="K10" s="43"/>
+      <c r="M10" s="37">
         <v>6</v>
       </c>
-      <c r="N10" s="52">
-        <v>18</v>
-      </c>
-      <c r="O10" s="53">
+      <c r="N10" s="38">
+        <v>18</v>
+      </c>
+      <c r="O10" s="39">
         <v>19.2</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="38">
         <f t="shared" si="2"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="40">
         <f t="shared" si="6"/>
         <v>680.39999999999986</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="38">
         <f t="shared" si="3"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="41">
         <f t="shared" si="7"/>
         <v>10.800000000000068</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="31">
         <f>Q10-F50</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="29">
         <f>T10/S10</f>
         <v>10.499999999999922</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="43" t="s">
+    <row r="12" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="M13" s="43" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="M13" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
-    </row>
-    <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+    </row>
+    <row r="14" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -7914,10 +7905,10 @@
       <c r="G14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="24" t="s">
@@ -7935,12 +7926,12 @@
       <c r="R14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="47" t="s">
+      <c r="S14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48">
+    <row r="15" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
         <v>1</v>
       </c>
       <c r="C15" s="8">
@@ -7961,11 +7952,11 @@
         <f>D15*36</f>
         <v>7.2</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="35">
         <f>G15-F15</f>
         <v>3.6</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="34">
         <v>1</v>
       </c>
       <c r="N15" s="8">
@@ -7986,13 +7977,13 @@
         <f>O15*36</f>
         <v>25.2</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="35">
         <f>R15-Q15</f>
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="48">
+    <row r="16" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="8">
@@ -8013,11 +8004,11 @@
         <f t="shared" ref="G16:G20" si="9">D16*36</f>
         <v>14.4</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="36">
         <f>G16-F16</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="34">
         <v>2</v>
       </c>
       <c r="N16" s="8">
@@ -8038,13 +8029,13 @@
         <f t="shared" ref="R16:R20" si="11">O16*36</f>
         <v>50.4</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="36">
         <f>R16-Q16</f>
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="48">
+    <row r="17" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
         <v>3</v>
       </c>
       <c r="C17" s="8">
@@ -8065,16 +8056,16 @@
         <f t="shared" si="9"/>
         <v>28.8</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="35">
         <f t="shared" ref="H17:H20" si="13">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="58"/>
-      <c r="M17" s="48">
+      <c r="J17" s="47"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="34">
         <v>3</v>
       </c>
       <c r="N17" s="8">
@@ -8095,17 +8086,17 @@
         <f t="shared" si="11"/>
         <v>100.8</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="35">
         <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="57" t="s">
+      <c r="T17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="56"/>
-    </row>
-    <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48">
+      <c r="U17" s="47"/>
+    </row>
+    <row r="18" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
         <v>4</v>
       </c>
       <c r="C18" s="8">
@@ -8126,23 +8117,20 @@
         <f t="shared" si="9"/>
         <v>57.6</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="36">
         <f t="shared" si="13"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="30">
         <f>F20</f>
         <v>226.8</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="28">
         <f>I18/H20</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K18" s="60">
-        <f>K10+I18</f>
-        <v>567</v>
-      </c>
-      <c r="M18" s="48">
+      <c r="K18" s="43"/>
+      <c r="M18" s="34">
         <v>4</v>
       </c>
       <c r="N18" s="8">
@@ -8163,21 +8151,21 @@
         <f t="shared" si="11"/>
         <v>201.6</v>
       </c>
-      <c r="S18" s="50">
+      <c r="S18" s="36">
         <f t="shared" si="15"/>
         <v>12.599999999999994</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="30">
         <f>Q20</f>
         <v>793.8</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="28">
         <f>T18/S20</f>
         <v>62.999999999999879</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48">
+    <row r="19" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
         <v>5</v>
       </c>
       <c r="C19" s="8">
@@ -8198,16 +8186,16 @@
         <f t="shared" si="9"/>
         <v>115.2</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="35">
         <f t="shared" si="13"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="58"/>
-      <c r="M19" s="48">
+      <c r="J19" s="45"/>
+      <c r="K19" s="42"/>
+      <c r="M19" s="34">
         <v>5</v>
       </c>
       <c r="N19" s="8">
@@ -8228,110 +8216,107 @@
         <f t="shared" si="11"/>
         <v>403.2</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="35">
         <f t="shared" si="15"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="38"/>
-    </row>
-    <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="51">
+      <c r="U19" s="45"/>
+    </row>
+    <row r="20" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37">
         <v>6</v>
       </c>
-      <c r="C20" s="52">
-        <v>18</v>
-      </c>
-      <c r="D20" s="53">
+      <c r="C20" s="38">
+        <v>18</v>
+      </c>
+      <c r="D20" s="39">
         <v>6.4</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="38">
         <f t="shared" si="8"/>
         <v>115.2</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="40">
         <f t="shared" si="12"/>
         <v>226.8</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="38">
         <f t="shared" si="9"/>
         <v>230.4</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="41">
         <f t="shared" si="13"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="31">
         <f>F20-F10</f>
         <v>113.4</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="29">
         <f>I20/H20</f>
         <v>31.50000000000005</v>
       </c>
-      <c r="K20" s="60">
-        <f>I20+K18</f>
-        <v>680.4</v>
-      </c>
-      <c r="M20" s="51">
+      <c r="K20" s="43"/>
+      <c r="M20" s="37">
         <v>6</v>
       </c>
-      <c r="N20" s="52">
-        <v>18</v>
-      </c>
-      <c r="O20" s="53">
+      <c r="N20" s="38">
+        <v>18</v>
+      </c>
+      <c r="O20" s="39">
         <v>22.4</v>
       </c>
-      <c r="P20" s="52">
+      <c r="P20" s="38">
         <f t="shared" si="10"/>
         <v>403.2</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="40">
         <f t="shared" si="14"/>
         <v>793.8</v>
       </c>
-      <c r="R20" s="52">
+      <c r="R20" s="38">
         <f t="shared" si="11"/>
         <v>806.4</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="41">
         <f t="shared" si="15"/>
         <v>12.600000000000023</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="31">
         <f>Q20-Q10</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="29">
         <f>T20/S20</f>
         <v>8.9999999999999911</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43" t="s">
+    <row r="22" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="M23" s="43" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="M23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
-    </row>
-    <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="46" t="s">
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="52"/>
+    </row>
+    <row r="24" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -8349,10 +8334,10 @@
       <c r="G24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="24" t="s">
@@ -8370,12 +8355,12 @@
       <c r="R24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="47" t="s">
+      <c r="S24" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="48">
+    <row r="25" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="34">
         <v>1</v>
       </c>
       <c r="C25" s="8">
@@ -8396,11 +8381,11 @@
         <f>D25*36</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="35">
         <f>G25-F25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="34">
         <v>1</v>
       </c>
       <c r="N25" s="8">
@@ -8421,13 +8406,13 @@
         <f>O25*36</f>
         <v>28.8</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="35">
         <f>R25-Q25</f>
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="48">
+    <row r="26" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="34">
         <v>2</v>
       </c>
       <c r="C26" s="8">
@@ -8448,11 +8433,11 @@
         <f t="shared" ref="G26:G30" si="17">D26*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="36">
         <f>G26-F26</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="34">
         <v>2</v>
       </c>
       <c r="N26" s="8">
@@ -8473,13 +8458,13 @@
         <f t="shared" ref="R26:R30" si="19">O26*36</f>
         <v>57.6</v>
       </c>
-      <c r="S26" s="50">
+      <c r="S26" s="36">
         <f>R26-Q26</f>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48">
+    <row r="27" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34">
         <v>3</v>
       </c>
       <c r="C27" s="8">
@@ -8500,16 +8485,16 @@
         <f t="shared" si="17"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="35">
         <f t="shared" ref="H27:H30" si="21">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="58"/>
-      <c r="M27" s="48">
+      <c r="J27" s="47"/>
+      <c r="K27" s="42"/>
+      <c r="M27" s="34">
         <v>3</v>
       </c>
       <c r="N27" s="8">
@@ -8530,17 +8515,17 @@
         <f t="shared" si="19"/>
         <v>115.2</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="35">
         <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="57" t="s">
+      <c r="T27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="56"/>
-    </row>
-    <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="48">
+      <c r="U27" s="47"/>
+    </row>
+    <row r="28" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34">
         <v>4</v>
       </c>
       <c r="C28" s="8">
@@ -8561,23 +8546,20 @@
         <f t="shared" si="17"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="36">
         <f t="shared" si="21"/>
         <v>5.3999999999999915</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="30">
         <f>F30</f>
         <v>340.19999999999993</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="28">
         <f>I28/H30</f>
         <v>62.999999999999588</v>
       </c>
-      <c r="K28" s="60">
-        <f>K20+I28</f>
-        <v>1020.5999999999999</v>
-      </c>
-      <c r="M28" s="48">
+      <c r="K28" s="43"/>
+      <c r="M28" s="34">
         <v>4</v>
       </c>
       <c r="N28" s="8">
@@ -8598,21 +8580,21 @@
         <f t="shared" si="19"/>
         <v>230.4</v>
       </c>
-      <c r="S28" s="50">
+      <c r="S28" s="36">
         <f t="shared" si="23"/>
         <v>14.400000000000006</v>
       </c>
-      <c r="T28" s="41">
+      <c r="T28" s="30">
         <f>Q30</f>
         <v>907.2</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="28">
         <f>T28/S30</f>
         <v>63.000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="48">
+    <row r="29" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="34">
         <v>5</v>
       </c>
       <c r="C29" s="8">
@@ -8633,16 +8615,16 @@
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="35">
         <f t="shared" si="21"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="58"/>
-      <c r="M29" s="48">
+      <c r="J29" s="45"/>
+      <c r="K29" s="42"/>
+      <c r="M29" s="34">
         <v>5</v>
       </c>
       <c r="N29" s="8">
@@ -8663,110 +8645,107 @@
         <f t="shared" si="19"/>
         <v>460.8</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="35">
         <f t="shared" si="23"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="34" t="s">
+      <c r="T29" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="38"/>
-    </row>
-    <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="51">
+      <c r="U29" s="45"/>
+    </row>
+    <row r="30" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="37">
         <v>6</v>
       </c>
-      <c r="C30" s="52">
-        <v>18</v>
-      </c>
-      <c r="D30" s="53">
+      <c r="C30" s="38">
+        <v>18</v>
+      </c>
+      <c r="D30" s="39">
         <v>9.6</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="38">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="40">
         <f t="shared" si="20"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="38">
         <f t="shared" si="17"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="41">
         <f t="shared" si="21"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="31">
         <f>F30-F20</f>
         <v>113.39999999999992</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="29">
         <f>I30/H30</f>
         <v>20.999999999999854</v>
       </c>
-      <c r="K30" s="60">
-        <f>I30+K28</f>
-        <v>1133.9999999999998</v>
-      </c>
-      <c r="M30" s="51">
+      <c r="K30" s="43"/>
+      <c r="M30" s="37">
         <v>6</v>
       </c>
-      <c r="N30" s="52">
-        <v>18</v>
-      </c>
-      <c r="O30" s="53">
+      <c r="N30" s="38">
+        <v>18</v>
+      </c>
+      <c r="O30" s="39">
         <v>25.6</v>
       </c>
-      <c r="P30" s="52">
+      <c r="P30" s="38">
         <f t="shared" si="18"/>
         <v>460.8</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="40">
         <f t="shared" si="22"/>
         <v>907.2</v>
       </c>
-      <c r="R30" s="52">
+      <c r="R30" s="38">
         <f t="shared" si="19"/>
         <v>921.6</v>
       </c>
-      <c r="S30" s="55">
+      <c r="S30" s="41">
         <f t="shared" si="23"/>
         <v>14.399999999999977</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="31">
         <f>Q30-Q20</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="29">
         <f>T30/S30</f>
         <v>7.8750000000000187</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="43" t="s">
+    <row r="32" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="M33" s="43" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
+      <c r="M33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
-    </row>
-    <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="46" t="s">
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="52"/>
+    </row>
+    <row r="34" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -8784,10 +8763,10 @@
       <c r="G34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N34" s="24" t="s">
@@ -8805,12 +8784,12 @@
       <c r="R34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="47" t="s">
+      <c r="S34" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="48">
+    <row r="35" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="34">
         <v>1</v>
       </c>
       <c r="C35" s="8">
@@ -8831,11 +8810,11 @@
         <f>D35*36</f>
         <v>14.4</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="35">
         <f>G35-F35</f>
         <v>7.2</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M35" s="34">
         <v>1</v>
       </c>
       <c r="N35" s="8">
@@ -8856,13 +8835,13 @@
         <f>O35*36</f>
         <v>32.4</v>
       </c>
-      <c r="S35" s="49">
+      <c r="S35" s="35">
         <f>R35-Q35</f>
         <v>16.2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="48">
+    <row r="36" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="34">
         <v>2</v>
       </c>
       <c r="C36" s="8">
@@ -8883,11 +8862,11 @@
         <f t="shared" ref="G36:G40" si="25">D36*36</f>
         <v>28.8</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="36">
         <f>G36-F36</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M36" s="34">
         <v>2</v>
       </c>
       <c r="N36" s="8">
@@ -8908,13 +8887,13 @@
         <f t="shared" ref="R36:R40" si="27">O36*36</f>
         <v>64.8</v>
       </c>
-      <c r="S36" s="50">
+      <c r="S36" s="36">
         <f>R36-Q36</f>
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="48">
+    <row r="37" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="34">
         <v>3</v>
       </c>
       <c r="C37" s="8">
@@ -8935,16 +8914,16 @@
         <f t="shared" si="25"/>
         <v>57.6</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="35">
         <f t="shared" ref="H37:H40" si="29">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="56"/>
-      <c r="K37" s="58"/>
-      <c r="M37" s="48">
+      <c r="J37" s="47"/>
+      <c r="K37" s="42"/>
+      <c r="M37" s="34">
         <v>3</v>
       </c>
       <c r="N37" s="8">
@@ -8965,17 +8944,17 @@
         <f t="shared" si="27"/>
         <v>129.6</v>
       </c>
-      <c r="S37" s="49">
+      <c r="S37" s="35">
         <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="57" t="s">
+      <c r="T37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="56"/>
-    </row>
-    <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="48">
+      <c r="U37" s="47"/>
+    </row>
+    <row r="38" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="34">
         <v>4</v>
       </c>
       <c r="C38" s="8">
@@ -8996,23 +8975,20 @@
         <f t="shared" si="25"/>
         <v>115.2</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="36">
         <f t="shared" si="29"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="30">
         <f>F40</f>
         <v>453.6</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="28">
         <f>I38/H40</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K38" s="60">
-        <f>K30+I38</f>
-        <v>1587.6</v>
-      </c>
-      <c r="M38" s="48">
+      <c r="K38" s="43"/>
+      <c r="M38" s="34">
         <v>4</v>
       </c>
       <c r="N38" s="8">
@@ -9033,21 +9009,21 @@
         <f t="shared" si="27"/>
         <v>259.2</v>
       </c>
-      <c r="S38" s="50">
+      <c r="S38" s="36">
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T38" s="41">
+      <c r="T38" s="30">
         <f>Q40</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="U38" s="37">
+      <c r="U38" s="28">
         <f>T38/S40</f>
         <v>62.999999999999815</v>
       </c>
     </row>
-    <row r="39" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48">
+    <row r="39" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="34">
         <v>5</v>
       </c>
       <c r="C39" s="8">
@@ -9068,16 +9044,16 @@
         <f t="shared" si="25"/>
         <v>230.4</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="35">
         <f t="shared" si="29"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="38"/>
-      <c r="K39" s="58"/>
-      <c r="M39" s="48">
+      <c r="J39" s="45"/>
+      <c r="K39" s="42"/>
+      <c r="M39" s="34">
         <v>5</v>
       </c>
       <c r="N39" s="8">
@@ -9098,110 +9074,107 @@
         <f t="shared" si="27"/>
         <v>518.4</v>
       </c>
-      <c r="S39" s="49">
+      <c r="S39" s="35">
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="34" t="s">
+      <c r="T39" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="38"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="51">
+      <c r="U39" s="45"/>
+    </row>
+    <row r="40" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37">
         <v>6</v>
       </c>
-      <c r="C40" s="52">
-        <v>18</v>
-      </c>
-      <c r="D40" s="53">
+      <c r="C40" s="38">
+        <v>18</v>
+      </c>
+      <c r="D40" s="39">
         <v>12.8</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="38">
         <f t="shared" si="24"/>
         <v>230.4</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="40">
         <f t="shared" si="28"/>
         <v>453.6</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="38">
         <f t="shared" si="25"/>
         <v>460.8</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="41">
         <f t="shared" si="29"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="31">
         <f>F40-F30</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="29">
         <f>I40/H40</f>
         <v>15.750000000000037</v>
       </c>
-      <c r="K40" s="60">
-        <f>I40+K38</f>
-        <v>1701</v>
-      </c>
-      <c r="M40" s="51">
+      <c r="K40" s="43"/>
+      <c r="M40" s="37">
         <v>6</v>
       </c>
-      <c r="N40" s="52">
-        <v>18</v>
-      </c>
-      <c r="O40" s="53">
+      <c r="N40" s="38">
+        <v>18</v>
+      </c>
+      <c r="O40" s="39">
         <v>28.8</v>
       </c>
-      <c r="P40" s="52">
+      <c r="P40" s="38">
         <f t="shared" si="26"/>
         <v>518.4</v>
       </c>
-      <c r="Q40" s="54">
+      <c r="Q40" s="40">
         <f t="shared" si="30"/>
         <v>1020.5999999999999</v>
       </c>
-      <c r="R40" s="52">
+      <c r="R40" s="38">
         <f t="shared" si="27"/>
         <v>1036.8</v>
       </c>
-      <c r="S40" s="55">
+      <c r="S40" s="41">
         <f t="shared" si="31"/>
         <v>16.200000000000045</v>
       </c>
-      <c r="T40" s="42">
+      <c r="T40" s="31">
         <f>Q40-Q30</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="U40" s="39">
+      <c r="U40" s="29">
         <f>T40/S40</f>
         <v>6.9999999999999716</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="43" t="s">
+    <row r="42" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="45"/>
-      <c r="M43" s="43" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
+      <c r="M43" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="45"/>
-    </row>
-    <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="46" t="s">
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="52"/>
+    </row>
+    <row r="44" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -9219,10 +9192,10 @@
       <c r="G44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="46" t="s">
+      <c r="M44" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N44" s="24" t="s">
@@ -9240,12 +9213,12 @@
       <c r="R44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="47" t="s">
+      <c r="S44" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="48">
+    <row r="45" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="34">
         <v>1</v>
       </c>
       <c r="C45" s="8">
@@ -9266,11 +9239,11 @@
         <f>D45*36</f>
         <v>18</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="35">
         <f>G45-F45</f>
         <v>9</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M45" s="34">
         <v>1</v>
       </c>
       <c r="N45" s="8">
@@ -9291,13 +9264,13 @@
         <f>O45*36</f>
         <v>36</v>
       </c>
-      <c r="S45" s="49">
+      <c r="S45" s="35">
         <f>R45-Q45</f>
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="48">
+    <row r="46" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="34">
         <v>2</v>
       </c>
       <c r="C46" s="8">
@@ -9318,11 +9291,11 @@
         <f t="shared" ref="G46:G50" si="33">D46*36</f>
         <v>36</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="36">
         <f>G46-F46</f>
         <v>9</v>
       </c>
-      <c r="M46" s="48">
+      <c r="M46" s="34">
         <v>2</v>
       </c>
       <c r="N46" s="8">
@@ -9343,13 +9316,13 @@
         <f t="shared" ref="R46:R50" si="35">O46*36</f>
         <v>72</v>
       </c>
-      <c r="S46" s="50">
+      <c r="S46" s="36">
         <f>R46-Q46</f>
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="48">
+    <row r="47" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="34">
         <v>3</v>
       </c>
       <c r="C47" s="8">
@@ -9370,16 +9343,16 @@
         <f t="shared" si="33"/>
         <v>72</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="35">
         <f t="shared" ref="H47:H50" si="37">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="56"/>
-      <c r="K47" s="58"/>
-      <c r="M47" s="48">
+      <c r="J47" s="47"/>
+      <c r="K47" s="42"/>
+      <c r="M47" s="34">
         <v>3</v>
       </c>
       <c r="N47" s="8">
@@ -9400,17 +9373,17 @@
         <f t="shared" si="35"/>
         <v>144</v>
       </c>
-      <c r="S47" s="49">
+      <c r="S47" s="35">
         <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
         <v>18</v>
       </c>
-      <c r="T47" s="57" t="s">
+      <c r="T47" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="56"/>
-    </row>
-    <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="48">
+      <c r="U47" s="47"/>
+    </row>
+    <row r="48" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="34">
         <v>4</v>
       </c>
       <c r="C48" s="8">
@@ -9431,23 +9404,20 @@
         <f t="shared" si="33"/>
         <v>144</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="36">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="30">
         <f>F50</f>
         <v>567</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="28">
         <f>I48/H50</f>
         <v>63</v>
       </c>
-      <c r="K48" s="60">
-        <f>K40+I48</f>
-        <v>2268</v>
-      </c>
-      <c r="M48" s="48">
+      <c r="K48" s="43"/>
+      <c r="M48" s="34">
         <v>4</v>
       </c>
       <c r="N48" s="8">
@@ -9468,21 +9438,21 @@
         <f t="shared" si="35"/>
         <v>288</v>
       </c>
-      <c r="S48" s="50">
+      <c r="S48" s="36">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T48" s="41">
+      <c r="T48" s="30">
         <f>Q50</f>
         <v>1134</v>
       </c>
-      <c r="U48" s="37">
+      <c r="U48" s="28">
         <f>T48/S50</f>
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="48">
+    <row r="49" spans="2:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="34">
         <v>5</v>
       </c>
       <c r="C49" s="8">
@@ -9503,16 +9473,16 @@
         <f t="shared" si="33"/>
         <v>288</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="35">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="58"/>
-      <c r="M49" s="48">
+      <c r="J49" s="45"/>
+      <c r="K49" s="42"/>
+      <c r="M49" s="34">
         <v>5</v>
       </c>
       <c r="N49" s="8">
@@ -9533,89 +9503,101 @@
         <f t="shared" si="35"/>
         <v>576</v>
       </c>
-      <c r="S49" s="49">
+      <c r="S49" s="35">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T49" s="34" t="s">
+      <c r="T49" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="38"/>
-    </row>
-    <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="51">
+      <c r="U49" s="45"/>
+    </row>
+    <row r="50" spans="2:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="37">
         <v>6</v>
       </c>
-      <c r="C50" s="52">
-        <v>18</v>
-      </c>
-      <c r="D50" s="53">
+      <c r="C50" s="38">
+        <v>18</v>
+      </c>
+      <c r="D50" s="39">
         <v>16</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="38">
         <f t="shared" si="32"/>
         <v>288</v>
       </c>
-      <c r="F50" s="54">
+      <c r="F50" s="40">
         <f t="shared" si="36"/>
         <v>567</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="38">
         <f t="shared" si="33"/>
         <v>576</v>
       </c>
-      <c r="H50" s="55">
+      <c r="H50" s="41">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="31">
         <f>F50-F40</f>
         <v>113.39999999999998</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="29">
         <f>I50/H50</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="K50" s="60">
-        <f>I50+K48</f>
-        <v>2381.4</v>
-      </c>
-      <c r="M50" s="51">
+      <c r="K50" s="43"/>
+      <c r="M50" s="37">
         <v>6</v>
       </c>
-      <c r="N50" s="52">
-        <v>18</v>
-      </c>
-      <c r="O50" s="53">
+      <c r="N50" s="38">
+        <v>18</v>
+      </c>
+      <c r="O50" s="39">
         <v>32</v>
       </c>
-      <c r="P50" s="52">
+      <c r="P50" s="38">
         <f t="shared" si="34"/>
         <v>576</v>
       </c>
-      <c r="Q50" s="54">
+      <c r="Q50" s="40">
         <f t="shared" si="38"/>
         <v>1134</v>
       </c>
-      <c r="R50" s="52">
+      <c r="R50" s="38">
         <f t="shared" si="35"/>
         <v>1152</v>
       </c>
-      <c r="S50" s="55">
+      <c r="S50" s="41">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T50" s="42">
+      <c r="T50" s="31">
         <f>Q50-Q40</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U50" s="39">
+      <c r="U50" s="29">
         <f>T50/S50</f>
         <v>6.3000000000000052</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="I1:J1"/>
@@ -9632,24 +9614,9 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="M3:S3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9664,10 +9631,10 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="48.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+    <row r="2" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -9707,8 +9674,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -9746,8 +9713,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>

--- a/temp/iter.xlsx
+++ b/temp/iter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA2B869-A5E9-4F74-BBDF-DE6D65B1081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556119D2-62C2-4321-BE3A-37F4C6046ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18890" yWindow="330" windowWidth="19180" windowHeight="17300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Martingala ITER" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="39">
   <si>
     <t>Rep</t>
   </si>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,30 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,22 +534,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,19 +570,61 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,24 +924,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="K2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -980,42 +986,42 @@
       <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AB3" s="28" t="s">
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AB3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AM3" s="43" t="s">
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AM3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45"/>
-      <c r="AW3" s="43" t="s">
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="54"/>
+      <c r="AW3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="45"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="54"/>
     </row>
     <row r="4" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
@@ -1111,7 +1117,7 @@
       <c r="AH4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM4" s="46" t="s">
+      <c r="AM4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AN4" s="24" t="s">
@@ -1129,10 +1135,10 @@
       <c r="AR4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="47" t="s">
+      <c r="AS4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AW4" s="46" t="s">
+      <c r="AW4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AX4" s="24" t="s">
@@ -1150,7 +1156,7 @@
       <c r="BB4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC4" s="47" t="s">
+      <c r="BC4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1256,7 +1262,7 @@
         <f>AG5-AF5</f>
         <v>1.8</v>
       </c>
-      <c r="AM5" s="48">
+      <c r="AM5" s="36">
         <v>1</v>
       </c>
       <c r="AN5" s="8">
@@ -1277,11 +1283,11 @@
         <f>AO5*36</f>
         <v>3.6</v>
       </c>
-      <c r="AS5" s="49">
+      <c r="AS5" s="37">
         <f>AR5-AQ5</f>
         <v>1.8</v>
       </c>
-      <c r="AW5" s="48">
+      <c r="AW5" s="36">
         <v>1</v>
       </c>
       <c r="AX5" s="8">
@@ -1302,7 +1308,7 @@
         <f>AY5*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="BC5" s="49">
+      <c r="BC5" s="37">
         <f>BB5-BA5</f>
         <v>10.799999999999999</v>
       </c>
@@ -1409,7 +1415,7 @@
         <f>AG6-AF6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM6" s="48">
+      <c r="AM6" s="36">
         <v>2</v>
       </c>
       <c r="AN6" s="8">
@@ -1430,11 +1436,11 @@
         <f t="shared" ref="AR6:AR10" si="13">AO6*36</f>
         <v>7.2</v>
       </c>
-      <c r="AS6" s="50">
+      <c r="AS6" s="38">
         <f>AR6-AQ6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AW6" s="48">
+      <c r="AW6" s="36">
         <v>2</v>
       </c>
       <c r="AX6" s="8">
@@ -1455,7 +1461,7 @@
         <f t="shared" ref="BB6:BB10" si="15">AY6*36</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="BC6" s="50">
+      <c r="BC6" s="38">
         <f>BB6-BA6</f>
         <v>10.799999999999997</v>
       </c>
@@ -1562,7 +1568,7 @@
         <f t="shared" ref="AH7:AH12" si="19">AG7-AF7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AM7" s="48">
+      <c r="AM7" s="36">
         <v>3</v>
       </c>
       <c r="AN7" s="8">
@@ -1583,15 +1589,15 @@
         <f t="shared" si="13"/>
         <v>14.4</v>
       </c>
-      <c r="AS7" s="49">
+      <c r="AS7" s="37">
         <f t="shared" ref="AS7:AS10" si="21">AR7-AQ7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AT7" s="40" t="s">
+      <c r="AT7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AU7" s="36"/>
-      <c r="AW7" s="48">
+      <c r="AU7" s="51"/>
+      <c r="AW7" s="36">
         <v>3</v>
       </c>
       <c r="AX7" s="8">
@@ -1612,14 +1618,14 @@
         <f t="shared" si="15"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="BC7" s="49">
+      <c r="BC7" s="37">
         <f t="shared" ref="BC7:BC10" si="23">BB7-BA7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="BD7" s="57" t="s">
+      <c r="BD7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE7" s="56"/>
+      <c r="BE7" s="49"/>
     </row>
     <row r="8" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -1723,7 +1729,7 @@
         <f t="shared" si="19"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AM8" s="48">
+      <c r="AM8" s="36">
         <v>4</v>
       </c>
       <c r="AN8" s="8">
@@ -1744,19 +1750,19 @@
         <f t="shared" si="13"/>
         <v>28.8</v>
       </c>
-      <c r="AS8" s="50">
+      <c r="AS8" s="38">
         <f t="shared" si="21"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="AT8" s="41">
+      <c r="AT8" s="32">
         <f>AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU8" s="37">
+      <c r="AU8" s="29">
         <f>AT8/AS10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW8" s="48">
+      <c r="AW8" s="36">
         <v>4</v>
       </c>
       <c r="AX8" s="8">
@@ -1777,15 +1783,15 @@
         <f t="shared" si="15"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="BC8" s="50">
+      <c r="BC8" s="38">
         <f t="shared" si="23"/>
         <v>10.799999999999983</v>
       </c>
-      <c r="BD8" s="41">
+      <c r="BD8" s="32">
         <f>BA10</f>
         <v>680.39999999999986</v>
       </c>
-      <c r="BE8" s="37">
+      <c r="BE8" s="29">
         <f>BD8/BC10</f>
         <v>62.999999999999588</v>
       </c>
@@ -1892,7 +1898,7 @@
         <f t="shared" si="19"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AM9" s="48">
+      <c r="AM9" s="36">
         <v>5</v>
       </c>
       <c r="AN9" s="8">
@@ -1913,15 +1919,15 @@
         <f t="shared" si="13"/>
         <v>57.6</v>
       </c>
-      <c r="AS9" s="49">
+      <c r="AS9" s="37">
         <f t="shared" si="21"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="AT9" s="34" t="s">
+      <c r="AT9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AW9" s="48">
+      <c r="AU9" s="47"/>
+      <c r="AW9" s="36">
         <v>5</v>
       </c>
       <c r="AX9" s="8">
@@ -1942,14 +1948,14 @@
         <f t="shared" si="15"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="BC9" s="49">
+      <c r="BC9" s="37">
         <f t="shared" si="23"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="BD9" s="34" t="s">
+      <c r="BD9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE9" s="38"/>
+      <c r="BE9" s="47"/>
     </row>
     <row r="10" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T10" s="8">
@@ -2002,83 +2008,83 @@
         <f t="shared" si="19"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AM10" s="51">
+      <c r="AM10" s="39">
         <v>6</v>
       </c>
-      <c r="AN10" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO10" s="53">
+      <c r="AN10" s="40">
+        <v>18</v>
+      </c>
+      <c r="AO10" s="41">
         <v>3.2</v>
       </c>
-      <c r="AP10" s="52">
+      <c r="AP10" s="40">
         <f t="shared" si="12"/>
         <v>57.6</v>
       </c>
-      <c r="AQ10" s="54">
+      <c r="AQ10" s="42">
         <f t="shared" si="20"/>
         <v>113.4</v>
       </c>
-      <c r="AR10" s="52">
+      <c r="AR10" s="40">
         <f t="shared" si="13"/>
         <v>115.2</v>
       </c>
-      <c r="AS10" s="55">
+      <c r="AS10" s="43">
         <f t="shared" si="21"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="AT10" s="42">
+      <c r="AT10" s="33">
         <f>AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU10" s="39">
+      <c r="AU10" s="31">
         <f>AT10/AS10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW10" s="51">
+      <c r="AW10" s="39">
         <v>6</v>
       </c>
-      <c r="AX10" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY10" s="53">
+      <c r="AX10" s="40">
+        <v>18</v>
+      </c>
+      <c r="AY10" s="41">
         <v>19.2</v>
       </c>
-      <c r="AZ10" s="52">
+      <c r="AZ10" s="40">
         <f t="shared" si="14"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="BA10" s="54">
+      <c r="BA10" s="42">
         <f t="shared" si="22"/>
         <v>680.39999999999986</v>
       </c>
-      <c r="BB10" s="52">
+      <c r="BB10" s="40">
         <f t="shared" si="15"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="BC10" s="55">
+      <c r="BC10" s="43">
         <f t="shared" si="23"/>
         <v>10.800000000000068</v>
       </c>
-      <c r="BD10" s="42">
+      <c r="BD10" s="33">
         <f>BA10-AQ50</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="BE10" s="39">
+      <c r="BE10" s="31">
         <f>BD10/BC10</f>
         <v>10.499999999999922</v>
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
       <c r="T11" s="8">
         <v>7</v>
       </c>
@@ -2131,15 +2137,15 @@
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
       <c r="K12" s="11" t="s">
         <v>0</v>
       </c>
@@ -2259,24 +2265,24 @@
         <f>P13-O13</f>
         <v>1.8</v>
       </c>
-      <c r="AM13" s="43" t="s">
+      <c r="AM13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="45"/>
-      <c r="AW13" s="43" t="s">
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="54"/>
+      <c r="AW13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="45"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="54"/>
     </row>
     <row r="14" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -2330,7 +2336,7 @@
         <f>P14-O14</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM14" s="46" t="s">
+      <c r="AM14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AN14" s="24" t="s">
@@ -2348,10 +2354,10 @@
       <c r="AR14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS14" s="47" t="s">
+      <c r="AS14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AW14" s="46" t="s">
+      <c r="AW14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AX14" s="24" t="s">
@@ -2369,7 +2375,7 @@
       <c r="BB14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC14" s="47" t="s">
+      <c r="BC14" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2425,7 +2431,7 @@
         <f t="shared" ref="Q15:Q18" si="33">P15-O15</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="AM15" s="48">
+      <c r="AM15" s="36">
         <v>1</v>
       </c>
       <c r="AN15" s="8">
@@ -2446,11 +2452,11 @@
         <f>AO15*36</f>
         <v>7.2</v>
       </c>
-      <c r="AS15" s="49">
+      <c r="AS15" s="37">
         <f>AR15-AQ15</f>
         <v>3.6</v>
       </c>
-      <c r="AW15" s="48">
+      <c r="AW15" s="36">
         <v>1</v>
       </c>
       <c r="AX15" s="8">
@@ -2471,7 +2477,7 @@
         <f>AY15*36</f>
         <v>25.2</v>
       </c>
-      <c r="BC15" s="49">
+      <c r="BC15" s="37">
         <f>BB15-BA15</f>
         <v>12.6</v>
       </c>
@@ -2531,16 +2537,16 @@
       <c r="S16">
         <v>0.1</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AM16" s="48">
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AM16" s="36">
         <v>2</v>
       </c>
       <c r="AN16" s="8">
@@ -2561,11 +2567,11 @@
         <f t="shared" ref="AR16:AR20" si="37">AO16*36</f>
         <v>14.4</v>
       </c>
-      <c r="AS16" s="50">
+      <c r="AS16" s="38">
         <f>AR16-AQ16</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AW16" s="48">
+      <c r="AW16" s="36">
         <v>2</v>
       </c>
       <c r="AX16" s="8">
@@ -2586,7 +2592,7 @@
         <f t="shared" ref="BB16:BB20" si="39">AY16*36</f>
         <v>50.4</v>
       </c>
-      <c r="BC16" s="50">
+      <c r="BC16" s="38">
         <f>BB16-BA16</f>
         <v>12.600000000000001</v>
       </c>
@@ -2667,16 +2673,16 @@
       <c r="Z17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD17" s="28" t="s">
+      <c r="AD17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AM17" s="48">
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AM17" s="36">
         <v>3</v>
       </c>
       <c r="AN17" s="8">
@@ -2697,15 +2703,15 @@
         <f t="shared" si="37"/>
         <v>28.8</v>
       </c>
-      <c r="AS17" s="49">
+      <c r="AS17" s="37">
         <f t="shared" ref="AS17:AS20" si="41">AR17-AQ17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="AT17" s="57" t="s">
+      <c r="AT17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU17" s="56"/>
-      <c r="AW17" s="48">
+      <c r="AU17" s="49"/>
+      <c r="AW17" s="36">
         <v>3</v>
       </c>
       <c r="AX17" s="8">
@@ -2726,14 +2732,14 @@
         <f t="shared" si="39"/>
         <v>100.8</v>
       </c>
-      <c r="BC17" s="49">
+      <c r="BC17" s="37">
         <f t="shared" ref="BC17:BC20" si="43">BB17-BA17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="BD17" s="57" t="s">
+      <c r="BD17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE17" s="56"/>
+      <c r="BE17" s="49"/>
     </row>
     <row r="18" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -2839,7 +2845,7 @@
       <c r="AJ18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM18" s="48">
+      <c r="AM18" s="36">
         <v>4</v>
       </c>
       <c r="AN18" s="8">
@@ -2860,19 +2866,19 @@
         <f t="shared" si="37"/>
         <v>57.6</v>
       </c>
-      <c r="AS18" s="50">
+      <c r="AS18" s="38">
         <f t="shared" si="41"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="AT18" s="41">
+      <c r="AT18" s="32">
         <f>AQ20</f>
         <v>226.8</v>
       </c>
-      <c r="AU18" s="37">
+      <c r="AU18" s="29">
         <f>AT18/AS20</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW18" s="48">
+      <c r="AW18" s="36">
         <v>4</v>
       </c>
       <c r="AX18" s="8">
@@ -2893,15 +2899,15 @@
         <f t="shared" si="39"/>
         <v>201.6</v>
       </c>
-      <c r="BC18" s="50">
+      <c r="BC18" s="38">
         <f t="shared" si="43"/>
         <v>12.599999999999994</v>
       </c>
-      <c r="BD18" s="41">
+      <c r="BD18" s="32">
         <f>BA20</f>
         <v>793.8</v>
       </c>
-      <c r="BE18" s="37">
+      <c r="BE18" s="29">
         <f>BD18/BC20</f>
         <v>62.999999999999879</v>
       </c>
@@ -2989,7 +2995,7 @@
         <f>AI19-AH19</f>
         <v>1.8</v>
       </c>
-      <c r="AM19" s="48">
+      <c r="AM19" s="36">
         <v>5</v>
       </c>
       <c r="AN19" s="8">
@@ -3010,15 +3016,15 @@
         <f t="shared" si="37"/>
         <v>115.2</v>
       </c>
-      <c r="AS19" s="49">
+      <c r="AS19" s="37">
         <f t="shared" si="41"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="AT19" s="34" t="s">
+      <c r="AT19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU19" s="38"/>
-      <c r="AW19" s="48">
+      <c r="AU19" s="47"/>
+      <c r="AW19" s="36">
         <v>5</v>
       </c>
       <c r="AX19" s="8">
@@ -3039,14 +3045,14 @@
         <f t="shared" si="39"/>
         <v>403.2</v>
       </c>
-      <c r="BC19" s="49">
+      <c r="BC19" s="37">
         <f t="shared" si="43"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="BD19" s="34" t="s">
+      <c r="BD19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE19" s="38"/>
+      <c r="BE19" s="47"/>
     </row>
     <row r="20" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S20">
@@ -3105,83 +3111,83 @@
         <f>AI20-AH20</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AM20" s="51">
+      <c r="AM20" s="39">
         <v>6</v>
       </c>
-      <c r="AN20" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO20" s="53">
+      <c r="AN20" s="40">
+        <v>18</v>
+      </c>
+      <c r="AO20" s="41">
         <v>6.4</v>
       </c>
-      <c r="AP20" s="52">
+      <c r="AP20" s="40">
         <f t="shared" si="36"/>
         <v>115.2</v>
       </c>
-      <c r="AQ20" s="54">
+      <c r="AQ20" s="42">
         <f t="shared" si="40"/>
         <v>226.8</v>
       </c>
-      <c r="AR20" s="52">
+      <c r="AR20" s="40">
         <f t="shared" si="37"/>
         <v>230.4</v>
       </c>
-      <c r="AS20" s="55">
+      <c r="AS20" s="43">
         <f t="shared" si="41"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="AT20" s="42">
+      <c r="AT20" s="33">
         <f>AQ20-AQ10</f>
         <v>113.4</v>
       </c>
-      <c r="AU20" s="39">
+      <c r="AU20" s="31">
         <f>AT20/AS20</f>
         <v>31.50000000000005</v>
       </c>
-      <c r="AW20" s="51">
+      <c r="AW20" s="39">
         <v>6</v>
       </c>
-      <c r="AX20" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY20" s="53">
+      <c r="AX20" s="40">
+        <v>18</v>
+      </c>
+      <c r="AY20" s="41">
         <v>22.4</v>
       </c>
-      <c r="AZ20" s="52">
+      <c r="AZ20" s="40">
         <f t="shared" si="38"/>
         <v>403.2</v>
       </c>
-      <c r="BA20" s="54">
+      <c r="BA20" s="42">
         <f t="shared" si="42"/>
         <v>793.8</v>
       </c>
-      <c r="BB20" s="52">
+      <c r="BB20" s="40">
         <f t="shared" si="39"/>
         <v>806.4</v>
       </c>
-      <c r="BC20" s="55">
+      <c r="BC20" s="43">
         <f t="shared" si="43"/>
         <v>12.600000000000023</v>
       </c>
-      <c r="BD20" s="42">
+      <c r="BD20" s="33">
         <f>BA20-BA10</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE20" s="39">
+      <c r="BE20" s="31">
         <f>BD20/BC20</f>
         <v>8.9999999999999911</v>
       </c>
     </row>
     <row r="21" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
       <c r="S21">
         <v>100</v>
       </c>
@@ -3240,15 +3246,15 @@
       </c>
     </row>
     <row r="22" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
       <c r="K22" s="15" t="s">
         <v>0</v>
       </c>
@@ -3424,24 +3430,24 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AM23" s="43" t="s">
+      <c r="AM23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="45"/>
-      <c r="AW23" s="43" t="s">
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="54"/>
+      <c r="AW23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="45"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="54"/>
     </row>
     <row r="24" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -3545,7 +3551,7 @@
         <f t="shared" si="55"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AM24" s="46" t="s">
+      <c r="AM24" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AN24" s="24" t="s">
@@ -3563,10 +3569,10 @@
       <c r="AR24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS24" s="47" t="s">
+      <c r="AS24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AW24" s="46" t="s">
+      <c r="AW24" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AX24" s="24" t="s">
@@ -3584,7 +3590,7 @@
       <c r="BB24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC24" s="47" t="s">
+      <c r="BC24" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3690,7 +3696,7 @@
         <f t="shared" si="55"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="AM25" s="48">
+      <c r="AM25" s="36">
         <v>1</v>
       </c>
       <c r="AN25" s="8">
@@ -3711,11 +3717,11 @@
         <f>AO25*36</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="AS25" s="49">
+      <c r="AS25" s="37">
         <f>AR25-AQ25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="AW25" s="48">
+      <c r="AW25" s="36">
         <v>1</v>
       </c>
       <c r="AX25" s="8">
@@ -3736,7 +3742,7 @@
         <f>AY25*36</f>
         <v>28.8</v>
       </c>
-      <c r="BC25" s="49">
+      <c r="BC25" s="37">
         <f>BB25-BA25</f>
         <v>14.4</v>
       </c>
@@ -3827,7 +3833,7 @@
         <f t="shared" si="55"/>
         <v>10.799999999999955</v>
       </c>
-      <c r="AM26" s="48">
+      <c r="AM26" s="36">
         <v>2</v>
       </c>
       <c r="AN26" s="8">
@@ -3848,11 +3854,11 @@
         <f t="shared" ref="AR26:AR30" si="69">AO26*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="AS26" s="50">
+      <c r="AS26" s="38">
         <f>AR26-AQ26</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AW26" s="48">
+      <c r="AW26" s="36">
         <v>2</v>
       </c>
       <c r="AX26" s="8">
@@ -3873,7 +3879,7 @@
         <f t="shared" ref="BB26:BB30" si="71">AY26*36</f>
         <v>57.6</v>
       </c>
-      <c r="BC26" s="50">
+      <c r="BC26" s="38">
         <f>BB26-BA26</f>
         <v>14.399999999999999</v>
       </c>
@@ -3930,7 +3936,7 @@
         <f t="shared" si="65"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AM27" s="48">
+      <c r="AM27" s="36">
         <v>3</v>
       </c>
       <c r="AN27" s="8">
@@ -3951,15 +3957,15 @@
         <f t="shared" si="69"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="AS27" s="49">
+      <c r="AS27" s="37">
         <f t="shared" ref="AS27:AS30" si="73">AR27-AQ27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="AT27" s="57" t="s">
+      <c r="AT27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU27" s="56"/>
-      <c r="AW27" s="48">
+      <c r="AU27" s="49"/>
+      <c r="AW27" s="36">
         <v>3</v>
       </c>
       <c r="AX27" s="8">
@@ -3980,14 +3986,14 @@
         <f t="shared" si="71"/>
         <v>115.2</v>
       </c>
-      <c r="BC27" s="49">
+      <c r="BC27" s="37">
         <f t="shared" ref="BC27:BC30" si="75">BB27-BA27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="BD27" s="57" t="s">
+      <c r="BD27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE27" s="56"/>
+      <c r="BE27" s="49"/>
     </row>
     <row r="28" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -4063,7 +4069,7 @@
         <f>W28*U28</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="48">
+      <c r="AM28" s="36">
         <v>4</v>
       </c>
       <c r="AN28" s="8">
@@ -4084,19 +4090,19 @@
         <f t="shared" si="69"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="AS28" s="50">
+      <c r="AS28" s="38">
         <f t="shared" si="73"/>
         <v>5.3999999999999915</v>
       </c>
-      <c r="AT28" s="41">
+      <c r="AT28" s="32">
         <f>AQ30</f>
         <v>340.19999999999993</v>
       </c>
-      <c r="AU28" s="37">
+      <c r="AU28" s="29">
         <f>AT28/AS30</f>
         <v>62.999999999999588</v>
       </c>
-      <c r="AW28" s="48">
+      <c r="AW28" s="36">
         <v>4</v>
       </c>
       <c r="AX28" s="8">
@@ -4117,15 +4123,15 @@
         <f t="shared" si="71"/>
         <v>230.4</v>
       </c>
-      <c r="BC28" s="50">
+      <c r="BC28" s="38">
         <f t="shared" si="75"/>
         <v>14.400000000000006</v>
       </c>
-      <c r="BD28" s="41">
+      <c r="BD28" s="32">
         <f>BA30</f>
         <v>907.2</v>
       </c>
-      <c r="BE28" s="37">
+      <c r="BE28" s="29">
         <f>BD28/BC30</f>
         <v>63.000000000000099</v>
       </c>
@@ -4179,16 +4185,16 @@
         <f t="shared" ref="Y29:Y38" si="81">W29*U29</f>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AD29" s="28" t="s">
+      <c r="AD29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AM29" s="48">
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AM29" s="36">
         <v>5</v>
       </c>
       <c r="AN29" s="8">
@@ -4209,15 +4215,15 @@
         <f t="shared" si="69"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AS29" s="49">
+      <c r="AS29" s="37">
         <f t="shared" si="73"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="AT29" s="34" t="s">
+      <c r="AT29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU29" s="38"/>
-      <c r="AW29" s="48">
+      <c r="AU29" s="47"/>
+      <c r="AW29" s="36">
         <v>5</v>
       </c>
       <c r="AX29" s="8">
@@ -4238,14 +4244,14 @@
         <f t="shared" si="71"/>
         <v>460.8</v>
       </c>
-      <c r="BC29" s="49">
+      <c r="BC29" s="37">
         <f t="shared" si="75"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="BD29" s="34" t="s">
+      <c r="BD29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE29" s="38"/>
+      <c r="BE29" s="47"/>
     </row>
     <row r="30" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T30" s="18" t="s">
@@ -4291,69 +4297,69 @@
       <c r="AJ30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM30" s="51">
+      <c r="AM30" s="39">
         <v>6</v>
       </c>
-      <c r="AN30" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO30" s="53">
+      <c r="AN30" s="40">
+        <v>18</v>
+      </c>
+      <c r="AO30" s="41">
         <v>9.6</v>
       </c>
-      <c r="AP30" s="52">
+      <c r="AP30" s="40">
         <f t="shared" si="68"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="AQ30" s="54">
+      <c r="AQ30" s="42">
         <f t="shared" si="72"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="AR30" s="52">
+      <c r="AR30" s="40">
         <f t="shared" si="69"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="AS30" s="55">
+      <c r="AS30" s="43">
         <f t="shared" si="73"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AT30" s="42">
+      <c r="AT30" s="33">
         <f>AQ30-AQ20</f>
         <v>113.39999999999992</v>
       </c>
-      <c r="AU30" s="39">
+      <c r="AU30" s="31">
         <f>AT30/AS30</f>
         <v>20.999999999999854</v>
       </c>
-      <c r="AW30" s="51">
+      <c r="AW30" s="39">
         <v>6</v>
       </c>
-      <c r="AX30" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY30" s="53">
+      <c r="AX30" s="40">
+        <v>18</v>
+      </c>
+      <c r="AY30" s="41">
         <v>25.6</v>
       </c>
-      <c r="AZ30" s="52">
+      <c r="AZ30" s="40">
         <f t="shared" si="70"/>
         <v>460.8</v>
       </c>
-      <c r="BA30" s="54">
+      <c r="BA30" s="42">
         <f t="shared" si="74"/>
         <v>907.2</v>
       </c>
-      <c r="BB30" s="52">
+      <c r="BB30" s="40">
         <f t="shared" si="71"/>
         <v>921.6</v>
       </c>
-      <c r="BC30" s="55">
+      <c r="BC30" s="43">
         <f t="shared" si="75"/>
         <v>14.399999999999977</v>
       </c>
-      <c r="BD30" s="42">
+      <c r="BD30" s="33">
         <f>BA30-BA20</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE30" s="39">
+      <c r="BE30" s="31">
         <f>BD30/BC30</f>
         <v>7.8750000000000187</v>
       </c>
@@ -4408,24 +4414,24 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="K32" s="28" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="K32" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
       <c r="T32" s="18" t="s">
         <v>23</v>
       </c>
@@ -4564,24 +4570,24 @@
         <f t="shared" ref="AJ33:AJ38" si="86">AI33-AH33</f>
         <v>9</v>
       </c>
-      <c r="AM33" s="43" t="s">
+      <c r="AM33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="45"/>
-      <c r="AW33" s="43" t="s">
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="54"/>
+      <c r="AW33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="44"/>
-      <c r="BB33" s="44"/>
-      <c r="BC33" s="45"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="54"/>
     </row>
     <row r="34" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -4681,7 +4687,7 @@
         <f t="shared" si="86"/>
         <v>9</v>
       </c>
-      <c r="AM34" s="46" t="s">
+      <c r="AM34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AN34" s="24" t="s">
@@ -4699,10 +4705,10 @@
       <c r="AR34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="47" t="s">
+      <c r="AS34" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AW34" s="46" t="s">
+      <c r="AW34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AX34" s="24" t="s">
@@ -4720,7 +4726,7 @@
       <c r="BB34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC34" s="47" t="s">
+      <c r="BC34" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4822,7 +4828,7 @@
         <f t="shared" si="86"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="AM35" s="48">
+      <c r="AM35" s="36">
         <v>1</v>
       </c>
       <c r="AN35" s="8">
@@ -4843,11 +4849,11 @@
         <f>AO35*36</f>
         <v>14.4</v>
       </c>
-      <c r="AS35" s="49">
+      <c r="AS35" s="37">
         <f>AR35-AQ35</f>
         <v>7.2</v>
       </c>
-      <c r="AW35" s="48">
+      <c r="AW35" s="36">
         <v>1</v>
       </c>
       <c r="AX35" s="8">
@@ -4868,7 +4874,7 @@
         <f>AY35*36</f>
         <v>32.4</v>
       </c>
-      <c r="BC35" s="49">
+      <c r="BC35" s="37">
         <f>BB35-BA35</f>
         <v>16.2</v>
       </c>
@@ -4971,7 +4977,7 @@
         <f t="shared" si="86"/>
         <v>5.3999999999999773</v>
       </c>
-      <c r="AM36" s="48">
+      <c r="AM36" s="36">
         <v>2</v>
       </c>
       <c r="AN36" s="8">
@@ -4992,11 +4998,11 @@
         <f t="shared" ref="AR36:AR40" si="96">AO36*36</f>
         <v>28.8</v>
       </c>
-      <c r="AS36" s="50">
+      <c r="AS36" s="38">
         <f>AR36-AQ36</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AW36" s="48">
+      <c r="AW36" s="36">
         <v>2</v>
       </c>
       <c r="AX36" s="8">
@@ -5017,7 +5023,7 @@
         <f t="shared" ref="BB36:BB40" si="98">AY36*36</f>
         <v>64.8</v>
       </c>
-      <c r="BC36" s="50">
+      <c r="BC36" s="38">
         <f>BB36-BA36</f>
         <v>16.200000000000003</v>
       </c>
@@ -5120,7 +5126,7 @@
         <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-      <c r="AM37" s="48">
+      <c r="AM37" s="36">
         <v>3</v>
       </c>
       <c r="AN37" s="8">
@@ -5141,15 +5147,15 @@
         <f t="shared" si="96"/>
         <v>57.6</v>
       </c>
-      <c r="AS37" s="49">
+      <c r="AS37" s="37">
         <f t="shared" ref="AS37:AS40" si="100">AR37-AQ37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="AT37" s="57" t="s">
+      <c r="AT37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU37" s="56"/>
-      <c r="AW37" s="48">
+      <c r="AU37" s="49"/>
+      <c r="AW37" s="36">
         <v>3</v>
       </c>
       <c r="AX37" s="8">
@@ -5170,14 +5176,14 @@
         <f t="shared" si="98"/>
         <v>129.6</v>
       </c>
-      <c r="BC37" s="49">
+      <c r="BC37" s="37">
         <f t="shared" ref="BC37:BC40" si="102">BB37-BA37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="BD37" s="57" t="s">
+      <c r="BD37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE37" s="56"/>
+      <c r="BE37" s="49"/>
     </row>
     <row r="38" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
@@ -5277,7 +5283,7 @@
         <f t="shared" si="86"/>
         <v>-826.2</v>
       </c>
-      <c r="AM38" s="48">
+      <c r="AM38" s="36">
         <v>4</v>
       </c>
       <c r="AN38" s="8">
@@ -5298,19 +5304,19 @@
         <f t="shared" si="96"/>
         <v>115.2</v>
       </c>
-      <c r="AS38" s="50">
+      <c r="AS38" s="38">
         <f t="shared" si="100"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="AT38" s="41">
+      <c r="AT38" s="32">
         <f>AQ40</f>
         <v>453.6</v>
       </c>
-      <c r="AU38" s="37">
+      <c r="AU38" s="29">
         <f>AT38/AS40</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="AW38" s="48">
+      <c r="AW38" s="36">
         <v>4</v>
       </c>
       <c r="AX38" s="8">
@@ -5331,15 +5337,15 @@
         <f t="shared" si="98"/>
         <v>259.2</v>
       </c>
-      <c r="BC38" s="50">
+      <c r="BC38" s="38">
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD38" s="41">
+      <c r="BD38" s="32">
         <f>BA40</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="BE38" s="37">
+      <c r="BE38" s="29">
         <f>BD38/BC40</f>
         <v>62.999999999999815</v>
       </c>
@@ -5408,7 +5414,7 @@
         <f>Y39/U39</f>
         <v>14.856338028169016</v>
       </c>
-      <c r="AM39" s="48">
+      <c r="AM39" s="36">
         <v>5</v>
       </c>
       <c r="AN39" s="8">
@@ -5429,15 +5435,15 @@
         <f t="shared" si="96"/>
         <v>230.4</v>
       </c>
-      <c r="AS39" s="49">
+      <c r="AS39" s="37">
         <f t="shared" si="100"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="AT39" s="34" t="s">
+      <c r="AT39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU39" s="38"/>
-      <c r="AW39" s="48">
+      <c r="AU39" s="47"/>
+      <c r="AW39" s="36">
         <v>5</v>
       </c>
       <c r="AX39" s="8">
@@ -5458,14 +5464,14 @@
         <f t="shared" si="98"/>
         <v>518.4</v>
       </c>
-      <c r="BC39" s="49">
+      <c r="BC39" s="37">
         <f t="shared" si="102"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="BD39" s="34" t="s">
+      <c r="BD39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE39" s="38"/>
+      <c r="BE39" s="47"/>
     </row>
     <row r="40" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="8">
@@ -5497,69 +5503,69 @@
         <f>-X23</f>
         <v>-988.2</v>
       </c>
-      <c r="AM40" s="51">
+      <c r="AM40" s="39">
         <v>6</v>
       </c>
-      <c r="AN40" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO40" s="53">
+      <c r="AN40" s="40">
+        <v>18</v>
+      </c>
+      <c r="AO40" s="41">
         <v>12.8</v>
       </c>
-      <c r="AP40" s="52">
+      <c r="AP40" s="40">
         <f t="shared" si="95"/>
         <v>230.4</v>
       </c>
-      <c r="AQ40" s="54">
+      <c r="AQ40" s="42">
         <f t="shared" si="99"/>
         <v>453.6</v>
       </c>
-      <c r="AR40" s="52">
+      <c r="AR40" s="40">
         <f t="shared" si="96"/>
         <v>460.8</v>
       </c>
-      <c r="AS40" s="55">
+      <c r="AS40" s="43">
         <f t="shared" si="100"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="AT40" s="42">
+      <c r="AT40" s="33">
         <f>AQ40-AQ30</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="AU40" s="39">
+      <c r="AU40" s="31">
         <f>AT40/AS40</f>
         <v>15.750000000000037</v>
       </c>
-      <c r="AW40" s="51">
+      <c r="AW40" s="39">
         <v>6</v>
       </c>
-      <c r="AX40" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY40" s="53">
+      <c r="AX40" s="40">
+        <v>18</v>
+      </c>
+      <c r="AY40" s="41">
         <v>28.8</v>
       </c>
-      <c r="AZ40" s="52">
+      <c r="AZ40" s="40">
         <f t="shared" si="97"/>
         <v>518.4</v>
       </c>
-      <c r="BA40" s="54">
+      <c r="BA40" s="42">
         <f t="shared" si="101"/>
         <v>1020.5999999999999</v>
       </c>
-      <c r="BB40" s="52">
+      <c r="BB40" s="40">
         <f t="shared" si="98"/>
         <v>1036.8</v>
       </c>
-      <c r="BC40" s="55">
+      <c r="BC40" s="43">
         <f t="shared" si="102"/>
         <v>16.200000000000045</v>
       </c>
-      <c r="BD40" s="42">
+      <c r="BD40" s="33">
         <f>BA40-BA30</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="BE40" s="39">
+      <c r="BE40" s="31">
         <f>BD40/BC40</f>
         <v>6.9999999999999716</v>
       </c>
@@ -5596,15 +5602,15 @@
       </c>
     </row>
     <row r="42" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="K42" s="8">
         <v>9</v>
       </c>
@@ -5653,24 +5659,24 @@
       <c r="H43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM43" s="43" t="s">
+      <c r="AM43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="44"/>
-      <c r="AR43" s="44"/>
-      <c r="AS43" s="45"/>
-      <c r="AW43" s="43" t="s">
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="54"/>
+      <c r="AW43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX43" s="44"/>
-      <c r="AY43" s="44"/>
-      <c r="AZ43" s="44"/>
-      <c r="BA43" s="44"/>
-      <c r="BB43" s="44"/>
-      <c r="BC43" s="45"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BC43" s="54"/>
     </row>
     <row r="44" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
@@ -5699,7 +5705,7 @@
         <f>G44-F44</f>
         <v>90</v>
       </c>
-      <c r="AM44" s="46" t="s">
+      <c r="AM44" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AN44" s="24" t="s">
@@ -5717,10 +5723,10 @@
       <c r="AR44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AS44" s="47" t="s">
+      <c r="AS44" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AW44" s="46" t="s">
+      <c r="AW44" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AX44" s="24" t="s">
@@ -5738,7 +5744,7 @@
       <c r="BB44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC44" s="47" t="s">
+      <c r="BC44" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5769,7 +5775,7 @@
         <f>G45-F45</f>
         <v>54</v>
       </c>
-      <c r="AM45" s="48">
+      <c r="AM45" s="36">
         <v>1</v>
       </c>
       <c r="AN45" s="8">
@@ -5790,11 +5796,11 @@
         <f>AO45*36</f>
         <v>18</v>
       </c>
-      <c r="AS45" s="49">
+      <c r="AS45" s="37">
         <f>AR45-AQ45</f>
         <v>9</v>
       </c>
-      <c r="AW45" s="48">
+      <c r="AW45" s="36">
         <v>1</v>
       </c>
       <c r="AX45" s="8">
@@ -5815,7 +5821,7 @@
         <f>AY45*36</f>
         <v>36</v>
       </c>
-      <c r="BC45" s="49">
+      <c r="BC45" s="37">
         <f>BB45-BA45</f>
         <v>18</v>
       </c>
@@ -5847,7 +5853,7 @@
         <f t="shared" ref="H46:H47" si="114">G46-F46</f>
         <v>126</v>
       </c>
-      <c r="AM46" s="48">
+      <c r="AM46" s="36">
         <v>2</v>
       </c>
       <c r="AN46" s="8">
@@ -5868,11 +5874,11 @@
         <f t="shared" ref="AR46:AR50" si="116">AO46*36</f>
         <v>36</v>
       </c>
-      <c r="AS46" s="50">
+      <c r="AS46" s="38">
         <f>AR46-AQ46</f>
         <v>9</v>
       </c>
-      <c r="AW46" s="48">
+      <c r="AW46" s="36">
         <v>2</v>
       </c>
       <c r="AX46" s="8">
@@ -5893,7 +5899,7 @@
         <f t="shared" ref="BB46:BB50" si="118">AY46*36</f>
         <v>72</v>
       </c>
-      <c r="BC46" s="50">
+      <c r="BC46" s="38">
         <f>BB46-BA46</f>
         <v>18</v>
       </c>
@@ -5925,16 +5931,16 @@
         <f t="shared" si="114"/>
         <v>126</v>
       </c>
-      <c r="T47" s="28" t="s">
+      <c r="T47" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AM47" s="48">
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AM47" s="36">
         <v>3</v>
       </c>
       <c r="AN47" s="8">
@@ -5955,15 +5961,15 @@
         <f t="shared" si="116"/>
         <v>72</v>
       </c>
-      <c r="AS47" s="49">
+      <c r="AS47" s="37">
         <f t="shared" ref="AS47:AS50" si="120">AR47-AQ47</f>
         <v>9</v>
       </c>
-      <c r="AT47" s="57" t="s">
+      <c r="AT47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AU47" s="56"/>
-      <c r="AW47" s="48">
+      <c r="AU47" s="49"/>
+      <c r="AW47" s="36">
         <v>3</v>
       </c>
       <c r="AX47" s="8">
@@ -5984,14 +5990,14 @@
         <f t="shared" si="118"/>
         <v>144</v>
       </c>
-      <c r="BC47" s="49">
+      <c r="BC47" s="37">
         <f t="shared" ref="BC47:BC50" si="122">BB47-BA47</f>
         <v>18</v>
       </c>
-      <c r="BD47" s="57" t="s">
+      <c r="BD47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BE47" s="56"/>
+      <c r="BE47" s="49"/>
     </row>
     <row r="48" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
@@ -6041,7 +6047,7 @@
       <c r="Z48" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM48" s="48">
+      <c r="AM48" s="36">
         <v>4</v>
       </c>
       <c r="AN48" s="8">
@@ -6062,19 +6068,19 @@
         <f t="shared" si="116"/>
         <v>144</v>
       </c>
-      <c r="AS48" s="50">
+      <c r="AS48" s="38">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT48" s="41">
+      <c r="AT48" s="32">
         <f>AQ50</f>
         <v>567</v>
       </c>
-      <c r="AU48" s="37">
+      <c r="AU48" s="29">
         <f>AT48/AS50</f>
         <v>63</v>
       </c>
-      <c r="AW48" s="48">
+      <c r="AW48" s="36">
         <v>4</v>
       </c>
       <c r="AX48" s="8">
@@ -6095,15 +6101,15 @@
         <f t="shared" si="118"/>
         <v>288</v>
       </c>
-      <c r="BC48" s="50">
+      <c r="BC48" s="38">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD48" s="41">
+      <c r="BD48" s="32">
         <f>BA50</f>
         <v>1134</v>
       </c>
-      <c r="BE48" s="37">
+      <c r="BE48" s="29">
         <f>BD48/BC50</f>
         <v>63</v>
       </c>
@@ -6160,7 +6166,7 @@
         <f>Y49-X49</f>
         <v>3.6</v>
       </c>
-      <c r="AM49" s="48">
+      <c r="AM49" s="36">
         <v>5</v>
       </c>
       <c r="AN49" s="8">
@@ -6181,15 +6187,15 @@
         <f t="shared" si="116"/>
         <v>288</v>
       </c>
-      <c r="AS49" s="49">
+      <c r="AS49" s="37">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT49" s="34" t="s">
+      <c r="AT49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AU49" s="38"/>
-      <c r="AW49" s="48">
+      <c r="AU49" s="47"/>
+      <c r="AW49" s="36">
         <v>5</v>
       </c>
       <c r="AX49" s="8">
@@ -6210,14 +6216,14 @@
         <f t="shared" si="118"/>
         <v>576</v>
       </c>
-      <c r="BC49" s="49">
+      <c r="BC49" s="37">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD49" s="34" t="s">
+      <c r="BD49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BE49" s="38"/>
+      <c r="BE49" s="47"/>
     </row>
     <row r="50" spans="1:57" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T50" s="8">
@@ -6245,69 +6251,69 @@
         <f>Y50-X50</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="AM50" s="51">
+      <c r="AM50" s="39">
         <v>6</v>
       </c>
-      <c r="AN50" s="52">
-        <v>18</v>
-      </c>
-      <c r="AO50" s="53">
+      <c r="AN50" s="40">
+        <v>18</v>
+      </c>
+      <c r="AO50" s="41">
         <v>16</v>
       </c>
-      <c r="AP50" s="52">
+      <c r="AP50" s="40">
         <f t="shared" si="115"/>
         <v>288</v>
       </c>
-      <c r="AQ50" s="54">
+      <c r="AQ50" s="42">
         <f t="shared" si="119"/>
         <v>567</v>
       </c>
-      <c r="AR50" s="52">
+      <c r="AR50" s="40">
         <f t="shared" si="116"/>
         <v>576</v>
       </c>
-      <c r="AS50" s="55">
+      <c r="AS50" s="43">
         <f t="shared" si="120"/>
         <v>9</v>
       </c>
-      <c r="AT50" s="42">
+      <c r="AT50" s="33">
         <f>AQ50-AQ40</f>
         <v>113.39999999999998</v>
       </c>
-      <c r="AU50" s="39">
+      <c r="AU50" s="31">
         <f>AT50/AS50</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="AW50" s="51">
+      <c r="AW50" s="39">
         <v>6</v>
       </c>
-      <c r="AX50" s="52">
-        <v>18</v>
-      </c>
-      <c r="AY50" s="53">
+      <c r="AX50" s="40">
+        <v>18</v>
+      </c>
+      <c r="AY50" s="41">
         <v>32</v>
       </c>
-      <c r="AZ50" s="52">
+      <c r="AZ50" s="40">
         <f t="shared" si="117"/>
         <v>576</v>
       </c>
-      <c r="BA50" s="54">
+      <c r="BA50" s="42">
         <f t="shared" si="121"/>
         <v>1134</v>
       </c>
-      <c r="BB50" s="52">
+      <c r="BB50" s="40">
         <f t="shared" si="118"/>
         <v>1152</v>
       </c>
-      <c r="BC50" s="55">
+      <c r="BC50" s="43">
         <f t="shared" si="122"/>
         <v>18</v>
       </c>
-      <c r="BD50" s="42">
+      <c r="BD50" s="33">
         <f>BA50-BA40</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="BE50" s="39">
+      <c r="BE50" s="31">
         <f>BD50/BC50</f>
         <v>6.3000000000000052</v>
       </c>
@@ -6340,15 +6346,15 @@
       </c>
     </row>
     <row r="52" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
       <c r="T52" s="8">
         <v>4</v>
       </c>
@@ -6667,15 +6673,15 @@
       </c>
     </row>
     <row r="62" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
     </row>
     <row r="63" spans="1:57" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
@@ -6870,6 +6876,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="T47:Z47"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AM43:AS43"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD29:AJ29"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="AW43:BC43"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT49:AU49"/>
     <mergeCell ref="BD49:BE49"/>
     <mergeCell ref="BD39:BE39"/>
@@ -6878,45 +6917,12 @@
     <mergeCell ref="BD47:BE47"/>
     <mergeCell ref="BD37:BE37"/>
     <mergeCell ref="BD27:BE27"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AT17:AU17"/>
     <mergeCell ref="AT27:AU27"/>
     <mergeCell ref="AT37:AU37"/>
     <mergeCell ref="AT47:AU47"/>
     <mergeCell ref="AT29:AU29"/>
     <mergeCell ref="AT39:AU39"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="AW43:BC43"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="T47:Z47"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AM43:AS43"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD29:AJ29"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
@@ -6941,70 +6947,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
@@ -7366,36 +7372,36 @@
     </row>
     <row r="25" spans="1:13" ht="9.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="53.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7422,46 +7428,46 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S59" sqref="M55:S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="59"/>
+      <c r="J1" s="60"/>
       <c r="K1">
         <v>113.4</v>
       </c>
     </row>
     <row r="2" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="M3" s="43" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="M3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="54"/>
     </row>
     <row r="4" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7479,10 +7485,10 @@
       <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="24" t="s">
@@ -7500,12 +7506,12 @@
       <c r="R4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="48">
+      <c r="B5" s="36">
         <v>1</v>
       </c>
       <c r="C5" s="8">
@@ -7526,11 +7532,11 @@
         <f>D5*36</f>
         <v>3.6</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="37">
         <f>G5-F5</f>
         <v>1.8</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="36">
         <v>1</v>
       </c>
       <c r="N5" s="8">
@@ -7551,13 +7557,13 @@
         <f>O5*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="37">
         <f>R5-Q5</f>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="48">
+      <c r="B6" s="36">
         <v>2</v>
       </c>
       <c r="C6" s="8">
@@ -7578,11 +7584,11 @@
         <f t="shared" ref="G6:G10" si="1">D6*36</f>
         <v>7.2</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="38">
         <f>G6-F6</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="36">
         <v>2</v>
       </c>
       <c r="N6" s="8">
@@ -7603,13 +7609,13 @@
         <f t="shared" ref="R6:R10" si="3">O6*36</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="38">
         <f>R6-Q6</f>
         <v>10.799999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48">
+      <c r="B7" s="36">
         <v>3</v>
       </c>
       <c r="C7" s="8">
@@ -7630,16 +7636,16 @@
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="37">
         <f t="shared" ref="H7:H10" si="5">G7-F7</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="58"/>
-      <c r="M7" s="48">
+      <c r="J7" s="51"/>
+      <c r="K7" s="44"/>
+      <c r="M7" s="36">
         <v>3</v>
       </c>
       <c r="N7" s="8">
@@ -7660,17 +7666,17 @@
         <f t="shared" si="3"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="37">
         <f t="shared" ref="S7:S10" si="7">R7-Q7</f>
         <v>10.799999999999997</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="56"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48">
+      <c r="B8" s="36">
         <v>4</v>
       </c>
       <c r="C8" s="8">
@@ -7691,23 +7697,23 @@
         <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="38">
         <f t="shared" si="5"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="32">
         <f>F10</f>
         <v>113.4</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="29">
         <f>I8/H10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="45">
         <f>K1+I8</f>
         <v>226.8</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="36">
         <v>4</v>
       </c>
       <c r="N8" s="8">
@@ -7728,21 +7734,21 @@
         <f t="shared" si="3"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="38">
         <f t="shared" si="7"/>
         <v>10.799999999999983</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="32">
         <f>Q10</f>
         <v>680.39999999999986</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="29">
         <f>T8/S10</f>
         <v>62.999999999999588</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48">
+      <c r="B9" s="36">
         <v>5</v>
       </c>
       <c r="C9" s="8">
@@ -7763,16 +7769,16 @@
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="37">
         <f t="shared" si="5"/>
         <v>1.8000000000000043</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="58"/>
-      <c r="M9" s="48">
+      <c r="J9" s="47"/>
+      <c r="K9" s="44"/>
+      <c r="M9" s="36">
         <v>5</v>
       </c>
       <c r="N9" s="8">
@@ -7793,110 +7799,110 @@
         <f t="shared" si="3"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="37">
         <f t="shared" si="7"/>
         <v>10.800000000000011</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="38"/>
+      <c r="U9" s="47"/>
     </row>
     <row r="10" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="51">
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="52">
-        <v>18</v>
-      </c>
-      <c r="D10" s="53">
+      <c r="C10" s="40">
+        <v>18</v>
+      </c>
+      <c r="D10" s="41">
         <v>3.2</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="40">
         <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="42">
         <f t="shared" si="4"/>
         <v>113.4</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="40">
         <f t="shared" si="1"/>
         <v>115.2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="43">
         <f t="shared" si="5"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="33">
         <f>F10</f>
         <v>113.4</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="31">
         <f>I10/H10</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="45">
         <f>I10+K8</f>
         <v>340.20000000000005</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="39">
         <v>6</v>
       </c>
-      <c r="N10" s="52">
-        <v>18</v>
-      </c>
-      <c r="O10" s="53">
+      <c r="N10" s="40">
+        <v>18</v>
+      </c>
+      <c r="O10" s="41">
         <v>19.2</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="40">
         <f t="shared" si="2"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="42">
         <f t="shared" si="6"/>
         <v>680.39999999999986</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="40">
         <f t="shared" si="3"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="43">
         <f t="shared" si="7"/>
         <v>10.800000000000068</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="33">
         <f>Q10-F50</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="31">
         <f>T10/S10</f>
         <v>10.499999999999922</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="M13" s="43" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="M13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
     </row>
     <row r="14" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -7914,10 +7920,10 @@
       <c r="G14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="24" t="s">
@@ -7935,12 +7941,12 @@
       <c r="R14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="47" t="s">
+      <c r="S14" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48">
+      <c r="B15" s="36">
         <v>1</v>
       </c>
       <c r="C15" s="8">
@@ -7961,11 +7967,11 @@
         <f>D15*36</f>
         <v>7.2</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="37">
         <f>G15-F15</f>
         <v>3.6</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="36">
         <v>1</v>
       </c>
       <c r="N15" s="8">
@@ -7986,13 +7992,13 @@
         <f>O15*36</f>
         <v>25.2</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="37">
         <f>R15-Q15</f>
         <v>12.6</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="48">
+      <c r="B16" s="36">
         <v>2</v>
       </c>
       <c r="C16" s="8">
@@ -8013,11 +8019,11 @@
         <f t="shared" ref="G16:G20" si="9">D16*36</f>
         <v>14.4</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="38">
         <f>G16-F16</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="36">
         <v>2</v>
       </c>
       <c r="N16" s="8">
@@ -8038,13 +8044,13 @@
         <f t="shared" ref="R16:R20" si="11">O16*36</f>
         <v>50.4</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="38">
         <f>R16-Q16</f>
         <v>12.600000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="48">
+      <c r="B17" s="36">
         <v>3</v>
       </c>
       <c r="C17" s="8">
@@ -8065,16 +8071,16 @@
         <f t="shared" si="9"/>
         <v>28.8</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="37">
         <f t="shared" ref="H17:H20" si="13">G17-F17</f>
         <v>3.5999999999999979</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="58"/>
-      <c r="M17" s="48">
+      <c r="J17" s="49"/>
+      <c r="K17" s="44"/>
+      <c r="M17" s="36">
         <v>3</v>
       </c>
       <c r="N17" s="8">
@@ -8095,17 +8101,17 @@
         <f t="shared" si="11"/>
         <v>100.8</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="37">
         <f t="shared" ref="S17:S20" si="15">R17-Q17</f>
         <v>12.600000000000009</v>
       </c>
-      <c r="T17" s="57" t="s">
+      <c r="T17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="56"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48">
+      <c r="B18" s="36">
         <v>4</v>
       </c>
       <c r="C18" s="8">
@@ -8126,23 +8132,23 @@
         <f t="shared" si="9"/>
         <v>57.6</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="38">
         <f t="shared" si="13"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="32">
         <f>F20</f>
         <v>226.8</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="29">
         <f>I18/H20</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="45">
         <f>K10+I18</f>
         <v>567</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="36">
         <v>4</v>
       </c>
       <c r="N18" s="8">
@@ -8163,21 +8169,21 @@
         <f t="shared" si="11"/>
         <v>201.6</v>
       </c>
-      <c r="S18" s="50">
+      <c r="S18" s="38">
         <f t="shared" si="15"/>
         <v>12.599999999999994</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="32">
         <f>Q20</f>
         <v>793.8</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="29">
         <f>T18/S20</f>
         <v>62.999999999999879</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48">
+      <c r="B19" s="36">
         <v>5</v>
       </c>
       <c r="C19" s="8">
@@ -8198,16 +8204,16 @@
         <f t="shared" si="9"/>
         <v>115.2</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="37">
         <f t="shared" si="13"/>
         <v>3.6000000000000085</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="58"/>
-      <c r="M19" s="48">
+      <c r="J19" s="47"/>
+      <c r="K19" s="44"/>
+      <c r="M19" s="36">
         <v>5</v>
       </c>
       <c r="N19" s="8">
@@ -8228,110 +8234,110 @@
         <f t="shared" si="11"/>
         <v>403.2</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="37">
         <f t="shared" si="15"/>
         <v>12.599999999999966</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="38"/>
+      <c r="U19" s="47"/>
     </row>
     <row r="20" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="51">
+      <c r="B20" s="39">
         <v>6</v>
       </c>
-      <c r="C20" s="52">
-        <v>18</v>
-      </c>
-      <c r="D20" s="53">
+      <c r="C20" s="40">
+        <v>18</v>
+      </c>
+      <c r="D20" s="41">
         <v>6.4</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="40">
         <f t="shared" si="8"/>
         <v>115.2</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="42">
         <f t="shared" si="12"/>
         <v>226.8</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="40">
         <f t="shared" si="9"/>
         <v>230.4</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="43">
         <f t="shared" si="13"/>
         <v>3.5999999999999943</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="33">
         <f>F20-F10</f>
         <v>113.4</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="31">
         <f>I20/H20</f>
         <v>31.50000000000005</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="45">
         <f>I20+K18</f>
         <v>680.4</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="39">
         <v>6</v>
       </c>
-      <c r="N20" s="52">
-        <v>18</v>
-      </c>
-      <c r="O20" s="53">
+      <c r="N20" s="40">
+        <v>18</v>
+      </c>
+      <c r="O20" s="41">
         <v>22.4</v>
       </c>
-      <c r="P20" s="52">
+      <c r="P20" s="40">
         <f t="shared" si="10"/>
         <v>403.2</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="42">
         <f t="shared" si="14"/>
         <v>793.8</v>
       </c>
-      <c r="R20" s="52">
+      <c r="R20" s="40">
         <f t="shared" si="11"/>
         <v>806.4</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="43">
         <f t="shared" si="15"/>
         <v>12.600000000000023</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="33">
         <f>Q20-Q10</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="31">
         <f>T20/S20</f>
         <v>8.9999999999999911</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="M23" s="43" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="M23" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
     </row>
     <row r="24" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -8349,10 +8355,10 @@
       <c r="G24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="34" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="24" t="s">
@@ -8370,12 +8376,12 @@
       <c r="R24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="47" t="s">
+      <c r="S24" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="48">
+      <c r="B25" s="36">
         <v>1</v>
       </c>
       <c r="C25" s="8">
@@ -8396,11 +8402,11 @@
         <f>D25*36</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="37">
         <f>G25-F25</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="36">
         <v>1</v>
       </c>
       <c r="N25" s="8">
@@ -8421,13 +8427,13 @@
         <f>O25*36</f>
         <v>28.8</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="37">
         <f>R25-Q25</f>
         <v>14.4</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="48">
+      <c r="B26" s="36">
         <v>2</v>
       </c>
       <c r="C26" s="8">
@@ -8448,11 +8454,11 @@
         <f t="shared" ref="G26:G30" si="17">D26*36</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="38">
         <f>G26-F26</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="36">
         <v>2</v>
       </c>
       <c r="N26" s="8">
@@ -8473,13 +8479,13 @@
         <f t="shared" ref="R26:R30" si="19">O26*36</f>
         <v>57.6</v>
       </c>
-      <c r="S26" s="50">
+      <c r="S26" s="38">
         <f>R26-Q26</f>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48">
+      <c r="B27" s="36">
         <v>3</v>
       </c>
       <c r="C27" s="8">
@@ -8500,16 +8506,16 @@
         <f t="shared" si="17"/>
         <v>43.199999999999996</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="37">
         <f t="shared" ref="H27:H30" si="21">G27-F27</f>
         <v>5.3999999999999986</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="58"/>
-      <c r="M27" s="48">
+      <c r="J27" s="49"/>
+      <c r="K27" s="44"/>
+      <c r="M27" s="36">
         <v>3</v>
       </c>
       <c r="N27" s="8">
@@ -8530,17 +8536,17 @@
         <f t="shared" si="19"/>
         <v>115.2</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="37">
         <f t="shared" ref="S27:S30" si="23">R27-Q27</f>
         <v>14.399999999999991</v>
       </c>
-      <c r="T27" s="57" t="s">
+      <c r="T27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="56"/>
+      <c r="U27" s="49"/>
     </row>
     <row r="28" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="48">
+      <c r="B28" s="36">
         <v>4</v>
       </c>
       <c r="C28" s="8">
@@ -8561,23 +8567,23 @@
         <f t="shared" si="17"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="38">
         <f t="shared" si="21"/>
         <v>5.3999999999999915</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="32">
         <f>F30</f>
         <v>340.19999999999993</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="29">
         <f>I28/H30</f>
         <v>62.999999999999588</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="45">
         <f>K20+I28</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="36">
         <v>4</v>
       </c>
       <c r="N28" s="8">
@@ -8598,21 +8604,21 @@
         <f t="shared" si="19"/>
         <v>230.4</v>
       </c>
-      <c r="S28" s="50">
+      <c r="S28" s="38">
         <f t="shared" si="23"/>
         <v>14.400000000000006</v>
       </c>
-      <c r="T28" s="41">
+      <c r="T28" s="32">
         <f>Q30</f>
         <v>907.2</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="29">
         <f>T28/S30</f>
         <v>63.000000000000099</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="48">
+      <c r="B29" s="36">
         <v>5</v>
       </c>
       <c r="C29" s="8">
@@ -8633,16 +8639,16 @@
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="37">
         <f t="shared" si="21"/>
         <v>5.4000000000000057</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="58"/>
-      <c r="M29" s="48">
+      <c r="J29" s="47"/>
+      <c r="K29" s="44"/>
+      <c r="M29" s="36">
         <v>5</v>
       </c>
       <c r="N29" s="8">
@@ -8663,110 +8669,110 @@
         <f t="shared" si="19"/>
         <v>460.8</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="37">
         <f t="shared" si="23"/>
         <v>14.400000000000034</v>
       </c>
-      <c r="T29" s="34" t="s">
+      <c r="T29" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="38"/>
+      <c r="U29" s="47"/>
     </row>
     <row r="30" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="51">
+      <c r="B30" s="39">
         <v>6</v>
       </c>
-      <c r="C30" s="52">
-        <v>18</v>
-      </c>
-      <c r="D30" s="53">
+      <c r="C30" s="40">
+        <v>18</v>
+      </c>
+      <c r="D30" s="41">
         <v>9.6</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="40">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="42">
         <f t="shared" si="20"/>
         <v>340.19999999999993</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="40">
         <f t="shared" si="17"/>
         <v>345.59999999999997</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="43">
         <f t="shared" si="21"/>
         <v>5.4000000000000341</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="33">
         <f>F30-F20</f>
         <v>113.39999999999992</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="31">
         <f>I30/H30</f>
         <v>20.999999999999854</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="45">
         <f>I30+K28</f>
         <v>1133.9999999999998</v>
       </c>
-      <c r="M30" s="51">
+      <c r="M30" s="39">
         <v>6</v>
       </c>
-      <c r="N30" s="52">
-        <v>18</v>
-      </c>
-      <c r="O30" s="53">
+      <c r="N30" s="40">
+        <v>18</v>
+      </c>
+      <c r="O30" s="41">
         <v>25.6</v>
       </c>
-      <c r="P30" s="52">
+      <c r="P30" s="40">
         <f t="shared" si="18"/>
         <v>460.8</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="42">
         <f t="shared" si="22"/>
         <v>907.2</v>
       </c>
-      <c r="R30" s="52">
+      <c r="R30" s="40">
         <f t="shared" si="19"/>
         <v>921.6</v>
       </c>
-      <c r="S30" s="55">
+      <c r="S30" s="43">
         <f t="shared" si="23"/>
         <v>14.399999999999977</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="33">
         <f>Q30-Q20</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U30" s="39">
+      <c r="U30" s="31">
         <f>T30/S30</f>
         <v>7.8750000000000187</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="M33" s="43" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="M33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="54"/>
     </row>
     <row r="34" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -8784,10 +8790,10 @@
       <c r="G34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="N34" s="24" t="s">
@@ -8805,12 +8811,12 @@
       <c r="R34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="47" t="s">
+      <c r="S34" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="48">
+      <c r="B35" s="36">
         <v>1</v>
       </c>
       <c r="C35" s="8">
@@ -8831,11 +8837,11 @@
         <f>D35*36</f>
         <v>14.4</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="37">
         <f>G35-F35</f>
         <v>7.2</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M35" s="36">
         <v>1</v>
       </c>
       <c r="N35" s="8">
@@ -8856,13 +8862,13 @@
         <f>O35*36</f>
         <v>32.4</v>
       </c>
-      <c r="S35" s="49">
+      <c r="S35" s="37">
         <f>R35-Q35</f>
         <v>16.2</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="48">
+      <c r="B36" s="36">
         <v>2</v>
       </c>
       <c r="C36" s="8">
@@ -8883,11 +8889,11 @@
         <f t="shared" ref="G36:G40" si="25">D36*36</f>
         <v>28.8</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="38">
         <f>G36-F36</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M36" s="36">
         <v>2</v>
       </c>
       <c r="N36" s="8">
@@ -8908,13 +8914,13 @@
         <f t="shared" ref="R36:R40" si="27">O36*36</f>
         <v>64.8</v>
       </c>
-      <c r="S36" s="50">
+      <c r="S36" s="38">
         <f>R36-Q36</f>
         <v>16.200000000000003</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="48">
+      <c r="B37" s="36">
         <v>3</v>
       </c>
       <c r="C37" s="8">
@@ -8935,16 +8941,16 @@
         <f t="shared" si="25"/>
         <v>57.6</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="37">
         <f t="shared" ref="H37:H40" si="29">G37-F37</f>
         <v>7.1999999999999957</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="56"/>
-      <c r="K37" s="58"/>
-      <c r="M37" s="48">
+      <c r="J37" s="49"/>
+      <c r="K37" s="44"/>
+      <c r="M37" s="36">
         <v>3</v>
       </c>
       <c r="N37" s="8">
@@ -8965,17 +8971,17 @@
         <f t="shared" si="27"/>
         <v>129.6</v>
       </c>
-      <c r="S37" s="49">
+      <c r="S37" s="37">
         <f t="shared" ref="S37:S40" si="31">R37-Q37</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="T37" s="57" t="s">
+      <c r="T37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="56"/>
+      <c r="U37" s="49"/>
     </row>
     <row r="38" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="48">
+      <c r="B38" s="36">
         <v>4</v>
       </c>
       <c r="C38" s="8">
@@ -8996,23 +9002,23 @@
         <f t="shared" si="25"/>
         <v>115.2</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="38">
         <f t="shared" si="29"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="32">
         <f>F40</f>
         <v>453.6</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="29">
         <f>I38/H40</f>
         <v>63.000000000000099</v>
       </c>
-      <c r="K38" s="60">
+      <c r="K38" s="45">
         <f>K30+I38</f>
         <v>1587.6</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="36">
         <v>4</v>
       </c>
       <c r="N38" s="8">
@@ -9033,21 +9039,21 @@
         <f t="shared" si="27"/>
         <v>259.2</v>
       </c>
-      <c r="S38" s="50">
+      <c r="S38" s="38">
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T38" s="41">
+      <c r="T38" s="32">
         <f>Q40</f>
         <v>1020.5999999999999</v>
       </c>
-      <c r="U38" s="37">
+      <c r="U38" s="29">
         <f>T38/S40</f>
         <v>62.999999999999815</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48">
+      <c r="B39" s="36">
         <v>5</v>
       </c>
       <c r="C39" s="8">
@@ -9068,16 +9074,16 @@
         <f t="shared" si="25"/>
         <v>230.4</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="37">
         <f t="shared" si="29"/>
         <v>7.2000000000000171</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="38"/>
-      <c r="K39" s="58"/>
-      <c r="M39" s="48">
+      <c r="J39" s="47"/>
+      <c r="K39" s="44"/>
+      <c r="M39" s="36">
         <v>5</v>
       </c>
       <c r="N39" s="8">
@@ -9098,110 +9104,110 @@
         <f t="shared" si="27"/>
         <v>518.4</v>
       </c>
-      <c r="S39" s="49">
+      <c r="S39" s="37">
         <f t="shared" si="31"/>
         <v>16.199999999999989</v>
       </c>
-      <c r="T39" s="34" t="s">
+      <c r="T39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U39" s="38"/>
+      <c r="U39" s="47"/>
     </row>
     <row r="40" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="51">
+      <c r="B40" s="39">
         <v>6</v>
       </c>
-      <c r="C40" s="52">
-        <v>18</v>
-      </c>
-      <c r="D40" s="53">
+      <c r="C40" s="40">
+        <v>18</v>
+      </c>
+      <c r="D40" s="41">
         <v>12.8</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="40">
         <f t="shared" si="24"/>
         <v>230.4</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="42">
         <f t="shared" si="28"/>
         <v>453.6</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="40">
         <f t="shared" si="25"/>
         <v>460.8</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="43">
         <f t="shared" si="29"/>
         <v>7.1999999999999886</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="33">
         <f>F40-F30</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="31">
         <f>I40/H40</f>
         <v>15.750000000000037</v>
       </c>
-      <c r="K40" s="60">
+      <c r="K40" s="45">
         <f>I40+K38</f>
         <v>1701</v>
       </c>
-      <c r="M40" s="51">
+      <c r="M40" s="39">
         <v>6</v>
       </c>
-      <c r="N40" s="52">
-        <v>18</v>
-      </c>
-      <c r="O40" s="53">
+      <c r="N40" s="40">
+        <v>18</v>
+      </c>
+      <c r="O40" s="41">
         <v>28.8</v>
       </c>
-      <c r="P40" s="52">
+      <c r="P40" s="40">
         <f t="shared" si="26"/>
         <v>518.4</v>
       </c>
-      <c r="Q40" s="54">
+      <c r="Q40" s="42">
         <f t="shared" si="30"/>
         <v>1020.5999999999999</v>
       </c>
-      <c r="R40" s="52">
+      <c r="R40" s="40">
         <f t="shared" si="27"/>
         <v>1036.8</v>
       </c>
-      <c r="S40" s="55">
+      <c r="S40" s="43">
         <f t="shared" si="31"/>
         <v>16.200000000000045</v>
       </c>
-      <c r="T40" s="42">
+      <c r="T40" s="33">
         <f>Q40-Q30</f>
         <v>113.39999999999986</v>
       </c>
-      <c r="U40" s="39">
+      <c r="U40" s="31">
         <f>T40/S40</f>
         <v>6.9999999999999716</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="45"/>
-      <c r="M43" s="43" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
+      <c r="M43" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="45"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="54"/>
     </row>
     <row r="44" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -9219,10 +9225,10 @@
       <c r="G44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="46" t="s">
+      <c r="M44" s="34" t="s">
         <v>0</v>
       </c>
       <c r="N44" s="24" t="s">
@@ -9240,12 +9246,12 @@
       <c r="R44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S44" s="47" t="s">
+      <c r="S44" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="48">
+      <c r="B45" s="36">
         <v>1</v>
       </c>
       <c r="C45" s="8">
@@ -9266,11 +9272,11 @@
         <f>D45*36</f>
         <v>18</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="37">
         <f>G45-F45</f>
         <v>9</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M45" s="36">
         <v>1</v>
       </c>
       <c r="N45" s="8">
@@ -9291,13 +9297,13 @@
         <f>O45*36</f>
         <v>36</v>
       </c>
-      <c r="S45" s="49">
+      <c r="S45" s="37">
         <f>R45-Q45</f>
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="48">
+      <c r="B46" s="36">
         <v>2</v>
       </c>
       <c r="C46" s="8">
@@ -9318,11 +9324,11 @@
         <f t="shared" ref="G46:G50" si="33">D46*36</f>
         <v>36</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="38">
         <f>G46-F46</f>
         <v>9</v>
       </c>
-      <c r="M46" s="48">
+      <c r="M46" s="36">
         <v>2</v>
       </c>
       <c r="N46" s="8">
@@ -9343,13 +9349,13 @@
         <f t="shared" ref="R46:R50" si="35">O46*36</f>
         <v>72</v>
       </c>
-      <c r="S46" s="50">
+      <c r="S46" s="38">
         <f>R46-Q46</f>
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="48">
+      <c r="B47" s="36">
         <v>3</v>
       </c>
       <c r="C47" s="8">
@@ -9370,16 +9376,16 @@
         <f t="shared" si="33"/>
         <v>72</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="37">
         <f t="shared" ref="H47:H50" si="37">G47-F47</f>
         <v>9</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="56"/>
-      <c r="K47" s="58"/>
-      <c r="M47" s="48">
+      <c r="J47" s="49"/>
+      <c r="K47" s="44"/>
+      <c r="M47" s="36">
         <v>3</v>
       </c>
       <c r="N47" s="8">
@@ -9400,17 +9406,17 @@
         <f t="shared" si="35"/>
         <v>144</v>
       </c>
-      <c r="S47" s="49">
+      <c r="S47" s="37">
         <f t="shared" ref="S47:S50" si="39">R47-Q47</f>
         <v>18</v>
       </c>
-      <c r="T47" s="57" t="s">
+      <c r="T47" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="56"/>
+      <c r="U47" s="49"/>
     </row>
     <row r="48" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="48">
+      <c r="B48" s="36">
         <v>4</v>
       </c>
       <c r="C48" s="8">
@@ -9431,23 +9437,23 @@
         <f t="shared" si="33"/>
         <v>144</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="38">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="32">
         <f>F50</f>
         <v>567</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="29">
         <f>I48/H50</f>
         <v>63</v>
       </c>
-      <c r="K48" s="60">
+      <c r="K48" s="45">
         <f>K40+I48</f>
         <v>2268</v>
       </c>
-      <c r="M48" s="48">
+      <c r="M48" s="36">
         <v>4</v>
       </c>
       <c r="N48" s="8">
@@ -9468,21 +9474,21 @@
         <f t="shared" si="35"/>
         <v>288</v>
       </c>
-      <c r="S48" s="50">
+      <c r="S48" s="38">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T48" s="41">
+      <c r="T48" s="32">
         <f>Q50</f>
         <v>1134</v>
       </c>
-      <c r="U48" s="37">
+      <c r="U48" s="29">
         <f>T48/S50</f>
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="48">
+      <c r="B49" s="36">
         <v>5</v>
       </c>
       <c r="C49" s="8">
@@ -9503,16 +9509,16 @@
         <f t="shared" si="33"/>
         <v>288</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="37">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="58"/>
-      <c r="M49" s="48">
+      <c r="J49" s="47"/>
+      <c r="K49" s="44"/>
+      <c r="M49" s="36">
         <v>5</v>
       </c>
       <c r="N49" s="8">
@@ -9533,89 +9539,328 @@
         <f t="shared" si="35"/>
         <v>576</v>
       </c>
-      <c r="S49" s="49">
+      <c r="S49" s="37">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T49" s="34" t="s">
+      <c r="T49" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="38"/>
+      <c r="U49" s="47"/>
     </row>
     <row r="50" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="51">
+      <c r="B50" s="39">
         <v>6</v>
       </c>
-      <c r="C50" s="52">
-        <v>18</v>
-      </c>
-      <c r="D50" s="53">
+      <c r="C50" s="40">
+        <v>18</v>
+      </c>
+      <c r="D50" s="41">
         <v>16</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="40">
         <f t="shared" si="32"/>
         <v>288</v>
       </c>
-      <c r="F50" s="54">
+      <c r="F50" s="42">
         <f t="shared" si="36"/>
         <v>567</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="40">
         <f t="shared" si="33"/>
         <v>576</v>
       </c>
-      <c r="H50" s="55">
+      <c r="H50" s="43">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="33">
         <f>F50-F40</f>
         <v>113.39999999999998</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="31">
         <f>I50/H50</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="K50" s="60">
+      <c r="K50" s="45">
         <f>I50+K48</f>
         <v>2381.4</v>
       </c>
-      <c r="M50" s="51">
+      <c r="M50" s="39">
         <v>6</v>
       </c>
-      <c r="N50" s="52">
-        <v>18</v>
-      </c>
-      <c r="O50" s="53">
+      <c r="N50" s="40">
+        <v>18</v>
+      </c>
+      <c r="O50" s="41">
         <v>32</v>
       </c>
-      <c r="P50" s="52">
+      <c r="P50" s="40">
         <f t="shared" si="34"/>
         <v>576</v>
       </c>
-      <c r="Q50" s="54">
+      <c r="Q50" s="42">
         <f t="shared" si="38"/>
         <v>1134</v>
       </c>
-      <c r="R50" s="52">
+      <c r="R50" s="40">
         <f t="shared" si="35"/>
         <v>1152</v>
       </c>
-      <c r="S50" s="55">
+      <c r="S50" s="43">
         <f t="shared" si="39"/>
         <v>18</v>
       </c>
-      <c r="T50" s="42">
+      <c r="T50" s="33">
         <f>Q50-Q40</f>
         <v>113.40000000000009</v>
       </c>
-      <c r="U50" s="39">
+      <c r="U50" s="31">
         <f>T50/S50</f>
         <v>6.3000000000000052</v>
       </c>
     </row>
+    <row r="52" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M53" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="54"/>
+    </row>
+    <row r="54" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M54" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M55" s="36">
+        <v>1</v>
+      </c>
+      <c r="N55" s="8">
+        <v>18</v>
+      </c>
+      <c r="O55" s="9">
+        <v>3</v>
+      </c>
+      <c r="P55" s="8">
+        <f>N55*O55</f>
+        <v>54</v>
+      </c>
+      <c r="Q55" s="10">
+        <f>P55</f>
+        <v>54</v>
+      </c>
+      <c r="R55" s="8">
+        <f>O55*36</f>
+        <v>108</v>
+      </c>
+      <c r="S55" s="37">
+        <f>R55-Q55</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M56" s="36">
+        <v>2</v>
+      </c>
+      <c r="N56" s="8">
+        <v>18</v>
+      </c>
+      <c r="O56" s="9">
+        <v>6</v>
+      </c>
+      <c r="P56" s="8">
+        <f t="shared" ref="P56:P60" si="40">N56*O56</f>
+        <v>108</v>
+      </c>
+      <c r="Q56" s="10">
+        <f>P56+Q55</f>
+        <v>162</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" ref="R56:R60" si="41">O56*36</f>
+        <v>216</v>
+      </c>
+      <c r="S56" s="38">
+        <f>R56-Q56</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M57" s="36">
+        <v>3</v>
+      </c>
+      <c r="N57" s="8">
+        <v>18</v>
+      </c>
+      <c r="O57" s="9">
+        <v>12</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" si="40"/>
+        <v>216</v>
+      </c>
+      <c r="Q57" s="10">
+        <f t="shared" ref="Q57:Q60" si="42">P57+Q56</f>
+        <v>378</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" si="41"/>
+        <v>432</v>
+      </c>
+      <c r="S57" s="37">
+        <f t="shared" ref="S57:S60" si="43">R57-Q57</f>
+        <v>54</v>
+      </c>
+      <c r="T57" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="U57" s="49"/>
+    </row>
+    <row r="58" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M58" s="36">
+        <v>4</v>
+      </c>
+      <c r="N58" s="8">
+        <v>18</v>
+      </c>
+      <c r="O58" s="9">
+        <v>24</v>
+      </c>
+      <c r="P58" s="8">
+        <f t="shared" si="40"/>
+        <v>432</v>
+      </c>
+      <c r="Q58" s="10">
+        <f t="shared" si="42"/>
+        <v>810</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" si="41"/>
+        <v>864</v>
+      </c>
+      <c r="S58" s="38">
+        <f t="shared" si="43"/>
+        <v>54</v>
+      </c>
+      <c r="T58" s="32">
+        <f>Q60</f>
+        <v>3402</v>
+      </c>
+      <c r="U58" s="30">
+        <f>T58/S60</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M59" s="36">
+        <v>5</v>
+      </c>
+      <c r="N59" s="8">
+        <v>18</v>
+      </c>
+      <c r="O59" s="9">
+        <v>48</v>
+      </c>
+      <c r="P59" s="8">
+        <f t="shared" si="40"/>
+        <v>864</v>
+      </c>
+      <c r="Q59" s="10">
+        <f t="shared" si="42"/>
+        <v>1674</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" si="41"/>
+        <v>1728</v>
+      </c>
+      <c r="S59" s="37">
+        <f t="shared" si="43"/>
+        <v>54</v>
+      </c>
+      <c r="T59" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="U59" s="47"/>
+    </row>
+    <row r="60" spans="2:21" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M60" s="39">
+        <v>6</v>
+      </c>
+      <c r="N60" s="40">
+        <v>18</v>
+      </c>
+      <c r="O60" s="41">
+        <v>96</v>
+      </c>
+      <c r="P60" s="40">
+        <f t="shared" si="40"/>
+        <v>1728</v>
+      </c>
+      <c r="Q60" s="42">
+        <f t="shared" si="42"/>
+        <v>3402</v>
+      </c>
+      <c r="R60" s="40">
+        <f t="shared" si="41"/>
+        <v>3456</v>
+      </c>
+      <c r="S60" s="43">
+        <f t="shared" si="43"/>
+        <v>54</v>
+      </c>
+      <c r="T60" s="33">
+        <f>Q60-Q50</f>
+        <v>2268</v>
+      </c>
+      <c r="U60" s="31">
+        <f>T60/S60</f>
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="M23:S23"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="I1:J1"/>
@@ -9632,21 +9877,6 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="M3:S3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
@@ -9667,7 +9897,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+      <c r="A2" s="62">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -9708,7 +9938,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -9747,7 +9977,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
